--- a/doc/Mapping.xlsx
+++ b/doc/Mapping.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\trest\Documents\solax\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\trest\Source\Repos\HomeAssistant\homeassistant-solax-http\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77E6DF37-CFA1-447F-8611-62151138B96F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58AA8D7D-5A40-438C-BB77-D9CE5524AAFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{E30620CE-52E2-4698-983C-BDD3AD23A8BB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E30620CE-52E2-4698-983C-BDD3AD23A8BB}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="63">
   <si>
     <t>[</t>
   </si>
@@ -174,9 +174,6 @@
     <t>Timezone</t>
   </si>
   <si>
-    <t>Firmware</t>
-  </si>
-  <si>
     <t>Main breaker limit</t>
   </si>
   <si>
@@ -211,6 +208,24 @@
   </si>
   <si>
     <t>!22 - reset charger</t>
+  </si>
+  <si>
+    <t>Slave baud rate</t>
+  </si>
+  <si>
+    <t>LCD language</t>
+  </si>
+  <si>
+    <t>Firmware/ Factory reset</t>
+  </si>
+  <si>
+    <t>/Reset</t>
+  </si>
+  <si>
+    <t>Current limit</t>
+  </si>
+  <si>
+    <t>Scene ??</t>
   </si>
 </sst>
 </file>
@@ -274,9 +289,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motiv Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motiv Office 2013–2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 –⁠ 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -314,7 +329,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 –⁠ 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -420,7 +435,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 –⁠ 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -562,7 +577,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -570,10 +585,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E382A0D-967B-40F4-B1C8-B14BB77D210D}">
-  <dimension ref="A1:K71"/>
+  <dimension ref="A1:L79"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C70" sqref="C70"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="L78" sqref="L78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -583,7 +598,7 @@
     <col min="5" max="5" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>31</v>
       </c>
@@ -597,7 +612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -628,8 +643,11 @@
       <c r="K2">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -660,8 +678,11 @@
       <c r="K3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -692,8 +713,11 @@
       <c r="K4">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -724,8 +748,11 @@
       <c r="K5">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -756,8 +783,11 @@
       <c r="K6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -788,8 +818,11 @@
       <c r="K7">
         <v>265</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L7">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -820,8 +853,11 @@
       <c r="K8">
         <v>160</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L8">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -846,8 +882,11 @@
       <c r="K9">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L9">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -872,8 +911,11 @@
       <c r="K10">
         <v>80</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L10">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -898,8 +940,11 @@
       <c r="K11">
         <v>30</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L11">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -927,8 +972,11 @@
       <c r="K12">
         <v>12000</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L12">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -959,8 +1007,11 @@
       <c r="K13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -991,8 +1042,11 @@
       <c r="K14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1023,8 +1077,11 @@
       <c r="K15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1055,8 +1112,11 @@
       <c r="K16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1087,8 +1147,11 @@
       <c r="K17">
         <v>50</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1113,8 +1176,11 @@
       <c r="K18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1145,16 +1211,19 @@
       <c r="K19">
         <v>44</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L19">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="B20">
         <v>18</v>
       </c>
-      <c r="C20" t="s">
-        <v>46</v>
+      <c r="C20" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="D20">
         <v>70</v>
@@ -1177,16 +1246,19 @@
       <c r="K20">
         <v>50</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L20">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C21" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="D21">
         <v>108</v>
@@ -1209,8 +1281,11 @@
       <c r="K21">
         <v>108</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L21">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1235,11 +1310,17 @@
       <c r="K22">
         <v>101</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L22">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
+      <c r="C23" t="s">
+        <v>58</v>
+      </c>
       <c r="D23">
         <v>0</v>
       </c>
@@ -1261,13 +1342,19 @@
       <c r="K23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>57</v>
+        <v>56</v>
+      </c>
+      <c r="C24" t="s">
+        <v>60</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -1290,8 +1377,11 @@
       <c r="K24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1316,8 +1406,11 @@
       <c r="K25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
@@ -1345,8 +1438,11 @@
       <c r="K26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
@@ -1371,8 +1467,11 @@
       <c r="K27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
@@ -1397,8 +1496,11 @@
       <c r="K28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
@@ -1423,11 +1525,20 @@
       <c r="K29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28</v>
       </c>
+      <c r="B30">
+        <v>28</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="D30">
         <v>0</v>
       </c>
@@ -1449,8 +1560,11 @@
       <c r="K30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>29</v>
       </c>
@@ -1458,7 +1572,7 @@
         <v>34</v>
       </c>
       <c r="C31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -1481,8 +1595,11 @@
       <c r="K31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>30</v>
       </c>
@@ -1490,7 +1607,7 @@
         <v>35</v>
       </c>
       <c r="C32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -1513,8 +1630,11 @@
       <c r="K32">
         <v>12593</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>31</v>
       </c>
@@ -1522,7 +1642,7 @@
         <v>36</v>
       </c>
       <c r="C33" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -1545,8 +1665,11 @@
       <c r="K33">
         <v>12593</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>32</v>
       </c>
@@ -1554,7 +1677,7 @@
         <v>37</v>
       </c>
       <c r="C34" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -1577,8 +1700,11 @@
       <c r="K34">
         <v>12593</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>33</v>
       </c>
@@ -1603,8 +1729,11 @@
       <c r="K35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>34</v>
       </c>
@@ -1629,8 +1758,11 @@
       <c r="K36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>35</v>
       </c>
@@ -1655,8 +1787,11 @@
       <c r="K37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>36</v>
       </c>
@@ -1681,8 +1816,11 @@
       <c r="K38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>37</v>
       </c>
@@ -1707,8 +1845,11 @@
       <c r="K39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>38</v>
       </c>
@@ -1733,8 +1874,11 @@
       <c r="K40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>39</v>
       </c>
@@ -1759,8 +1903,11 @@
       <c r="K41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>40</v>
       </c>
@@ -1785,8 +1932,11 @@
       <c r="K42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>41</v>
       </c>
@@ -1811,8 +1961,11 @@
       <c r="K43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>42</v>
       </c>
@@ -1837,8 +1990,11 @@
       <c r="K44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>43</v>
       </c>
@@ -1863,8 +2019,11 @@
       <c r="K45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>44</v>
       </c>
@@ -1889,8 +2048,11 @@
       <c r="K46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>45</v>
       </c>
@@ -1915,8 +2077,11 @@
       <c r="K47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>46</v>
       </c>
@@ -1941,8 +2106,11 @@
       <c r="K48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>47</v>
       </c>
@@ -1967,8 +2135,11 @@
       <c r="K49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>48</v>
       </c>
@@ -1993,8 +2164,11 @@
       <c r="K50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>49</v>
       </c>
@@ -2019,8 +2193,11 @@
       <c r="K51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>50</v>
       </c>
@@ -2045,8 +2222,11 @@
       <c r="K52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>51</v>
       </c>
@@ -2071,8 +2251,11 @@
       <c r="K53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>52</v>
       </c>
@@ -2097,8 +2280,11 @@
       <c r="K54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>53</v>
       </c>
@@ -2123,8 +2309,11 @@
       <c r="K55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>54</v>
       </c>
@@ -2149,8 +2338,11 @@
       <c r="K56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>55</v>
       </c>
@@ -2175,8 +2367,11 @@
       <c r="K57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>56</v>
       </c>
@@ -2201,8 +2396,11 @@
       <c r="K58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>57</v>
       </c>
@@ -2227,8 +2425,11 @@
       <c r="K59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>58</v>
       </c>
@@ -2253,8 +2454,11 @@
       <c r="K60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>59</v>
       </c>
@@ -2279,8 +2483,11 @@
       <c r="K61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>60</v>
       </c>
@@ -2305,8 +2512,11 @@
       <c r="K62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>61</v>
       </c>
@@ -2331,8 +2541,11 @@
       <c r="K63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>62</v>
       </c>
@@ -2357,8 +2570,11 @@
       <c r="K64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>63</v>
       </c>
@@ -2383,8 +2599,11 @@
       <c r="K65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>64</v>
       </c>
@@ -2409,8 +2628,11 @@
       <c r="K66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>65</v>
       </c>
@@ -2418,7 +2640,7 @@
         <v>70</v>
       </c>
       <c r="C67" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -2441,8 +2663,11 @@
       <c r="K67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>66</v>
       </c>
@@ -2450,7 +2675,7 @@
         <v>71</v>
       </c>
       <c r="C68" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D68">
         <v>4600</v>
@@ -2473,8 +2698,11 @@
       <c r="K68">
         <v>4600</v>
       </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L68">
+        <v>4600</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>67</v>
       </c>
@@ -2482,7 +2710,7 @@
         <v>72</v>
       </c>
       <c r="C69" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -2505,8 +2733,11 @@
       <c r="K69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>68</v>
       </c>
@@ -2514,7 +2745,7 @@
         <v>73</v>
       </c>
       <c r="C70" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D70">
         <v>70</v>
@@ -2537,15 +2768,88 @@
       <c r="K70">
         <v>70</v>
       </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B71" t="s">
-        <v>1</v>
-      </c>
-      <c r="E71" t="s">
-        <v>1</v>
-      </c>
-      <c r="G71" t="s">
+      <c r="L70">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>69</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>70</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>71</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>72</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>73</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>74</v>
+      </c>
+      <c r="C76" t="s">
+        <v>57</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>75</v>
+      </c>
+      <c r="B77">
+        <v>75</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>76</v>
+      </c>
+      <c r="L78">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>77</v>
+      </c>
+      <c r="L79">
         <v>1</v>
       </c>
     </row>
@@ -2556,10 +2860,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA8C0C25-584C-4DB3-91C9-D576A78C1B11}">
-  <dimension ref="A1:O98"/>
+  <dimension ref="A1:P98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2567,12 +2871,12 @@
     <col min="2" max="2" width="19.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2618,8 +2922,11 @@
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2665,8 +2972,11 @@
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2712,8 +3022,11 @@
       <c r="O4">
         <v>23459</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P4">
+        <v>23779</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2759,8 +3072,11 @@
       <c r="O5">
         <v>23518</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P5">
+        <v>23734</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2806,8 +3122,11 @@
       <c r="O6">
         <v>23569</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P6">
+        <v>23716</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2853,8 +3172,11 @@
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2900,8 +3222,11 @@
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2947,8 +3272,11 @@
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -2994,8 +3322,11 @@
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -3041,8 +3372,11 @@
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -3088,8 +3422,11 @@
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -3135,8 +3472,11 @@
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -3182,8 +3522,11 @@
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -3226,8 +3569,11 @@
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -3273,8 +3619,11 @@
       <c r="O16">
         <v>196</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P16">
+        <v>12703</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -3320,8 +3669,11 @@
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -3367,8 +3719,11 @@
       <c r="O18">
         <v>65457</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P18">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -3414,8 +3769,11 @@
       <c r="O19">
         <v>45</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P19">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -3461,8 +3819,11 @@
       <c r="O20">
         <v>65468</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P20">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -3508,8 +3869,11 @@
       <c r="O21">
         <v>65411</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P21">
+        <v>2245</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -3555,8 +3919,11 @@
       <c r="O22">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P22">
+        <v>2278</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
@@ -3602,8 +3969,11 @@
       <c r="O23">
         <v>65531</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P23">
+        <v>2249</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
@@ -3649,8 +4019,11 @@
       <c r="O24">
         <v>65409</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P24">
+        <v>6772</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
@@ -3696,8 +4069,11 @@
       <c r="O25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
@@ -3743,8 +4119,11 @@
       <c r="O26">
         <v>11</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P26">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
@@ -3787,8 +4166,11 @@
       <c r="O27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
@@ -3834,8 +4216,11 @@
       <c r="O28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
@@ -3878,8 +4263,11 @@
       <c r="O29">
         <v>15</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P29">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28</v>
       </c>
@@ -3922,8 +4310,11 @@
       <c r="O30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>29</v>
       </c>
@@ -3966,8 +4357,11 @@
       <c r="O31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>30</v>
       </c>
@@ -4010,8 +4404,11 @@
       <c r="O32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>31</v>
       </c>
@@ -4054,8 +4451,11 @@
       <c r="O33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>32</v>
       </c>
@@ -4098,8 +4498,11 @@
       <c r="O34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>33</v>
       </c>
@@ -4142,8 +4545,11 @@
       <c r="O35">
         <v>4994</v>
       </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P35">
+        <v>4994</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>34</v>
       </c>
@@ -4186,8 +4592,11 @@
       <c r="O36">
         <v>4986</v>
       </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P36">
+        <v>4990</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>35</v>
       </c>
@@ -4230,13 +4639,16 @@
       <c r="O37">
         <v>4998</v>
       </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P37">
+        <v>4998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C38">
         <v>10793</v>
@@ -4277,13 +4689,16 @@
       <c r="O38">
         <v>5153</v>
       </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P38">
+        <v>6422</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C39">
         <v>5141</v>
@@ -4324,13 +4739,16 @@
       <c r="O39">
         <v>5643</v>
       </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P39">
+        <v>6924</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C40">
         <v>5899</v>
@@ -4371,8 +4789,11 @@
       <c r="O40">
         <v>5899</v>
       </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P40">
+        <v>6150</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>39</v>
       </c>
@@ -4415,8 +4836,11 @@
       <c r="O41">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>40</v>
       </c>
@@ -4459,8 +4883,11 @@
       <c r="O42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>41</v>
       </c>
@@ -4503,8 +4930,11 @@
       <c r="O43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>42</v>
       </c>
@@ -4547,8 +4977,11 @@
       <c r="O44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>43</v>
       </c>
@@ -4591,8 +5024,11 @@
       <c r="O45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>44</v>
       </c>
@@ -4635,8 +5071,11 @@
       <c r="O46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>45</v>
       </c>
@@ -4679,8 +5118,11 @@
       <c r="O47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>46</v>
       </c>
@@ -4723,8 +5165,11 @@
       <c r="O48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>47</v>
       </c>
@@ -4767,8 +5212,11 @@
       <c r="O49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>48</v>
       </c>
@@ -4811,8 +5259,11 @@
       <c r="O50">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>49</v>
       </c>
@@ -4855,8 +5306,11 @@
       <c r="O51">
         <v>100</v>
       </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P51">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>50</v>
       </c>
@@ -4899,8 +5353,11 @@
       <c r="O52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>51</v>
       </c>
@@ -4943,8 +5400,11 @@
       <c r="O53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>52</v>
       </c>
@@ -4987,8 +5447,11 @@
       <c r="O54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>53</v>
       </c>
@@ -5031,8 +5494,11 @@
       <c r="O55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>54</v>
       </c>
@@ -5075,8 +5541,11 @@
       <c r="O56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>55</v>
       </c>
@@ -5119,8 +5588,11 @@
       <c r="O57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>56</v>
       </c>
@@ -5163,8 +5635,11 @@
       <c r="O58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>57</v>
       </c>
@@ -5207,8 +5682,11 @@
       <c r="O59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>58</v>
       </c>
@@ -5251,8 +5729,11 @@
       <c r="O60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>59</v>
       </c>
@@ -5295,8 +5776,11 @@
       <c r="O61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>60</v>
       </c>
@@ -5339,8 +5823,11 @@
       <c r="O62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>61</v>
       </c>
@@ -5383,8 +5870,11 @@
       <c r="O63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>62</v>
       </c>
@@ -5427,8 +5917,11 @@
       <c r="O64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>63</v>
       </c>
@@ -5471,8 +5964,11 @@
       <c r="O65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>64</v>
       </c>
@@ -5515,8 +6011,11 @@
       <c r="O66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>65</v>
       </c>
@@ -5559,8 +6058,11 @@
       <c r="O67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>66</v>
       </c>
@@ -5603,8 +6105,11 @@
       <c r="O68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>67</v>
       </c>
@@ -5647,8 +6152,11 @@
       <c r="O69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>68</v>
       </c>
@@ -5691,8 +6199,11 @@
       <c r="O70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>69</v>
       </c>
@@ -5735,8 +6246,11 @@
       <c r="O71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>70</v>
       </c>
@@ -5779,8 +6293,11 @@
       <c r="O72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>71</v>
       </c>
@@ -5823,8 +6340,11 @@
       <c r="O73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>72</v>
       </c>
@@ -5867,8 +6387,11 @@
       <c r="O74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>73</v>
       </c>
@@ -5911,8 +6434,11 @@
       <c r="O75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>74</v>
       </c>
@@ -5955,8 +6481,11 @@
       <c r="O76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>75</v>
       </c>
@@ -5999,8 +6528,11 @@
       <c r="O77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>76</v>
       </c>
@@ -6043,8 +6575,11 @@
       <c r="O78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>77</v>
       </c>
@@ -6087,8 +6622,11 @@
       <c r="O79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>78</v>
       </c>
@@ -6131,8 +6669,11 @@
       <c r="O80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>79</v>
       </c>
@@ -6175,8 +6716,11 @@
       <c r="O81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>80</v>
       </c>
@@ -6222,8 +6766,11 @@
       <c r="O82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>81</v>
       </c>
@@ -6269,8 +6816,11 @@
       <c r="O83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>82</v>
       </c>
@@ -6313,8 +6863,11 @@
       <c r="O84">
         <v>12318</v>
       </c>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P84">
+        <v>13317</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>83</v>
       </c>
@@ -6357,8 +6910,11 @@
       <c r="O85">
         <v>5141</v>
       </c>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P85">
+        <v>6667</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>84</v>
       </c>
@@ -6401,8 +6957,11 @@
       <c r="O86">
         <v>5899</v>
       </c>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P86">
+        <v>6150</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>85</v>
       </c>
@@ -6448,8 +7007,11 @@
       <c r="O87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>86</v>
       </c>
@@ -6492,8 +7054,11 @@
       <c r="O88">
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>87</v>
       </c>
@@ -6539,8 +7104,11 @@
       <c r="O89">
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>88</v>
       </c>
@@ -6586,8 +7154,11 @@
       <c r="O90">
         <v>1</v>
       </c>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>89</v>
       </c>
@@ -6633,8 +7204,11 @@
       <c r="O91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>90</v>
       </c>
@@ -6677,8 +7251,11 @@
       <c r="O92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>91</v>
       </c>
@@ -6721,8 +7298,11 @@
       <c r="O93">
         <v>120</v>
       </c>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P93">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>92</v>
       </c>
@@ -6765,8 +7345,11 @@
       <c r="O94">
         <v>1195</v>
       </c>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P94">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>93</v>
       </c>
@@ -6809,8 +7392,11 @@
       <c r="O95">
         <v>1000</v>
       </c>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P95">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>94</v>
       </c>
@@ -6853,8 +7439,11 @@
       <c r="O96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>95</v>
       </c>
@@ -6897,8 +7486,11 @@
       <c r="O97">
         <v>44</v>
       </c>
-    </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P97">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B98" t="s">
         <v>1</v>
       </c>

--- a/doc/Mapping.xlsx
+++ b/doc/Mapping.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\trest\Source\Repos\HomeAssistant\homeassistant-solax-http\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58AA8D7D-5A40-438C-BB77-D9CE5524AAFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2838EAF1-CCBD-4308-ABA1-3C624A5C1895}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E30620CE-52E2-4698-983C-BDD3AD23A8BB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{E30620CE-52E2-4698-983C-BDD3AD23A8BB}"/>
   </bookViews>
   <sheets>
-    <sheet name="List1" sheetId="1" r:id="rId1"/>
-    <sheet name="List2" sheetId="2" r:id="rId2"/>
+    <sheet name="Settings" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,56 +37,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="71">
   <si>
     <t>[</t>
   </si>
   <si>
-    <t>]</t>
-  </si>
-  <si>
     <t>State</t>
   </si>
   <si>
     <t>Mode</t>
   </si>
   <si>
-    <t>EQ Single</t>
-  </si>
-  <si>
-    <t>EQ Total</t>
-  </si>
-  <si>
     <t>Charge P</t>
   </si>
   <si>
-    <t>V1</t>
-  </si>
-  <si>
-    <t>V2</t>
-  </si>
-  <si>
-    <t>V3</t>
-  </si>
-  <si>
-    <t>A1</t>
-  </si>
-  <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>A3</t>
-  </si>
-  <si>
-    <t>P1</t>
-  </si>
-  <si>
-    <t>P2</t>
-  </si>
-  <si>
-    <t>P3</t>
-  </si>
-  <si>
     <t>EA1</t>
   </si>
   <si>
@@ -105,9 +69,6 @@
     <t>EP3</t>
   </si>
   <si>
-    <t>EP</t>
-  </si>
-  <si>
     <t>T Plug</t>
   </si>
   <si>
@@ -226,6 +187,69 @@
   </si>
   <si>
     <t>Scene ??</t>
+  </si>
+  <si>
+    <t>EVC11-X3</t>
+  </si>
+  <si>
+    <t>X3-HAC-11-P</t>
+  </si>
+  <si>
+    <t>X3 HAC 22P</t>
+  </si>
+  <si>
+    <t>Charge U1</t>
+  </si>
+  <si>
+    <t>Charge U2</t>
+  </si>
+  <si>
+    <t>Charge U3</t>
+  </si>
+  <si>
+    <t>Charge I1</t>
+  </si>
+  <si>
+    <t>Charge I2</t>
+  </si>
+  <si>
+    <t>Charge I3</t>
+  </si>
+  <si>
+    <t>Charge P1</t>
+  </si>
+  <si>
+    <t>Charge P2</t>
+  </si>
+  <si>
+    <t>Charge P3</t>
+  </si>
+  <si>
+    <t>E Actual Charge</t>
+  </si>
+  <si>
+    <t>E Total Charged L</t>
+  </si>
+  <si>
+    <t>E Total Charged H</t>
+  </si>
+  <si>
+    <t>Exces power</t>
+  </si>
+  <si>
+    <t>Freq L1</t>
+  </si>
+  <si>
+    <t>Freq L2</t>
+  </si>
+  <si>
+    <t>Freq L3</t>
+  </si>
+  <si>
+    <t>Min/Sec Last charge start</t>
+  </si>
+  <si>
+    <t>Something with PV??</t>
   </si>
 </sst>
 </file>
@@ -268,9 +292,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
@@ -587,8 +614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E382A0D-967B-40F4-B1C8-B14BB77D210D}">
   <dimension ref="A1:L79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="L78" sqref="L78"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -600,10 +627,10 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
@@ -620,7 +647,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -655,7 +682,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -690,7 +717,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="D4">
         <v>6</v>
@@ -725,7 +752,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="D5">
         <v>6</v>
@@ -760,7 +787,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -795,7 +822,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="D7">
         <v>265</v>
@@ -830,7 +857,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="D8">
         <v>160</v>
@@ -984,7 +1011,7 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -1019,7 +1046,7 @@
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -1054,7 +1081,7 @@
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -1089,7 +1116,7 @@
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -1124,7 +1151,7 @@
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -1188,7 +1215,7 @@
         <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="D19">
         <v>44</v>
@@ -1223,7 +1250,7 @@
         <v>18</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="D20">
         <v>70</v>
@@ -1255,10 +1282,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" t="s">
         <v>46</v>
-      </c>
-      <c r="C21" t="s">
-        <v>59</v>
       </c>
       <c r="D21">
         <v>108</v>
@@ -1319,7 +1346,7 @@
         <v>21</v>
       </c>
       <c r="C23" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -1351,10 +1378,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C24" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -1537,7 +1564,7 @@
         <v>28</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -1572,7 +1599,7 @@
         <v>34</v>
       </c>
       <c r="C31" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -1607,7 +1634,7 @@
         <v>35</v>
       </c>
       <c r="C32" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -1642,7 +1669,7 @@
         <v>36</v>
       </c>
       <c r="C33" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -1677,7 +1704,7 @@
         <v>37</v>
       </c>
       <c r="C34" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -2640,7 +2667,7 @@
         <v>70</v>
       </c>
       <c r="C67" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -2675,7 +2702,7 @@
         <v>71</v>
       </c>
       <c r="C68" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="D68">
         <v>4600</v>
@@ -2710,7 +2737,7 @@
         <v>72</v>
       </c>
       <c r="C69" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -2745,7 +2772,7 @@
         <v>73</v>
       </c>
       <c r="C70" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="D70">
         <v>70</v>
@@ -2817,7 +2844,7 @@
         <v>74</v>
       </c>
       <c r="C76" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="L76">
         <v>0</v>
@@ -2831,7 +2858,7 @@
         <v>75</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="L77">
         <v>0</v>
@@ -2860,328 +2887,189 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA8C0C25-584C-4DB3-91C9-D576A78C1B11}">
-  <dimension ref="A1:P98"/>
+  <dimension ref="A1:J107"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="19.77734375" customWidth="1"/>
+    <col min="2" max="2" width="28.6640625" customWidth="1"/>
+    <col min="8" max="8" width="10.77734375" customWidth="1"/>
+    <col min="10" max="10" width="15.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="2"/>
+      <c r="H1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F2">
-        <v>2</v>
-      </c>
-      <c r="G2">
-        <v>2</v>
-      </c>
-      <c r="H2">
-        <v>2</v>
-      </c>
-      <c r="I2">
-        <v>2</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="C4">
-        <v>23128</v>
+        <v>23488</v>
       </c>
       <c r="D4">
-        <v>23187</v>
+        <v>23459</v>
       </c>
       <c r="E4">
-        <v>23530</v>
+        <v>23779</v>
       </c>
       <c r="F4">
-        <v>23723</v>
-      </c>
-      <c r="G4">
-        <v>23358</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>23413</v>
-      </c>
-      <c r="I4">
-        <v>23470</v>
-      </c>
-      <c r="J4">
-        <v>23432</v>
-      </c>
-      <c r="K4">
-        <v>23487</v>
-      </c>
-      <c r="L4">
-        <v>23461</v>
-      </c>
-      <c r="M4">
-        <v>23485</v>
-      </c>
-      <c r="N4">
-        <v>23488</v>
-      </c>
-      <c r="O4">
-        <v>23459</v>
-      </c>
-      <c r="P4">
-        <v>23779</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="C5">
-        <v>23660</v>
+        <v>23535</v>
       </c>
       <c r="D5">
-        <v>23688</v>
+        <v>23518</v>
       </c>
       <c r="E5">
-        <v>23573</v>
+        <v>23734</v>
       </c>
       <c r="F5">
-        <v>23734</v>
-      </c>
-      <c r="G5">
-        <v>23834</v>
+        <v>22669</v>
       </c>
       <c r="H5">
-        <v>23853</v>
-      </c>
-      <c r="I5">
-        <v>23904</v>
-      </c>
-      <c r="J5">
-        <v>23493</v>
-      </c>
-      <c r="K5">
-        <v>23544</v>
-      </c>
-      <c r="L5">
-        <v>23510</v>
-      </c>
-      <c r="M5">
-        <v>23522</v>
-      </c>
-      <c r="N5">
-        <v>23535</v>
-      </c>
-      <c r="O5">
-        <v>23518</v>
-      </c>
-      <c r="P5">
-        <v>23734</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+        <v>23382</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="C6">
-        <v>23543</v>
+        <v>23606</v>
       </c>
       <c r="D6">
-        <v>23589</v>
+        <v>23569</v>
       </c>
       <c r="E6">
-        <v>23525</v>
+        <v>23716</v>
       </c>
       <c r="F6">
-        <v>23704</v>
-      </c>
-      <c r="G6">
-        <v>23737</v>
+        <v>22239</v>
       </c>
       <c r="H6">
-        <v>23758</v>
-      </c>
-      <c r="I6">
-        <v>23866</v>
-      </c>
-      <c r="J6">
-        <v>23536</v>
-      </c>
-      <c r="K6">
-        <v>23570</v>
-      </c>
-      <c r="L6">
-        <v>23561</v>
-      </c>
-      <c r="M6">
-        <v>23565</v>
-      </c>
-      <c r="N6">
-        <v>23606</v>
-      </c>
-      <c r="O6">
-        <v>23569</v>
-      </c>
-      <c r="P6">
-        <v>23716</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+        <v>23225</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="C7">
-        <v>1544</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>1550</v>
+        <v>0</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>73</v>
-      </c>
-      <c r="G7">
-        <v>1547</v>
+        <v>23054</v>
       </c>
       <c r="H7">
-        <v>1545</v>
-      </c>
-      <c r="I7">
-        <v>1551</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+        <v>23300</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -3195,43 +3083,19 @@
       <c r="F8">
         <v>0</v>
       </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
       <c r="H8">
         <v>0</v>
       </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="J8" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -3245,93 +3109,45 @@
       <c r="F9">
         <v>0</v>
       </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
       <c r="H9">
         <v>0</v>
       </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="J9" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="C10">
-        <v>3577</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>3600</v>
+        <v>0</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>6</v>
-      </c>
-      <c r="G10">
-        <v>3617</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>3622</v>
-      </c>
-      <c r="I10">
-        <v>3645</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -3345,43 +3161,19 @@
       <c r="F11">
         <v>0</v>
       </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
       <c r="H11">
         <v>0</v>
       </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="J11" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -3395,138 +3187,66 @@
       <c r="F12">
         <v>0</v>
       </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
       <c r="H12">
         <v>0</v>
       </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="J12" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C13">
-        <v>3577</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>3601</v>
+        <v>0</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>11</v>
-      </c>
-      <c r="G13">
-        <v>3617</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>3623</v>
-      </c>
-      <c r="I13">
-        <v>3647</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>4</v>
+        <v>62</v>
       </c>
       <c r="C14">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>2</v>
-      </c>
-      <c r="G14">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>13</v>
-      </c>
-      <c r="I14">
-        <v>32</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -3542,93 +3262,39 @@
       <c r="F15">
         <v>0</v>
       </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
       <c r="H15">
         <v>0</v>
       </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="1">
-        <v>69</v>
-      </c>
-      <c r="D16" s="1">
-        <v>72</v>
+        <v>63</v>
+      </c>
+      <c r="C16">
+        <v>196</v>
+      </c>
+      <c r="D16">
+        <v>196</v>
       </c>
       <c r="E16">
-        <v>74</v>
+        <v>12703</v>
       </c>
       <c r="F16">
-        <v>74</v>
-      </c>
-      <c r="G16">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>85</v>
-      </c>
-      <c r="I16">
-        <v>104</v>
-      </c>
-      <c r="J16">
-        <v>196</v>
-      </c>
-      <c r="K16">
-        <v>196</v>
-      </c>
-      <c r="L16">
-        <v>196</v>
-      </c>
-      <c r="M16">
-        <v>196</v>
-      </c>
-      <c r="N16">
-        <v>196</v>
-      </c>
-      <c r="O16">
-        <v>196</v>
-      </c>
-      <c r="P16">
-        <v>12703</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -3640,395 +3306,185 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C18">
-        <v>63921</v>
+        <v>65454</v>
       </c>
       <c r="D18">
-        <v>63910</v>
+        <v>65457</v>
       </c>
       <c r="E18">
-        <v>65453</v>
+        <v>969</v>
       </c>
       <c r="F18">
-        <v>65387</v>
-      </c>
-      <c r="G18">
-        <v>63928</v>
+        <v>0</v>
       </c>
       <c r="H18">
-        <v>63905</v>
-      </c>
-      <c r="I18">
-        <v>63948</v>
-      </c>
-      <c r="J18">
-        <v>65452</v>
-      </c>
-      <c r="K18">
-        <v>65434</v>
-      </c>
-      <c r="L18">
-        <v>65461</v>
-      </c>
-      <c r="M18">
-        <v>65445</v>
-      </c>
-      <c r="N18">
-        <v>65454</v>
-      </c>
-      <c r="O18">
-        <v>65457</v>
-      </c>
-      <c r="P18">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C19">
-        <v>65458</v>
+        <v>45</v>
       </c>
       <c r="D19">
-        <v>65452</v>
+        <v>45</v>
       </c>
       <c r="E19">
-        <v>65457</v>
+        <v>969</v>
       </c>
       <c r="F19">
-        <v>65460</v>
-      </c>
-      <c r="G19">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="H19">
-        <v>65453</v>
-      </c>
-      <c r="I19">
-        <v>65458</v>
-      </c>
-      <c r="J19">
-        <v>65492</v>
-      </c>
-      <c r="K19">
-        <v>44</v>
-      </c>
-      <c r="L19">
-        <v>44</v>
-      </c>
-      <c r="M19">
-        <v>45</v>
-      </c>
-      <c r="N19">
-        <v>45</v>
-      </c>
-      <c r="O19">
-        <v>45</v>
-      </c>
-      <c r="P19">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C20">
-        <v>65435</v>
+        <v>65470</v>
       </c>
       <c r="D20">
-        <v>65434</v>
+        <v>65468</v>
       </c>
       <c r="E20">
-        <v>97</v>
+        <v>947</v>
       </c>
       <c r="F20">
-        <v>99</v>
-      </c>
-      <c r="G20">
-        <v>65436</v>
+        <v>19</v>
       </c>
       <c r="H20">
-        <v>65435</v>
-      </c>
-      <c r="I20">
-        <v>65435</v>
-      </c>
-      <c r="J20">
-        <v>65467</v>
-      </c>
-      <c r="K20">
-        <v>67</v>
-      </c>
-      <c r="L20">
-        <v>65467</v>
-      </c>
-      <c r="M20">
-        <v>65468</v>
-      </c>
-      <c r="N20">
-        <v>65470</v>
-      </c>
-      <c r="O20">
-        <v>65468</v>
-      </c>
-      <c r="P20">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+        <v>65527</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C21">
-        <v>61937</v>
+        <v>65407</v>
       </c>
       <c r="D21">
-        <v>61878</v>
+        <v>65411</v>
       </c>
       <c r="E21">
-        <v>65483</v>
+        <v>2245</v>
       </c>
       <c r="F21">
-        <v>65491</v>
-      </c>
-      <c r="G21">
-        <v>61942</v>
+        <v>65518</v>
       </c>
       <c r="H21">
-        <v>61883</v>
-      </c>
-      <c r="I21">
-        <v>61912</v>
-      </c>
-      <c r="J21">
-        <v>65391</v>
-      </c>
-      <c r="K21">
-        <v>65425</v>
-      </c>
-      <c r="L21">
-        <v>65429</v>
-      </c>
-      <c r="M21">
-        <v>65404</v>
-      </c>
-      <c r="N21">
-        <v>65407</v>
-      </c>
-      <c r="O21">
-        <v>65411</v>
-      </c>
-      <c r="P21">
-        <v>2245</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+        <v>65528</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C22">
-        <v>65526</v>
+        <v>3</v>
       </c>
       <c r="D22">
-        <v>65529</v>
+        <v>3</v>
       </c>
       <c r="E22">
-        <v>65525</v>
+        <v>2278</v>
       </c>
       <c r="F22">
-        <v>65524</v>
-      </c>
-      <c r="G22">
-        <v>65524</v>
+        <v>1</v>
       </c>
       <c r="H22">
-        <v>65528</v>
-      </c>
-      <c r="I22">
-        <v>65526</v>
-      </c>
-      <c r="J22">
-        <v>2</v>
-      </c>
-      <c r="K22">
-        <v>2</v>
-      </c>
-      <c r="L22">
-        <v>13</v>
-      </c>
-      <c r="M22">
-        <v>5</v>
-      </c>
-      <c r="N22">
-        <v>3</v>
-      </c>
-      <c r="O22">
-        <v>3</v>
-      </c>
-      <c r="P22">
-        <v>2278</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+        <v>65534</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C23">
-        <v>65530</v>
+        <v>65521</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>65531</v>
       </c>
       <c r="E23">
-        <v>65531</v>
+        <v>2249</v>
       </c>
       <c r="F23">
-        <v>65526</v>
-      </c>
-      <c r="G23">
-        <v>65533</v>
+        <v>63817</v>
       </c>
       <c r="H23">
-        <v>65527</v>
-      </c>
-      <c r="I23">
-        <v>65532</v>
-      </c>
-      <c r="J23">
-        <v>65514</v>
-      </c>
-      <c r="K23">
-        <v>65522</v>
-      </c>
-      <c r="L23">
-        <v>65504</v>
-      </c>
-      <c r="M23">
-        <v>65525</v>
-      </c>
-      <c r="N23">
-        <v>65521</v>
-      </c>
-      <c r="O23">
-        <v>65531</v>
-      </c>
-      <c r="P23">
-        <v>2249</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+        <v>65535</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="C24">
-        <v>61921</v>
+        <v>65395</v>
       </c>
       <c r="D24">
-        <v>61871</v>
+        <v>65409</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>6772</v>
       </c>
       <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <v>61927</v>
+        <v>6</v>
       </c>
       <c r="H24">
-        <v>61866</v>
-      </c>
-      <c r="I24">
-        <v>61898</v>
-      </c>
-      <c r="J24">
-        <v>65371</v>
-      </c>
-      <c r="K24">
-        <v>65413</v>
-      </c>
-      <c r="L24">
-        <v>65410</v>
-      </c>
-      <c r="M24">
-        <v>65398</v>
-      </c>
-      <c r="N24">
-        <v>65395</v>
-      </c>
-      <c r="O24">
-        <v>65409</v>
-      </c>
-      <c r="P24">
-        <v>6772</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+        <v>65535</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -4040,90 +3496,39 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
+        <v>63289</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25">
-        <v>0</v>
-      </c>
-      <c r="M25">
-        <v>0</v>
-      </c>
-      <c r="N25">
-        <v>0</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="C26">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D26">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E26">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="F26">
-        <v>19</v>
-      </c>
-      <c r="G26">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H26">
-        <v>19</v>
-      </c>
-      <c r="I26">
-        <v>20</v>
-      </c>
-      <c r="J26">
+        <v>15</v>
+      </c>
+      <c r="J26" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K26">
-        <v>11</v>
-      </c>
-      <c r="L26">
-        <v>10</v>
-      </c>
-      <c r="M26">
-        <v>11</v>
-      </c>
-      <c r="N26">
-        <v>11</v>
-      </c>
-      <c r="O26">
-        <v>11</v>
-      </c>
-      <c r="P26">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
@@ -4137,90 +3542,39 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>0</v>
-      </c>
-      <c r="G27">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H27">
-        <v>0</v>
-      </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-      <c r="L27">
-        <v>0</v>
-      </c>
-      <c r="M27">
-        <v>0</v>
-      </c>
-      <c r="N27">
-        <v>0</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>2</v>
-      </c>
-      <c r="G28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H28">
-        <v>2</v>
-      </c>
-      <c r="I28">
-        <v>2</v>
-      </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
-      <c r="L28">
-        <v>0</v>
-      </c>
-      <c r="M28">
-        <v>0</v>
-      </c>
-      <c r="N28">
-        <v>0</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
@@ -4234,40 +3588,13 @@
         <v>15</v>
       </c>
       <c r="F29">
-        <v>15</v>
-      </c>
-      <c r="G29">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="H29">
-        <v>15</v>
-      </c>
-      <c r="I29">
-        <v>15</v>
-      </c>
-      <c r="J29">
-        <v>15</v>
-      </c>
-      <c r="K29">
-        <v>15</v>
-      </c>
-      <c r="L29">
-        <v>15</v>
-      </c>
-      <c r="M29">
-        <v>15</v>
-      </c>
-      <c r="N29">
-        <v>15</v>
-      </c>
-      <c r="O29">
-        <v>15</v>
-      </c>
-      <c r="P29">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28</v>
       </c>
@@ -4283,38 +3610,11 @@
       <c r="F30">
         <v>0</v>
       </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
       <c r="H30">
         <v>0</v>
       </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
-      <c r="K30">
-        <v>0</v>
-      </c>
-      <c r="L30">
-        <v>0</v>
-      </c>
-      <c r="M30">
-        <v>0</v>
-      </c>
-      <c r="N30">
-        <v>0</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>29</v>
       </c>
@@ -4330,38 +3630,11 @@
       <c r="F31">
         <v>0</v>
       </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
       <c r="H31">
         <v>0</v>
       </c>
-      <c r="I31">
-        <v>0</v>
-      </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
-      <c r="K31">
-        <v>0</v>
-      </c>
-      <c r="L31">
-        <v>0</v>
-      </c>
-      <c r="M31">
-        <v>0</v>
-      </c>
-      <c r="N31">
-        <v>0</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>30</v>
       </c>
@@ -4377,38 +3650,11 @@
       <c r="F32">
         <v>0</v>
       </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
       <c r="H32">
         <v>0</v>
       </c>
-      <c r="I32">
-        <v>0</v>
-      </c>
-      <c r="J32">
-        <v>0</v>
-      </c>
-      <c r="K32">
-        <v>0</v>
-      </c>
-      <c r="L32">
-        <v>0</v>
-      </c>
-      <c r="M32">
-        <v>0</v>
-      </c>
-      <c r="N32">
-        <v>0</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>31</v>
       </c>
@@ -4424,38 +3670,11 @@
       <c r="F33">
         <v>0</v>
       </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
       <c r="H33">
         <v>0</v>
       </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
-      <c r="J33">
-        <v>0</v>
-      </c>
-      <c r="K33">
-        <v>0</v>
-      </c>
-      <c r="L33">
-        <v>0</v>
-      </c>
-      <c r="M33">
-        <v>0</v>
-      </c>
-      <c r="N33">
-        <v>0</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="P33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>32</v>
       </c>
@@ -4471,41 +3690,17 @@
       <c r="F34">
         <v>0</v>
       </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
       <c r="H34">
         <v>0</v>
       </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
-      <c r="J34">
-        <v>0</v>
-      </c>
-      <c r="K34">
-        <v>0</v>
-      </c>
-      <c r="L34">
-        <v>0</v>
-      </c>
-      <c r="M34">
-        <v>0</v>
-      </c>
-      <c r="N34">
-        <v>0</v>
-      </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
-      <c r="P34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>33</v>
       </c>
+      <c r="B35" t="s">
+        <v>66</v>
+      </c>
       <c r="C35">
         <v>4992</v>
       </c>
@@ -4513,242 +3708,128 @@
         <v>4994</v>
       </c>
       <c r="E35">
-        <v>4998</v>
+        <v>4994</v>
       </c>
       <c r="F35">
-        <v>4992</v>
-      </c>
-      <c r="G35">
-        <v>4992</v>
+        <v>4982</v>
       </c>
       <c r="H35">
-        <v>4992</v>
-      </c>
-      <c r="I35">
-        <v>4996</v>
-      </c>
-      <c r="J35">
-        <v>4994</v>
-      </c>
-      <c r="K35">
-        <v>4994</v>
-      </c>
-      <c r="L35">
-        <v>4994</v>
-      </c>
-      <c r="M35">
-        <v>4990</v>
-      </c>
-      <c r="N35">
-        <v>4992</v>
-      </c>
-      <c r="O35">
-        <v>4994</v>
-      </c>
-      <c r="P35">
-        <v>4994</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+        <v>4984</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>34</v>
       </c>
+      <c r="B36" t="s">
+        <v>67</v>
+      </c>
       <c r="C36">
-        <v>4986</v>
+        <v>4984</v>
       </c>
       <c r="D36">
         <v>4986</v>
       </c>
       <c r="E36">
-        <v>4992</v>
+        <v>4990</v>
       </c>
       <c r="F36">
         <v>4982</v>
       </c>
-      <c r="G36">
-        <v>4986</v>
-      </c>
       <c r="H36">
-        <v>4986</v>
-      </c>
-      <c r="I36">
         <v>4988</v>
       </c>
-      <c r="J36">
-        <v>4986</v>
-      </c>
-      <c r="K36">
-        <v>4984</v>
-      </c>
-      <c r="L36">
-        <v>4986</v>
-      </c>
-      <c r="M36">
-        <v>4980</v>
-      </c>
-      <c r="N36">
-        <v>4984</v>
-      </c>
-      <c r="O36">
-        <v>4986</v>
-      </c>
-      <c r="P36">
-        <v>4990</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="J36" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>35</v>
       </c>
+      <c r="B37" t="s">
+        <v>68</v>
+      </c>
       <c r="C37">
-        <v>4998</v>
+        <v>4996</v>
       </c>
       <c r="D37">
         <v>4998</v>
       </c>
       <c r="E37">
-        <v>5000</v>
+        <v>4998</v>
       </c>
       <c r="F37">
-        <v>4994</v>
-      </c>
-      <c r="G37">
-        <v>4996</v>
+        <v>4982</v>
       </c>
       <c r="H37">
-        <v>4996</v>
-      </c>
-      <c r="I37">
-        <v>4998</v>
-      </c>
-      <c r="J37">
-        <v>4998</v>
-      </c>
-      <c r="K37">
-        <v>4998</v>
-      </c>
-      <c r="L37">
-        <v>4996</v>
-      </c>
-      <c r="M37">
-        <v>4994</v>
-      </c>
-      <c r="N37">
-        <v>4996</v>
-      </c>
-      <c r="O37">
-        <v>4998</v>
-      </c>
-      <c r="P37">
-        <v>4998</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+        <v>4984</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="C38">
-        <v>10793</v>
+        <v>549</v>
       </c>
       <c r="D38">
-        <v>12555</v>
+        <v>5153</v>
       </c>
       <c r="E38">
-        <v>13869</v>
+        <v>6422</v>
       </c>
       <c r="F38">
-        <v>1538</v>
-      </c>
-      <c r="G38">
-        <v>4402</v>
+        <v>265</v>
       </c>
       <c r="H38">
-        <v>6180</v>
-      </c>
-      <c r="I38">
-        <v>14390</v>
-      </c>
-      <c r="J38">
-        <v>13835</v>
-      </c>
-      <c r="K38">
-        <v>14649</v>
-      </c>
-      <c r="L38">
-        <v>15138</v>
-      </c>
-      <c r="M38">
-        <v>56</v>
-      </c>
-      <c r="N38">
-        <v>549</v>
-      </c>
-      <c r="O38">
-        <v>5153</v>
-      </c>
-      <c r="P38">
-        <v>6422</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+        <v>13074</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="C39">
-        <v>5141</v>
+        <v>5643</v>
       </c>
       <c r="D39">
-        <v>5141</v>
+        <v>5643</v>
       </c>
       <c r="E39">
-        <v>5141</v>
+        <v>6924</v>
       </c>
       <c r="F39">
-        <v>5142</v>
-      </c>
-      <c r="G39">
-        <v>5142</v>
+        <v>2061</v>
       </c>
       <c r="H39">
-        <v>5142</v>
-      </c>
-      <c r="I39">
-        <v>5142</v>
-      </c>
-      <c r="J39">
-        <v>5642</v>
-      </c>
-      <c r="K39">
-        <v>5642</v>
-      </c>
-      <c r="L39">
-        <v>5642</v>
-      </c>
-      <c r="M39">
-        <v>5643</v>
-      </c>
-      <c r="N39">
-        <v>5643</v>
-      </c>
-      <c r="O39">
-        <v>5643</v>
-      </c>
-      <c r="P39">
-        <v>6924</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+        <v>1810</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="C40">
         <v>5899</v>
@@ -4757,90 +3838,40 @@
         <v>5899</v>
       </c>
       <c r="E40">
-        <v>5899</v>
+        <v>6150</v>
       </c>
       <c r="F40">
-        <v>5899</v>
-      </c>
-      <c r="G40">
-        <v>5899</v>
+        <v>6156</v>
       </c>
       <c r="H40">
-        <v>5899</v>
-      </c>
-      <c r="I40">
-        <v>5899</v>
-      </c>
-      <c r="J40">
-        <v>5899</v>
-      </c>
-      <c r="K40">
-        <v>5899</v>
-      </c>
-      <c r="L40">
-        <v>5899</v>
-      </c>
-      <c r="M40">
-        <v>5899</v>
-      </c>
-      <c r="N40">
-        <v>5899</v>
-      </c>
-      <c r="O40">
-        <v>5899</v>
-      </c>
-      <c r="P40">
-        <v>6150</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+        <v>6155</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>39</v>
       </c>
+      <c r="B41" s="1"/>
       <c r="C41">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D41">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E41">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F41">
-        <v>1</v>
-      </c>
-      <c r="G41">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H41">
-        <v>1</v>
-      </c>
-      <c r="I41">
-        <v>1</v>
-      </c>
-      <c r="J41">
-        <v>3</v>
-      </c>
-      <c r="K41">
-        <v>3</v>
-      </c>
-      <c r="L41">
-        <v>3</v>
-      </c>
-      <c r="M41">
-        <v>3</v>
-      </c>
-      <c r="N41">
-        <v>3</v>
-      </c>
-      <c r="O41">
-        <v>3</v>
-      </c>
-      <c r="P41">
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>40</v>
       </c>
@@ -4856,38 +3887,11 @@
       <c r="F42">
         <v>0</v>
       </c>
-      <c r="G42">
-        <v>0</v>
-      </c>
       <c r="H42">
         <v>0</v>
       </c>
-      <c r="I42">
-        <v>0</v>
-      </c>
-      <c r="J42">
-        <v>0</v>
-      </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
-        <v>0</v>
-      </c>
-      <c r="O42">
-        <v>0</v>
-      </c>
-      <c r="P42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>41</v>
       </c>
@@ -4903,38 +3907,11 @@
       <c r="F43">
         <v>0</v>
       </c>
-      <c r="G43">
-        <v>0</v>
-      </c>
       <c r="H43">
         <v>0</v>
       </c>
-      <c r="I43">
-        <v>0</v>
-      </c>
-      <c r="J43">
-        <v>0</v>
-      </c>
-      <c r="K43">
-        <v>0</v>
-      </c>
-      <c r="L43">
-        <v>0</v>
-      </c>
-      <c r="M43">
-        <v>0</v>
-      </c>
-      <c r="N43">
-        <v>0</v>
-      </c>
-      <c r="O43">
-        <v>0</v>
-      </c>
-      <c r="P43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>42</v>
       </c>
@@ -4950,38 +3927,11 @@
       <c r="F44">
         <v>0</v>
       </c>
-      <c r="G44">
-        <v>0</v>
-      </c>
       <c r="H44">
         <v>0</v>
       </c>
-      <c r="I44">
-        <v>0</v>
-      </c>
-      <c r="J44">
-        <v>0</v>
-      </c>
-      <c r="K44">
-        <v>0</v>
-      </c>
-      <c r="L44">
-        <v>0</v>
-      </c>
-      <c r="M44">
-        <v>0</v>
-      </c>
-      <c r="N44">
-        <v>0</v>
-      </c>
-      <c r="O44">
-        <v>0</v>
-      </c>
-      <c r="P44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>43</v>
       </c>
@@ -4997,38 +3947,11 @@
       <c r="F45">
         <v>0</v>
       </c>
-      <c r="G45">
-        <v>0</v>
-      </c>
       <c r="H45">
         <v>0</v>
       </c>
-      <c r="I45">
-        <v>0</v>
-      </c>
-      <c r="J45">
-        <v>0</v>
-      </c>
-      <c r="K45">
-        <v>0</v>
-      </c>
-      <c r="L45">
-        <v>0</v>
-      </c>
-      <c r="M45">
-        <v>0</v>
-      </c>
-      <c r="N45">
-        <v>0</v>
-      </c>
-      <c r="O45">
-        <v>0</v>
-      </c>
-      <c r="P45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>44</v>
       </c>
@@ -5044,38 +3967,11 @@
       <c r="F46">
         <v>0</v>
       </c>
-      <c r="G46">
-        <v>0</v>
-      </c>
       <c r="H46">
         <v>0</v>
       </c>
-      <c r="I46">
-        <v>0</v>
-      </c>
-      <c r="J46">
-        <v>0</v>
-      </c>
-      <c r="K46">
-        <v>0</v>
-      </c>
-      <c r="L46">
-        <v>0</v>
-      </c>
-      <c r="M46">
-        <v>0</v>
-      </c>
-      <c r="N46">
-        <v>0</v>
-      </c>
-      <c r="O46">
-        <v>0</v>
-      </c>
-      <c r="P46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>45</v>
       </c>
@@ -5091,38 +3987,11 @@
       <c r="F47">
         <v>0</v>
       </c>
-      <c r="G47">
-        <v>0</v>
-      </c>
       <c r="H47">
         <v>0</v>
       </c>
-      <c r="I47">
-        <v>0</v>
-      </c>
-      <c r="J47">
-        <v>0</v>
-      </c>
-      <c r="K47">
-        <v>0</v>
-      </c>
-      <c r="L47">
-        <v>0</v>
-      </c>
-      <c r="M47">
-        <v>0</v>
-      </c>
-      <c r="N47">
-        <v>0</v>
-      </c>
-      <c r="O47">
-        <v>0</v>
-      </c>
-      <c r="P47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>46</v>
       </c>
@@ -5138,38 +4007,11 @@
       <c r="F48">
         <v>0</v>
       </c>
-      <c r="G48">
-        <v>0</v>
-      </c>
       <c r="H48">
         <v>0</v>
       </c>
-      <c r="I48">
-        <v>0</v>
-      </c>
-      <c r="J48">
-        <v>0</v>
-      </c>
-      <c r="K48">
-        <v>0</v>
-      </c>
-      <c r="L48">
-        <v>0</v>
-      </c>
-      <c r="M48">
-        <v>0</v>
-      </c>
-      <c r="N48">
-        <v>0</v>
-      </c>
-      <c r="O48">
-        <v>0</v>
-      </c>
-      <c r="P48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>47</v>
       </c>
@@ -5185,38 +4027,11 @@
       <c r="F49">
         <v>0</v>
       </c>
-      <c r="G49">
-        <v>0</v>
-      </c>
       <c r="H49">
         <v>0</v>
       </c>
-      <c r="I49">
-        <v>0</v>
-      </c>
-      <c r="J49">
-        <v>0</v>
-      </c>
-      <c r="K49">
-        <v>0</v>
-      </c>
-      <c r="L49">
-        <v>0</v>
-      </c>
-      <c r="M49">
-        <v>0</v>
-      </c>
-      <c r="N49">
-        <v>0</v>
-      </c>
-      <c r="O49">
-        <v>0</v>
-      </c>
-      <c r="P49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>48</v>
       </c>
@@ -5232,38 +4047,11 @@
       <c r="F50">
         <v>1</v>
       </c>
-      <c r="G50">
-        <v>1</v>
-      </c>
       <c r="H50">
         <v>1</v>
       </c>
-      <c r="I50">
-        <v>1</v>
-      </c>
-      <c r="J50">
-        <v>1</v>
-      </c>
-      <c r="K50">
-        <v>1</v>
-      </c>
-      <c r="L50">
-        <v>1</v>
-      </c>
-      <c r="M50">
-        <v>1</v>
-      </c>
-      <c r="N50">
-        <v>1</v>
-      </c>
-      <c r="O50">
-        <v>1</v>
-      </c>
-      <c r="P50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>49</v>
       </c>
@@ -5277,40 +4065,13 @@
         <v>100</v>
       </c>
       <c r="F51">
-        <v>100</v>
-      </c>
-      <c r="G51">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="H51">
-        <v>100</v>
-      </c>
-      <c r="I51">
-        <v>100</v>
-      </c>
-      <c r="J51">
-        <v>100</v>
-      </c>
-      <c r="K51">
-        <v>100</v>
-      </c>
-      <c r="L51">
-        <v>100</v>
-      </c>
-      <c r="M51">
-        <v>100</v>
-      </c>
-      <c r="N51">
-        <v>100</v>
-      </c>
-      <c r="O51">
-        <v>100</v>
-      </c>
-      <c r="P51">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>50</v>
       </c>
@@ -5326,38 +4087,11 @@
       <c r="F52">
         <v>0</v>
       </c>
-      <c r="G52">
-        <v>0</v>
-      </c>
       <c r="H52">
         <v>0</v>
       </c>
-      <c r="I52">
-        <v>0</v>
-      </c>
-      <c r="J52">
-        <v>0</v>
-      </c>
-      <c r="K52">
-        <v>0</v>
-      </c>
-      <c r="L52">
-        <v>0</v>
-      </c>
-      <c r="M52">
-        <v>0</v>
-      </c>
-      <c r="N52">
-        <v>0</v>
-      </c>
-      <c r="O52">
-        <v>0</v>
-      </c>
-      <c r="P52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>51</v>
       </c>
@@ -5371,40 +4105,13 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>0</v>
-      </c>
-      <c r="G53">
-        <v>0</v>
+        <v>3869</v>
       </c>
       <c r="H53">
-        <v>0</v>
-      </c>
-      <c r="I53">
-        <v>0</v>
-      </c>
-      <c r="J53">
-        <v>0</v>
-      </c>
-      <c r="K53">
-        <v>0</v>
-      </c>
-      <c r="L53">
-        <v>0</v>
-      </c>
-      <c r="M53">
-        <v>0</v>
-      </c>
-      <c r="N53">
-        <v>0</v>
-      </c>
-      <c r="O53">
-        <v>0</v>
-      </c>
-      <c r="P53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>52</v>
       </c>
@@ -5418,40 +4125,13 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>0</v>
-      </c>
-      <c r="G54">
-        <v>0</v>
+        <v>2059</v>
       </c>
       <c r="H54">
-        <v>0</v>
-      </c>
-      <c r="I54">
-        <v>0</v>
-      </c>
-      <c r="J54">
-        <v>0</v>
-      </c>
-      <c r="K54">
-        <v>0</v>
-      </c>
-      <c r="L54">
-        <v>0</v>
-      </c>
-      <c r="M54">
-        <v>0</v>
-      </c>
-      <c r="N54">
-        <v>0</v>
-      </c>
-      <c r="O54">
-        <v>0</v>
-      </c>
-      <c r="P54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>53</v>
       </c>
@@ -5465,40 +4145,13 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>0</v>
-      </c>
-      <c r="G55">
-        <v>0</v>
+        <v>6156</v>
       </c>
       <c r="H55">
-        <v>0</v>
-      </c>
-      <c r="I55">
-        <v>0</v>
-      </c>
-      <c r="J55">
-        <v>0</v>
-      </c>
-      <c r="K55">
-        <v>0</v>
-      </c>
-      <c r="L55">
-        <v>0</v>
-      </c>
-      <c r="M55">
-        <v>0</v>
-      </c>
-      <c r="N55">
-        <v>0</v>
-      </c>
-      <c r="O55">
-        <v>0</v>
-      </c>
-      <c r="P55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
+        <v>6153</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>54</v>
       </c>
@@ -5512,40 +4165,13 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>0</v>
-      </c>
-      <c r="G56">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="H56">
-        <v>0</v>
-      </c>
-      <c r="I56">
-        <v>0</v>
-      </c>
-      <c r="J56">
-        <v>0</v>
-      </c>
-      <c r="K56">
-        <v>0</v>
-      </c>
-      <c r="L56">
-        <v>0</v>
-      </c>
-      <c r="M56">
-        <v>0</v>
-      </c>
-      <c r="N56">
-        <v>0</v>
-      </c>
-      <c r="O56">
-        <v>0</v>
-      </c>
-      <c r="P56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>55</v>
       </c>
@@ -5559,40 +4185,13 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>0</v>
-      </c>
-      <c r="G57">
-        <v>0</v>
+        <v>906</v>
       </c>
       <c r="H57">
-        <v>0</v>
-      </c>
-      <c r="I57">
-        <v>0</v>
-      </c>
-      <c r="J57">
-        <v>0</v>
-      </c>
-      <c r="K57">
-        <v>0</v>
-      </c>
-      <c r="L57">
-        <v>0</v>
-      </c>
-      <c r="M57">
-        <v>0</v>
-      </c>
-      <c r="N57">
-        <v>0</v>
-      </c>
-      <c r="O57">
-        <v>0</v>
-      </c>
-      <c r="P57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>56</v>
       </c>
@@ -5606,40 +4205,13 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>0</v>
-      </c>
-      <c r="G58">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="H58">
-        <v>0</v>
-      </c>
-      <c r="I58">
-        <v>0</v>
-      </c>
-      <c r="J58">
-        <v>0</v>
-      </c>
-      <c r="K58">
-        <v>0</v>
-      </c>
-      <c r="L58">
-        <v>0</v>
-      </c>
-      <c r="M58">
-        <v>0</v>
-      </c>
-      <c r="N58">
-        <v>0</v>
-      </c>
-      <c r="O58">
-        <v>0</v>
-      </c>
-      <c r="P58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>57</v>
       </c>
@@ -5655,38 +4227,11 @@
       <c r="F59">
         <v>0</v>
       </c>
-      <c r="G59">
-        <v>0</v>
-      </c>
       <c r="H59">
-        <v>0</v>
-      </c>
-      <c r="I59">
-        <v>0</v>
-      </c>
-      <c r="J59">
-        <v>0</v>
-      </c>
-      <c r="K59">
-        <v>0</v>
-      </c>
-      <c r="L59">
-        <v>0</v>
-      </c>
-      <c r="M59">
-        <v>0</v>
-      </c>
-      <c r="N59">
-        <v>0</v>
-      </c>
-      <c r="O59">
-        <v>0</v>
-      </c>
-      <c r="P59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>58</v>
       </c>
@@ -5700,40 +4245,13 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>0</v>
-      </c>
-      <c r="G60">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="H60">
-        <v>0</v>
-      </c>
-      <c r="I60">
-        <v>0</v>
-      </c>
-      <c r="J60">
-        <v>0</v>
-      </c>
-      <c r="K60">
-        <v>0</v>
-      </c>
-      <c r="L60">
-        <v>0</v>
-      </c>
-      <c r="M60">
-        <v>0</v>
-      </c>
-      <c r="N60">
-        <v>0</v>
-      </c>
-      <c r="O60">
-        <v>0</v>
-      </c>
-      <c r="P60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>59</v>
       </c>
@@ -5749,38 +4267,11 @@
       <c r="F61">
         <v>0</v>
       </c>
-      <c r="G61">
-        <v>0</v>
-      </c>
       <c r="H61">
         <v>0</v>
       </c>
-      <c r="I61">
-        <v>0</v>
-      </c>
-      <c r="J61">
-        <v>0</v>
-      </c>
-      <c r="K61">
-        <v>0</v>
-      </c>
-      <c r="L61">
-        <v>0</v>
-      </c>
-      <c r="M61">
-        <v>0</v>
-      </c>
-      <c r="N61">
-        <v>0</v>
-      </c>
-      <c r="O61">
-        <v>0</v>
-      </c>
-      <c r="P61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>60</v>
       </c>
@@ -5796,38 +4287,11 @@
       <c r="F62">
         <v>0</v>
       </c>
-      <c r="G62">
-        <v>0</v>
-      </c>
       <c r="H62">
         <v>0</v>
       </c>
-      <c r="I62">
-        <v>0</v>
-      </c>
-      <c r="J62">
-        <v>0</v>
-      </c>
-      <c r="K62">
-        <v>0</v>
-      </c>
-      <c r="L62">
-        <v>0</v>
-      </c>
-      <c r="M62">
-        <v>0</v>
-      </c>
-      <c r="N62">
-        <v>0</v>
-      </c>
-      <c r="O62">
-        <v>0</v>
-      </c>
-      <c r="P62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>61</v>
       </c>
@@ -5841,40 +4305,13 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>0</v>
-      </c>
-      <c r="G63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H63">
-        <v>0</v>
-      </c>
-      <c r="I63">
-        <v>0</v>
-      </c>
-      <c r="J63">
-        <v>0</v>
-      </c>
-      <c r="K63">
-        <v>0</v>
-      </c>
-      <c r="L63">
-        <v>0</v>
-      </c>
-      <c r="M63">
-        <v>0</v>
-      </c>
-      <c r="N63">
-        <v>0</v>
-      </c>
-      <c r="O63">
-        <v>0</v>
-      </c>
-      <c r="P63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>62</v>
       </c>
@@ -5890,38 +4327,11 @@
       <c r="F64">
         <v>0</v>
       </c>
-      <c r="G64">
-        <v>0</v>
-      </c>
       <c r="H64">
         <v>0</v>
       </c>
-      <c r="I64">
-        <v>0</v>
-      </c>
-      <c r="J64">
-        <v>0</v>
-      </c>
-      <c r="K64">
-        <v>0</v>
-      </c>
-      <c r="L64">
-        <v>0</v>
-      </c>
-      <c r="M64">
-        <v>0</v>
-      </c>
-      <c r="N64">
-        <v>0</v>
-      </c>
-      <c r="O64">
-        <v>0</v>
-      </c>
-      <c r="P64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>63</v>
       </c>
@@ -5935,40 +4345,13 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>0</v>
-      </c>
-      <c r="G65">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H65">
-        <v>0</v>
-      </c>
-      <c r="I65">
-        <v>0</v>
-      </c>
-      <c r="J65">
-        <v>0</v>
-      </c>
-      <c r="K65">
-        <v>0</v>
-      </c>
-      <c r="L65">
-        <v>0</v>
-      </c>
-      <c r="M65">
-        <v>0</v>
-      </c>
-      <c r="N65">
-        <v>0</v>
-      </c>
-      <c r="O65">
-        <v>0</v>
-      </c>
-      <c r="P65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>64</v>
       </c>
@@ -5984,38 +4367,11 @@
       <c r="F66">
         <v>0</v>
       </c>
-      <c r="G66">
-        <v>0</v>
-      </c>
       <c r="H66">
         <v>0</v>
       </c>
-      <c r="I66">
-        <v>0</v>
-      </c>
-      <c r="J66">
-        <v>0</v>
-      </c>
-      <c r="K66">
-        <v>0</v>
-      </c>
-      <c r="L66">
-        <v>0</v>
-      </c>
-      <c r="M66">
-        <v>0</v>
-      </c>
-      <c r="N66">
-        <v>0</v>
-      </c>
-      <c r="O66">
-        <v>0</v>
-      </c>
-      <c r="P66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>65</v>
       </c>
@@ -6031,38 +4387,11 @@
       <c r="F67">
         <v>0</v>
       </c>
-      <c r="G67">
-        <v>0</v>
-      </c>
       <c r="H67">
         <v>0</v>
       </c>
-      <c r="I67">
-        <v>0</v>
-      </c>
-      <c r="J67">
-        <v>0</v>
-      </c>
-      <c r="K67">
-        <v>0</v>
-      </c>
-      <c r="L67">
-        <v>0</v>
-      </c>
-      <c r="M67">
-        <v>0</v>
-      </c>
-      <c r="N67">
-        <v>0</v>
-      </c>
-      <c r="O67">
-        <v>0</v>
-      </c>
-      <c r="P67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>66</v>
       </c>
@@ -6078,38 +4407,11 @@
       <c r="F68">
         <v>0</v>
       </c>
-      <c r="G68">
-        <v>0</v>
-      </c>
       <c r="H68">
         <v>0</v>
       </c>
-      <c r="I68">
-        <v>0</v>
-      </c>
-      <c r="J68">
-        <v>0</v>
-      </c>
-      <c r="K68">
-        <v>0</v>
-      </c>
-      <c r="L68">
-        <v>0</v>
-      </c>
-      <c r="M68">
-        <v>0</v>
-      </c>
-      <c r="N68">
-        <v>0</v>
-      </c>
-      <c r="O68">
-        <v>0</v>
-      </c>
-      <c r="P68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>67</v>
       </c>
@@ -6125,38 +4427,11 @@
       <c r="F69">
         <v>0</v>
       </c>
-      <c r="G69">
-        <v>0</v>
-      </c>
       <c r="H69">
         <v>0</v>
       </c>
-      <c r="I69">
-        <v>0</v>
-      </c>
-      <c r="J69">
-        <v>0</v>
-      </c>
-      <c r="K69">
-        <v>0</v>
-      </c>
-      <c r="L69">
-        <v>0</v>
-      </c>
-      <c r="M69">
-        <v>0</v>
-      </c>
-      <c r="N69">
-        <v>0</v>
-      </c>
-      <c r="O69">
-        <v>0</v>
-      </c>
-      <c r="P69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>68</v>
       </c>
@@ -6172,38 +4447,11 @@
       <c r="F70">
         <v>0</v>
       </c>
-      <c r="G70">
-        <v>0</v>
-      </c>
       <c r="H70">
         <v>0</v>
       </c>
-      <c r="I70">
-        <v>0</v>
-      </c>
-      <c r="J70">
-        <v>0</v>
-      </c>
-      <c r="K70">
-        <v>0</v>
-      </c>
-      <c r="L70">
-        <v>0</v>
-      </c>
-      <c r="M70">
-        <v>0</v>
-      </c>
-      <c r="N70">
-        <v>0</v>
-      </c>
-      <c r="O70">
-        <v>0</v>
-      </c>
-      <c r="P70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>69</v>
       </c>
@@ -6219,38 +4467,11 @@
       <c r="F71">
         <v>0</v>
       </c>
-      <c r="G71">
-        <v>0</v>
-      </c>
       <c r="H71">
         <v>0</v>
       </c>
-      <c r="I71">
-        <v>0</v>
-      </c>
-      <c r="J71">
-        <v>0</v>
-      </c>
-      <c r="K71">
-        <v>0</v>
-      </c>
-      <c r="L71">
-        <v>0</v>
-      </c>
-      <c r="M71">
-        <v>0</v>
-      </c>
-      <c r="N71">
-        <v>0</v>
-      </c>
-      <c r="O71">
-        <v>0</v>
-      </c>
-      <c r="P71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>70</v>
       </c>
@@ -6266,38 +4487,11 @@
       <c r="F72">
         <v>0</v>
       </c>
-      <c r="G72">
-        <v>0</v>
-      </c>
       <c r="H72">
         <v>0</v>
       </c>
-      <c r="I72">
-        <v>0</v>
-      </c>
-      <c r="J72">
-        <v>0</v>
-      </c>
-      <c r="K72">
-        <v>0</v>
-      </c>
-      <c r="L72">
-        <v>0</v>
-      </c>
-      <c r="M72">
-        <v>0</v>
-      </c>
-      <c r="N72">
-        <v>0</v>
-      </c>
-      <c r="O72">
-        <v>0</v>
-      </c>
-      <c r="P72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>71</v>
       </c>
@@ -6313,38 +4507,11 @@
       <c r="F73">
         <v>0</v>
       </c>
-      <c r="G73">
-        <v>0</v>
-      </c>
       <c r="H73">
         <v>0</v>
       </c>
-      <c r="I73">
-        <v>0</v>
-      </c>
-      <c r="J73">
-        <v>0</v>
-      </c>
-      <c r="K73">
-        <v>0</v>
-      </c>
-      <c r="L73">
-        <v>0</v>
-      </c>
-      <c r="M73">
-        <v>0</v>
-      </c>
-      <c r="N73">
-        <v>0</v>
-      </c>
-      <c r="O73">
-        <v>0</v>
-      </c>
-      <c r="P73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>72</v>
       </c>
@@ -6360,38 +4527,11 @@
       <c r="F74">
         <v>0</v>
       </c>
-      <c r="G74">
-        <v>0</v>
-      </c>
       <c r="H74">
         <v>0</v>
       </c>
-      <c r="I74">
-        <v>0</v>
-      </c>
-      <c r="J74">
-        <v>0</v>
-      </c>
-      <c r="K74">
-        <v>0</v>
-      </c>
-      <c r="L74">
-        <v>0</v>
-      </c>
-      <c r="M74">
-        <v>0</v>
-      </c>
-      <c r="N74">
-        <v>0</v>
-      </c>
-      <c r="O74">
-        <v>0</v>
-      </c>
-      <c r="P74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>73</v>
       </c>
@@ -6407,38 +4547,11 @@
       <c r="F75">
         <v>0</v>
       </c>
-      <c r="G75">
-        <v>0</v>
-      </c>
       <c r="H75">
         <v>0</v>
       </c>
-      <c r="I75">
-        <v>0</v>
-      </c>
-      <c r="J75">
-        <v>0</v>
-      </c>
-      <c r="K75">
-        <v>0</v>
-      </c>
-      <c r="L75">
-        <v>0</v>
-      </c>
-      <c r="M75">
-        <v>0</v>
-      </c>
-      <c r="N75">
-        <v>0</v>
-      </c>
-      <c r="O75">
-        <v>0</v>
-      </c>
-      <c r="P75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>74</v>
       </c>
@@ -6454,38 +4567,11 @@
       <c r="F76">
         <v>0</v>
       </c>
-      <c r="G76">
-        <v>0</v>
-      </c>
       <c r="H76">
         <v>0</v>
       </c>
-      <c r="I76">
-        <v>0</v>
-      </c>
-      <c r="J76">
-        <v>0</v>
-      </c>
-      <c r="K76">
-        <v>0</v>
-      </c>
-      <c r="L76">
-        <v>0</v>
-      </c>
-      <c r="M76">
-        <v>0</v>
-      </c>
-      <c r="N76">
-        <v>0</v>
-      </c>
-      <c r="O76">
-        <v>0</v>
-      </c>
-      <c r="P76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>75</v>
       </c>
@@ -6501,38 +4587,11 @@
       <c r="F77">
         <v>0</v>
       </c>
-      <c r="G77">
-        <v>0</v>
-      </c>
       <c r="H77">
         <v>0</v>
       </c>
-      <c r="I77">
-        <v>0</v>
-      </c>
-      <c r="J77">
-        <v>0</v>
-      </c>
-      <c r="K77">
-        <v>0</v>
-      </c>
-      <c r="L77">
-        <v>0</v>
-      </c>
-      <c r="M77">
-        <v>0</v>
-      </c>
-      <c r="N77">
-        <v>0</v>
-      </c>
-      <c r="O77">
-        <v>0</v>
-      </c>
-      <c r="P77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>76</v>
       </c>
@@ -6548,38 +4607,11 @@
       <c r="F78">
         <v>0</v>
       </c>
-      <c r="G78">
-        <v>0</v>
-      </c>
       <c r="H78">
         <v>0</v>
       </c>
-      <c r="I78">
-        <v>0</v>
-      </c>
-      <c r="J78">
-        <v>0</v>
-      </c>
-      <c r="K78">
-        <v>0</v>
-      </c>
-      <c r="L78">
-        <v>0</v>
-      </c>
-      <c r="M78">
-        <v>0</v>
-      </c>
-      <c r="N78">
-        <v>0</v>
-      </c>
-      <c r="O78">
-        <v>0</v>
-      </c>
-      <c r="P78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>77</v>
       </c>
@@ -6595,38 +4627,11 @@
       <c r="F79">
         <v>0</v>
       </c>
-      <c r="G79">
-        <v>0</v>
-      </c>
       <c r="H79">
         <v>0</v>
       </c>
-      <c r="I79">
-        <v>0</v>
-      </c>
-      <c r="J79">
-        <v>0</v>
-      </c>
-      <c r="K79">
-        <v>0</v>
-      </c>
-      <c r="L79">
-        <v>0</v>
-      </c>
-      <c r="M79">
-        <v>0</v>
-      </c>
-      <c r="N79">
-        <v>0</v>
-      </c>
-      <c r="O79">
-        <v>0</v>
-      </c>
-      <c r="P79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>78</v>
       </c>
@@ -6642,38 +4647,11 @@
       <c r="F80">
         <v>0</v>
       </c>
-      <c r="G80">
-        <v>0</v>
-      </c>
       <c r="H80">
         <v>0</v>
       </c>
-      <c r="I80">
-        <v>0</v>
-      </c>
-      <c r="J80">
-        <v>0</v>
-      </c>
-      <c r="K80">
-        <v>0</v>
-      </c>
-      <c r="L80">
-        <v>0</v>
-      </c>
-      <c r="M80">
-        <v>0</v>
-      </c>
-      <c r="N80">
-        <v>0</v>
-      </c>
-      <c r="O80">
-        <v>0</v>
-      </c>
-      <c r="P80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>79</v>
       </c>
@@ -6689,93 +4667,39 @@
       <c r="F81">
         <v>0</v>
       </c>
-      <c r="G81">
-        <v>0</v>
-      </c>
       <c r="H81">
         <v>0</v>
       </c>
-      <c r="I81">
-        <v>0</v>
-      </c>
-      <c r="J81">
-        <v>0</v>
-      </c>
-      <c r="K81">
-        <v>0</v>
-      </c>
-      <c r="L81">
-        <v>0</v>
-      </c>
-      <c r="M81">
-        <v>0</v>
-      </c>
-      <c r="N81">
-        <v>0</v>
-      </c>
-      <c r="O81">
-        <v>0</v>
-      </c>
-      <c r="P81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C82">
-        <v>430</v>
+        <v>0</v>
       </c>
       <c r="D82">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="E82">
-        <v>373</v>
+        <v>0</v>
       </c>
       <c r="F82">
-        <v>1046</v>
-      </c>
-      <c r="G82">
-        <v>1754</v>
+        <v>0</v>
       </c>
       <c r="H82">
-        <v>2160</v>
-      </c>
-      <c r="I82">
-        <v>4098</v>
-      </c>
-      <c r="J82">
-        <v>0</v>
-      </c>
-      <c r="K82">
-        <v>0</v>
-      </c>
-      <c r="L82">
-        <v>0</v>
-      </c>
-      <c r="M82">
-        <v>0</v>
-      </c>
-      <c r="N82">
-        <v>0</v>
-      </c>
-      <c r="O82">
-        <v>0</v>
-      </c>
-      <c r="P82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C83">
         <v>0</v>
@@ -6789,88 +4713,40 @@
       <c r="F83">
         <v>0</v>
       </c>
-      <c r="G83">
-        <v>0</v>
-      </c>
       <c r="H83">
         <v>0</v>
       </c>
-      <c r="I83">
-        <v>0</v>
-      </c>
-      <c r="J83">
-        <v>0</v>
-      </c>
-      <c r="K83">
-        <v>0</v>
-      </c>
-      <c r="L83">
-        <v>0</v>
-      </c>
-      <c r="M83">
-        <v>0</v>
-      </c>
-      <c r="N83">
-        <v>0</v>
-      </c>
-      <c r="O83">
-        <v>0</v>
-      </c>
-      <c r="P83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>82</v>
       </c>
+      <c r="B84" t="s">
+        <v>69</v>
+      </c>
       <c r="C84">
-        <v>8991</v>
+        <v>12318</v>
       </c>
       <c r="D84">
         <v>12318</v>
       </c>
       <c r="E84">
-        <v>12318</v>
+        <v>13317</v>
       </c>
       <c r="F84">
-        <v>12318</v>
-      </c>
-      <c r="G84">
-        <v>12318</v>
+        <v>0</v>
       </c>
       <c r="H84">
-        <v>12318</v>
-      </c>
-      <c r="I84">
-        <v>12318</v>
-      </c>
-      <c r="J84">
-        <v>12318</v>
-      </c>
-      <c r="K84">
-        <v>12318</v>
-      </c>
-      <c r="L84">
-        <v>12318</v>
-      </c>
-      <c r="M84">
-        <v>12318</v>
-      </c>
-      <c r="N84">
-        <v>12318</v>
-      </c>
-      <c r="O84">
-        <v>12318</v>
-      </c>
-      <c r="P84">
-        <v>13317</v>
-      </c>
-    </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>83</v>
       </c>
+      <c r="B85" t="s">
+        <v>41</v>
+      </c>
       <c r="C85">
         <v>5141</v>
       </c>
@@ -6878,46 +4754,22 @@
         <v>5141</v>
       </c>
       <c r="E85">
-        <v>5141</v>
+        <v>6667</v>
       </c>
       <c r="F85">
-        <v>5141</v>
-      </c>
-      <c r="G85">
-        <v>5141</v>
+        <v>0</v>
       </c>
       <c r="H85">
-        <v>5141</v>
-      </c>
-      <c r="I85">
-        <v>5141</v>
-      </c>
-      <c r="J85">
-        <v>5141</v>
-      </c>
-      <c r="K85">
-        <v>5141</v>
-      </c>
-      <c r="L85">
-        <v>5141</v>
-      </c>
-      <c r="M85">
-        <v>5141</v>
-      </c>
-      <c r="N85">
-        <v>5141</v>
-      </c>
-      <c r="O85">
-        <v>5141</v>
-      </c>
-      <c r="P85">
-        <v>6667</v>
-      </c>
-    </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>84</v>
       </c>
+      <c r="B86" t="s">
+        <v>40</v>
+      </c>
       <c r="C86">
         <v>5899</v>
       </c>
@@ -6925,48 +4777,21 @@
         <v>5899</v>
       </c>
       <c r="E86">
-        <v>5899</v>
+        <v>6150</v>
       </c>
       <c r="F86">
-        <v>5899</v>
-      </c>
-      <c r="G86">
-        <v>5899</v>
+        <v>0</v>
       </c>
       <c r="H86">
-        <v>5899</v>
-      </c>
-      <c r="I86">
-        <v>5899</v>
-      </c>
-      <c r="J86">
-        <v>5899</v>
-      </c>
-      <c r="K86">
-        <v>5899</v>
-      </c>
-      <c r="L86">
-        <v>5899</v>
-      </c>
-      <c r="M86">
-        <v>5899</v>
-      </c>
-      <c r="N86">
-        <v>5899</v>
-      </c>
-      <c r="O86">
-        <v>5899</v>
-      </c>
-      <c r="P86">
-        <v>6150</v>
-      </c>
-    </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C87">
         <v>0</v>
@@ -6980,38 +4805,11 @@
       <c r="F87">
         <v>0</v>
       </c>
-      <c r="G87">
-        <v>0</v>
-      </c>
       <c r="H87">
         <v>0</v>
       </c>
-      <c r="I87">
-        <v>0</v>
-      </c>
-      <c r="J87">
-        <v>0</v>
-      </c>
-      <c r="K87">
-        <v>0</v>
-      </c>
-      <c r="L87">
-        <v>0</v>
-      </c>
-      <c r="M87">
-        <v>0</v>
-      </c>
-      <c r="N87">
-        <v>0</v>
-      </c>
-      <c r="O87">
-        <v>0</v>
-      </c>
-      <c r="P87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>86</v>
       </c>
@@ -7025,45 +4823,18 @@
         <v>1</v>
       </c>
       <c r="F88">
-        <v>1</v>
-      </c>
-      <c r="G88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H88">
-        <v>1</v>
-      </c>
-      <c r="I88">
-        <v>1</v>
-      </c>
-      <c r="J88">
-        <v>1</v>
-      </c>
-      <c r="K88">
-        <v>1</v>
-      </c>
-      <c r="L88">
-        <v>1</v>
-      </c>
-      <c r="M88">
-        <v>1</v>
-      </c>
-      <c r="N88">
-        <v>1</v>
-      </c>
-      <c r="O88">
-        <v>1</v>
-      </c>
-      <c r="P88">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="C89">
         <v>1</v>
@@ -7075,45 +4846,18 @@
         <v>1</v>
       </c>
       <c r="F89">
-        <v>1</v>
-      </c>
-      <c r="G89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H89">
-        <v>1</v>
-      </c>
-      <c r="I89">
-        <v>1</v>
-      </c>
-      <c r="J89">
-        <v>1</v>
-      </c>
-      <c r="K89">
-        <v>1</v>
-      </c>
-      <c r="L89">
-        <v>1</v>
-      </c>
-      <c r="M89">
-        <v>1</v>
-      </c>
-      <c r="N89">
-        <v>1</v>
-      </c>
-      <c r="O89">
-        <v>1</v>
-      </c>
-      <c r="P89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -7125,45 +4869,18 @@
         <v>1</v>
       </c>
       <c r="F90">
-        <v>1</v>
-      </c>
-      <c r="G90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H90">
-        <v>1</v>
-      </c>
-      <c r="I90">
-        <v>1</v>
-      </c>
-      <c r="J90">
-        <v>1</v>
-      </c>
-      <c r="K90">
-        <v>1</v>
-      </c>
-      <c r="L90">
-        <v>1</v>
-      </c>
-      <c r="M90">
-        <v>1</v>
-      </c>
-      <c r="N90">
-        <v>1</v>
-      </c>
-      <c r="O90">
-        <v>1</v>
-      </c>
-      <c r="P90">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C91">
         <v>0</v>
@@ -7177,38 +4894,11 @@
       <c r="F91">
         <v>0</v>
       </c>
-      <c r="G91">
-        <v>0</v>
-      </c>
       <c r="H91">
         <v>0</v>
       </c>
-      <c r="I91">
-        <v>0</v>
-      </c>
-      <c r="J91">
-        <v>0</v>
-      </c>
-      <c r="K91">
-        <v>0</v>
-      </c>
-      <c r="L91">
-        <v>0</v>
-      </c>
-      <c r="M91">
-        <v>0</v>
-      </c>
-      <c r="N91">
-        <v>0</v>
-      </c>
-      <c r="O91">
-        <v>0</v>
-      </c>
-      <c r="P91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>90</v>
       </c>
@@ -7224,41 +4914,17 @@
       <c r="F92">
         <v>0</v>
       </c>
-      <c r="G92">
-        <v>0</v>
-      </c>
       <c r="H92">
         <v>0</v>
       </c>
-      <c r="I92">
-        <v>0</v>
-      </c>
-      <c r="J92">
-        <v>0</v>
-      </c>
-      <c r="K92">
-        <v>0</v>
-      </c>
-      <c r="L92">
-        <v>0</v>
-      </c>
-      <c r="M92">
-        <v>0</v>
-      </c>
-      <c r="N92">
-        <v>0</v>
-      </c>
-      <c r="O92">
-        <v>0</v>
-      </c>
-      <c r="P92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>91</v>
       </c>
+      <c r="B93" t="s">
+        <v>70</v>
+      </c>
       <c r="C93">
         <v>120</v>
       </c>
@@ -7269,134 +4935,59 @@
         <v>120</v>
       </c>
       <c r="F93">
-        <v>120</v>
-      </c>
-      <c r="G93">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="H93">
-        <v>120</v>
-      </c>
-      <c r="I93">
-        <v>120</v>
-      </c>
-      <c r="J93">
-        <v>120</v>
-      </c>
-      <c r="K93">
-        <v>120</v>
-      </c>
-      <c r="L93">
-        <v>120</v>
-      </c>
-      <c r="M93">
-        <v>120</v>
-      </c>
-      <c r="N93">
-        <v>120</v>
-      </c>
-      <c r="O93">
-        <v>120</v>
-      </c>
-      <c r="P93">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>92</v>
       </c>
+      <c r="B94" t="s">
+        <v>70</v>
+      </c>
       <c r="C94">
-        <v>598</v>
+        <v>1195</v>
       </c>
       <c r="D94">
-        <v>599</v>
+        <v>1195</v>
       </c>
       <c r="E94">
-        <v>904</v>
+        <v>1195</v>
       </c>
       <c r="F94">
-        <v>601</v>
-      </c>
-      <c r="G94">
-        <v>599</v>
+        <v>0</v>
       </c>
       <c r="H94">
-        <v>599</v>
-      </c>
-      <c r="I94">
-        <v>595</v>
-      </c>
-      <c r="J94">
-        <v>1195</v>
-      </c>
-      <c r="K94">
-        <v>1195</v>
-      </c>
-      <c r="L94">
-        <v>1195</v>
-      </c>
-      <c r="M94">
-        <v>1195</v>
-      </c>
-      <c r="N94">
-        <v>1195</v>
-      </c>
-      <c r="O94">
-        <v>1195</v>
-      </c>
-      <c r="P94">
-        <v>1195</v>
-      </c>
-    </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>93</v>
       </c>
+      <c r="B95" t="s">
+        <v>70</v>
+      </c>
       <c r="C95">
-        <v>266</v>
+        <v>1000</v>
       </c>
       <c r="D95">
-        <v>266</v>
+        <v>1000</v>
       </c>
       <c r="E95">
         <v>1000</v>
       </c>
       <c r="F95">
-        <v>266</v>
-      </c>
-      <c r="G95">
-        <v>266</v>
+        <v>0</v>
       </c>
       <c r="H95">
-        <v>266</v>
-      </c>
-      <c r="I95">
-        <v>266</v>
-      </c>
-      <c r="J95">
-        <v>1000</v>
-      </c>
-      <c r="K95">
-        <v>1000</v>
-      </c>
-      <c r="L95">
-        <v>1000</v>
-      </c>
-      <c r="M95">
-        <v>1000</v>
-      </c>
-      <c r="N95">
-        <v>1000</v>
-      </c>
-      <c r="O95">
-        <v>1000</v>
-      </c>
-      <c r="P95">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>94</v>
       </c>
@@ -7412,41 +5003,17 @@
       <c r="F96">
         <v>0</v>
       </c>
-      <c r="G96">
-        <v>0</v>
-      </c>
       <c r="H96">
         <v>0</v>
       </c>
-      <c r="I96">
-        <v>0</v>
-      </c>
-      <c r="J96">
-        <v>0</v>
-      </c>
-      <c r="K96">
-        <v>0</v>
-      </c>
-      <c r="L96">
-        <v>0</v>
-      </c>
-      <c r="M96">
-        <v>0</v>
-      </c>
-      <c r="N96">
-        <v>0</v>
-      </c>
-      <c r="O96">
-        <v>0</v>
-      </c>
-      <c r="P96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>95</v>
       </c>
+      <c r="B97" t="s">
+        <v>31</v>
+      </c>
       <c r="C97">
         <v>44</v>
       </c>
@@ -7457,45 +5024,97 @@
         <v>44</v>
       </c>
       <c r="F97">
-        <v>44</v>
-      </c>
-      <c r="G97">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="H97">
-        <v>44</v>
-      </c>
-      <c r="I97">
-        <v>44</v>
-      </c>
-      <c r="J97">
-        <v>44</v>
-      </c>
-      <c r="K97">
-        <v>44</v>
-      </c>
-      <c r="L97">
-        <v>44</v>
-      </c>
-      <c r="M97">
-        <v>44</v>
-      </c>
-      <c r="N97">
-        <v>44</v>
-      </c>
-      <c r="O97">
-        <v>44</v>
-      </c>
-      <c r="P97">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B98" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F98">
+        <v>0</v>
+      </c>
+      <c r="H98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F100">
         <v>1</v>
       </c>
+      <c r="H100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F101">
+        <v>12</v>
+      </c>
+      <c r="H101">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F102">
+        <v>50</v>
+      </c>
+      <c r="H102">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F103">
+        <v>6</v>
+      </c>
+      <c r="H103">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F105">
+        <v>6</v>
+      </c>
+      <c r="H105">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F106">
+        <v>0</v>
+      </c>
+      <c r="H106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F107">
+        <v>0</v>
+      </c>
+      <c r="H107">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:G1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/doc/Mapping.xlsx
+++ b/doc/Mapping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\trest\Source\Repos\HomeAssistant\homeassistant-solax-http\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2838EAF1-CCBD-4308-ABA1-3C624A5C1895}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A71BBE2-99C7-4A16-A8D7-ADF728575030}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{E30620CE-52E2-4698-983C-BDD3AD23A8BB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E30620CE-52E2-4698-983C-BDD3AD23A8BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="71">
   <si>
     <t>[</t>
   </si>
@@ -183,9 +183,6 @@
     <t>/Reset</t>
   </si>
   <si>
-    <t>Current limit</t>
-  </si>
-  <si>
     <t>Scene ??</t>
   </si>
   <si>
@@ -250,6 +247,9 @@
   </si>
   <si>
     <t>Something with PV??</t>
+  </si>
+  <si>
+    <t>Max Charge Current</t>
   </si>
 </sst>
 </file>
@@ -612,34 +612,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E382A0D-967B-40F4-B1C8-B14BB77D210D}">
-  <dimension ref="A1:L79"/>
+  <dimension ref="A1:N87"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="18.33203125" customWidth="1"/>
     <col min="3" max="3" width="21.21875" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" customWidth="1"/>
+    <col min="14" max="14" width="13.109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>18</v>
       </c>
       <c r="B1" t="s">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -652,6 +649,9 @@
       <c r="D2">
         <v>2</v>
       </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
       <c r="F2">
         <v>2</v>
       </c>
@@ -670,11 +670,11 @@
       <c r="K2">
         <v>2</v>
       </c>
-      <c r="L2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -687,17 +687,20 @@
       <c r="D3">
         <v>1</v>
       </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
       <c r="F3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -705,11 +708,11 @@
       <c r="K3">
         <v>0</v>
       </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -722,6 +725,9 @@
       <c r="D4">
         <v>6</v>
       </c>
+      <c r="E4">
+        <v>6</v>
+      </c>
       <c r="F4">
         <v>6</v>
       </c>
@@ -740,11 +746,14 @@
       <c r="K4">
         <v>6</v>
       </c>
-      <c r="L4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M4">
+        <v>70</v>
+      </c>
+      <c r="N4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -757,6 +766,9 @@
       <c r="D5">
         <v>6</v>
       </c>
+      <c r="E5">
+        <v>6</v>
+      </c>
       <c r="F5">
         <v>6</v>
       </c>
@@ -773,13 +785,16 @@
         <v>6</v>
       </c>
       <c r="K5">
-        <v>6</v>
-      </c>
-      <c r="L5">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M5">
+        <v>16</v>
+      </c>
+      <c r="N5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -792,11 +807,14 @@
       <c r="D6">
         <v>1</v>
       </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -810,11 +828,11 @@
       <c r="K6">
         <v>0</v>
       </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -827,6 +845,9 @@
       <c r="D7">
         <v>265</v>
       </c>
+      <c r="E7">
+        <v>265</v>
+      </c>
       <c r="F7">
         <v>265</v>
       </c>
@@ -845,11 +866,11 @@
       <c r="K7">
         <v>265</v>
       </c>
-      <c r="L7">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -862,6 +883,9 @@
       <c r="D8">
         <v>160</v>
       </c>
+      <c r="E8">
+        <v>160</v>
+      </c>
       <c r="F8">
         <v>160</v>
       </c>
@@ -880,17 +904,20 @@
       <c r="K8">
         <v>160</v>
       </c>
-      <c r="L8">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="D9">
         <v>18</v>
       </c>
+      <c r="E9">
+        <v>18</v>
+      </c>
       <c r="F9">
         <v>18</v>
       </c>
@@ -909,17 +936,20 @@
       <c r="K9">
         <v>18</v>
       </c>
-      <c r="L9">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="D10">
         <v>80</v>
       </c>
+      <c r="E10">
+        <v>80</v>
+      </c>
       <c r="F10">
         <v>80</v>
       </c>
@@ -938,17 +968,20 @@
       <c r="K10">
         <v>80</v>
       </c>
-      <c r="L10">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="D11">
         <v>30</v>
       </c>
+      <c r="E11">
+        <v>30</v>
+      </c>
       <c r="F11">
         <v>30</v>
       </c>
@@ -967,11 +1000,11 @@
       <c r="K11">
         <v>30</v>
       </c>
-      <c r="L11">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -980,18 +1013,20 @@
       <c r="D12" s="1">
         <v>8000</v>
       </c>
-      <c r="E12" s="1"/>
+      <c r="E12" s="1">
+        <v>8000</v>
+      </c>
       <c r="F12" s="1">
+        <v>12000</v>
+      </c>
+      <c r="G12">
         <v>8000</v>
-      </c>
-      <c r="G12" s="1">
-        <v>12000</v>
       </c>
       <c r="H12">
         <v>8000</v>
       </c>
       <c r="I12">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="J12">
         <v>12000</v>
@@ -999,11 +1034,11 @@
       <c r="K12">
         <v>12000</v>
       </c>
-      <c r="L12">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1016,6 +1051,9 @@
       <c r="D13">
         <v>0</v>
       </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
       <c r="F13">
         <v>0</v>
       </c>
@@ -1034,11 +1072,11 @@
       <c r="K13">
         <v>0</v>
       </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1051,6 +1089,9 @@
       <c r="D14">
         <v>0</v>
       </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
       <c r="F14">
         <v>0</v>
       </c>
@@ -1069,11 +1110,11 @@
       <c r="K14">
         <v>0</v>
       </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1086,6 +1127,9 @@
       <c r="D15">
         <v>0</v>
       </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
       <c r="F15">
         <v>0</v>
       </c>
@@ -1104,11 +1148,14 @@
       <c r="K15">
         <v>0</v>
       </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M15">
+        <v>265</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1121,6 +1168,9 @@
       <c r="D16">
         <v>0</v>
       </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
       <c r="F16">
         <v>0</v>
       </c>
@@ -1139,11 +1189,14 @@
       <c r="K16">
         <v>0</v>
       </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M16">
+        <v>160</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1156,11 +1209,14 @@
       <c r="D17">
         <v>0</v>
       </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H17">
         <v>50</v>
@@ -1172,19 +1228,22 @@
         <v>50</v>
       </c>
       <c r="K17">
-        <v>50</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
       <c r="F18">
         <v>0</v>
       </c>
@@ -1203,11 +1262,11 @@
       <c r="K18">
         <v>0</v>
       </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1220,6 +1279,9 @@
       <c r="D19">
         <v>44</v>
       </c>
+      <c r="E19">
+        <v>44</v>
+      </c>
       <c r="F19">
         <v>44</v>
       </c>
@@ -1238,28 +1300,31 @@
       <c r="K19">
         <v>44</v>
       </c>
-      <c r="L19">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="B20">
         <v>18</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>48</v>
+      <c r="C20" t="s">
+        <v>32</v>
       </c>
       <c r="D20">
         <v>70</v>
       </c>
+      <c r="E20">
+        <v>70</v>
+      </c>
       <c r="F20">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="G20">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="H20">
         <v>50</v>
@@ -1271,13 +1336,13 @@
         <v>50</v>
       </c>
       <c r="K20">
-        <v>50</v>
-      </c>
-      <c r="L20">
         <v>64</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1290,6 +1355,9 @@
       <c r="D21">
         <v>108</v>
       </c>
+      <c r="E21">
+        <v>108</v>
+      </c>
       <c r="F21">
         <v>108</v>
       </c>
@@ -1306,19 +1374,22 @@
         <v>108</v>
       </c>
       <c r="K21">
-        <v>108</v>
-      </c>
-      <c r="L21">
         <v>112</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
       <c r="D22">
         <v>101</v>
       </c>
+      <c r="E22">
+        <v>101</v>
+      </c>
       <c r="F22">
         <v>101</v>
       </c>
@@ -1337,11 +1408,11 @@
       <c r="K22">
         <v>101</v>
       </c>
-      <c r="L22">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1351,6 +1422,9 @@
       <c r="D23">
         <v>0</v>
       </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
       <c r="F23">
         <v>0</v>
       </c>
@@ -1369,11 +1443,14 @@
       <c r="K23">
         <v>0</v>
       </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M23">
+        <v>44</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1386,6 +1463,9 @@
       <c r="D24">
         <v>0</v>
       </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
       <c r="F24">
         <v>0</v>
       </c>
@@ -1404,17 +1484,20 @@
       <c r="K24">
         <v>0</v>
       </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M24">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
       <c r="F25">
         <v>0</v>
       </c>
@@ -1433,11 +1516,11 @@
       <c r="K25">
         <v>0</v>
       </c>
-      <c r="L25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
@@ -1447,6 +1530,9 @@
       <c r="D26">
         <v>0</v>
       </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
       <c r="F26">
         <v>0</v>
       </c>
@@ -1460,22 +1546,25 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26">
-        <v>1</v>
-      </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
       <c r="F27">
         <v>0</v>
       </c>
@@ -1494,17 +1583,23 @@
       <c r="K27">
         <v>0</v>
       </c>
-      <c r="L27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M27">
+        <v>12593</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
       <c r="F28">
         <v>0</v>
       </c>
@@ -1523,17 +1618,23 @@
       <c r="K28">
         <v>0</v>
       </c>
-      <c r="L28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M28">
+        <v>12593</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
       <c r="D29">
         <v>0</v>
       </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
       <c r="F29">
         <v>0</v>
       </c>
@@ -1552,11 +1653,14 @@
       <c r="K29">
         <v>0</v>
       </c>
-      <c r="L29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M29">
+        <v>12593</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28</v>
       </c>
@@ -1564,11 +1668,14 @@
         <v>28</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D30">
         <v>0</v>
       </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
       <c r="F30">
         <v>0</v>
       </c>
@@ -1587,11 +1694,11 @@
       <c r="K30">
         <v>0</v>
       </c>
-      <c r="L30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>29</v>
       </c>
@@ -1604,11 +1711,14 @@
       <c r="D31">
         <v>0</v>
       </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
       <c r="F31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -1622,11 +1732,11 @@
       <c r="K31">
         <v>0</v>
       </c>
-      <c r="L31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>30</v>
       </c>
@@ -1639,8 +1749,11 @@
       <c r="D32">
         <v>0</v>
       </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
       <c r="F32">
-        <v>0</v>
+        <v>12593</v>
       </c>
       <c r="G32">
         <v>12593</v>
@@ -1655,13 +1768,13 @@
         <v>12593</v>
       </c>
       <c r="K32">
-        <v>12593</v>
-      </c>
-      <c r="L32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>31</v>
       </c>
@@ -1674,8 +1787,11 @@
       <c r="D33">
         <v>0</v>
       </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
       <c r="F33">
-        <v>0</v>
+        <v>12593</v>
       </c>
       <c r="G33">
         <v>12593</v>
@@ -1690,13 +1806,13 @@
         <v>12593</v>
       </c>
       <c r="K33">
-        <v>12593</v>
-      </c>
-      <c r="L33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>32</v>
       </c>
@@ -1709,8 +1825,11 @@
       <c r="D34">
         <v>0</v>
       </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
       <c r="F34">
-        <v>0</v>
+        <v>12593</v>
       </c>
       <c r="G34">
         <v>12593</v>
@@ -1725,19 +1844,22 @@
         <v>12593</v>
       </c>
       <c r="K34">
-        <v>12593</v>
-      </c>
-      <c r="L34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>33</v>
       </c>
       <c r="D35">
         <v>0</v>
       </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
       <c r="F35">
         <v>0</v>
       </c>
@@ -1756,17 +1878,20 @@
       <c r="K35">
         <v>0</v>
       </c>
-      <c r="L35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>34</v>
       </c>
       <c r="D36">
         <v>0</v>
       </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
       <c r="F36">
         <v>0</v>
       </c>
@@ -1785,17 +1910,20 @@
       <c r="K36">
         <v>0</v>
       </c>
-      <c r="L36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>35</v>
       </c>
       <c r="D37">
         <v>0</v>
       </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
       <c r="F37">
         <v>0</v>
       </c>
@@ -1814,17 +1942,20 @@
       <c r="K37">
         <v>0</v>
       </c>
-      <c r="L37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>36</v>
       </c>
       <c r="D38">
         <v>0</v>
       </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
       <c r="F38">
         <v>0</v>
       </c>
@@ -1843,17 +1974,20 @@
       <c r="K38">
         <v>0</v>
       </c>
-      <c r="L38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>37</v>
       </c>
       <c r="D39">
         <v>0</v>
       </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
       <c r="F39">
         <v>0</v>
       </c>
@@ -1872,17 +2006,20 @@
       <c r="K39">
         <v>0</v>
       </c>
-      <c r="L39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>38</v>
       </c>
       <c r="D40">
         <v>0</v>
       </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
       <c r="F40">
         <v>0</v>
       </c>
@@ -1901,17 +2038,20 @@
       <c r="K40">
         <v>0</v>
       </c>
-      <c r="L40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>39</v>
       </c>
       <c r="D41">
         <v>0</v>
       </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
       <c r="F41">
         <v>0</v>
       </c>
@@ -1930,17 +2070,20 @@
       <c r="K41">
         <v>0</v>
       </c>
-      <c r="L41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>40</v>
       </c>
       <c r="D42">
         <v>0</v>
       </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
       <c r="F42">
         <v>0</v>
       </c>
@@ -1959,17 +2102,20 @@
       <c r="K42">
         <v>0</v>
       </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>41</v>
       </c>
       <c r="D43">
         <v>0</v>
       </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
       <c r="F43">
         <v>0</v>
       </c>
@@ -1988,17 +2134,20 @@
       <c r="K43">
         <v>0</v>
       </c>
-      <c r="L43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>42</v>
       </c>
       <c r="D44">
         <v>0</v>
       </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
       <c r="F44">
         <v>0</v>
       </c>
@@ -2017,17 +2166,20 @@
       <c r="K44">
         <v>0</v>
       </c>
-      <c r="L44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>43</v>
       </c>
       <c r="D45">
         <v>0</v>
       </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
       <c r="F45">
         <v>0</v>
       </c>
@@ -2046,17 +2198,20 @@
       <c r="K45">
         <v>0</v>
       </c>
-      <c r="L45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>44</v>
       </c>
       <c r="D46">
         <v>0</v>
       </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
       <c r="F46">
         <v>0</v>
       </c>
@@ -2075,17 +2230,20 @@
       <c r="K46">
         <v>0</v>
       </c>
-      <c r="L46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>45</v>
       </c>
       <c r="D47">
         <v>0</v>
       </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
       <c r="F47">
         <v>0</v>
       </c>
@@ -2104,17 +2262,20 @@
       <c r="K47">
         <v>0</v>
       </c>
-      <c r="L47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M47">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>46</v>
       </c>
       <c r="D48">
         <v>0</v>
       </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
       <c r="F48">
         <v>0</v>
       </c>
@@ -2133,17 +2294,20 @@
       <c r="K48">
         <v>0</v>
       </c>
-      <c r="L48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>47</v>
       </c>
       <c r="D49">
         <v>0</v>
       </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
       <c r="F49">
         <v>0</v>
       </c>
@@ -2162,17 +2326,20 @@
       <c r="K49">
         <v>0</v>
       </c>
-      <c r="L49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>48</v>
       </c>
       <c r="D50">
         <v>0</v>
       </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
       <c r="F50">
         <v>0</v>
       </c>
@@ -2191,17 +2358,20 @@
       <c r="K50">
         <v>0</v>
       </c>
-      <c r="L50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>49</v>
       </c>
       <c r="D51">
         <v>0</v>
       </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
       <c r="F51">
         <v>0</v>
       </c>
@@ -2220,17 +2390,20 @@
       <c r="K51">
         <v>0</v>
       </c>
-      <c r="L51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>50</v>
       </c>
       <c r="D52">
         <v>0</v>
       </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
       <c r="F52">
         <v>0</v>
       </c>
@@ -2249,17 +2422,20 @@
       <c r="K52">
         <v>0</v>
       </c>
-      <c r="L52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>51</v>
       </c>
       <c r="D53">
         <v>0</v>
       </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
       <c r="F53">
         <v>0</v>
       </c>
@@ -2278,17 +2454,20 @@
       <c r="K53">
         <v>0</v>
       </c>
-      <c r="L53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>52</v>
       </c>
       <c r="D54">
         <v>0</v>
       </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
       <c r="F54">
         <v>0</v>
       </c>
@@ -2307,17 +2486,20 @@
       <c r="K54">
         <v>0</v>
       </c>
-      <c r="L54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>53</v>
       </c>
       <c r="D55">
         <v>0</v>
       </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
       <c r="F55">
         <v>0</v>
       </c>
@@ -2336,17 +2518,20 @@
       <c r="K55">
         <v>0</v>
       </c>
-      <c r="L55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>54</v>
       </c>
       <c r="D56">
         <v>0</v>
       </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
       <c r="F56">
         <v>0</v>
       </c>
@@ -2365,17 +2550,20 @@
       <c r="K56">
         <v>0</v>
       </c>
-      <c r="L56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>55</v>
       </c>
       <c r="D57">
         <v>0</v>
       </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
       <c r="F57">
         <v>0</v>
       </c>
@@ -2394,17 +2582,20 @@
       <c r="K57">
         <v>0</v>
       </c>
-      <c r="L57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>56</v>
       </c>
       <c r="D58">
         <v>0</v>
       </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
       <c r="F58">
         <v>0</v>
       </c>
@@ -2423,17 +2614,20 @@
       <c r="K58">
         <v>0</v>
       </c>
-      <c r="L58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>57</v>
       </c>
       <c r="D59">
         <v>0</v>
       </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
       <c r="F59">
         <v>0</v>
       </c>
@@ -2452,17 +2646,20 @@
       <c r="K59">
         <v>0</v>
       </c>
-      <c r="L59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>58</v>
       </c>
       <c r="D60">
         <v>0</v>
       </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
       <c r="F60">
         <v>0</v>
       </c>
@@ -2481,17 +2678,20 @@
       <c r="K60">
         <v>0</v>
       </c>
-      <c r="L60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>59</v>
       </c>
       <c r="D61">
         <v>0</v>
       </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
       <c r="F61">
         <v>0</v>
       </c>
@@ -2510,17 +2710,20 @@
       <c r="K61">
         <v>0</v>
       </c>
-      <c r="L61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>60</v>
       </c>
       <c r="D62">
         <v>0</v>
       </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
       <c r="F62">
         <v>0</v>
       </c>
@@ -2539,17 +2742,20 @@
       <c r="K62">
         <v>0</v>
       </c>
-      <c r="L62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>61</v>
       </c>
       <c r="D63">
         <v>0</v>
       </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
       <c r="F63">
         <v>0</v>
       </c>
@@ -2568,17 +2774,20 @@
       <c r="K63">
         <v>0</v>
       </c>
-      <c r="L63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>62</v>
       </c>
       <c r="D64">
         <v>0</v>
       </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
       <c r="F64">
         <v>0</v>
       </c>
@@ -2597,17 +2806,20 @@
       <c r="K64">
         <v>0</v>
       </c>
-      <c r="L64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>63</v>
       </c>
       <c r="D65">
         <v>0</v>
       </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
       <c r="F65">
         <v>0</v>
       </c>
@@ -2626,17 +2838,20 @@
       <c r="K65">
         <v>0</v>
       </c>
-      <c r="L65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>64</v>
       </c>
       <c r="D66">
         <v>0</v>
       </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
       <c r="F66">
         <v>0</v>
       </c>
@@ -2655,11 +2870,11 @@
       <c r="K66">
         <v>0</v>
       </c>
-      <c r="L66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>65</v>
       </c>
@@ -2672,6 +2887,9 @@
       <c r="D67">
         <v>0</v>
       </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
       <c r="F67">
         <v>0</v>
       </c>
@@ -2690,11 +2908,11 @@
       <c r="K67">
         <v>0</v>
       </c>
-      <c r="L67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>66</v>
       </c>
@@ -2707,6 +2925,9 @@
       <c r="D68">
         <v>4600</v>
       </c>
+      <c r="E68">
+        <v>4600</v>
+      </c>
       <c r="F68">
         <v>4600</v>
       </c>
@@ -2725,11 +2946,11 @@
       <c r="K68">
         <v>4600</v>
       </c>
-      <c r="L68">
-        <v>4600</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>67</v>
       </c>
@@ -2742,6 +2963,9 @@
       <c r="D69">
         <v>0</v>
       </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
       <c r="F69">
         <v>0</v>
       </c>
@@ -2760,11 +2984,11 @@
       <c r="K69">
         <v>0</v>
       </c>
-      <c r="L69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>68</v>
       </c>
@@ -2777,6 +3001,9 @@
       <c r="D70">
         <v>70</v>
       </c>
+      <c r="E70">
+        <v>70</v>
+      </c>
       <c r="F70">
         <v>70</v>
       </c>
@@ -2795,62 +3022,83 @@
       <c r="K70">
         <v>70</v>
       </c>
-      <c r="L70">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>69</v>
       </c>
-      <c r="L71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>70</v>
       </c>
-      <c r="L72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>71</v>
       </c>
-      <c r="L73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>4600</v>
+      </c>
+      <c r="N73" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>72</v>
       </c>
-      <c r="L74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>73</v>
       </c>
-      <c r="L75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>74</v>
       </c>
       <c r="C76" t="s">
         <v>44</v>
       </c>
-      <c r="L76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>75</v>
       </c>
@@ -2860,28 +3108,84 @@
       <c r="C77" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="L77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>76</v>
       </c>
-      <c r="L78">
+      <c r="B78">
+        <v>82</v>
+      </c>
+      <c r="C78" t="s">
+        <v>70</v>
+      </c>
+      <c r="K78">
         <v>16</v>
       </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>77</v>
       </c>
-      <c r="L79">
+      <c r="K79">
         <v>1</v>
+      </c>
+      <c r="M79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M80">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="81" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M86">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="87" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M87">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2889,7 +3193,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA8C0C25-584C-4DB3-91C9-D576A78C1B11}">
   <dimension ref="A1:J107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
@@ -2902,16 +3206,16 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C1" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G1" s="2"/>
       <c r="H1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -2968,7 +3272,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C4">
         <v>23488</v>
@@ -2991,7 +3295,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C5">
         <v>23535</v>
@@ -3009,7 +3313,7 @@
         <v>23382</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -3017,7 +3321,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C6">
         <v>23606</v>
@@ -3035,7 +3339,7 @@
         <v>23225</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -3043,7 +3347,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -3061,7 +3365,7 @@
         <v>23300</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -3069,7 +3373,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -3087,7 +3391,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -3095,7 +3399,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -3113,7 +3417,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -3121,7 +3425,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -3139,7 +3443,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -3147,7 +3451,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -3165,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -3173,7 +3477,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -3191,7 +3495,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -3217,7 +3521,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -3225,7 +3529,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -3271,7 +3575,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C16">
         <v>196</v>
@@ -3294,7 +3598,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -3312,7 +3616,7 @@
         <v>4</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -3338,7 +3642,7 @@
         <v>0</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -3461,7 +3765,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C24">
         <v>65395</v>
@@ -3699,7 +4003,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C35">
         <v>4992</v>
@@ -3717,7 +4021,7 @@
         <v>4984</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
@@ -3725,7 +4029,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C36">
         <v>4984</v>
@@ -3743,7 +4047,7 @@
         <v>4988</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
@@ -3751,7 +4055,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C37">
         <v>4996</v>
@@ -3769,7 +4073,7 @@
         <v>4984</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
@@ -4722,7 +5026,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C84">
         <v>12318</v>
@@ -4923,7 +5227,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C93">
         <v>120</v>
@@ -4946,7 +5250,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C94">
         <v>1195</v>
@@ -4969,7 +5273,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C95">
         <v>1000</v>

--- a/doc/Mapping.xlsx
+++ b/doc/Mapping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\trest\Source\Repos\HomeAssistant\homeassistant-solax-http\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A71BBE2-99C7-4A16-A8D7-ADF728575030}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FA50947-1282-468F-A5F3-5DC08695C10C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E30620CE-52E2-4698-983C-BDD3AD23A8BB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{E30620CE-52E2-4698-983C-BDD3AD23A8BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="72">
   <si>
     <t>[</t>
   </si>
@@ -250,6 +250,9 @@
   </si>
   <si>
     <t>Max Charge Current</t>
+  </si>
+  <si>
+    <t>???</t>
   </si>
 </sst>
 </file>
@@ -266,7 +269,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -276,6 +279,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -292,12 +307,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
@@ -614,15 +632,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E382A0D-967B-40F4-B1C8-B14BB77D210D}">
   <dimension ref="A1:N87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="P73" sqref="P73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="18.33203125" customWidth="1"/>
     <col min="3" max="3" width="21.21875" customWidth="1"/>
-    <col min="14" max="14" width="13.109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="13.109375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -711,6 +729,9 @@
       <c r="M3">
         <v>0</v>
       </c>
+      <c r="N3" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4">
@@ -749,7 +770,7 @@
       <c r="M4">
         <v>70</v>
       </c>
-      <c r="N4" t="s">
+      <c r="N4" s="5" t="s">
         <v>39</v>
       </c>
     </row>
@@ -790,7 +811,7 @@
       <c r="M5">
         <v>16</v>
       </c>
-      <c r="N5" t="s">
+      <c r="N5" s="5" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1151,7 +1172,7 @@
       <c r="M15">
         <v>265</v>
       </c>
-      <c r="N15" s="1" t="s">
+      <c r="N15" s="5" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1192,7 +1213,7 @@
       <c r="M16">
         <v>160</v>
       </c>
-      <c r="N16" s="1" t="s">
+      <c r="N16" s="5" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1446,7 +1467,7 @@
       <c r="M23">
         <v>44</v>
       </c>
-      <c r="N23" s="1" t="s">
+      <c r="N23" s="5" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1586,7 +1607,7 @@
       <c r="M27">
         <v>12593</v>
       </c>
-      <c r="N27" s="1" t="s">
+      <c r="N27" s="5" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1621,7 +1642,7 @@
       <c r="M28">
         <v>12593</v>
       </c>
-      <c r="N28" s="1" t="s">
+      <c r="N28" s="5" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1656,7 +1677,7 @@
       <c r="M29">
         <v>12593</v>
       </c>
-      <c r="N29" s="1" t="s">
+      <c r="N29" s="5" t="s">
         <v>35</v>
       </c>
     </row>
@@ -3058,7 +3079,7 @@
       <c r="M73">
         <v>4600</v>
       </c>
-      <c r="N73" s="1" t="s">
+      <c r="N73" s="5" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3193,15 +3214,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA8C0C25-584C-4DB3-91C9-D576A78C1B11}">
   <dimension ref="A1:J107"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="28.6640625" customWidth="1"/>
     <col min="8" max="8" width="10.77734375" customWidth="1"/>
-    <col min="10" max="10" width="15.88671875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="15.88671875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
@@ -3240,8 +3261,8 @@
       <c r="H2">
         <v>0</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>1</v>
+      <c r="J2" s="4" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -3289,6 +3310,9 @@
       <c r="H4">
         <v>0</v>
       </c>
+      <c r="J4" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
@@ -3312,7 +3336,7 @@
       <c r="H5">
         <v>23382</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J5" s="3" t="s">
         <v>52</v>
       </c>
     </row>
@@ -3338,7 +3362,7 @@
       <c r="H6">
         <v>23225</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="J6" s="3" t="s">
         <v>53</v>
       </c>
     </row>
@@ -3364,7 +3388,7 @@
       <c r="H7">
         <v>23300</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="J7" s="3" t="s">
         <v>54</v>
       </c>
     </row>
@@ -3390,7 +3414,7 @@
       <c r="H8">
         <v>0</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="J8" s="3" t="s">
         <v>55</v>
       </c>
     </row>
@@ -3416,7 +3440,7 @@
       <c r="H9">
         <v>0</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="J9" s="3" t="s">
         <v>56</v>
       </c>
     </row>
@@ -3442,7 +3466,7 @@
       <c r="H10">
         <v>0</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="J10" s="3" t="s">
         <v>57</v>
       </c>
     </row>
@@ -3468,7 +3492,7 @@
       <c r="H11">
         <v>0</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="J11" s="3" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3494,7 +3518,7 @@
       <c r="H12">
         <v>0</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="J12" s="3" t="s">
         <v>59</v>
       </c>
     </row>
@@ -3520,7 +3544,7 @@
       <c r="H13">
         <v>0</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="J13" s="3" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3546,7 +3570,7 @@
       <c r="H14">
         <v>0</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3615,7 +3639,7 @@
       <c r="H17">
         <v>4</v>
       </c>
-      <c r="J17" s="1" t="s">
+      <c r="J17" s="3" t="s">
         <v>62</v>
       </c>
     </row>
@@ -3641,7 +3665,7 @@
       <c r="H18">
         <v>0</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="J18" s="3" t="s">
         <v>63</v>
       </c>
     </row>
@@ -3828,7 +3852,7 @@
       <c r="H26">
         <v>15</v>
       </c>
-      <c r="J26" s="1" t="s">
+      <c r="J26" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3851,7 +3875,7 @@
       <c r="H27">
         <v>21</v>
       </c>
-      <c r="J27" s="1" t="s">
+      <c r="J27" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -4020,7 +4044,7 @@
       <c r="H35">
         <v>4984</v>
       </c>
-      <c r="J35" s="1" t="s">
+      <c r="J35" s="3" t="s">
         <v>65</v>
       </c>
     </row>
@@ -4046,7 +4070,7 @@
       <c r="H36">
         <v>4988</v>
       </c>
-      <c r="J36" s="1" t="s">
+      <c r="J36" s="3" t="s">
         <v>66</v>
       </c>
     </row>
@@ -4072,7 +4096,7 @@
       <c r="H37">
         <v>4984</v>
       </c>
-      <c r="J37" s="1" t="s">
+      <c r="J37" s="3" t="s">
         <v>67</v>
       </c>
     </row>
@@ -4098,7 +4122,7 @@
       <c r="H38">
         <v>13074</v>
       </c>
-      <c r="J38" s="1" t="s">
+      <c r="J38" s="3" t="s">
         <v>42</v>
       </c>
     </row>
@@ -4124,7 +4148,7 @@
       <c r="H39">
         <v>1810</v>
       </c>
-      <c r="J39" s="1" t="s">
+      <c r="J39" s="3" t="s">
         <v>41</v>
       </c>
     </row>
@@ -4150,7 +4174,7 @@
       <c r="H40">
         <v>6155</v>
       </c>
-      <c r="J40" s="1" t="s">
+      <c r="J40" s="3" t="s">
         <v>40</v>
       </c>
     </row>

--- a/doc/Mapping.xlsx
+++ b/doc/Mapping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\trest\Source\Repos\HomeAssistant\homeassistant-solax-http\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FA50947-1282-468F-A5F3-5DC08695C10C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F60824D9-C86F-4332-AC91-FA0805E9BD75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{E30620CE-52E2-4698-983C-BDD3AD23A8BB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E30620CE-52E2-4698-983C-BDD3AD23A8BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="140">
   <si>
     <t>[</t>
   </si>
@@ -81,9 +81,6 @@
     <t>Charge time</t>
   </si>
   <si>
-    <t>OCPP offline</t>
-  </si>
-  <si>
     <t>Type power</t>
   </si>
   <si>
@@ -253,13 +250,220 @@
   </si>
   <si>
     <t>???</t>
+  </si>
+  <si>
+    <t>unplugged</t>
+  </si>
+  <si>
+    <t>stopped</t>
+  </si>
+  <si>
+    <t>Fast</t>
+  </si>
+  <si>
+    <t>Eco</t>
+  </si>
+  <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>SceneValue</t>
+  </si>
+  <si>
+    <t>chargingPhase</t>
+  </si>
+  <si>
+    <t>threePhaseInput</t>
+  </si>
+  <si>
+    <t>threePhaseSelect</t>
+  </si>
+  <si>
+    <t>ParallelSettingValue</t>
+  </si>
+  <si>
+    <t>SecondaryNumber</t>
+  </si>
+  <si>
+    <t>masterSlaveRatioValue</t>
+  </si>
+  <si>
+    <t>delayStartSwitch</t>
+  </si>
+  <si>
+    <t>delayDuration</t>
+  </si>
+  <si>
+    <t>GridType</t>
+  </si>
+  <si>
+    <t>OverVoltage</t>
+  </si>
+  <si>
+    <t>LowVoltage</t>
+  </si>
+  <si>
+    <t>Charging_pile_status</t>
+  </si>
+  <si>
+    <t>EVSE_Scene</t>
+  </si>
+  <si>
+    <t>Solar_Mode</t>
+  </si>
+  <si>
+    <t>Total_ChargePower</t>
+  </si>
+  <si>
+    <t>EQ_Single</t>
+  </si>
+  <si>
+    <t>MainBreakerLimitState</t>
+  </si>
+  <si>
+    <t>Extern_CurrentA</t>
+  </si>
+  <si>
+    <t>Extern_CurrentB</t>
+  </si>
+  <si>
+    <t>Extern_CurrentC</t>
+  </si>
+  <si>
+    <t>Extern_PowerA</t>
+  </si>
+  <si>
+    <t>Extern_PowerB</t>
+  </si>
+  <si>
+    <t>Extern_PowerC</t>
+  </si>
+  <si>
+    <t>Extern_TotalPower</t>
+  </si>
+  <si>
+    <t>CC_State</t>
+  </si>
+  <si>
+    <t>CP_State</t>
+  </si>
+  <si>
+    <t>Fault_Code</t>
+  </si>
+  <si>
+    <t>Q_Save_Single</t>
+  </si>
+  <si>
+    <t>EQ_Save_Total</t>
+  </si>
+  <si>
+    <t>RTC_WeekDay</t>
+  </si>
+  <si>
+    <t>Lock_Status</t>
+  </si>
+  <si>
+    <t>ChargingDuration</t>
+  </si>
+  <si>
+    <t>Start_Seconds/Min</t>
+  </si>
+  <si>
+    <t>Start_Hours/Days</t>
+  </si>
+  <si>
+    <t>Start_Months/Years</t>
+  </si>
+  <si>
+    <t>CC_value</t>
+  </si>
+  <si>
+    <t>CP_value</t>
+  </si>
+  <si>
+    <t>CP_PWM</t>
+  </si>
+  <si>
+    <t>TimeDifference</t>
+  </si>
+  <si>
+    <t>area_code</t>
+  </si>
+  <si>
+    <t>delay_state</t>
+  </si>
+  <si>
+    <t>schedule_state</t>
+  </si>
+  <si>
+    <t>Network_state</t>
+  </si>
+  <si>
+    <t>Authen_required</t>
+  </si>
+  <si>
+    <t>OCPP_Meter_Type</t>
+  </si>
+  <si>
+    <t>L1NRelay_Open_Time</t>
+  </si>
+  <si>
+    <t>L1NRelay_Close_Time</t>
+  </si>
+  <si>
+    <t>L1L2Relay_Open_Time</t>
+  </si>
+  <si>
+    <t>L1L2Relay_Close_Time</t>
+  </si>
+  <si>
+    <t>OCPP_Meter_Ua</t>
+  </si>
+  <si>
+    <t>OCPP_Meter_Ub</t>
+  </si>
+  <si>
+    <t>OCPP_Meter_Uc</t>
+  </si>
+  <si>
+    <t>Charger_scene</t>
+  </si>
+  <si>
+    <t>Type_screen</t>
+  </si>
+  <si>
+    <t>GreenGear</t>
+  </si>
+  <si>
+    <t>ECOGear</t>
+  </si>
+  <si>
+    <t>FASTGear</t>
+  </si>
+  <si>
+    <t>PrivateMode</t>
+  </si>
+  <si>
+    <t>StartTime</t>
+  </si>
+  <si>
+    <t>EndTime</t>
+  </si>
+  <si>
+    <t>Set_EQValue</t>
+  </si>
+  <si>
+    <t>Set_TimeValue</t>
+  </si>
+  <si>
+    <t>boostMode</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -268,8 +472,15 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF9CDCFE"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+      <charset val="238"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -294,6 +505,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -307,15 +524,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
@@ -630,31 +850,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E382A0D-967B-40F4-B1C8-B14BB77D210D}">
-  <dimension ref="A1:N87"/>
+  <dimension ref="A1:W87"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="P73" sqref="P73"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="U2" sqref="U2:W21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="18.33203125" customWidth="1"/>
     <col min="3" max="3" width="21.21875" customWidth="1"/>
-    <col min="14" max="14" width="13.109375" style="5" customWidth="1"/>
+    <col min="14" max="18" width="13.109375" customWidth="1"/>
+    <col min="19" max="19" width="13.109375" style="3" customWidth="1"/>
+    <col min="22" max="22" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
         <v>18</v>
       </c>
-      <c r="B1" t="s">
-        <v>19</v>
-      </c>
       <c r="F1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N1" t="s">
+        <v>71</v>
+      </c>
+      <c r="O1" t="s">
+        <v>72</v>
+      </c>
+      <c r="P1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>74</v>
+      </c>
+      <c r="R1" t="s">
+        <v>75</v>
+      </c>
+      <c r="U1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -662,7 +902,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -691,8 +931,29 @@
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -729,11 +990,33 @@
       <c r="M3">
         <v>0</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="R3">
+        <v>3</v>
+      </c>
+      <c r="S3"/>
+      <c r="U3">
+        <v>1</v>
+      </c>
+      <c r="V3" t="s">
+        <v>2</v>
+      </c>
+      <c r="W3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -741,7 +1024,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4">
         <v>6</v>
@@ -770,11 +1053,29 @@
       <c r="M4">
         <v>70</v>
       </c>
-      <c r="N4" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N4">
+        <v>70</v>
+      </c>
+      <c r="O4">
+        <v>70</v>
+      </c>
+      <c r="P4">
+        <v>70</v>
+      </c>
+      <c r="Q4">
+        <v>70</v>
+      </c>
+      <c r="R4">
+        <v>70</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="U4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -782,7 +1083,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5">
         <v>6</v>
@@ -811,11 +1112,35 @@
       <c r="M5">
         <v>16</v>
       </c>
-      <c r="N5" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N5">
+        <v>16</v>
+      </c>
+      <c r="O5">
+        <v>16</v>
+      </c>
+      <c r="P5">
+        <v>16</v>
+      </c>
+      <c r="Q5">
+        <v>16</v>
+      </c>
+      <c r="R5">
+        <v>16</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="U5">
+        <v>3</v>
+      </c>
+      <c r="V5" t="s">
+        <v>133</v>
+      </c>
+      <c r="W5">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -823,7 +1148,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -852,8 +1177,29 @@
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>4</v>
+      </c>
+      <c r="V6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -861,7 +1207,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D7">
         <v>265</v>
@@ -890,8 +1236,26 @@
       <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -899,7 +1263,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8">
         <v>160</v>
@@ -928,8 +1292,26 @@
       <c r="M8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -960,8 +1342,26 @@
       <c r="M9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <v>1</v>
+      </c>
+      <c r="R9">
+        <v>1</v>
+      </c>
+      <c r="U9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -992,8 +1392,26 @@
       <c r="M10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1024,8 +1442,26 @@
       <c r="M11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <v>1</v>
+      </c>
+      <c r="R11">
+        <v>1</v>
+      </c>
+      <c r="U11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1058,8 +1494,26 @@
       <c r="M12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="U12" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1067,7 +1521,7 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -1096,8 +1550,32 @@
       <c r="M13">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N13">
+        <v>10</v>
+      </c>
+      <c r="O13">
+        <v>10</v>
+      </c>
+      <c r="P13">
+        <v>10</v>
+      </c>
+      <c r="Q13">
+        <v>10</v>
+      </c>
+      <c r="R13">
+        <v>10</v>
+      </c>
+      <c r="U13">
+        <v>11</v>
+      </c>
+      <c r="V13" t="s">
+        <v>132</v>
+      </c>
+      <c r="W13">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1105,7 +1583,7 @@
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -1134,8 +1612,32 @@
       <c r="M14">
         <v>6</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N14">
+        <v>6</v>
+      </c>
+      <c r="O14">
+        <v>6</v>
+      </c>
+      <c r="P14">
+        <v>6</v>
+      </c>
+      <c r="Q14">
+        <v>6</v>
+      </c>
+      <c r="R14">
+        <v>6</v>
+      </c>
+      <c r="U14">
+        <v>12</v>
+      </c>
+      <c r="V14" t="s">
+        <v>131</v>
+      </c>
+      <c r="W14">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1143,7 +1645,7 @@
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -1172,11 +1674,35 @@
       <c r="M15">
         <v>265</v>
       </c>
-      <c r="N15" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N15">
+        <v>265</v>
+      </c>
+      <c r="O15">
+        <v>265</v>
+      </c>
+      <c r="P15">
+        <v>265</v>
+      </c>
+      <c r="Q15">
+        <v>265</v>
+      </c>
+      <c r="R15">
+        <v>265</v>
+      </c>
+      <c r="S15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="U15">
+        <v>13</v>
+      </c>
+      <c r="V15" t="s">
+        <v>86</v>
+      </c>
+      <c r="W15">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1184,7 +1710,7 @@
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -1213,11 +1739,35 @@
       <c r="M16">
         <v>160</v>
       </c>
-      <c r="N16" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N16">
+        <v>160</v>
+      </c>
+      <c r="O16">
+        <v>160</v>
+      </c>
+      <c r="P16">
+        <v>160</v>
+      </c>
+      <c r="Q16">
+        <v>160</v>
+      </c>
+      <c r="R16">
+        <v>160</v>
+      </c>
+      <c r="S16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="U16">
+        <v>14</v>
+      </c>
+      <c r="V16" t="s">
+        <v>87</v>
+      </c>
+      <c r="W16">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1225,7 +1775,7 @@
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -1254,8 +1804,32 @@
       <c r="M17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>15</v>
+      </c>
+      <c r="V17" t="s">
+        <v>139</v>
+      </c>
+      <c r="W17">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1286,8 +1860,32 @@
       <c r="M18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>16</v>
+      </c>
+      <c r="V18" t="s">
+        <v>135</v>
+      </c>
+      <c r="W18">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1295,7 +1893,7 @@
         <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D19">
         <v>44</v>
@@ -1324,8 +1922,32 @@
       <c r="M19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>17</v>
+      </c>
+      <c r="V19" t="s">
+        <v>136</v>
+      </c>
+      <c r="W19">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1333,7 +1955,7 @@
         <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D20">
         <v>70</v>
@@ -1362,16 +1984,40 @@
       <c r="M20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>18</v>
+      </c>
+      <c r="V20" t="s">
+        <v>137</v>
+      </c>
+      <c r="W20">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D21">
         <v>108</v>
@@ -1400,8 +2046,32 @@
       <c r="M21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>19</v>
+      </c>
+      <c r="V21" t="s">
+        <v>138</v>
+      </c>
+      <c r="W21">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1432,13 +2102,31 @@
       <c r="M22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
       <c r="C23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -1467,19 +2155,37 @@
       <c r="M23">
         <v>44</v>
       </c>
-      <c r="N23" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N23">
+        <v>44</v>
+      </c>
+      <c r="O23">
+        <v>44</v>
+      </c>
+      <c r="P23">
+        <v>44</v>
+      </c>
+      <c r="Q23">
+        <v>44</v>
+      </c>
+      <c r="R23">
+        <v>44</v>
+      </c>
+      <c r="S23" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="U23">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -1508,8 +2214,26 @@
       <c r="M24">
         <v>25</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N24">
+        <v>25</v>
+      </c>
+      <c r="O24">
+        <v>25</v>
+      </c>
+      <c r="P24">
+        <v>25</v>
+      </c>
+      <c r="Q24">
+        <v>25</v>
+      </c>
+      <c r="R24">
+        <v>25</v>
+      </c>
+      <c r="U24">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1540,8 +2264,26 @@
       <c r="M25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
@@ -1575,8 +2317,26 @@
       <c r="M26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
@@ -1607,11 +2367,29 @@
       <c r="M27">
         <v>12593</v>
       </c>
-      <c r="N27" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N27">
+        <v>12593</v>
+      </c>
+      <c r="O27">
+        <v>12593</v>
+      </c>
+      <c r="P27">
+        <v>12593</v>
+      </c>
+      <c r="Q27">
+        <v>12593</v>
+      </c>
+      <c r="R27">
+        <v>12593</v>
+      </c>
+      <c r="S27" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="U27">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
@@ -1642,11 +2420,29 @@
       <c r="M28">
         <v>12593</v>
       </c>
-      <c r="N28" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N28">
+        <v>12593</v>
+      </c>
+      <c r="O28">
+        <v>12593</v>
+      </c>
+      <c r="P28">
+        <v>12593</v>
+      </c>
+      <c r="Q28">
+        <v>12593</v>
+      </c>
+      <c r="R28">
+        <v>12593</v>
+      </c>
+      <c r="S28" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="U28">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
@@ -1677,11 +2473,29 @@
       <c r="M29">
         <v>12593</v>
       </c>
-      <c r="N29" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N29">
+        <v>12593</v>
+      </c>
+      <c r="O29">
+        <v>12593</v>
+      </c>
+      <c r="P29">
+        <v>12593</v>
+      </c>
+      <c r="Q29">
+        <v>12593</v>
+      </c>
+      <c r="R29">
+        <v>12593</v>
+      </c>
+      <c r="S29" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="U29">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28</v>
       </c>
@@ -1689,7 +2503,7 @@
         <v>28</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -1718,8 +2532,26 @@
       <c r="M30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>29</v>
       </c>
@@ -1727,7 +2559,7 @@
         <v>34</v>
       </c>
       <c r="C31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -1756,8 +2588,26 @@
       <c r="M31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>30</v>
       </c>
@@ -1765,7 +2615,7 @@
         <v>35</v>
       </c>
       <c r="C32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -1794,8 +2644,26 @@
       <c r="M32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>31</v>
       </c>
@@ -1803,7 +2671,7 @@
         <v>36</v>
       </c>
       <c r="C33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -1832,8 +2700,26 @@
       <c r="M33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <v>0</v>
+      </c>
+      <c r="U33">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>32</v>
       </c>
@@ -1841,7 +2727,7 @@
         <v>37</v>
       </c>
       <c r="C34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -1870,8 +2756,26 @@
       <c r="M34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>33</v>
       </c>
@@ -1902,8 +2806,26 @@
       <c r="M35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <v>0</v>
+      </c>
+      <c r="U35">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>34</v>
       </c>
@@ -1934,8 +2856,26 @@
       <c r="M36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <v>0</v>
+      </c>
+      <c r="U36">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>35</v>
       </c>
@@ -1966,8 +2906,26 @@
       <c r="M37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+      <c r="R37">
+        <v>0</v>
+      </c>
+      <c r="U37">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>36</v>
       </c>
@@ -1998,8 +2956,26 @@
       <c r="M38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+      <c r="R38">
+        <v>0</v>
+      </c>
+      <c r="U38">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>37</v>
       </c>
@@ -2030,8 +3006,26 @@
       <c r="M39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>0</v>
+      </c>
+      <c r="R39">
+        <v>0</v>
+      </c>
+      <c r="U39">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>38</v>
       </c>
@@ -2062,8 +3056,26 @@
       <c r="M40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>0</v>
+      </c>
+      <c r="R40">
+        <v>0</v>
+      </c>
+      <c r="U40">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>39</v>
       </c>
@@ -2094,8 +3106,26 @@
       <c r="M41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>0</v>
+      </c>
+      <c r="R41">
+        <v>0</v>
+      </c>
+      <c r="U41">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>40</v>
       </c>
@@ -2126,8 +3156,26 @@
       <c r="M42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>0</v>
+      </c>
+      <c r="R42">
+        <v>0</v>
+      </c>
+      <c r="U42">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>41</v>
       </c>
@@ -2158,8 +3206,26 @@
       <c r="M43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N43">
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>0</v>
+      </c>
+      <c r="R43">
+        <v>0</v>
+      </c>
+      <c r="U43">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>42</v>
       </c>
@@ -2190,8 +3256,26 @@
       <c r="M44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N44">
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>0</v>
+      </c>
+      <c r="R44">
+        <v>0</v>
+      </c>
+      <c r="U44">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>43</v>
       </c>
@@ -2222,8 +3306,26 @@
       <c r="M45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N45">
+        <v>0</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>0</v>
+      </c>
+      <c r="R45">
+        <v>0</v>
+      </c>
+      <c r="U45">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>44</v>
       </c>
@@ -2254,8 +3356,29 @@
       <c r="M46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>0</v>
+      </c>
+      <c r="R46">
+        <v>0</v>
+      </c>
+      <c r="U46">
+        <v>44</v>
+      </c>
+      <c r="V46" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>45</v>
       </c>
@@ -2286,8 +3409,29 @@
       <c r="M47">
         <v>600</v>
       </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N47">
+        <v>600</v>
+      </c>
+      <c r="O47">
+        <v>600</v>
+      </c>
+      <c r="P47">
+        <v>600</v>
+      </c>
+      <c r="Q47">
+        <v>600</v>
+      </c>
+      <c r="R47">
+        <v>600</v>
+      </c>
+      <c r="U47">
+        <v>45</v>
+      </c>
+      <c r="V47" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>46</v>
       </c>
@@ -2318,8 +3462,26 @@
       <c r="M48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N48">
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>0</v>
+      </c>
+      <c r="R48">
+        <v>0</v>
+      </c>
+      <c r="U48">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>47</v>
       </c>
@@ -2350,8 +3512,26 @@
       <c r="M49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N49">
+        <v>0</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>0</v>
+      </c>
+      <c r="R49">
+        <v>0</v>
+      </c>
+      <c r="U49">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>48</v>
       </c>
@@ -2382,8 +3562,26 @@
       <c r="M50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N50">
+        <v>0</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>0</v>
+      </c>
+      <c r="R50">
+        <v>0</v>
+      </c>
+      <c r="U50">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>49</v>
       </c>
@@ -2414,8 +3612,26 @@
       <c r="M51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N51">
+        <v>0</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>0</v>
+      </c>
+      <c r="R51">
+        <v>0</v>
+      </c>
+      <c r="U51">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>50</v>
       </c>
@@ -2446,8 +3662,26 @@
       <c r="M52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N52">
+        <v>0</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+      <c r="P52">
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <v>0</v>
+      </c>
+      <c r="R52">
+        <v>0</v>
+      </c>
+      <c r="U52">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>51</v>
       </c>
@@ -2478,8 +3712,26 @@
       <c r="M53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N53">
+        <v>0</v>
+      </c>
+      <c r="O53">
+        <v>0</v>
+      </c>
+      <c r="P53">
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <v>0</v>
+      </c>
+      <c r="R53">
+        <v>0</v>
+      </c>
+      <c r="U53">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>52</v>
       </c>
@@ -2510,8 +3762,26 @@
       <c r="M54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N54">
+        <v>0</v>
+      </c>
+      <c r="O54">
+        <v>0</v>
+      </c>
+      <c r="P54">
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <v>0</v>
+      </c>
+      <c r="R54">
+        <v>0</v>
+      </c>
+      <c r="U54">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>53</v>
       </c>
@@ -2542,8 +3812,26 @@
       <c r="M55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N55">
+        <v>0</v>
+      </c>
+      <c r="O55">
+        <v>0</v>
+      </c>
+      <c r="P55">
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <v>0</v>
+      </c>
+      <c r="R55">
+        <v>0</v>
+      </c>
+      <c r="U55">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>54</v>
       </c>
@@ -2574,8 +3862,26 @@
       <c r="M56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N56">
+        <v>0</v>
+      </c>
+      <c r="O56">
+        <v>0</v>
+      </c>
+      <c r="P56">
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <v>0</v>
+      </c>
+      <c r="R56">
+        <v>0</v>
+      </c>
+      <c r="U56">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>55</v>
       </c>
@@ -2606,8 +3912,26 @@
       <c r="M57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N57">
+        <v>0</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
+      <c r="P57">
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <v>0</v>
+      </c>
+      <c r="R57">
+        <v>0</v>
+      </c>
+      <c r="U57">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>56</v>
       </c>
@@ -2638,8 +3962,26 @@
       <c r="M58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N58">
+        <v>0</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
+      <c r="P58">
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <v>0</v>
+      </c>
+      <c r="R58">
+        <v>0</v>
+      </c>
+      <c r="U58">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>57</v>
       </c>
@@ -2670,8 +4012,26 @@
       <c r="M59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N59">
+        <v>0</v>
+      </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
+      <c r="P59">
+        <v>0</v>
+      </c>
+      <c r="Q59">
+        <v>0</v>
+      </c>
+      <c r="R59">
+        <v>0</v>
+      </c>
+      <c r="U59">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>58</v>
       </c>
@@ -2702,8 +4062,26 @@
       <c r="M60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N60">
+        <v>0</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
+      <c r="P60">
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <v>0</v>
+      </c>
+      <c r="R60">
+        <v>0</v>
+      </c>
+      <c r="U60">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>59</v>
       </c>
@@ -2734,8 +4112,26 @@
       <c r="M61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N61">
+        <v>0</v>
+      </c>
+      <c r="O61">
+        <v>0</v>
+      </c>
+      <c r="P61">
+        <v>0</v>
+      </c>
+      <c r="Q61">
+        <v>0</v>
+      </c>
+      <c r="R61">
+        <v>0</v>
+      </c>
+      <c r="U61">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>60</v>
       </c>
@@ -2766,8 +4162,26 @@
       <c r="M62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N62">
+        <v>0</v>
+      </c>
+      <c r="O62">
+        <v>0</v>
+      </c>
+      <c r="P62">
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <v>0</v>
+      </c>
+      <c r="R62">
+        <v>0</v>
+      </c>
+      <c r="U62">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>61</v>
       </c>
@@ -2798,8 +4212,26 @@
       <c r="M63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N63">
+        <v>0</v>
+      </c>
+      <c r="O63">
+        <v>0</v>
+      </c>
+      <c r="P63">
+        <v>0</v>
+      </c>
+      <c r="Q63">
+        <v>0</v>
+      </c>
+      <c r="R63">
+        <v>0</v>
+      </c>
+      <c r="U63">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>62</v>
       </c>
@@ -2830,8 +4262,26 @@
       <c r="M64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N64">
+        <v>0</v>
+      </c>
+      <c r="O64">
+        <v>0</v>
+      </c>
+      <c r="P64">
+        <v>0</v>
+      </c>
+      <c r="Q64">
+        <v>0</v>
+      </c>
+      <c r="R64">
+        <v>0</v>
+      </c>
+      <c r="U64">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>63</v>
       </c>
@@ -2862,8 +4312,26 @@
       <c r="M65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N65">
+        <v>0</v>
+      </c>
+      <c r="O65">
+        <v>0</v>
+      </c>
+      <c r="P65">
+        <v>0</v>
+      </c>
+      <c r="Q65">
+        <v>0</v>
+      </c>
+      <c r="R65">
+        <v>0</v>
+      </c>
+      <c r="U65">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>64</v>
       </c>
@@ -2894,8 +4362,26 @@
       <c r="M66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N66">
+        <v>0</v>
+      </c>
+      <c r="O66">
+        <v>0</v>
+      </c>
+      <c r="P66">
+        <v>0</v>
+      </c>
+      <c r="Q66">
+        <v>0</v>
+      </c>
+      <c r="R66">
+        <v>0</v>
+      </c>
+      <c r="U66">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>65</v>
       </c>
@@ -2903,7 +4389,7 @@
         <v>70</v>
       </c>
       <c r="C67" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -2932,8 +4418,26 @@
       <c r="M67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N67">
+        <v>0</v>
+      </c>
+      <c r="O67">
+        <v>0</v>
+      </c>
+      <c r="P67">
+        <v>0</v>
+      </c>
+      <c r="Q67">
+        <v>0</v>
+      </c>
+      <c r="R67">
+        <v>0</v>
+      </c>
+      <c r="U67">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="68" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>66</v>
       </c>
@@ -2941,7 +4445,7 @@
         <v>71</v>
       </c>
       <c r="C68" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D68">
         <v>4600</v>
@@ -2970,8 +4474,26 @@
       <c r="M68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N68">
+        <v>0</v>
+      </c>
+      <c r="O68">
+        <v>0</v>
+      </c>
+      <c r="P68">
+        <v>0</v>
+      </c>
+      <c r="Q68">
+        <v>0</v>
+      </c>
+      <c r="R68">
+        <v>0</v>
+      </c>
+      <c r="U68">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="69" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>67</v>
       </c>
@@ -2979,7 +4501,7 @@
         <v>72</v>
       </c>
       <c r="C69" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -3008,8 +4530,26 @@
       <c r="M69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N69">
+        <v>0</v>
+      </c>
+      <c r="O69">
+        <v>0</v>
+      </c>
+      <c r="P69">
+        <v>0</v>
+      </c>
+      <c r="Q69">
+        <v>0</v>
+      </c>
+      <c r="R69">
+        <v>0</v>
+      </c>
+      <c r="U69">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="70" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>68</v>
       </c>
@@ -3017,7 +4557,7 @@
         <v>73</v>
       </c>
       <c r="C70" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D70">
         <v>70</v>
@@ -3046,8 +4586,26 @@
       <c r="M70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N70">
+        <v>0</v>
+      </c>
+      <c r="O70">
+        <v>0</v>
+      </c>
+      <c r="P70">
+        <v>0</v>
+      </c>
+      <c r="Q70">
+        <v>0</v>
+      </c>
+      <c r="R70">
+        <v>0</v>
+      </c>
+      <c r="U70">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="71" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>69</v>
       </c>
@@ -3057,8 +4615,26 @@
       <c r="M71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N71">
+        <v>0</v>
+      </c>
+      <c r="O71">
+        <v>0</v>
+      </c>
+      <c r="P71">
+        <v>0</v>
+      </c>
+      <c r="Q71">
+        <v>0</v>
+      </c>
+      <c r="R71">
+        <v>0</v>
+      </c>
+      <c r="U71">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="72" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>70</v>
       </c>
@@ -3068,8 +4644,29 @@
       <c r="M72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N72">
+        <v>0</v>
+      </c>
+      <c r="O72">
+        <v>0</v>
+      </c>
+      <c r="P72">
+        <v>0</v>
+      </c>
+      <c r="Q72">
+        <v>0</v>
+      </c>
+      <c r="R72">
+        <v>0</v>
+      </c>
+      <c r="U72">
+        <v>70</v>
+      </c>
+      <c r="V72" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="73" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>71</v>
       </c>
@@ -3079,11 +4676,32 @@
       <c r="M73">
         <v>4600</v>
       </c>
-      <c r="N73" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N73">
+        <v>4600</v>
+      </c>
+      <c r="O73">
+        <v>4600</v>
+      </c>
+      <c r="P73">
+        <v>4600</v>
+      </c>
+      <c r="Q73">
+        <v>4600</v>
+      </c>
+      <c r="R73">
+        <v>4600</v>
+      </c>
+      <c r="S73" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="U73">
+        <v>71</v>
+      </c>
+      <c r="V73" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="74" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>72</v>
       </c>
@@ -3093,8 +4711,29 @@
       <c r="M74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N74">
+        <v>0</v>
+      </c>
+      <c r="O74">
+        <v>0</v>
+      </c>
+      <c r="P74">
+        <v>0</v>
+      </c>
+      <c r="Q74">
+        <v>0</v>
+      </c>
+      <c r="R74">
+        <v>0</v>
+      </c>
+      <c r="U74">
+        <v>72</v>
+      </c>
+      <c r="V74" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="75" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>73</v>
       </c>
@@ -3104,13 +4743,31 @@
       <c r="M75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N75">
+        <v>0</v>
+      </c>
+      <c r="O75">
+        <v>0</v>
+      </c>
+      <c r="P75">
+        <v>0</v>
+      </c>
+      <c r="Q75">
+        <v>0</v>
+      </c>
+      <c r="R75">
+        <v>0</v>
+      </c>
+      <c r="U75">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="76" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>74</v>
       </c>
       <c r="C76" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K76">
         <v>0</v>
@@ -3118,8 +4775,26 @@
       <c r="M76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N76">
+        <v>0</v>
+      </c>
+      <c r="O76">
+        <v>0</v>
+      </c>
+      <c r="P76">
+        <v>0</v>
+      </c>
+      <c r="Q76">
+        <v>0</v>
+      </c>
+      <c r="R76">
+        <v>0</v>
+      </c>
+      <c r="U76">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="77" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>75</v>
       </c>
@@ -3127,7 +4802,7 @@
         <v>75</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K77">
         <v>0</v>
@@ -3135,8 +4810,26 @@
       <c r="M77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N77">
+        <v>0</v>
+      </c>
+      <c r="O77">
+        <v>0</v>
+      </c>
+      <c r="P77">
+        <v>0</v>
+      </c>
+      <c r="Q77">
+        <v>0</v>
+      </c>
+      <c r="R77">
+        <v>0</v>
+      </c>
+      <c r="U77">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="78" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>76</v>
       </c>
@@ -3144,7 +4837,7 @@
         <v>82</v>
       </c>
       <c r="C78" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K78">
         <v>16</v>
@@ -3152,8 +4845,29 @@
       <c r="M78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N78">
+        <v>0</v>
+      </c>
+      <c r="O78">
+        <v>0</v>
+      </c>
+      <c r="P78">
+        <v>0</v>
+      </c>
+      <c r="Q78">
+        <v>0</v>
+      </c>
+      <c r="R78">
+        <v>0</v>
+      </c>
+      <c r="U78">
+        <v>76</v>
+      </c>
+      <c r="V78" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="79" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>77</v>
       </c>
@@ -3163,45 +4877,246 @@
       <c r="M79">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N79">
+        <v>1</v>
+      </c>
+      <c r="O79">
+        <v>1</v>
+      </c>
+      <c r="P79">
+        <v>1</v>
+      </c>
+      <c r="Q79">
+        <v>1</v>
+      </c>
+      <c r="R79">
+        <v>1</v>
+      </c>
+      <c r="U79">
+        <v>77</v>
+      </c>
+      <c r="V79" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="80" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>78</v>
+      </c>
       <c r="M80">
         <v>257</v>
       </c>
-    </row>
-    <row r="81" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="N80">
+        <v>257</v>
+      </c>
+      <c r="O80">
+        <v>257</v>
+      </c>
+      <c r="P80">
+        <v>257</v>
+      </c>
+      <c r="Q80">
+        <v>257</v>
+      </c>
+      <c r="R80">
+        <v>257</v>
+      </c>
+      <c r="U80">
+        <v>78</v>
+      </c>
+      <c r="V80" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="81" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>79</v>
+      </c>
       <c r="M81">
         <v>2</v>
       </c>
-    </row>
-    <row r="82" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="N81">
+        <v>2</v>
+      </c>
+      <c r="O81">
+        <v>2</v>
+      </c>
+      <c r="P81">
+        <v>1</v>
+      </c>
+      <c r="Q81">
+        <v>1</v>
+      </c>
+      <c r="R81">
+        <v>1</v>
+      </c>
+      <c r="U81">
+        <v>79</v>
+      </c>
+      <c r="V81" t="s">
+        <v>134</v>
+      </c>
+      <c r="W81">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="82" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>80</v>
+      </c>
       <c r="M82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="N82">
+        <v>0</v>
+      </c>
+      <c r="O82">
+        <v>0</v>
+      </c>
+      <c r="P82">
+        <v>0</v>
+      </c>
+      <c r="Q82">
+        <v>0</v>
+      </c>
+      <c r="R82">
+        <v>0</v>
+      </c>
+      <c r="U82">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="83" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>81</v>
+      </c>
       <c r="M83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="N83">
+        <v>0</v>
+      </c>
+      <c r="O83">
+        <v>0</v>
+      </c>
+      <c r="P83">
+        <v>0</v>
+      </c>
+      <c r="Q83">
+        <v>1</v>
+      </c>
+      <c r="R83">
+        <v>2</v>
+      </c>
+      <c r="S83" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="U83">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="84" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>82</v>
+      </c>
       <c r="M84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="N84">
+        <v>0</v>
+      </c>
+      <c r="O84">
+        <v>0</v>
+      </c>
+      <c r="P84">
+        <v>0</v>
+      </c>
+      <c r="Q84">
+        <v>0</v>
+      </c>
+      <c r="R84">
+        <v>0</v>
+      </c>
+      <c r="U84">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="85" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>83</v>
+      </c>
       <c r="M85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="N85">
+        <v>0</v>
+      </c>
+      <c r="O85">
+        <v>0</v>
+      </c>
+      <c r="P85">
+        <v>0</v>
+      </c>
+      <c r="Q85">
+        <v>0</v>
+      </c>
+      <c r="R85">
+        <v>0</v>
+      </c>
+      <c r="U85">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="86" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>84</v>
+      </c>
       <c r="M86">
         <v>220</v>
       </c>
-    </row>
-    <row r="87" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="N86">
+        <v>220</v>
+      </c>
+      <c r="O86">
+        <v>220</v>
+      </c>
+      <c r="P86">
+        <v>220</v>
+      </c>
+      <c r="Q86">
+        <v>220</v>
+      </c>
+      <c r="R86">
+        <v>220</v>
+      </c>
+      <c r="U86">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="87" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>85</v>
+      </c>
       <c r="M87">
         <v>0</v>
+      </c>
+      <c r="N87">
+        <v>0</v>
+      </c>
+      <c r="O87">
+        <v>0</v>
+      </c>
+      <c r="P87">
+        <v>0</v>
+      </c>
+      <c r="Q87">
+        <v>0</v>
+      </c>
+      <c r="R87">
+        <v>0</v>
+      </c>
+      <c r="U87">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -3212,34 +5127,34 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA8C0C25-584C-4DB3-91C9-D576A78C1B11}">
-  <dimension ref="A1:J107"/>
+  <dimension ref="A1:K107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="28.6640625" customWidth="1"/>
     <col min="8" max="8" width="10.77734375" customWidth="1"/>
-    <col min="10" max="10" width="15.88671875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="15.88671875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C1" s="2" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="4"/>
+      <c r="H1" t="s">
         <v>50</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -3261,11 +5176,14 @@
       <c r="H2">
         <v>0</v>
       </c>
-      <c r="J2" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3287,13 +5205,16 @@
       <c r="H3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K3" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C4">
         <v>23488</v>
@@ -3313,13 +5234,16 @@
       <c r="J4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K4" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C5">
         <v>23535</v>
@@ -3336,16 +5260,19 @@
       <c r="H5">
         <v>23382</v>
       </c>
-      <c r="J5" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C6">
         <v>23606</v>
@@ -3362,16 +5289,19 @@
       <c r="H6">
         <v>23225</v>
       </c>
-      <c r="J6" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -3388,16 +5318,19 @@
       <c r="H7">
         <v>23300</v>
       </c>
-      <c r="J7" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -3414,16 +5347,19 @@
       <c r="H8">
         <v>0</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -3440,16 +5376,19 @@
       <c r="H9">
         <v>0</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -3466,16 +5405,19 @@
       <c r="H10">
         <v>0</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -3492,16 +5434,19 @@
       <c r="H11">
         <v>0</v>
       </c>
-      <c r="J11" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -3518,11 +5463,14 @@
       <c r="H12">
         <v>0</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J12" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -3544,16 +5492,19 @@
       <c r="H13">
         <v>0</v>
       </c>
-      <c r="J13" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J13" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -3570,11 +5521,14 @@
       <c r="H14">
         <v>0</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="J14" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K14" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -3593,13 +5547,16 @@
       <c r="H15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K15" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C16">
         <v>196</v>
@@ -3616,13 +5573,16 @@
       <c r="H16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K16" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -3639,11 +5599,14 @@
       <c r="H17">
         <v>4</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -3665,11 +5628,14 @@
       <c r="H18">
         <v>0</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J18" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -3691,8 +5657,11 @@
       <c r="H19">
         <v>11</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K19" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -3714,8 +5683,11 @@
       <c r="H20">
         <v>65527</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K20" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -3737,8 +5709,11 @@
       <c r="H21">
         <v>65528</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K21" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -3760,8 +5735,11 @@
       <c r="H22">
         <v>65534</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K22" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
@@ -3783,13 +5761,16 @@
       <c r="H23">
         <v>65535</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K23" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C24">
         <v>65395</v>
@@ -3806,8 +5787,11 @@
       <c r="H24">
         <v>65535</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K24" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
@@ -3829,8 +5813,11 @@
       <c r="H25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K25" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
@@ -3852,11 +5839,14 @@
       <c r="H26">
         <v>15</v>
       </c>
-      <c r="J26" s="3" t="s">
+      <c r="J26" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K26" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
@@ -3875,11 +5865,14 @@
       <c r="H27">
         <v>21</v>
       </c>
-      <c r="J27" s="3" t="s">
+      <c r="J27" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K27" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
@@ -3901,8 +5894,11 @@
       <c r="H28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K28" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
@@ -3921,8 +5917,11 @@
       <c r="H29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K29" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28</v>
       </c>
@@ -3941,8 +5940,11 @@
       <c r="H30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K30" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>29</v>
       </c>
@@ -3961,8 +5963,11 @@
       <c r="H31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K31" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>30</v>
       </c>
@@ -3981,8 +5986,11 @@
       <c r="H32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K32" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>31</v>
       </c>
@@ -4001,8 +6009,11 @@
       <c r="H33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K33" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>32</v>
       </c>
@@ -4021,13 +6032,16 @@
       <c r="H34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K34" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C35">
         <v>4992</v>
@@ -4044,16 +6058,19 @@
       <c r="H35">
         <v>4984</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J35" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C36">
         <v>4984</v>
@@ -4070,16 +6087,19 @@
       <c r="H36">
         <v>4988</v>
       </c>
-      <c r="J36" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J36" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C37">
         <v>4996</v>
@@ -4096,16 +6116,19 @@
       <c r="H37">
         <v>4984</v>
       </c>
-      <c r="J37" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J37" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C38">
         <v>549</v>
@@ -4122,16 +6145,19 @@
       <c r="H38">
         <v>13074</v>
       </c>
-      <c r="J38" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J38" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C39">
         <v>5643</v>
@@ -4148,16 +6174,19 @@
       <c r="H39">
         <v>1810</v>
       </c>
-      <c r="J39" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J39" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C40">
         <v>5899</v>
@@ -4174,11 +6203,14 @@
       <c r="H40">
         <v>6155</v>
       </c>
-      <c r="J40" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J40" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>39</v>
       </c>
@@ -4198,8 +6230,11 @@
       <c r="H41">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K41" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>40</v>
       </c>
@@ -4219,7 +6254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>41</v>
       </c>
@@ -4239,7 +6274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>42</v>
       </c>
@@ -4259,7 +6294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>43</v>
       </c>
@@ -4279,7 +6314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>44</v>
       </c>
@@ -4299,7 +6334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>45</v>
       </c>
@@ -4319,7 +6354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>46</v>
       </c>
@@ -4339,7 +6374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>47</v>
       </c>
@@ -4359,10 +6394,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>48</v>
       </c>
+      <c r="B50" s="6" t="s">
+        <v>107</v>
+      </c>
       <c r="C50">
         <v>1</v>
       </c>
@@ -4378,8 +6416,11 @@
       <c r="H50">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K50" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>49</v>
       </c>
@@ -4398,8 +6439,11 @@
       <c r="H51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K51" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>50</v>
       </c>
@@ -4418,8 +6462,11 @@
       <c r="H52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K52" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>51</v>
       </c>
@@ -4438,8 +6485,11 @@
       <c r="H53">
         <v>1338</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K53" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>52</v>
       </c>
@@ -4458,8 +6508,11 @@
       <c r="H54">
         <v>1301</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K54" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>53</v>
       </c>
@@ -4478,8 +6531,11 @@
       <c r="H55">
         <v>6153</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K55" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>54</v>
       </c>
@@ -4498,8 +6554,11 @@
       <c r="H56">
         <v>48</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K56" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>55</v>
       </c>
@@ -4518,8 +6577,11 @@
       <c r="H57">
         <v>1195</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K57" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>56</v>
       </c>
@@ -4538,8 +6600,11 @@
       <c r="H58">
         <v>1000</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K58" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>57</v>
       </c>
@@ -4558,8 +6623,11 @@
       <c r="H59">
         <v>60</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K59" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>58</v>
       </c>
@@ -4578,8 +6646,11 @@
       <c r="H60">
         <v>49</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K60" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>59</v>
       </c>
@@ -4598,8 +6669,11 @@
       <c r="H61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K61" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>60</v>
       </c>
@@ -4618,8 +6692,11 @@
       <c r="H62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K62" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>61</v>
       </c>
@@ -4638,8 +6715,11 @@
       <c r="H63">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K63" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>62</v>
       </c>
@@ -4658,8 +6738,11 @@
       <c r="H64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K64" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>63</v>
       </c>
@@ -4678,8 +6761,11 @@
       <c r="H65">
         <v>100</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K65" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>64</v>
       </c>
@@ -4698,8 +6784,11 @@
       <c r="H66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K66" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>65</v>
       </c>
@@ -4718,8 +6807,11 @@
       <c r="H67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K67" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>66</v>
       </c>
@@ -4738,8 +6830,11 @@
       <c r="H68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K68" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>67</v>
       </c>
@@ -4758,8 +6853,11 @@
       <c r="H69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K69" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>68</v>
       </c>
@@ -4778,8 +6876,11 @@
       <c r="H70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K70" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>69</v>
       </c>
@@ -4798,8 +6899,11 @@
       <c r="H71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K71" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>70</v>
       </c>
@@ -4818,8 +6922,11 @@
       <c r="H72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K72" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>71</v>
       </c>
@@ -4838,8 +6945,11 @@
       <c r="H73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K73" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>72</v>
       </c>
@@ -4858,8 +6968,11 @@
       <c r="H74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K74" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>73</v>
       </c>
@@ -4878,8 +6991,11 @@
       <c r="H75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K75" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>74</v>
       </c>
@@ -4899,7 +7015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>75</v>
       </c>
@@ -4919,7 +7035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>76</v>
       </c>
@@ -4939,7 +7055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>77</v>
       </c>
@@ -4959,7 +7075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>78</v>
       </c>
@@ -5050,7 +7166,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C84">
         <v>12318</v>
@@ -5073,7 +7189,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C85">
         <v>5141</v>
@@ -5096,7 +7212,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C86">
         <v>5899</v>
@@ -5118,8 +7234,8 @@
       <c r="A87">
         <v>85</v>
       </c>
-      <c r="B87" t="s">
-        <v>14</v>
+      <c r="B87" s="6" t="s">
+        <v>129</v>
       </c>
       <c r="C87">
         <v>0</v>
@@ -5162,7 +7278,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C89">
         <v>1</v>
@@ -5185,7 +7301,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -5208,7 +7324,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C91">
         <v>0</v>
@@ -5230,6 +7346,9 @@
       <c r="A92">
         <v>90</v>
       </c>
+      <c r="B92" s="6" t="s">
+        <v>130</v>
+      </c>
       <c r="C92">
         <v>0</v>
       </c>
@@ -5251,7 +7370,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C93">
         <v>120</v>
@@ -5274,7 +7393,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C94">
         <v>1195</v>
@@ -5297,7 +7416,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C95">
         <v>1000</v>
@@ -5340,7 +7459,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C97">
         <v>44</v>

--- a/doc/Mapping.xlsx
+++ b/doc/Mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\trest\Source\Repos\HomeAssistant\homeassistant-solax-http\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F60824D9-C86F-4332-AC91-FA0805E9BD75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90DA7FF2-E85A-494D-A251-565FBD2D43D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E30620CE-52E2-4698-983C-BDD3AD23A8BB}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="146">
   <si>
     <t>[</t>
   </si>
@@ -457,6 +457,24 @@
   </si>
   <si>
     <t>boostMode</t>
+  </si>
+  <si>
+    <t>MainBreakerLimitSwitch</t>
+  </si>
+  <si>
+    <t>UserSetMaxCurrent</t>
+  </si>
+  <si>
+    <t>autoPhaseValue</t>
+  </si>
+  <si>
+    <t>SlaveAddress</t>
+  </si>
+  <si>
+    <t>SalveBraudRate</t>
+  </si>
+  <si>
+    <t>cableLockValue</t>
   </si>
 </sst>
 </file>
@@ -853,7 +871,7 @@
   <dimension ref="A1:W87"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="U2" sqref="U2:W21"/>
+      <selection activeCell="U3" sqref="U3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1074,6 +1092,9 @@
       <c r="U4">
         <v>2</v>
       </c>
+      <c r="V4" s="6" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5">
@@ -1254,6 +1275,12 @@
       <c r="U7">
         <v>5</v>
       </c>
+      <c r="V7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="W7">
+        <v>56</v>
+      </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8">
@@ -1359,6 +1386,9 @@
       </c>
       <c r="U9">
         <v>7</v>
+      </c>
+      <c r="V9" s="6" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.3">
@@ -1512,6 +1542,9 @@
       <c r="U12" s="1">
         <v>10</v>
       </c>
+      <c r="V12" s="6" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13">
@@ -2232,6 +2265,9 @@
       <c r="U24">
         <v>22</v>
       </c>
+      <c r="V24" s="6" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A25">
@@ -2282,6 +2318,9 @@
       <c r="U25">
         <v>23</v>
       </c>
+      <c r="V25" s="6" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A26">
@@ -2290,6 +2329,9 @@
       <c r="B26">
         <v>29</v>
       </c>
+      <c r="C26" t="s">
+        <v>134</v>
+      </c>
       <c r="D26">
         <v>0</v>
       </c>
@@ -4761,6 +4803,9 @@
       <c r="U75">
         <v>73</v>
       </c>
+      <c r="V75" s="6" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A76">
@@ -5117,6 +5162,9 @@
       </c>
       <c r="U87">
         <v>85</v>
+      </c>
+      <c r="V87" s="6" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -5127,20 +5175,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA8C0C25-584C-4DB3-91C9-D576A78C1B11}">
-  <dimension ref="A1:K107"/>
+  <dimension ref="A1:M107"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M52" sqref="M52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="28.6640625" customWidth="1"/>
-    <col min="8" max="8" width="10.77734375" customWidth="1"/>
-    <col min="10" max="10" width="15.88671875" style="2" customWidth="1"/>
+    <col min="8" max="10" width="10.77734375" customWidth="1"/>
+    <col min="12" max="12" width="15.88671875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C1" s="4" t="s">
         <v>48</v>
       </c>
@@ -5154,7 +5202,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -5176,14 +5224,20 @@
       <c r="H2">
         <v>0</v>
       </c>
-      <c r="J2" t="s">
+      <c r="I2">
+        <v>2</v>
+      </c>
+      <c r="J2">
+        <v>13</v>
+      </c>
+      <c r="L2" t="s">
         <v>70</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="M2" s="6" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -5205,11 +5259,17 @@
       <c r="H3">
         <v>0</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="M3" s="6" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -5231,14 +5291,20 @@
       <c r="H4">
         <v>0</v>
       </c>
-      <c r="J4" t="s">
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="L4" t="s">
         <v>2</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="M4" s="6" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -5260,14 +5326,20 @@
       <c r="H5">
         <v>23382</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="I5">
+        <v>22704</v>
+      </c>
+      <c r="J5">
+        <v>22546</v>
+      </c>
+      <c r="L5" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="M5" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -5289,14 +5361,20 @@
       <c r="H6">
         <v>23225</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="I6">
+        <v>22408</v>
+      </c>
+      <c r="J6">
+        <v>22332</v>
+      </c>
+      <c r="L6" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="M6" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -5318,14 +5396,20 @@
       <c r="H7">
         <v>23300</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="I7">
+        <v>22843</v>
+      </c>
+      <c r="J7">
+        <v>22795</v>
+      </c>
+      <c r="L7" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="M7" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -5347,14 +5431,20 @@
       <c r="H8">
         <v>0</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="I8">
+        <v>72</v>
+      </c>
+      <c r="J8">
+        <v>69</v>
+      </c>
+      <c r="L8" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="M8" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -5376,14 +5466,20 @@
       <c r="H9">
         <v>0</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="M9" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -5405,14 +5501,20 @@
       <c r="H10">
         <v>0</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="L10" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="M10" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -5434,14 +5536,20 @@
       <c r="H11">
         <v>0</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="L11" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="M11" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -5463,14 +5571,20 @@
       <c r="H12">
         <v>0</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="L12" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="M12" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -5492,14 +5606,20 @@
       <c r="H13">
         <v>0</v>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="L13" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="M13" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -5521,14 +5641,20 @@
       <c r="H14">
         <v>0</v>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="L14" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="6" t="s">
+      <c r="M14" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -5547,11 +5673,17 @@
       <c r="H15">
         <v>0</v>
       </c>
-      <c r="K15" s="6" t="s">
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>2</v>
+      </c>
+      <c r="M15" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -5573,11 +5705,17 @@
       <c r="H16">
         <v>0</v>
       </c>
-      <c r="K16" s="6" t="s">
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="M16" s="6" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -5599,14 +5737,20 @@
       <c r="H17">
         <v>4</v>
       </c>
-      <c r="J17" s="2" t="s">
+      <c r="I17">
+        <v>1069</v>
+      </c>
+      <c r="J17">
+        <v>1071</v>
+      </c>
+      <c r="L17" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="K17" s="2" t="s">
+      <c r="M17" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -5628,14 +5772,20 @@
       <c r="H18">
         <v>0</v>
       </c>
-      <c r="J18" s="2" t="s">
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="L18" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="K18" s="2" t="s">
+      <c r="M18" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -5657,11 +5807,17 @@
       <c r="H19">
         <v>11</v>
       </c>
-      <c r="K19" s="6" t="s">
+      <c r="I19">
+        <v>19</v>
+      </c>
+      <c r="J19">
+        <v>19</v>
+      </c>
+      <c r="M19" s="6" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -5683,11 +5839,17 @@
       <c r="H20">
         <v>65527</v>
       </c>
-      <c r="K20" s="6" t="s">
+      <c r="I20">
+        <v>19</v>
+      </c>
+      <c r="J20">
+        <v>19</v>
+      </c>
+      <c r="M20" s="6" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -5709,11 +5871,17 @@
       <c r="H21">
         <v>65528</v>
       </c>
-      <c r="K21" s="6" t="s">
+      <c r="I21">
+        <v>65518</v>
+      </c>
+      <c r="J21">
+        <v>65518</v>
+      </c>
+      <c r="M21" s="6" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -5735,11 +5903,17 @@
       <c r="H22">
         <v>65534</v>
       </c>
-      <c r="K22" s="6" t="s">
+      <c r="I22">
+        <v>78</v>
+      </c>
+      <c r="J22">
+        <v>65464</v>
+      </c>
+      <c r="M22" s="6" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
@@ -5761,11 +5935,17 @@
       <c r="H23">
         <v>65535</v>
       </c>
-      <c r="K23" s="6" t="s">
+      <c r="I23">
+        <v>30</v>
+      </c>
+      <c r="J23">
         <v>98</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M23" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
@@ -5787,11 +5967,17 @@
       <c r="H24">
         <v>65535</v>
       </c>
-      <c r="K24" s="6" t="s">
+      <c r="I24">
+        <v>7</v>
+      </c>
+      <c r="J24">
+        <v>16</v>
+      </c>
+      <c r="M24" s="6" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
@@ -5813,11 +5999,17 @@
       <c r="H25">
         <v>0</v>
       </c>
-      <c r="K25" s="6" t="s">
+      <c r="I25">
+        <v>417</v>
+      </c>
+      <c r="J25">
+        <v>471</v>
+      </c>
+      <c r="M25" s="6" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
@@ -5839,14 +6031,20 @@
       <c r="H26">
         <v>15</v>
       </c>
-      <c r="J26" s="2" t="s">
+      <c r="I26">
+        <v>13</v>
+      </c>
+      <c r="J26">
+        <v>14</v>
+      </c>
+      <c r="L26" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K26" s="2" t="s">
+      <c r="M26" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
@@ -5865,14 +6063,20 @@
       <c r="H27">
         <v>21</v>
       </c>
-      <c r="J27" s="2" t="s">
+      <c r="I27">
+        <v>20</v>
+      </c>
+      <c r="J27">
+        <v>20</v>
+      </c>
+      <c r="L27" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K27" s="2" t="s">
+      <c r="M27" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
@@ -5894,11 +6098,17 @@
       <c r="H28">
         <v>0</v>
       </c>
-      <c r="K28" s="6" t="s">
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="M28" s="6" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
@@ -5917,11 +6127,17 @@
       <c r="H29">
         <v>0</v>
       </c>
-      <c r="K29" s="6" t="s">
+      <c r="I29">
+        <v>2</v>
+      </c>
+      <c r="J29">
+        <v>2</v>
+      </c>
+      <c r="M29" s="6" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28</v>
       </c>
@@ -5940,11 +6156,17 @@
       <c r="H30">
         <v>0</v>
       </c>
-      <c r="K30" s="6" t="s">
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="M30" s="6" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>29</v>
       </c>
@@ -5963,11 +6185,17 @@
       <c r="H31">
         <v>0</v>
       </c>
-      <c r="K31" s="6" t="s">
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="M31" s="6" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>30</v>
       </c>
@@ -5986,11 +6214,17 @@
       <c r="H32">
         <v>0</v>
       </c>
-      <c r="K32" s="6" t="s">
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="M32" s="6" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>31</v>
       </c>
@@ -6009,11 +6243,17 @@
       <c r="H33">
         <v>0</v>
       </c>
-      <c r="K33" s="6" t="s">
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="M33" s="6" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>32</v>
       </c>
@@ -6032,11 +6272,17 @@
       <c r="H34">
         <v>0</v>
       </c>
-      <c r="K34" s="6" t="s">
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="M34" s="6" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>33</v>
       </c>
@@ -6058,14 +6304,20 @@
       <c r="H35">
         <v>4984</v>
       </c>
-      <c r="J35" s="2" t="s">
+      <c r="I35">
+        <v>4988</v>
+      </c>
+      <c r="J35">
+        <v>4986</v>
+      </c>
+      <c r="L35" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="K35" s="2" t="s">
+      <c r="M35" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>34</v>
       </c>
@@ -6087,14 +6339,20 @@
       <c r="H36">
         <v>4988</v>
       </c>
-      <c r="J36" s="2" t="s">
+      <c r="I36">
+        <v>4984</v>
+      </c>
+      <c r="J36">
+        <v>4984</v>
+      </c>
+      <c r="L36" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="K36" s="2" t="s">
+      <c r="M36" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>35</v>
       </c>
@@ -6116,14 +6374,20 @@
       <c r="H37">
         <v>4984</v>
       </c>
-      <c r="J37" s="2" t="s">
+      <c r="I37">
+        <v>4986</v>
+      </c>
+      <c r="J37">
+        <v>4986</v>
+      </c>
+      <c r="L37" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="K37" s="2" t="s">
+      <c r="M37" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>36</v>
       </c>
@@ -6145,14 +6409,20 @@
       <c r="H38">
         <v>13074</v>
       </c>
-      <c r="J38" s="2" t="s">
+      <c r="I38">
+        <v>13366</v>
+      </c>
+      <c r="J38">
+        <v>14385</v>
+      </c>
+      <c r="L38" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="K38" s="2" t="s">
+      <c r="M38" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>37</v>
       </c>
@@ -6174,14 +6444,20 @@
       <c r="H39">
         <v>1810</v>
       </c>
-      <c r="J39" s="2" t="s">
+      <c r="I39">
+        <v>6414</v>
+      </c>
+      <c r="J39">
+        <v>6414</v>
+      </c>
+      <c r="L39" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="K39" s="2" t="s">
+      <c r="M39" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>38</v>
       </c>
@@ -6203,14 +6479,20 @@
       <c r="H40">
         <v>6155</v>
       </c>
-      <c r="J40" s="2" t="s">
+      <c r="I40">
+        <v>6156</v>
+      </c>
+      <c r="J40">
+        <v>6156</v>
+      </c>
+      <c r="L40" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="K40" s="2" t="s">
+      <c r="M40" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>39</v>
       </c>
@@ -6230,11 +6512,17 @@
       <c r="H41">
         <v>4</v>
       </c>
-      <c r="K41" s="6" t="s">
+      <c r="I41">
+        <v>3</v>
+      </c>
+      <c r="J41">
+        <v>3</v>
+      </c>
+      <c r="M41" s="6" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>40</v>
       </c>
@@ -6253,8 +6541,14 @@
       <c r="H42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>41</v>
       </c>
@@ -6273,8 +6567,14 @@
       <c r="H43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>42</v>
       </c>
@@ -6293,8 +6593,14 @@
       <c r="H44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>43</v>
       </c>
@@ -6313,8 +6619,14 @@
       <c r="H45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>44</v>
       </c>
@@ -6333,8 +6645,14 @@
       <c r="H46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>45</v>
       </c>
@@ -6353,8 +6671,14 @@
       <c r="H47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>46</v>
       </c>
@@ -6373,8 +6697,14 @@
       <c r="H48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>47</v>
       </c>
@@ -6393,8 +6723,14 @@
       <c r="H49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>48</v>
       </c>
@@ -6416,11 +6752,17 @@
       <c r="H50">
         <v>1</v>
       </c>
-      <c r="K50" s="6" t="s">
+      <c r="I50">
+        <v>1</v>
+      </c>
+      <c r="J50">
+        <v>1</v>
+      </c>
+      <c r="M50" s="6" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>49</v>
       </c>
@@ -6439,11 +6781,17 @@
       <c r="H51">
         <v>0</v>
       </c>
-      <c r="K51" s="6" t="s">
+      <c r="I51">
+        <v>3</v>
+      </c>
+      <c r="J51">
+        <v>233</v>
+      </c>
+      <c r="M51" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>50</v>
       </c>
@@ -6462,11 +6810,17 @@
       <c r="H52">
         <v>0</v>
       </c>
-      <c r="K52" s="6" t="s">
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="M52" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>51</v>
       </c>
@@ -6485,11 +6839,17 @@
       <c r="H53">
         <v>1338</v>
       </c>
-      <c r="K53" s="6" t="s">
+      <c r="I53">
+        <v>13363</v>
+      </c>
+      <c r="J53">
+        <v>13363</v>
+      </c>
+      <c r="M53" s="6" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>52</v>
       </c>
@@ -6508,11 +6868,17 @@
       <c r="H54">
         <v>1301</v>
       </c>
-      <c r="K54" s="6" t="s">
+      <c r="I54">
+        <v>6414</v>
+      </c>
+      <c r="J54">
+        <v>6414</v>
+      </c>
+      <c r="M54" s="6" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>53</v>
       </c>
@@ -6531,11 +6897,17 @@
       <c r="H55">
         <v>6153</v>
       </c>
-      <c r="K55" s="6" t="s">
+      <c r="I55">
+        <v>6156</v>
+      </c>
+      <c r="J55">
+        <v>6156</v>
+      </c>
+      <c r="M55" s="6" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>54</v>
       </c>
@@ -6554,11 +6926,17 @@
       <c r="H56">
         <v>48</v>
       </c>
-      <c r="K56" s="6" t="s">
+      <c r="I56">
+        <v>48</v>
+      </c>
+      <c r="J56">
+        <v>48</v>
+      </c>
+      <c r="M56" s="6" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>55</v>
       </c>
@@ -6577,11 +6955,17 @@
       <c r="H57">
         <v>1195</v>
       </c>
-      <c r="K57" s="6" t="s">
+      <c r="I57">
+        <v>565</v>
+      </c>
+      <c r="J57">
+        <v>596</v>
+      </c>
+      <c r="M57" s="6" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>56</v>
       </c>
@@ -6600,11 +6984,17 @@
       <c r="H58">
         <v>1000</v>
       </c>
-      <c r="K58" s="6" t="s">
+      <c r="I58">
+        <v>166</v>
+      </c>
+      <c r="J58">
+        <v>1000</v>
+      </c>
+      <c r="M58" s="6" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>57</v>
       </c>
@@ -6623,11 +7013,17 @@
       <c r="H59">
         <v>60</v>
       </c>
-      <c r="K59" s="6" t="s">
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="M59" s="6" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>58</v>
       </c>
@@ -6646,11 +7042,17 @@
       <c r="H60">
         <v>49</v>
       </c>
-      <c r="K60" s="6" t="s">
+      <c r="I60">
+        <v>44</v>
+      </c>
+      <c r="J60">
+        <v>44</v>
+      </c>
+      <c r="M60" s="6" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>59</v>
       </c>
@@ -6669,11 +7071,17 @@
       <c r="H61">
         <v>0</v>
       </c>
-      <c r="K61" s="6" t="s">
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="M61" s="6" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>60</v>
       </c>
@@ -6692,11 +7100,17 @@
       <c r="H62">
         <v>0</v>
       </c>
-      <c r="K62" s="6" t="s">
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="M62" s="6" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>61</v>
       </c>
@@ -6715,11 +7129,17 @@
       <c r="H63">
         <v>1</v>
       </c>
-      <c r="K63" s="6" t="s">
+      <c r="I63">
+        <v>1</v>
+      </c>
+      <c r="J63">
+        <v>1</v>
+      </c>
+      <c r="M63" s="6" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>62</v>
       </c>
@@ -6738,11 +7158,17 @@
       <c r="H64">
         <v>0</v>
       </c>
-      <c r="K64" s="6" t="s">
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="M64" s="6" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>63</v>
       </c>
@@ -6761,11 +7187,17 @@
       <c r="H65">
         <v>100</v>
       </c>
-      <c r="K65" s="6" t="s">
+      <c r="I65">
+        <v>100</v>
+      </c>
+      <c r="J65">
+        <v>100</v>
+      </c>
+      <c r="M65" s="6" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>64</v>
       </c>
@@ -6784,11 +7216,17 @@
       <c r="H66">
         <v>0</v>
       </c>
-      <c r="K66" s="6" t="s">
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="M66" s="6" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>65</v>
       </c>
@@ -6807,11 +7245,17 @@
       <c r="H67">
         <v>0</v>
       </c>
-      <c r="K67" s="6" t="s">
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="M67" s="6" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>66</v>
       </c>
@@ -6830,11 +7274,17 @@
       <c r="H68">
         <v>0</v>
       </c>
-      <c r="K68" s="6" t="s">
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="M68" s="6" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>67</v>
       </c>
@@ -6853,11 +7303,17 @@
       <c r="H69">
         <v>0</v>
       </c>
-      <c r="K69" s="6" t="s">
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="M69" s="6" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>68</v>
       </c>
@@ -6876,11 +7332,17 @@
       <c r="H70">
         <v>0</v>
       </c>
-      <c r="K70" s="6" t="s">
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="M70" s="6" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>69</v>
       </c>
@@ -6899,11 +7361,17 @@
       <c r="H71">
         <v>0</v>
       </c>
-      <c r="K71" s="6" t="s">
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="M71" s="6" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>70</v>
       </c>
@@ -6922,11 +7390,17 @@
       <c r="H72">
         <v>0</v>
       </c>
-      <c r="K72" s="6" t="s">
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="M72" s="6" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>71</v>
       </c>
@@ -6945,11 +7419,17 @@
       <c r="H73">
         <v>0</v>
       </c>
-      <c r="K73" s="6" t="s">
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="M73" s="6" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>72</v>
       </c>
@@ -6968,11 +7448,17 @@
       <c r="H74">
         <v>0</v>
       </c>
-      <c r="K74" s="6" t="s">
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="M74" s="6" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>73</v>
       </c>
@@ -6991,11 +7477,17 @@
       <c r="H75">
         <v>0</v>
       </c>
-      <c r="K75" s="6" t="s">
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="M75" s="6" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>74</v>
       </c>
@@ -7014,8 +7506,14 @@
       <c r="H76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>75</v>
       </c>
@@ -7034,8 +7532,14 @@
       <c r="H77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>76</v>
       </c>
@@ -7054,8 +7558,14 @@
       <c r="H78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>77</v>
       </c>
@@ -7074,8 +7584,14 @@
       <c r="H79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>78</v>
       </c>
@@ -7094,8 +7610,14 @@
       <c r="H80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>79</v>
       </c>
@@ -7114,8 +7636,14 @@
       <c r="H81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>80</v>
       </c>
@@ -7137,8 +7665,14 @@
       <c r="H82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>81</v>
       </c>
@@ -7160,8 +7694,14 @@
       <c r="H83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>82</v>
       </c>
@@ -7183,8 +7723,14 @@
       <c r="H84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>83</v>
       </c>
@@ -7206,8 +7752,14 @@
       <c r="H85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>84</v>
       </c>
@@ -7229,8 +7781,14 @@
       <c r="H86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>85</v>
       </c>
@@ -7252,8 +7810,14 @@
       <c r="H87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>86</v>
       </c>
@@ -7272,8 +7836,14 @@
       <c r="H88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>87</v>
       </c>
@@ -7295,8 +7865,14 @@
       <c r="H89">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>88</v>
       </c>
@@ -7318,8 +7894,14 @@
       <c r="H90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>89</v>
       </c>
@@ -7341,8 +7923,14 @@
       <c r="H91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>90</v>
       </c>
@@ -7364,8 +7952,14 @@
       <c r="H92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>91</v>
       </c>
@@ -7387,8 +7981,14 @@
       <c r="H93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>92</v>
       </c>
@@ -7410,8 +8010,14 @@
       <c r="H94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>93</v>
       </c>
@@ -7433,8 +8039,14 @@
       <c r="H95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>94</v>
       </c>
@@ -7453,8 +8065,14 @@
       <c r="H96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>95</v>
       </c>
@@ -7476,84 +8094,150 @@
       <c r="H97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F98">
         <v>0</v>
       </c>
       <c r="H98">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F99">
         <v>0</v>
       </c>
       <c r="H99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F100">
         <v>1</v>
       </c>
       <c r="H100">
         <v>1</v>
       </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I100">
+        <v>1</v>
+      </c>
+      <c r="J100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F101">
         <v>12</v>
       </c>
       <c r="H101">
         <v>13</v>
       </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I101">
+        <v>12</v>
+      </c>
+      <c r="J101">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F102">
         <v>50</v>
       </c>
       <c r="H102">
         <v>50</v>
       </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I102">
+        <v>50</v>
+      </c>
+      <c r="J102">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F103">
         <v>6</v>
       </c>
       <c r="H103">
         <v>5</v>
       </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I103">
+        <v>34</v>
+      </c>
+      <c r="J103">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F104">
         <v>0</v>
       </c>
       <c r="H104">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F105">
         <v>6</v>
       </c>
       <c r="H105">
         <v>5</v>
       </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I105">
+        <v>24</v>
+      </c>
+      <c r="J105">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F106">
         <v>0</v>
       </c>
       <c r="H106">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I106">
+        <v>0</v>
+      </c>
+      <c r="J106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F107">
         <v>0</v>
       </c>
       <c r="H107">
+        <v>0</v>
+      </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
+      <c r="J107">
         <v>0</v>
       </c>
     </row>

--- a/doc/Mapping.xlsx
+++ b/doc/Mapping.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\trest\Source\Repos\HomeAssistant\homeassistant-solax-http\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90DA7FF2-E85A-494D-A251-565FBD2D43D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B78FEEA9-6A66-4F59-BC9A-8F21C9F2FA91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E30620CE-52E2-4698-983C-BDD3AD23A8BB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{E30620CE-52E2-4698-983C-BDD3AD23A8BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -542,7 +542,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -553,6 +553,9 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -868,22 +871,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E382A0D-967B-40F4-B1C8-B14BB77D210D}">
-  <dimension ref="A1:W87"/>
+  <dimension ref="A1:X101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="U3" sqref="U3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="18.33203125" customWidth="1"/>
     <col min="3" max="3" width="21.21875" customWidth="1"/>
-    <col min="14" max="18" width="13.109375" customWidth="1"/>
-    <col min="19" max="19" width="13.109375" style="3" customWidth="1"/>
-    <col min="22" max="22" width="17" customWidth="1"/>
+    <col min="15" max="19" width="13.109375" customWidth="1"/>
+    <col min="20" max="20" width="13.109375" style="3" customWidth="1"/>
+    <col min="23" max="23" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -893,26 +896,26 @@
       <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>71</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>72</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>73</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>74</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>75</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -946,8 +949,8 @@
       <c r="K2">
         <v>2</v>
       </c>
-      <c r="M2">
-        <v>0</v>
+      <c r="L2">
+        <v>2</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -964,14 +967,17 @@
       <c r="R2">
         <v>0</v>
       </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2" t="s">
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1005,7 +1011,7 @@
       <c r="K3">
         <v>0</v>
       </c>
-      <c r="M3">
+      <c r="L3">
         <v>0</v>
       </c>
       <c r="N3">
@@ -1015,26 +1021,29 @@
         <v>0</v>
       </c>
       <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
         <v>1</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>2</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>3</v>
       </c>
-      <c r="S3"/>
-      <c r="U3">
+      <c r="T3"/>
+      <c r="V3">
         <v>1</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>2</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1068,8 +1077,8 @@
       <c r="K4">
         <v>6</v>
       </c>
-      <c r="M4">
-        <v>70</v>
+      <c r="L4">
+        <v>6</v>
       </c>
       <c r="N4">
         <v>70</v>
@@ -1086,17 +1095,20 @@
       <c r="R4">
         <v>70</v>
       </c>
-      <c r="S4" s="5" t="s">
+      <c r="S4">
+        <v>70</v>
+      </c>
+      <c r="T4" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>2</v>
       </c>
-      <c r="V4" s="6" t="s">
+      <c r="W4" s="6" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1130,8 +1142,8 @@
       <c r="K5">
         <v>3</v>
       </c>
-      <c r="M5">
-        <v>16</v>
+      <c r="L5">
+        <v>6</v>
       </c>
       <c r="N5">
         <v>16</v>
@@ -1148,20 +1160,23 @@
       <c r="R5">
         <v>16</v>
       </c>
-      <c r="S5" s="3" t="s">
+      <c r="S5">
+        <v>16</v>
+      </c>
+      <c r="T5" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>3</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>133</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1195,7 +1210,7 @@
       <c r="K6">
         <v>0</v>
       </c>
-      <c r="M6">
+      <c r="L6">
         <v>0</v>
       </c>
       <c r="N6">
@@ -1213,14 +1228,17 @@
       <c r="R6">
         <v>0</v>
       </c>
-      <c r="U6">
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="V6">
         <v>4</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1254,8 +1272,8 @@
       <c r="K7">
         <v>265</v>
       </c>
-      <c r="M7">
-        <v>0</v>
+      <c r="L7">
+        <v>265</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -1272,17 +1290,20 @@
       <c r="R7">
         <v>0</v>
       </c>
-      <c r="U7">
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="V7">
         <v>5</v>
       </c>
-      <c r="V7" s="6" t="s">
+      <c r="W7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1316,8 +1337,8 @@
       <c r="K8">
         <v>160</v>
       </c>
-      <c r="M8">
-        <v>0</v>
+      <c r="L8">
+        <v>160</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -1334,11 +1355,14 @@
       <c r="R8">
         <v>0</v>
       </c>
-      <c r="U8">
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="V8">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1366,8 +1390,8 @@
       <c r="K9">
         <v>18</v>
       </c>
-      <c r="M9">
-        <v>1</v>
+      <c r="L9">
+        <v>18</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1384,14 +1408,17 @@
       <c r="R9">
         <v>1</v>
       </c>
-      <c r="U9">
+      <c r="S9">
+        <v>1</v>
+      </c>
+      <c r="V9">
         <v>7</v>
       </c>
-      <c r="V9" s="6" t="s">
+      <c r="W9" s="6" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1419,8 +1446,8 @@
       <c r="K10">
         <v>80</v>
       </c>
-      <c r="M10">
-        <v>0</v>
+      <c r="L10">
+        <v>80</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -1437,11 +1464,14 @@
       <c r="R10">
         <v>0</v>
       </c>
-      <c r="U10">
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="V10">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1469,8 +1499,8 @@
       <c r="K11">
         <v>30</v>
       </c>
-      <c r="M11">
-        <v>1</v>
+      <c r="L11">
+        <v>30</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1487,11 +1517,14 @@
       <c r="R11">
         <v>1</v>
       </c>
-      <c r="U11">
+      <c r="S11">
+        <v>1</v>
+      </c>
+      <c r="V11">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1521,8 +1554,8 @@
       <c r="K12">
         <v>12000</v>
       </c>
-      <c r="M12">
-        <v>0</v>
+      <c r="L12">
+        <v>4000</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -1539,14 +1572,17 @@
       <c r="R12">
         <v>0</v>
       </c>
-      <c r="U12" s="1">
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="V12" s="1">
         <v>10</v>
       </c>
-      <c r="V12" s="6" t="s">
+      <c r="W12" s="6" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1580,8 +1616,8 @@
       <c r="K13">
         <v>0</v>
       </c>
-      <c r="M13">
-        <v>10</v>
+      <c r="L13">
+        <v>0</v>
       </c>
       <c r="N13">
         <v>10</v>
@@ -1598,17 +1634,20 @@
       <c r="R13">
         <v>10</v>
       </c>
-      <c r="U13">
+      <c r="S13">
+        <v>10</v>
+      </c>
+      <c r="V13">
         <v>11</v>
       </c>
-      <c r="V13" t="s">
+      <c r="W13" t="s">
         <v>132</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1642,8 +1681,8 @@
       <c r="K14">
         <v>0</v>
       </c>
-      <c r="M14">
-        <v>6</v>
+      <c r="L14">
+        <v>0</v>
       </c>
       <c r="N14">
         <v>6</v>
@@ -1660,17 +1699,20 @@
       <c r="R14">
         <v>6</v>
       </c>
-      <c r="U14">
+      <c r="S14">
+        <v>6</v>
+      </c>
+      <c r="V14">
         <v>12</v>
       </c>
-      <c r="V14" t="s">
+      <c r="W14" t="s">
         <v>131</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1704,8 +1746,8 @@
       <c r="K15">
         <v>0</v>
       </c>
-      <c r="M15">
-        <v>265</v>
+      <c r="L15">
+        <v>0</v>
       </c>
       <c r="N15">
         <v>265</v>
@@ -1722,20 +1764,23 @@
       <c r="R15">
         <v>265</v>
       </c>
-      <c r="S15" s="3" t="s">
+      <c r="S15">
+        <v>265</v>
+      </c>
+      <c r="T15" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>13</v>
       </c>
-      <c r="V15" t="s">
+      <c r="W15" t="s">
         <v>86</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1769,8 +1814,8 @@
       <c r="K16">
         <v>0</v>
       </c>
-      <c r="M16">
-        <v>160</v>
+      <c r="L16">
+        <v>0</v>
       </c>
       <c r="N16">
         <v>160</v>
@@ -1787,20 +1832,23 @@
       <c r="R16">
         <v>160</v>
       </c>
-      <c r="S16" s="3" t="s">
+      <c r="S16">
+        <v>160</v>
+      </c>
+      <c r="T16" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>14</v>
       </c>
-      <c r="V16" t="s">
+      <c r="W16" t="s">
         <v>87</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1834,7 +1882,7 @@
       <c r="K17">
         <v>0</v>
       </c>
-      <c r="M17">
+      <c r="L17">
         <v>0</v>
       </c>
       <c r="N17">
@@ -1852,17 +1900,20 @@
       <c r="R17">
         <v>0</v>
       </c>
-      <c r="U17">
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="V17">
         <v>15</v>
       </c>
-      <c r="V17" t="s">
+      <c r="W17" t="s">
         <v>139</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1890,7 +1941,7 @@
       <c r="K18">
         <v>0</v>
       </c>
-      <c r="M18">
+      <c r="L18">
         <v>0</v>
       </c>
       <c r="N18">
@@ -1908,17 +1959,20 @@
       <c r="R18">
         <v>0</v>
       </c>
-      <c r="U18">
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="V18">
         <v>16</v>
       </c>
-      <c r="V18" t="s">
+      <c r="W18" t="s">
         <v>135</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1952,8 +2006,8 @@
       <c r="K19">
         <v>44</v>
       </c>
-      <c r="M19">
-        <v>0</v>
+      <c r="L19">
+        <v>49</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1970,17 +2024,20 @@
       <c r="R19">
         <v>0</v>
       </c>
-      <c r="U19">
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="V19">
         <v>17</v>
       </c>
-      <c r="V19" t="s">
+      <c r="W19" t="s">
         <v>136</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>68</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -2014,8 +2071,8 @@
       <c r="K20">
         <v>64</v>
       </c>
-      <c r="M20">
-        <v>0</v>
+      <c r="L20">
+        <v>32</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -2032,17 +2089,20 @@
       <c r="R20">
         <v>0</v>
       </c>
-      <c r="U20">
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="V20">
         <v>18</v>
       </c>
-      <c r="V20" t="s">
+      <c r="W20" t="s">
         <v>137</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>69</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -2076,8 +2136,8 @@
       <c r="K21">
         <v>112</v>
       </c>
-      <c r="M21">
-        <v>0</v>
+      <c r="L21">
+        <v>116</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -2094,17 +2154,20 @@
       <c r="R21">
         <v>0</v>
       </c>
-      <c r="U21">
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="V21">
         <v>19</v>
       </c>
-      <c r="V21" t="s">
+      <c r="W21" t="s">
         <v>138</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>70</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -2132,8 +2195,8 @@
       <c r="K22">
         <v>101</v>
       </c>
-      <c r="M22">
-        <v>0</v>
+      <c r="L22">
+        <v>101</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -2150,11 +2213,14 @@
       <c r="R22">
         <v>0</v>
       </c>
-      <c r="U22">
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="V22">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
@@ -2185,8 +2251,8 @@
       <c r="K23">
         <v>0</v>
       </c>
-      <c r="M23">
-        <v>44</v>
+      <c r="L23">
+        <v>60</v>
       </c>
       <c r="N23">
         <v>44</v>
@@ -2203,14 +2269,17 @@
       <c r="R23">
         <v>44</v>
       </c>
-      <c r="S23" s="3" t="s">
+      <c r="S23">
+        <v>44</v>
+      </c>
+      <c r="T23" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
@@ -2244,8 +2313,8 @@
       <c r="K24">
         <v>0</v>
       </c>
-      <c r="M24">
-        <v>25</v>
+      <c r="L24">
+        <v>0</v>
       </c>
       <c r="N24">
         <v>25</v>
@@ -2262,14 +2331,17 @@
       <c r="R24">
         <v>25</v>
       </c>
-      <c r="U24">
+      <c r="S24">
+        <v>25</v>
+      </c>
+      <c r="V24">
         <v>22</v>
       </c>
-      <c r="V24" s="6" t="s">
+      <c r="W24" s="6" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
@@ -2297,7 +2369,7 @@
       <c r="K25">
         <v>0</v>
       </c>
-      <c r="M25">
+      <c r="L25">
         <v>0</v>
       </c>
       <c r="N25">
@@ -2315,14 +2387,17 @@
       <c r="R25">
         <v>0</v>
       </c>
-      <c r="U25">
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="V25">
         <v>23</v>
       </c>
-      <c r="V25" s="6" t="s">
+      <c r="W25" s="6" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
@@ -2356,7 +2431,7 @@
       <c r="K26">
         <v>0</v>
       </c>
-      <c r="M26">
+      <c r="L26">
         <v>0</v>
       </c>
       <c r="N26">
@@ -2374,11 +2449,14 @@
       <c r="R26">
         <v>0</v>
       </c>
-      <c r="U26">
+      <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="V26">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
@@ -2406,8 +2484,8 @@
       <c r="K27">
         <v>0</v>
       </c>
-      <c r="M27">
-        <v>12593</v>
+      <c r="L27">
+        <v>0</v>
       </c>
       <c r="N27">
         <v>12593</v>
@@ -2424,14 +2502,17 @@
       <c r="R27">
         <v>12593</v>
       </c>
-      <c r="S27" s="3" t="s">
+      <c r="S27">
+        <v>12593</v>
+      </c>
+      <c r="T27" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
@@ -2459,8 +2540,8 @@
       <c r="K28">
         <v>0</v>
       </c>
-      <c r="M28">
-        <v>12593</v>
+      <c r="L28">
+        <v>0</v>
       </c>
       <c r="N28">
         <v>12593</v>
@@ -2477,14 +2558,17 @@
       <c r="R28">
         <v>12593</v>
       </c>
-      <c r="S28" s="3" t="s">
+      <c r="S28">
+        <v>12593</v>
+      </c>
+      <c r="T28" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
@@ -2512,8 +2596,8 @@
       <c r="K29">
         <v>0</v>
       </c>
-      <c r="M29">
-        <v>12593</v>
+      <c r="L29">
+        <v>0</v>
       </c>
       <c r="N29">
         <v>12593</v>
@@ -2530,14 +2614,17 @@
       <c r="R29">
         <v>12593</v>
       </c>
-      <c r="S29" s="3" t="s">
+      <c r="S29">
+        <v>12593</v>
+      </c>
+      <c r="T29" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28</v>
       </c>
@@ -2571,7 +2658,7 @@
       <c r="K30">
         <v>0</v>
       </c>
-      <c r="M30">
+      <c r="L30">
         <v>0</v>
       </c>
       <c r="N30">
@@ -2589,11 +2676,14 @@
       <c r="R30">
         <v>0</v>
       </c>
-      <c r="U30">
+      <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="V30">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>29</v>
       </c>
@@ -2627,7 +2717,7 @@
       <c r="K31">
         <v>0</v>
       </c>
-      <c r="M31">
+      <c r="L31">
         <v>0</v>
       </c>
       <c r="N31">
@@ -2645,11 +2735,14 @@
       <c r="R31">
         <v>0</v>
       </c>
-      <c r="U31">
+      <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="V31">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>30</v>
       </c>
@@ -2683,7 +2776,7 @@
       <c r="K32">
         <v>0</v>
       </c>
-      <c r="M32">
+      <c r="L32">
         <v>0</v>
       </c>
       <c r="N32">
@@ -2701,11 +2794,14 @@
       <c r="R32">
         <v>0</v>
       </c>
-      <c r="U32">
+      <c r="S32">
+        <v>0</v>
+      </c>
+      <c r="V32">
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>31</v>
       </c>
@@ -2739,7 +2835,7 @@
       <c r="K33">
         <v>0</v>
       </c>
-      <c r="M33">
+      <c r="L33">
         <v>0</v>
       </c>
       <c r="N33">
@@ -2757,11 +2853,14 @@
       <c r="R33">
         <v>0</v>
       </c>
-      <c r="U33">
+      <c r="S33">
+        <v>0</v>
+      </c>
+      <c r="V33">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>32</v>
       </c>
@@ -2795,7 +2894,7 @@
       <c r="K34">
         <v>0</v>
       </c>
-      <c r="M34">
+      <c r="L34">
         <v>0</v>
       </c>
       <c r="N34">
@@ -2813,11 +2912,14 @@
       <c r="R34">
         <v>0</v>
       </c>
-      <c r="U34">
+      <c r="S34">
+        <v>0</v>
+      </c>
+      <c r="V34">
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>33</v>
       </c>
@@ -2845,7 +2947,7 @@
       <c r="K35">
         <v>0</v>
       </c>
-      <c r="M35">
+      <c r="L35">
         <v>0</v>
       </c>
       <c r="N35">
@@ -2863,11 +2965,14 @@
       <c r="R35">
         <v>0</v>
       </c>
-      <c r="U35">
+      <c r="S35">
+        <v>0</v>
+      </c>
+      <c r="V35">
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>34</v>
       </c>
@@ -2895,7 +3000,7 @@
       <c r="K36">
         <v>0</v>
       </c>
-      <c r="M36">
+      <c r="L36">
         <v>0</v>
       </c>
       <c r="N36">
@@ -2913,11 +3018,14 @@
       <c r="R36">
         <v>0</v>
       </c>
-      <c r="U36">
+      <c r="S36">
+        <v>0</v>
+      </c>
+      <c r="V36">
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>35</v>
       </c>
@@ -2945,7 +3053,7 @@
       <c r="K37">
         <v>0</v>
       </c>
-      <c r="M37">
+      <c r="L37">
         <v>0</v>
       </c>
       <c r="N37">
@@ -2963,11 +3071,14 @@
       <c r="R37">
         <v>0</v>
       </c>
-      <c r="U37">
+      <c r="S37">
+        <v>0</v>
+      </c>
+      <c r="V37">
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>36</v>
       </c>
@@ -2995,7 +3106,7 @@
       <c r="K38">
         <v>0</v>
       </c>
-      <c r="M38">
+      <c r="L38">
         <v>0</v>
       </c>
       <c r="N38">
@@ -3013,11 +3124,14 @@
       <c r="R38">
         <v>0</v>
       </c>
-      <c r="U38">
+      <c r="S38">
+        <v>0</v>
+      </c>
+      <c r="V38">
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>37</v>
       </c>
@@ -3045,7 +3159,7 @@
       <c r="K39">
         <v>0</v>
       </c>
-      <c r="M39">
+      <c r="L39">
         <v>0</v>
       </c>
       <c r="N39">
@@ -3063,11 +3177,14 @@
       <c r="R39">
         <v>0</v>
       </c>
-      <c r="U39">
+      <c r="S39">
+        <v>0</v>
+      </c>
+      <c r="V39">
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>38</v>
       </c>
@@ -3095,7 +3212,7 @@
       <c r="K40">
         <v>0</v>
       </c>
-      <c r="M40">
+      <c r="L40">
         <v>0</v>
       </c>
       <c r="N40">
@@ -3113,11 +3230,14 @@
       <c r="R40">
         <v>0</v>
       </c>
-      <c r="U40">
+      <c r="S40">
+        <v>0</v>
+      </c>
+      <c r="V40">
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>39</v>
       </c>
@@ -3145,7 +3265,7 @@
       <c r="K41">
         <v>0</v>
       </c>
-      <c r="M41">
+      <c r="L41">
         <v>0</v>
       </c>
       <c r="N41">
@@ -3163,11 +3283,14 @@
       <c r="R41">
         <v>0</v>
       </c>
-      <c r="U41">
+      <c r="S41">
+        <v>0</v>
+      </c>
+      <c r="V41">
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>40</v>
       </c>
@@ -3195,7 +3318,7 @@
       <c r="K42">
         <v>0</v>
       </c>
-      <c r="M42">
+      <c r="L42">
         <v>0</v>
       </c>
       <c r="N42">
@@ -3213,11 +3336,14 @@
       <c r="R42">
         <v>0</v>
       </c>
-      <c r="U42">
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="V42">
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>41</v>
       </c>
@@ -3245,7 +3371,7 @@
       <c r="K43">
         <v>0</v>
       </c>
-      <c r="M43">
+      <c r="L43">
         <v>0</v>
       </c>
       <c r="N43">
@@ -3263,11 +3389,14 @@
       <c r="R43">
         <v>0</v>
       </c>
-      <c r="U43">
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="V43">
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>42</v>
       </c>
@@ -3295,7 +3424,7 @@
       <c r="K44">
         <v>0</v>
       </c>
-      <c r="M44">
+      <c r="L44">
         <v>0</v>
       </c>
       <c r="N44">
@@ -3313,11 +3442,14 @@
       <c r="R44">
         <v>0</v>
       </c>
-      <c r="U44">
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="V44">
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>43</v>
       </c>
@@ -3345,7 +3477,7 @@
       <c r="K45">
         <v>0</v>
       </c>
-      <c r="M45">
+      <c r="L45">
         <v>0</v>
       </c>
       <c r="N45">
@@ -3363,11 +3495,14 @@
       <c r="R45">
         <v>0</v>
       </c>
-      <c r="U45">
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="V45">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>44</v>
       </c>
@@ -3395,7 +3530,7 @@
       <c r="K46">
         <v>0</v>
       </c>
-      <c r="M46">
+      <c r="L46">
         <v>0</v>
       </c>
       <c r="N46">
@@ -3413,14 +3548,17 @@
       <c r="R46">
         <v>0</v>
       </c>
-      <c r="U46">
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="V46">
         <v>44</v>
       </c>
-      <c r="V46" t="s">
+      <c r="W46" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>45</v>
       </c>
@@ -3448,8 +3586,8 @@
       <c r="K47">
         <v>0</v>
       </c>
-      <c r="M47">
-        <v>600</v>
+      <c r="L47">
+        <v>0</v>
       </c>
       <c r="N47">
         <v>600</v>
@@ -3466,14 +3604,17 @@
       <c r="R47">
         <v>600</v>
       </c>
-      <c r="U47">
+      <c r="S47">
+        <v>600</v>
+      </c>
+      <c r="V47">
         <v>45</v>
       </c>
-      <c r="V47" t="s">
+      <c r="W47" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>46</v>
       </c>
@@ -3501,7 +3642,7 @@
       <c r="K48">
         <v>0</v>
       </c>
-      <c r="M48">
+      <c r="L48">
         <v>0</v>
       </c>
       <c r="N48">
@@ -3519,11 +3660,14 @@
       <c r="R48">
         <v>0</v>
       </c>
-      <c r="U48">
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="V48">
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>47</v>
       </c>
@@ -3551,7 +3695,7 @@
       <c r="K49">
         <v>0</v>
       </c>
-      <c r="M49">
+      <c r="L49">
         <v>0</v>
       </c>
       <c r="N49">
@@ -3569,11 +3713,14 @@
       <c r="R49">
         <v>0</v>
       </c>
-      <c r="U49">
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="V49">
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>48</v>
       </c>
@@ -3601,7 +3748,7 @@
       <c r="K50">
         <v>0</v>
       </c>
-      <c r="M50">
+      <c r="L50">
         <v>0</v>
       </c>
       <c r="N50">
@@ -3619,11 +3766,14 @@
       <c r="R50">
         <v>0</v>
       </c>
-      <c r="U50">
+      <c r="S50">
+        <v>0</v>
+      </c>
+      <c r="V50">
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>49</v>
       </c>
@@ -3651,7 +3801,7 @@
       <c r="K51">
         <v>0</v>
       </c>
-      <c r="M51">
+      <c r="L51">
         <v>0</v>
       </c>
       <c r="N51">
@@ -3669,11 +3819,14 @@
       <c r="R51">
         <v>0</v>
       </c>
-      <c r="U51">
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="V51">
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>50</v>
       </c>
@@ -3701,7 +3854,7 @@
       <c r="K52">
         <v>0</v>
       </c>
-      <c r="M52">
+      <c r="L52">
         <v>0</v>
       </c>
       <c r="N52">
@@ -3719,11 +3872,14 @@
       <c r="R52">
         <v>0</v>
       </c>
-      <c r="U52">
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="V52">
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>51</v>
       </c>
@@ -3751,7 +3907,7 @@
       <c r="K53">
         <v>0</v>
       </c>
-      <c r="M53">
+      <c r="L53">
         <v>0</v>
       </c>
       <c r="N53">
@@ -3769,11 +3925,14 @@
       <c r="R53">
         <v>0</v>
       </c>
-      <c r="U53">
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="V53">
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>52</v>
       </c>
@@ -3801,7 +3960,7 @@
       <c r="K54">
         <v>0</v>
       </c>
-      <c r="M54">
+      <c r="L54">
         <v>0</v>
       </c>
       <c r="N54">
@@ -3819,11 +3978,14 @@
       <c r="R54">
         <v>0</v>
       </c>
-      <c r="U54">
+      <c r="S54">
+        <v>0</v>
+      </c>
+      <c r="V54">
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>53</v>
       </c>
@@ -3851,7 +4013,7 @@
       <c r="K55">
         <v>0</v>
       </c>
-      <c r="M55">
+      <c r="L55">
         <v>0</v>
       </c>
       <c r="N55">
@@ -3869,11 +4031,14 @@
       <c r="R55">
         <v>0</v>
       </c>
-      <c r="U55">
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="V55">
         <v>53</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>54</v>
       </c>
@@ -3901,7 +4066,7 @@
       <c r="K56">
         <v>0</v>
       </c>
-      <c r="M56">
+      <c r="L56">
         <v>0</v>
       </c>
       <c r="N56">
@@ -3919,11 +4084,14 @@
       <c r="R56">
         <v>0</v>
       </c>
-      <c r="U56">
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="V56">
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>55</v>
       </c>
@@ -3951,7 +4119,7 @@
       <c r="K57">
         <v>0</v>
       </c>
-      <c r="M57">
+      <c r="L57">
         <v>0</v>
       </c>
       <c r="N57">
@@ -3969,11 +4137,14 @@
       <c r="R57">
         <v>0</v>
       </c>
-      <c r="U57">
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="V57">
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>56</v>
       </c>
@@ -4001,7 +4172,7 @@
       <c r="K58">
         <v>0</v>
       </c>
-      <c r="M58">
+      <c r="L58">
         <v>0</v>
       </c>
       <c r="N58">
@@ -4019,11 +4190,14 @@
       <c r="R58">
         <v>0</v>
       </c>
-      <c r="U58">
+      <c r="S58">
+        <v>0</v>
+      </c>
+      <c r="V58">
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>57</v>
       </c>
@@ -4051,7 +4225,7 @@
       <c r="K59">
         <v>0</v>
       </c>
-      <c r="M59">
+      <c r="L59">
         <v>0</v>
       </c>
       <c r="N59">
@@ -4069,11 +4243,14 @@
       <c r="R59">
         <v>0</v>
       </c>
-      <c r="U59">
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="V59">
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>58</v>
       </c>
@@ -4101,7 +4278,7 @@
       <c r="K60">
         <v>0</v>
       </c>
-      <c r="M60">
+      <c r="L60">
         <v>0</v>
       </c>
       <c r="N60">
@@ -4119,11 +4296,14 @@
       <c r="R60">
         <v>0</v>
       </c>
-      <c r="U60">
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="V60">
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>59</v>
       </c>
@@ -4151,7 +4331,7 @@
       <c r="K61">
         <v>0</v>
       </c>
-      <c r="M61">
+      <c r="L61">
         <v>0</v>
       </c>
       <c r="N61">
@@ -4169,11 +4349,14 @@
       <c r="R61">
         <v>0</v>
       </c>
-      <c r="U61">
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="V61">
         <v>59</v>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>60</v>
       </c>
@@ -4201,7 +4384,7 @@
       <c r="K62">
         <v>0</v>
       </c>
-      <c r="M62">
+      <c r="L62">
         <v>0</v>
       </c>
       <c r="N62">
@@ -4219,11 +4402,14 @@
       <c r="R62">
         <v>0</v>
       </c>
-      <c r="U62">
+      <c r="S62">
+        <v>0</v>
+      </c>
+      <c r="V62">
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>61</v>
       </c>
@@ -4251,7 +4437,7 @@
       <c r="K63">
         <v>0</v>
       </c>
-      <c r="M63">
+      <c r="L63">
         <v>0</v>
       </c>
       <c r="N63">
@@ -4269,11 +4455,14 @@
       <c r="R63">
         <v>0</v>
       </c>
-      <c r="U63">
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="V63">
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>62</v>
       </c>
@@ -4301,7 +4490,7 @@
       <c r="K64">
         <v>0</v>
       </c>
-      <c r="M64">
+      <c r="L64">
         <v>0</v>
       </c>
       <c r="N64">
@@ -4319,11 +4508,14 @@
       <c r="R64">
         <v>0</v>
       </c>
-      <c r="U64">
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="V64">
         <v>62</v>
       </c>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>63</v>
       </c>
@@ -4351,7 +4543,7 @@
       <c r="K65">
         <v>0</v>
       </c>
-      <c r="M65">
+      <c r="L65">
         <v>0</v>
       </c>
       <c r="N65">
@@ -4369,11 +4561,14 @@
       <c r="R65">
         <v>0</v>
       </c>
-      <c r="U65">
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="V65">
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>64</v>
       </c>
@@ -4401,7 +4596,7 @@
       <c r="K66">
         <v>0</v>
       </c>
-      <c r="M66">
+      <c r="L66">
         <v>0</v>
       </c>
       <c r="N66">
@@ -4419,11 +4614,14 @@
       <c r="R66">
         <v>0</v>
       </c>
-      <c r="U66">
+      <c r="S66">
+        <v>0</v>
+      </c>
+      <c r="V66">
         <v>64</v>
       </c>
     </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>65</v>
       </c>
@@ -4457,7 +4655,7 @@
       <c r="K67">
         <v>0</v>
       </c>
-      <c r="M67">
+      <c r="L67">
         <v>0</v>
       </c>
       <c r="N67">
@@ -4475,11 +4673,14 @@
       <c r="R67">
         <v>0</v>
       </c>
-      <c r="U67">
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="V67">
         <v>65</v>
       </c>
     </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>66</v>
       </c>
@@ -4513,8 +4714,8 @@
       <c r="K68">
         <v>4600</v>
       </c>
-      <c r="M68">
-        <v>0</v>
+      <c r="L68">
+        <v>4600</v>
       </c>
       <c r="N68">
         <v>0</v>
@@ -4531,11 +4732,14 @@
       <c r="R68">
         <v>0</v>
       </c>
-      <c r="U68">
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="V68">
         <v>66</v>
       </c>
     </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>67</v>
       </c>
@@ -4569,7 +4773,7 @@
       <c r="K69">
         <v>0</v>
       </c>
-      <c r="M69">
+      <c r="L69">
         <v>0</v>
       </c>
       <c r="N69">
@@ -4587,11 +4791,14 @@
       <c r="R69">
         <v>0</v>
       </c>
-      <c r="U69">
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="V69">
         <v>67</v>
       </c>
     </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>68</v>
       </c>
@@ -4625,8 +4832,8 @@
       <c r="K70">
         <v>70</v>
       </c>
-      <c r="M70">
-        <v>0</v>
+      <c r="L70">
+        <v>70</v>
       </c>
       <c r="N70">
         <v>0</v>
@@ -4643,18 +4850,21 @@
       <c r="R70">
         <v>0</v>
       </c>
-      <c r="U70">
+      <c r="S70">
+        <v>0</v>
+      </c>
+      <c r="V70">
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>69</v>
       </c>
       <c r="K71">
         <v>0</v>
       </c>
-      <c r="M71">
+      <c r="L71">
         <v>0</v>
       </c>
       <c r="N71">
@@ -4672,18 +4882,21 @@
       <c r="R71">
         <v>0</v>
       </c>
-      <c r="U71">
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="V71">
         <v>69</v>
       </c>
     </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>70</v>
       </c>
       <c r="K72">
         <v>0</v>
       </c>
-      <c r="M72">
+      <c r="L72">
         <v>0</v>
       </c>
       <c r="N72">
@@ -4701,22 +4914,25 @@
       <c r="R72">
         <v>0</v>
       </c>
-      <c r="U72">
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="V72">
         <v>70</v>
       </c>
-      <c r="V72" t="s">
+      <c r="W72" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>71</v>
       </c>
       <c r="K73">
         <v>0</v>
       </c>
-      <c r="M73">
-        <v>4600</v>
+      <c r="L73">
+        <v>0</v>
       </c>
       <c r="N73">
         <v>4600</v>
@@ -4733,24 +4949,27 @@
       <c r="R73">
         <v>4600</v>
       </c>
-      <c r="S73" s="3" t="s">
+      <c r="S73">
+        <v>4600</v>
+      </c>
+      <c r="T73" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="U73">
+      <c r="V73">
         <v>71</v>
       </c>
-      <c r="V73" t="s">
+      <c r="W73" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>72</v>
       </c>
       <c r="K74">
         <v>0</v>
       </c>
-      <c r="M74">
+      <c r="L74">
         <v>0</v>
       </c>
       <c r="N74">
@@ -4768,21 +4987,24 @@
       <c r="R74">
         <v>0</v>
       </c>
-      <c r="U74">
+      <c r="S74">
+        <v>0</v>
+      </c>
+      <c r="V74">
         <v>72</v>
       </c>
-      <c r="V74" t="s">
+      <c r="W74" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>73</v>
       </c>
       <c r="K75">
         <v>0</v>
       </c>
-      <c r="M75">
+      <c r="L75">
         <v>0</v>
       </c>
       <c r="N75">
@@ -4800,14 +5022,17 @@
       <c r="R75">
         <v>0</v>
       </c>
-      <c r="U75">
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="V75">
         <v>73</v>
       </c>
-      <c r="V75" s="6" t="s">
+      <c r="W75" s="6" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>74</v>
       </c>
@@ -4817,7 +5042,7 @@
       <c r="K76">
         <v>0</v>
       </c>
-      <c r="M76">
+      <c r="L76">
         <v>0</v>
       </c>
       <c r="N76">
@@ -4835,11 +5060,14 @@
       <c r="R76">
         <v>0</v>
       </c>
-      <c r="U76">
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="V76">
         <v>74</v>
       </c>
     </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>75</v>
       </c>
@@ -4852,7 +5080,7 @@
       <c r="K77">
         <v>0</v>
       </c>
-      <c r="M77">
+      <c r="L77">
         <v>0</v>
       </c>
       <c r="N77">
@@ -4870,11 +5098,14 @@
       <c r="R77">
         <v>0</v>
       </c>
-      <c r="U77">
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="V77">
         <v>75</v>
       </c>
     </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>76</v>
       </c>
@@ -4887,8 +5118,8 @@
       <c r="K78">
         <v>16</v>
       </c>
-      <c r="M78">
-        <v>0</v>
+      <c r="L78">
+        <v>16</v>
       </c>
       <c r="N78">
         <v>0</v>
@@ -4905,21 +5136,24 @@
       <c r="R78">
         <v>0</v>
       </c>
-      <c r="U78">
+      <c r="S78">
+        <v>0</v>
+      </c>
+      <c r="V78">
         <v>76</v>
       </c>
-      <c r="V78" t="s">
+      <c r="W78" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>77</v>
       </c>
       <c r="K79">
         <v>1</v>
       </c>
-      <c r="M79">
+      <c r="L79">
         <v>1</v>
       </c>
       <c r="N79">
@@ -4937,19 +5171,22 @@
       <c r="R79">
         <v>1</v>
       </c>
-      <c r="U79">
+      <c r="S79">
+        <v>1</v>
+      </c>
+      <c r="V79">
         <v>77</v>
       </c>
-      <c r="V79" t="s">
+      <c r="W79" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>78</v>
       </c>
-      <c r="M80">
-        <v>257</v>
+      <c r="L80">
+        <v>0</v>
       </c>
       <c r="N80">
         <v>257</v>
@@ -4966,19 +5203,22 @@
       <c r="R80">
         <v>257</v>
       </c>
-      <c r="U80">
+      <c r="S80">
+        <v>257</v>
+      </c>
+      <c r="V80">
         <v>78</v>
       </c>
-      <c r="V80" t="s">
+      <c r="W80" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>79</v>
       </c>
-      <c r="M81">
-        <v>2</v>
+      <c r="L81">
+        <v>0</v>
       </c>
       <c r="N81">
         <v>2</v>
@@ -4987,7 +5227,7 @@
         <v>2</v>
       </c>
       <c r="P81">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q81">
         <v>1</v>
@@ -4995,21 +5235,24 @@
       <c r="R81">
         <v>1</v>
       </c>
-      <c r="U81">
+      <c r="S81">
+        <v>1</v>
+      </c>
+      <c r="V81">
         <v>79</v>
       </c>
-      <c r="V81" t="s">
+      <c r="W81" t="s">
         <v>134</v>
       </c>
-      <c r="W81">
+      <c r="X81">
         <v>130</v>
       </c>
     </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>80</v>
       </c>
-      <c r="M82">
+      <c r="L82">
         <v>0</v>
       </c>
       <c r="N82">
@@ -5027,15 +5270,18 @@
       <c r="R82">
         <v>0</v>
       </c>
-      <c r="U82">
+      <c r="S82">
+        <v>0</v>
+      </c>
+      <c r="V82">
         <v>80</v>
       </c>
     </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>81</v>
       </c>
-      <c r="M83">
+      <c r="L83">
         <v>0</v>
       </c>
       <c r="N83">
@@ -5048,23 +5294,26 @@
         <v>0</v>
       </c>
       <c r="Q83">
+        <v>0</v>
+      </c>
+      <c r="R83">
         <v>1</v>
       </c>
-      <c r="R83">
+      <c r="S83">
         <v>2</v>
       </c>
-      <c r="S83" s="1" t="s">
+      <c r="T83" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="U83">
+      <c r="V83">
         <v>81</v>
       </c>
     </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>82</v>
       </c>
-      <c r="M84">
+      <c r="L84">
         <v>0</v>
       </c>
       <c r="N84">
@@ -5082,15 +5331,18 @@
       <c r="R84">
         <v>0</v>
       </c>
-      <c r="U84">
+      <c r="S84">
+        <v>0</v>
+      </c>
+      <c r="V84">
         <v>82</v>
       </c>
     </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>83</v>
       </c>
-      <c r="M85">
+      <c r="L85">
         <v>0</v>
       </c>
       <c r="N85">
@@ -5108,16 +5360,19 @@
       <c r="R85">
         <v>0</v>
       </c>
-      <c r="U85">
+      <c r="S85">
+        <v>0</v>
+      </c>
+      <c r="V85">
         <v>83</v>
       </c>
     </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>84</v>
       </c>
-      <c r="M86">
-        <v>220</v>
+      <c r="L86">
+        <v>0</v>
       </c>
       <c r="N86">
         <v>220</v>
@@ -5134,15 +5389,18 @@
       <c r="R86">
         <v>220</v>
       </c>
-      <c r="U86">
+      <c r="S86">
+        <v>220</v>
+      </c>
+      <c r="V86">
         <v>84</v>
       </c>
     </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>85</v>
       </c>
-      <c r="M87">
+      <c r="L87">
         <v>0</v>
       </c>
       <c r="N87">
@@ -5160,11 +5418,84 @@
       <c r="R87">
         <v>0</v>
       </c>
-      <c r="U87">
+      <c r="S87">
+        <v>0</v>
+      </c>
+      <c r="V87">
         <v>85</v>
       </c>
-      <c r="V87" s="6" t="s">
+      <c r="W87" s="6" t="s">
         <v>145</v>
+      </c>
+    </row>
+    <row r="88" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="L88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="L89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="L90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="L91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="L92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="L93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="L94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="L95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="L96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L99">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L101">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -5175,34 +5506,36 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA8C0C25-584C-4DB3-91C9-D576A78C1B11}">
-  <dimension ref="A1:M107"/>
+  <dimension ref="A1:P107"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M52" sqref="M52"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A86" sqref="A86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="28.6640625" customWidth="1"/>
-    <col min="8" max="10" width="10.77734375" customWidth="1"/>
-    <col min="12" max="12" width="15.88671875" style="2" customWidth="1"/>
+    <col min="11" max="13" width="10.77734375" customWidth="1"/>
+    <col min="15" max="15" width="15.88671875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C1" s="4" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C1" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4" t="s">
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="I1" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="G1" s="4"/>
-      <c r="H1" t="s">
+      <c r="J1" s="7"/>
+      <c r="K1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -5219,25 +5552,28 @@
         <v>0</v>
       </c>
       <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="I2">
         <v>3</v>
       </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
         <v>2</v>
       </c>
-      <c r="J2">
+      <c r="M2">
         <v>13</v>
       </c>
-      <c r="L2" t="s">
+      <c r="O2" t="s">
         <v>70</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="P2" s="6" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -5256,20 +5592,23 @@
       <c r="F3">
         <v>0</v>
       </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
       <c r="I3">
         <v>0</v>
       </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="M3" s="6" t="s">
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="P3" s="6" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -5286,25 +5625,28 @@
         <v>23779</v>
       </c>
       <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
+        <v>23676</v>
       </c>
       <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
         <v>1</v>
       </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="L4" t="s">
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="O4" t="s">
         <v>2</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="P4" s="6" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -5321,25 +5663,28 @@
         <v>23734</v>
       </c>
       <c r="F5">
+        <v>23685</v>
+      </c>
+      <c r="I5">
         <v>22669</v>
       </c>
-      <c r="H5">
+      <c r="K5">
         <v>23382</v>
       </c>
-      <c r="I5">
+      <c r="L5">
         <v>22704</v>
       </c>
-      <c r="J5">
+      <c r="M5">
         <v>22546</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="O5" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="P5" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -5356,25 +5701,28 @@
         <v>23716</v>
       </c>
       <c r="F6">
+        <v>23634</v>
+      </c>
+      <c r="I6">
         <v>22239</v>
       </c>
-      <c r="H6">
+      <c r="K6">
         <v>23225</v>
       </c>
-      <c r="I6">
+      <c r="L6">
         <v>22408</v>
       </c>
-      <c r="J6">
+      <c r="M6">
         <v>22332</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="O6" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="P6" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -5391,25 +5739,28 @@
         <v>0</v>
       </c>
       <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="I7">
         <v>23054</v>
       </c>
-      <c r="H7">
+      <c r="K7">
         <v>23300</v>
       </c>
-      <c r="I7">
+      <c r="L7">
         <v>22843</v>
       </c>
-      <c r="J7">
+      <c r="M7">
         <v>22795</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="O7" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="P7" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -5428,23 +5779,26 @@
       <c r="F8">
         <v>0</v>
       </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
       <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
         <v>72</v>
       </c>
-      <c r="J8">
+      <c r="M8">
         <v>69</v>
       </c>
-      <c r="L8" s="2" t="s">
+      <c r="O8" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="M8" s="2" t="s">
+      <c r="P8" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -5463,23 +5817,26 @@
       <c r="F9">
         <v>0</v>
       </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
       <c r="I9">
         <v>0</v>
       </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="L9" s="2" t="s">
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="O9" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="M9" s="2" t="s">
+      <c r="P9" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -5498,23 +5855,26 @@
       <c r="F10">
         <v>0</v>
       </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
       <c r="I10">
         <v>0</v>
       </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="L10" s="2" t="s">
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="O10" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="M10" s="2" t="s">
+      <c r="P10" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -5533,23 +5893,26 @@
       <c r="F11">
         <v>0</v>
       </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
       <c r="I11">
         <v>0</v>
       </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="L11" s="2" t="s">
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="O11" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="M11" s="2" t="s">
+      <c r="P11" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -5568,23 +5931,26 @@
       <c r="F12">
         <v>0</v>
       </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
       <c r="I12">
         <v>0</v>
       </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="L12" s="2" t="s">
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="O12" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="M12" s="2" t="s">
+      <c r="P12" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -5603,23 +5969,26 @@
       <c r="F13">
         <v>0</v>
       </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
       <c r="I13">
         <v>0</v>
       </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="L13" s="2" t="s">
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="O13" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="M13" s="2" t="s">
+      <c r="P13" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -5638,23 +6007,26 @@
       <c r="F14">
         <v>0</v>
       </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
       <c r="I14">
         <v>0</v>
       </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="L14" s="2" t="s">
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="O14" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M14" s="2" t="s">
+      <c r="P14" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -5670,20 +6042,23 @@
       <c r="F15">
         <v>0</v>
       </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
       <c r="I15">
         <v>0</v>
       </c>
-      <c r="J15">
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
         <v>2</v>
       </c>
-      <c r="M15" s="2" t="s">
+      <c r="P15" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -5700,22 +6075,25 @@
         <v>12703</v>
       </c>
       <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
+        <v>21433</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="M16" s="6" t="s">
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="P16" s="6" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -5732,25 +6110,28 @@
         <v>0</v>
       </c>
       <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="I17">
         <v>108</v>
       </c>
-      <c r="H17">
+      <c r="K17">
         <v>4</v>
       </c>
-      <c r="I17">
+      <c r="L17">
         <v>1069</v>
       </c>
-      <c r="J17">
+      <c r="M17">
         <v>1071</v>
       </c>
-      <c r="L17" s="2" t="s">
+      <c r="O17" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="M17" s="2" t="s">
+      <c r="P17" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -5767,25 +6148,28 @@
         <v>969</v>
       </c>
       <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="L18" s="2" t="s">
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="O18" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="M18" s="2" t="s">
+      <c r="P18" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -5802,22 +6186,25 @@
         <v>969</v>
       </c>
       <c r="F19">
-        <v>19</v>
-      </c>
-      <c r="H19">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="I19">
         <v>19</v>
       </c>
-      <c r="J19">
+      <c r="K19">
+        <v>11</v>
+      </c>
+      <c r="L19">
         <v>19</v>
       </c>
-      <c r="M19" s="6" t="s">
+      <c r="M19">
+        <v>19</v>
+      </c>
+      <c r="P19" s="6" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -5834,22 +6221,25 @@
         <v>947</v>
       </c>
       <c r="F20">
-        <v>19</v>
-      </c>
-      <c r="H20">
-        <v>65527</v>
+        <v>62</v>
       </c>
       <c r="I20">
         <v>19</v>
       </c>
-      <c r="J20">
+      <c r="K20">
+        <v>65527</v>
+      </c>
+      <c r="L20">
         <v>19</v>
       </c>
-      <c r="M20" s="6" t="s">
+      <c r="M20">
+        <v>19</v>
+      </c>
+      <c r="P20" s="6" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -5866,22 +6256,25 @@
         <v>2245</v>
       </c>
       <c r="F21">
-        <v>65518</v>
-      </c>
-      <c r="H21">
-        <v>65528</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>65518</v>
       </c>
-      <c r="J21">
+      <c r="K21">
+        <v>65528</v>
+      </c>
+      <c r="L21">
         <v>65518</v>
       </c>
-      <c r="M21" s="6" t="s">
+      <c r="M21">
+        <v>65518</v>
+      </c>
+      <c r="P21" s="6" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -5898,22 +6291,25 @@
         <v>2278</v>
       </c>
       <c r="F22">
+        <v>9</v>
+      </c>
+      <c r="I22">
         <v>1</v>
       </c>
-      <c r="H22">
+      <c r="K22">
         <v>65534</v>
       </c>
-      <c r="I22">
+      <c r="L22">
         <v>78</v>
       </c>
-      <c r="J22">
+      <c r="M22">
         <v>65464</v>
       </c>
-      <c r="M22" s="6" t="s">
+      <c r="P22" s="6" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
@@ -5930,22 +6326,25 @@
         <v>2249</v>
       </c>
       <c r="F23">
+        <v>65535</v>
+      </c>
+      <c r="I23">
         <v>63817</v>
       </c>
-      <c r="H23">
+      <c r="K23">
         <v>65535</v>
       </c>
-      <c r="I23">
+      <c r="L23">
         <v>30</v>
       </c>
-      <c r="J23">
+      <c r="M23">
         <v>98</v>
       </c>
-      <c r="M23" s="6" t="s">
+      <c r="P23" s="6" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
@@ -5962,22 +6361,25 @@
         <v>6772</v>
       </c>
       <c r="F24">
+        <v>4</v>
+      </c>
+      <c r="I24">
         <v>6</v>
       </c>
-      <c r="H24">
+      <c r="K24">
         <v>65535</v>
       </c>
-      <c r="I24">
+      <c r="L24">
         <v>7</v>
       </c>
-      <c r="J24">
+      <c r="M24">
         <v>16</v>
       </c>
-      <c r="M24" s="6" t="s">
+      <c r="P24" s="6" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
@@ -5994,22 +6396,25 @@
         <v>0</v>
       </c>
       <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="I25">
         <v>63289</v>
       </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
         <v>417</v>
       </c>
-      <c r="J25">
+      <c r="M25">
         <v>471</v>
       </c>
-      <c r="M25" s="6" t="s">
+      <c r="P25" s="6" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
@@ -6026,25 +6431,28 @@
         <v>33</v>
       </c>
       <c r="F26">
-        <v>13</v>
-      </c>
-      <c r="H26">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I26">
         <v>13</v>
       </c>
-      <c r="J26">
+      <c r="K26">
+        <v>15</v>
+      </c>
+      <c r="L26">
+        <v>13</v>
+      </c>
+      <c r="M26">
         <v>14</v>
       </c>
-      <c r="L26" s="2" t="s">
+      <c r="O26" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M26" s="2" t="s">
+      <c r="P26" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
@@ -6058,25 +6466,28 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>20</v>
-      </c>
-      <c r="H27">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="I27">
         <v>20</v>
       </c>
-      <c r="J27">
+      <c r="K27">
+        <v>21</v>
+      </c>
+      <c r="L27">
         <v>20</v>
       </c>
-      <c r="L27" s="2" t="s">
+      <c r="M27">
+        <v>20</v>
+      </c>
+      <c r="O27" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M27" s="2" t="s">
+      <c r="P27" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
@@ -6093,22 +6504,25 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28">
         <v>0</v>
       </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-      <c r="M28" s="6" t="s">
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="P28" s="6" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
@@ -6122,22 +6536,25 @@
         <v>15</v>
       </c>
       <c r="F29">
+        <v>15</v>
+      </c>
+      <c r="I29">
         <v>1</v>
       </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
-      <c r="I29">
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
         <v>2</v>
       </c>
-      <c r="J29">
+      <c r="M29">
         <v>2</v>
       </c>
-      <c r="M29" s="6" t="s">
+      <c r="P29" s="6" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28</v>
       </c>
@@ -6153,20 +6570,23 @@
       <c r="F30">
         <v>0</v>
       </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
       <c r="I30">
         <v>0</v>
       </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
-      <c r="M30" s="6" t="s">
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="P30" s="6" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>29</v>
       </c>
@@ -6182,20 +6602,23 @@
       <c r="F31">
         <v>0</v>
       </c>
-      <c r="H31">
-        <v>0</v>
-      </c>
       <c r="I31">
         <v>0</v>
       </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
-      <c r="M31" s="6" t="s">
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="P31" s="6" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>30</v>
       </c>
@@ -6211,20 +6634,23 @@
       <c r="F32">
         <v>0</v>
       </c>
-      <c r="H32">
-        <v>0</v>
-      </c>
       <c r="I32">
         <v>0</v>
       </c>
-      <c r="J32">
-        <v>0</v>
-      </c>
-      <c r="M32" s="6" t="s">
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="P32" s="6" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>31</v>
       </c>
@@ -6240,20 +6666,23 @@
       <c r="F33">
         <v>0</v>
       </c>
-      <c r="H33">
-        <v>0</v>
-      </c>
       <c r="I33">
         <v>0</v>
       </c>
-      <c r="J33">
-        <v>0</v>
-      </c>
-      <c r="M33" s="6" t="s">
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="P33" s="6" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>32</v>
       </c>
@@ -6269,20 +6698,23 @@
       <c r="F34">
         <v>0</v>
       </c>
-      <c r="H34">
-        <v>0</v>
-      </c>
       <c r="I34">
         <v>0</v>
       </c>
-      <c r="J34">
-        <v>0</v>
-      </c>
-      <c r="M34" s="6" t="s">
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="P34" s="6" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>33</v>
       </c>
@@ -6299,25 +6731,28 @@
         <v>4994</v>
       </c>
       <c r="F35">
+        <v>4990</v>
+      </c>
+      <c r="I35">
         <v>4982</v>
       </c>
-      <c r="H35">
+      <c r="K35">
         <v>4984</v>
       </c>
-      <c r="I35">
+      <c r="L35">
         <v>4988</v>
       </c>
-      <c r="J35">
+      <c r="M35">
         <v>4986</v>
       </c>
-      <c r="L35" s="2" t="s">
+      <c r="O35" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="M35" s="2" t="s">
+      <c r="P35" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>34</v>
       </c>
@@ -6334,25 +6769,28 @@
         <v>4990</v>
       </c>
       <c r="F36">
+        <v>4984</v>
+      </c>
+      <c r="I36">
         <v>4982</v>
       </c>
-      <c r="H36">
+      <c r="K36">
         <v>4988</v>
       </c>
-      <c r="I36">
+      <c r="L36">
         <v>4984</v>
       </c>
-      <c r="J36">
+      <c r="M36">
         <v>4984</v>
       </c>
-      <c r="L36" s="2" t="s">
+      <c r="O36" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="M36" s="2" t="s">
+      <c r="P36" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>35</v>
       </c>
@@ -6369,25 +6807,28 @@
         <v>4998</v>
       </c>
       <c r="F37">
+        <v>4994</v>
+      </c>
+      <c r="I37">
         <v>4982</v>
       </c>
-      <c r="H37">
+      <c r="K37">
         <v>4984</v>
       </c>
-      <c r="I37">
+      <c r="L37">
         <v>4986</v>
       </c>
-      <c r="J37">
+      <c r="M37">
         <v>4986</v>
       </c>
-      <c r="L37" s="2" t="s">
+      <c r="O37" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="M37" s="2" t="s">
+      <c r="P37" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>36</v>
       </c>
@@ -6404,25 +6845,28 @@
         <v>6422</v>
       </c>
       <c r="F38">
+        <v>2842</v>
+      </c>
+      <c r="I38">
         <v>265</v>
       </c>
-      <c r="H38">
+      <c r="K38">
         <v>13074</v>
       </c>
-      <c r="I38">
+      <c r="L38">
         <v>13366</v>
       </c>
-      <c r="J38">
+      <c r="M38">
         <v>14385</v>
       </c>
-      <c r="L38" s="2" t="s">
+      <c r="O38" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="M38" s="2" t="s">
+      <c r="P38" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>37</v>
       </c>
@@ -6439,25 +6883,28 @@
         <v>6924</v>
       </c>
       <c r="F39">
+        <v>1554</v>
+      </c>
+      <c r="I39">
         <v>2061</v>
       </c>
-      <c r="H39">
+      <c r="K39">
         <v>1810</v>
       </c>
-      <c r="I39">
+      <c r="L39">
         <v>6414</v>
       </c>
-      <c r="J39">
+      <c r="M39">
         <v>6414</v>
       </c>
-      <c r="L39" s="2" t="s">
+      <c r="O39" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="M39" s="2" t="s">
+      <c r="P39" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>38</v>
       </c>
@@ -6474,25 +6921,28 @@
         <v>6150</v>
       </c>
       <c r="F40">
-        <v>6156</v>
-      </c>
-      <c r="H40">
-        <v>6155</v>
+        <v>6403</v>
       </c>
       <c r="I40">
         <v>6156</v>
       </c>
-      <c r="J40">
+      <c r="K40">
+        <v>6155</v>
+      </c>
+      <c r="L40">
         <v>6156</v>
       </c>
-      <c r="L40" s="2" t="s">
+      <c r="M40">
+        <v>6156</v>
+      </c>
+      <c r="O40" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="M40" s="2" t="s">
+      <c r="P40" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>39</v>
       </c>
@@ -6507,22 +6957,25 @@
         <v>4</v>
       </c>
       <c r="F41">
+        <v>4</v>
+      </c>
+      <c r="I41">
         <v>7</v>
       </c>
-      <c r="H41">
+      <c r="K41">
         <v>4</v>
       </c>
-      <c r="I41">
+      <c r="L41">
         <v>3</v>
       </c>
-      <c r="J41">
+      <c r="M41">
         <v>3</v>
       </c>
-      <c r="M41" s="6" t="s">
+      <c r="P41" s="6" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>40</v>
       </c>
@@ -6538,17 +6991,20 @@
       <c r="F42">
         <v>0</v>
       </c>
-      <c r="H42">
-        <v>0</v>
-      </c>
       <c r="I42">
         <v>0</v>
       </c>
-      <c r="J42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>41</v>
       </c>
@@ -6564,17 +7020,20 @@
       <c r="F43">
         <v>0</v>
       </c>
-      <c r="H43">
-        <v>0</v>
-      </c>
       <c r="I43">
         <v>0</v>
       </c>
-      <c r="J43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>42</v>
       </c>
@@ -6590,17 +7049,20 @@
       <c r="F44">
         <v>0</v>
       </c>
-      <c r="H44">
-        <v>0</v>
-      </c>
       <c r="I44">
         <v>0</v>
       </c>
-      <c r="J44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>43</v>
       </c>
@@ -6616,17 +7078,20 @@
       <c r="F45">
         <v>0</v>
       </c>
-      <c r="H45">
-        <v>0</v>
-      </c>
       <c r="I45">
         <v>0</v>
       </c>
-      <c r="J45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>44</v>
       </c>
@@ -6642,17 +7107,20 @@
       <c r="F46">
         <v>0</v>
       </c>
-      <c r="H46">
-        <v>0</v>
-      </c>
       <c r="I46">
         <v>0</v>
       </c>
-      <c r="J46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>45</v>
       </c>
@@ -6668,17 +7136,20 @@
       <c r="F47">
         <v>0</v>
       </c>
-      <c r="H47">
-        <v>0</v>
-      </c>
       <c r="I47">
         <v>0</v>
       </c>
-      <c r="J47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>46</v>
       </c>
@@ -6694,17 +7165,20 @@
       <c r="F48">
         <v>0</v>
       </c>
-      <c r="H48">
-        <v>0</v>
-      </c>
       <c r="I48">
         <v>0</v>
       </c>
-      <c r="J48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>47</v>
       </c>
@@ -6720,17 +7194,20 @@
       <c r="F49">
         <v>0</v>
       </c>
-      <c r="H49">
-        <v>0</v>
-      </c>
       <c r="I49">
         <v>0</v>
       </c>
-      <c r="J49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>48</v>
       </c>
@@ -6749,20 +7226,23 @@
       <c r="F50">
         <v>1</v>
       </c>
-      <c r="H50">
-        <v>1</v>
-      </c>
       <c r="I50">
         <v>1</v>
       </c>
-      <c r="J50">
+      <c r="K50">
         <v>1</v>
       </c>
-      <c r="M50" s="6" t="s">
+      <c r="L50">
+        <v>1</v>
+      </c>
+      <c r="M50">
+        <v>1</v>
+      </c>
+      <c r="P50" s="6" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>49</v>
       </c>
@@ -6776,22 +7256,25 @@
         <v>100</v>
       </c>
       <c r="F51">
+        <v>100</v>
+      </c>
+      <c r="I51">
         <v>30</v>
       </c>
-      <c r="H51">
-        <v>0</v>
-      </c>
-      <c r="I51">
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
         <v>3</v>
       </c>
-      <c r="J51">
+      <c r="M51">
         <v>233</v>
       </c>
-      <c r="M51" s="2" t="s">
+      <c r="P51" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>50</v>
       </c>
@@ -6807,20 +7290,23 @@
       <c r="F52">
         <v>0</v>
       </c>
-      <c r="H52">
-        <v>0</v>
-      </c>
       <c r="I52">
         <v>0</v>
       </c>
-      <c r="J52">
-        <v>0</v>
-      </c>
-      <c r="M52" s="2" t="s">
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="P52" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>51</v>
       </c>
@@ -6834,22 +7320,25 @@
         <v>0</v>
       </c>
       <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="I53">
         <v>3869</v>
       </c>
-      <c r="H53">
+      <c r="K53">
         <v>1338</v>
       </c>
-      <c r="I53">
+      <c r="L53">
         <v>13363</v>
       </c>
-      <c r="J53">
+      <c r="M53">
         <v>13363</v>
       </c>
-      <c r="M53" s="6" t="s">
+      <c r="P53" s="6" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>52</v>
       </c>
@@ -6863,22 +7352,25 @@
         <v>0</v>
       </c>
       <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="I54">
         <v>2059</v>
       </c>
-      <c r="H54">
+      <c r="K54">
         <v>1301</v>
       </c>
-      <c r="I54">
+      <c r="L54">
         <v>6414</v>
       </c>
-      <c r="J54">
+      <c r="M54">
         <v>6414</v>
       </c>
-      <c r="M54" s="6" t="s">
+      <c r="P54" s="6" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>53</v>
       </c>
@@ -6892,22 +7384,25 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>6156</v>
-      </c>
-      <c r="H55">
-        <v>6153</v>
+        <v>0</v>
       </c>
       <c r="I55">
         <v>6156</v>
       </c>
-      <c r="J55">
+      <c r="K55">
+        <v>6153</v>
+      </c>
+      <c r="L55">
         <v>6156</v>
       </c>
-      <c r="M55" s="6" t="s">
+      <c r="M55">
+        <v>6156</v>
+      </c>
+      <c r="P55" s="6" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>54</v>
       </c>
@@ -6921,22 +7416,25 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>48</v>
-      </c>
-      <c r="H56">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="I56">
         <v>48</v>
       </c>
-      <c r="J56">
+      <c r="K56">
         <v>48</v>
       </c>
-      <c r="M56" s="6" t="s">
+      <c r="L56">
+        <v>48</v>
+      </c>
+      <c r="M56">
+        <v>48</v>
+      </c>
+      <c r="P56" s="6" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>55</v>
       </c>
@@ -6950,22 +7448,25 @@
         <v>0</v>
       </c>
       <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="I57">
         <v>906</v>
       </c>
-      <c r="H57">
+      <c r="K57">
         <v>1195</v>
       </c>
-      <c r="I57">
+      <c r="L57">
         <v>565</v>
       </c>
-      <c r="J57">
+      <c r="M57">
         <v>596</v>
       </c>
-      <c r="M57" s="6" t="s">
+      <c r="P57" s="6" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>56</v>
       </c>
@@ -6979,22 +7480,25 @@
         <v>0</v>
       </c>
       <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="I58">
         <v>1000</v>
       </c>
-      <c r="H58">
+      <c r="K58">
         <v>1000</v>
       </c>
-      <c r="I58">
+      <c r="L58">
         <v>166</v>
       </c>
-      <c r="J58">
+      <c r="M58">
         <v>1000</v>
       </c>
-      <c r="M58" s="6" t="s">
+      <c r="P58" s="6" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>57</v>
       </c>
@@ -7010,20 +7514,23 @@
       <c r="F59">
         <v>0</v>
       </c>
-      <c r="H59">
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="K59">
         <v>60</v>
       </c>
-      <c r="I59">
-        <v>0</v>
-      </c>
-      <c r="J59">
-        <v>0</v>
-      </c>
-      <c r="M59" s="6" t="s">
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="P59" s="6" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>58</v>
       </c>
@@ -7037,22 +7544,25 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>44</v>
-      </c>
-      <c r="H60">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="I60">
         <v>44</v>
       </c>
-      <c r="J60">
+      <c r="K60">
+        <v>49</v>
+      </c>
+      <c r="L60">
         <v>44</v>
       </c>
-      <c r="M60" s="6" t="s">
+      <c r="M60">
+        <v>44</v>
+      </c>
+      <c r="P60" s="6" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>59</v>
       </c>
@@ -7068,20 +7578,23 @@
       <c r="F61">
         <v>0</v>
       </c>
-      <c r="H61">
-        <v>0</v>
-      </c>
       <c r="I61">
         <v>0</v>
       </c>
-      <c r="J61">
-        <v>0</v>
-      </c>
-      <c r="M61" s="6" t="s">
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="P61" s="6" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>60</v>
       </c>
@@ -7097,20 +7610,23 @@
       <c r="F62">
         <v>0</v>
       </c>
-      <c r="H62">
-        <v>0</v>
-      </c>
       <c r="I62">
         <v>0</v>
       </c>
-      <c r="J62">
-        <v>0</v>
-      </c>
-      <c r="M62" s="6" t="s">
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="P62" s="6" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>61</v>
       </c>
@@ -7124,22 +7640,25 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1</v>
-      </c>
-      <c r="H63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63">
         <v>1</v>
       </c>
-      <c r="J63">
+      <c r="K63">
         <v>1</v>
       </c>
-      <c r="M63" s="6" t="s">
+      <c r="L63">
+        <v>1</v>
+      </c>
+      <c r="M63">
+        <v>1</v>
+      </c>
+      <c r="P63" s="6" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>62</v>
       </c>
@@ -7155,20 +7674,23 @@
       <c r="F64">
         <v>0</v>
       </c>
-      <c r="H64">
-        <v>0</v>
-      </c>
       <c r="I64">
         <v>0</v>
       </c>
-      <c r="J64">
-        <v>0</v>
-      </c>
-      <c r="M64" s="6" t="s">
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="P64" s="6" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>63</v>
       </c>
@@ -7182,22 +7704,25 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>100</v>
-      </c>
-      <c r="H65">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I65">
         <v>100</v>
       </c>
-      <c r="J65">
+      <c r="K65">
         <v>100</v>
       </c>
-      <c r="M65" s="6" t="s">
+      <c r="L65">
+        <v>100</v>
+      </c>
+      <c r="M65">
+        <v>100</v>
+      </c>
+      <c r="P65" s="6" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>64</v>
       </c>
@@ -7213,20 +7738,23 @@
       <c r="F66">
         <v>0</v>
       </c>
-      <c r="H66">
-        <v>0</v>
-      </c>
       <c r="I66">
         <v>0</v>
       </c>
-      <c r="J66">
-        <v>0</v>
-      </c>
-      <c r="M66" s="6" t="s">
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="P66" s="6" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>65</v>
       </c>
@@ -7242,20 +7770,23 @@
       <c r="F67">
         <v>0</v>
       </c>
-      <c r="H67">
-        <v>0</v>
-      </c>
       <c r="I67">
         <v>0</v>
       </c>
-      <c r="J67">
-        <v>0</v>
-      </c>
-      <c r="M67" s="6" t="s">
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="P67" s="6" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>66</v>
       </c>
@@ -7271,20 +7802,23 @@
       <c r="F68">
         <v>0</v>
       </c>
-      <c r="H68">
-        <v>0</v>
-      </c>
       <c r="I68">
         <v>0</v>
       </c>
-      <c r="J68">
-        <v>0</v>
-      </c>
-      <c r="M68" s="6" t="s">
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="P68" s="6" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>67</v>
       </c>
@@ -7300,20 +7834,23 @@
       <c r="F69">
         <v>0</v>
       </c>
-      <c r="H69">
-        <v>0</v>
-      </c>
       <c r="I69">
         <v>0</v>
       </c>
-      <c r="J69">
-        <v>0</v>
-      </c>
-      <c r="M69" s="6" t="s">
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="P69" s="6" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>68</v>
       </c>
@@ -7329,20 +7866,23 @@
       <c r="F70">
         <v>0</v>
       </c>
-      <c r="H70">
-        <v>0</v>
-      </c>
       <c r="I70">
         <v>0</v>
       </c>
-      <c r="J70">
-        <v>0</v>
-      </c>
-      <c r="M70" s="6" t="s">
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="P70" s="6" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>69</v>
       </c>
@@ -7358,20 +7898,23 @@
       <c r="F71">
         <v>0</v>
       </c>
-      <c r="H71">
-        <v>0</v>
-      </c>
       <c r="I71">
         <v>0</v>
       </c>
-      <c r="J71">
-        <v>0</v>
-      </c>
-      <c r="M71" s="6" t="s">
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="P71" s="6" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>70</v>
       </c>
@@ -7387,20 +7930,23 @@
       <c r="F72">
         <v>0</v>
       </c>
-      <c r="H72">
-        <v>0</v>
-      </c>
       <c r="I72">
         <v>0</v>
       </c>
-      <c r="J72">
-        <v>0</v>
-      </c>
-      <c r="M72" s="6" t="s">
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="P72" s="6" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>71</v>
       </c>
@@ -7416,20 +7962,23 @@
       <c r="F73">
         <v>0</v>
       </c>
-      <c r="H73">
-        <v>0</v>
-      </c>
       <c r="I73">
         <v>0</v>
       </c>
-      <c r="J73">
-        <v>0</v>
-      </c>
-      <c r="M73" s="6" t="s">
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="P73" s="6" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>72</v>
       </c>
@@ -7445,20 +7994,23 @@
       <c r="F74">
         <v>0</v>
       </c>
-      <c r="H74">
-        <v>0</v>
-      </c>
       <c r="I74">
         <v>0</v>
       </c>
-      <c r="J74">
-        <v>0</v>
-      </c>
-      <c r="M74" s="6" t="s">
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="P74" s="6" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>73</v>
       </c>
@@ -7474,20 +8026,23 @@
       <c r="F75">
         <v>0</v>
       </c>
-      <c r="H75">
-        <v>0</v>
-      </c>
       <c r="I75">
         <v>0</v>
       </c>
-      <c r="J75">
-        <v>0</v>
-      </c>
-      <c r="M75" s="6" t="s">
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="P75" s="6" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>74</v>
       </c>
@@ -7503,17 +8058,20 @@
       <c r="F76">
         <v>0</v>
       </c>
-      <c r="H76">
-        <v>0</v>
-      </c>
       <c r="I76">
         <v>0</v>
       </c>
-      <c r="J76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>75</v>
       </c>
@@ -7529,17 +8087,20 @@
       <c r="F77">
         <v>0</v>
       </c>
-      <c r="H77">
-        <v>0</v>
-      </c>
       <c r="I77">
         <v>0</v>
       </c>
-      <c r="J77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>76</v>
       </c>
@@ -7555,17 +8116,20 @@
       <c r="F78">
         <v>0</v>
       </c>
-      <c r="H78">
-        <v>0</v>
-      </c>
       <c r="I78">
         <v>0</v>
       </c>
-      <c r="J78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>77</v>
       </c>
@@ -7581,17 +8145,20 @@
       <c r="F79">
         <v>0</v>
       </c>
-      <c r="H79">
-        <v>0</v>
-      </c>
       <c r="I79">
         <v>0</v>
       </c>
-      <c r="J79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>78</v>
       </c>
@@ -7607,17 +8174,20 @@
       <c r="F80">
         <v>0</v>
       </c>
-      <c r="H80">
-        <v>0</v>
-      </c>
       <c r="I80">
         <v>0</v>
       </c>
-      <c r="J80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>79</v>
       </c>
@@ -7633,17 +8203,20 @@
       <c r="F81">
         <v>0</v>
       </c>
-      <c r="H81">
-        <v>0</v>
-      </c>
       <c r="I81">
         <v>0</v>
       </c>
-      <c r="J81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>80</v>
       </c>
@@ -7662,17 +8235,20 @@
       <c r="F82">
         <v>0</v>
       </c>
-      <c r="H82">
-        <v>0</v>
-      </c>
       <c r="I82">
         <v>0</v>
       </c>
-      <c r="J82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>81</v>
       </c>
@@ -7691,17 +8267,20 @@
       <c r="F83">
         <v>0</v>
       </c>
-      <c r="H83">
-        <v>0</v>
-      </c>
       <c r="I83">
         <v>0</v>
       </c>
-      <c r="J83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K83">
+        <v>0</v>
+      </c>
+      <c r="L83">
+        <v>0</v>
+      </c>
+      <c r="M83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>82</v>
       </c>
@@ -7718,19 +8297,22 @@
         <v>13317</v>
       </c>
       <c r="F84">
-        <v>0</v>
-      </c>
-      <c r="H84">
-        <v>0</v>
+        <v>9530</v>
       </c>
       <c r="I84">
         <v>0</v>
       </c>
-      <c r="J84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K84">
+        <v>0</v>
+      </c>
+      <c r="L84">
+        <v>0</v>
+      </c>
+      <c r="M84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>83</v>
       </c>
@@ -7747,19 +8329,22 @@
         <v>6667</v>
       </c>
       <c r="F85">
-        <v>0</v>
-      </c>
-      <c r="H85">
-        <v>0</v>
+        <v>1551</v>
       </c>
       <c r="I85">
         <v>0</v>
       </c>
-      <c r="J85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K85">
+        <v>0</v>
+      </c>
+      <c r="L85">
+        <v>0</v>
+      </c>
+      <c r="M85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>84</v>
       </c>
@@ -7776,19 +8361,22 @@
         <v>6150</v>
       </c>
       <c r="F86">
-        <v>0</v>
-      </c>
-      <c r="H86">
-        <v>0</v>
+        <v>6403</v>
       </c>
       <c r="I86">
         <v>0</v>
       </c>
-      <c r="J86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K86">
+        <v>0</v>
+      </c>
+      <c r="L86">
+        <v>0</v>
+      </c>
+      <c r="M86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>85</v>
       </c>
@@ -7807,17 +8395,20 @@
       <c r="F87">
         <v>0</v>
       </c>
-      <c r="H87">
-        <v>0</v>
-      </c>
       <c r="I87">
         <v>0</v>
       </c>
-      <c r="J87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K87">
+        <v>0</v>
+      </c>
+      <c r="L87">
+        <v>0</v>
+      </c>
+      <c r="M87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>86</v>
       </c>
@@ -7831,19 +8422,22 @@
         <v>1</v>
       </c>
       <c r="F88">
-        <v>0</v>
-      </c>
-      <c r="H88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I88">
         <v>0</v>
       </c>
-      <c r="J88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K88">
+        <v>0</v>
+      </c>
+      <c r="L88">
+        <v>0</v>
+      </c>
+      <c r="M88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>87</v>
       </c>
@@ -7860,19 +8454,22 @@
         <v>1</v>
       </c>
       <c r="F89">
-        <v>0</v>
-      </c>
-      <c r="H89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I89">
         <v>0</v>
       </c>
-      <c r="J89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K89">
+        <v>0</v>
+      </c>
+      <c r="L89">
+        <v>0</v>
+      </c>
+      <c r="M89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>88</v>
       </c>
@@ -7889,19 +8486,22 @@
         <v>1</v>
       </c>
       <c r="F90">
-        <v>0</v>
-      </c>
-      <c r="H90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I90">
         <v>0</v>
       </c>
-      <c r="J90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K90">
+        <v>0</v>
+      </c>
+      <c r="L90">
+        <v>0</v>
+      </c>
+      <c r="M90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>89</v>
       </c>
@@ -7920,17 +8520,20 @@
       <c r="F91">
         <v>0</v>
       </c>
-      <c r="H91">
-        <v>0</v>
-      </c>
       <c r="I91">
         <v>0</v>
       </c>
-      <c r="J91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K91">
+        <v>0</v>
+      </c>
+      <c r="L91">
+        <v>0</v>
+      </c>
+      <c r="M91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>90</v>
       </c>
@@ -7949,17 +8552,20 @@
       <c r="F92">
         <v>0</v>
       </c>
-      <c r="H92">
-        <v>0</v>
-      </c>
       <c r="I92">
         <v>0</v>
       </c>
-      <c r="J92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K92">
+        <v>0</v>
+      </c>
+      <c r="L92">
+        <v>0</v>
+      </c>
+      <c r="M92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>91</v>
       </c>
@@ -7976,19 +8582,22 @@
         <v>120</v>
       </c>
       <c r="F93">
-        <v>0</v>
-      </c>
-      <c r="H93">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="I93">
         <v>0</v>
       </c>
-      <c r="J93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K93">
+        <v>0</v>
+      </c>
+      <c r="L93">
+        <v>0</v>
+      </c>
+      <c r="M93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>92</v>
       </c>
@@ -8005,19 +8614,22 @@
         <v>1195</v>
       </c>
       <c r="F94">
-        <v>0</v>
-      </c>
-      <c r="H94">
-        <v>0</v>
+        <v>904</v>
       </c>
       <c r="I94">
         <v>0</v>
       </c>
-      <c r="J94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K94">
+        <v>0</v>
+      </c>
+      <c r="L94">
+        <v>0</v>
+      </c>
+      <c r="M94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>93</v>
       </c>
@@ -8034,19 +8646,22 @@
         <v>1000</v>
       </c>
       <c r="F95">
-        <v>0</v>
-      </c>
-      <c r="H95">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="I95">
         <v>0</v>
       </c>
-      <c r="J95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K95">
+        <v>0</v>
+      </c>
+      <c r="L95">
+        <v>0</v>
+      </c>
+      <c r="M95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>94</v>
       </c>
@@ -8060,19 +8675,22 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>0</v>
-      </c>
-      <c r="H96">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I96">
         <v>0</v>
       </c>
-      <c r="J96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K96">
+        <v>0</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+      <c r="M96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>95</v>
       </c>
@@ -8089,162 +8707,180 @@
         <v>44</v>
       </c>
       <c r="F97">
-        <v>0</v>
-      </c>
-      <c r="H97">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I97">
         <v>0</v>
       </c>
-      <c r="J97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K97">
+        <v>0</v>
+      </c>
+      <c r="L97">
+        <v>0</v>
+      </c>
+      <c r="M97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
       <c r="F98">
         <v>0</v>
       </c>
-      <c r="H98">
-        <v>0</v>
-      </c>
       <c r="I98">
         <v>0</v>
       </c>
-      <c r="J98">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K98">
+        <v>0</v>
+      </c>
+      <c r="L98">
+        <v>0</v>
+      </c>
+      <c r="M98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
       <c r="F99">
         <v>0</v>
       </c>
-      <c r="H99">
-        <v>0</v>
-      </c>
       <c r="I99">
         <v>0</v>
       </c>
-      <c r="J99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K99">
+        <v>0</v>
+      </c>
+      <c r="L99">
+        <v>0</v>
+      </c>
+      <c r="M99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
       <c r="F100">
         <v>1</v>
       </c>
-      <c r="H100">
-        <v>1</v>
-      </c>
       <c r="I100">
         <v>1</v>
       </c>
-      <c r="J100">
+      <c r="K100">
         <v>1</v>
       </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L100">
+        <v>1</v>
+      </c>
+      <c r="M100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
       <c r="F101">
-        <v>12</v>
-      </c>
-      <c r="H101">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="I101">
         <v>12</v>
       </c>
-      <c r="J101">
+      <c r="K101">
+        <v>13</v>
+      </c>
+      <c r="L101">
         <v>12</v>
       </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M101">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
       <c r="F102">
-        <v>50</v>
-      </c>
-      <c r="H102">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I102">
         <v>50</v>
       </c>
-      <c r="J102">
+      <c r="K102">
         <v>50</v>
       </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="F103">
+      <c r="L102">
+        <v>50</v>
+      </c>
+      <c r="M102">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I103">
         <v>6</v>
       </c>
-      <c r="H103">
+      <c r="K103">
         <v>5</v>
       </c>
-      <c r="I103">
+      <c r="L103">
         <v>34</v>
       </c>
-      <c r="J103">
+      <c r="M103">
         <v>34</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="F104">
-        <v>0</v>
-      </c>
-      <c r="H104">
-        <v>0</v>
-      </c>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I104">
         <v>0</v>
       </c>
-      <c r="J104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="F105">
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
+        <v>0</v>
+      </c>
+      <c r="M104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I105">
         <v>6</v>
       </c>
-      <c r="H105">
+      <c r="K105">
         <v>5</v>
       </c>
-      <c r="I105">
+      <c r="L105">
         <v>24</v>
       </c>
-      <c r="J105">
+      <c r="M105">
         <v>24</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="F106">
-        <v>0</v>
-      </c>
-      <c r="H106">
-        <v>0</v>
-      </c>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I106">
         <v>0</v>
       </c>
-      <c r="J106">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="F107">
-        <v>0</v>
-      </c>
-      <c r="H107">
-        <v>0</v>
-      </c>
+      <c r="K106">
+        <v>0</v>
+      </c>
+      <c r="L106">
+        <v>0</v>
+      </c>
+      <c r="M106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I107">
         <v>0</v>
       </c>
-      <c r="J107">
+      <c r="K107">
+        <v>0</v>
+      </c>
+      <c r="L107">
+        <v>0</v>
+      </c>
+      <c r="M107">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="I1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/doc/Mapping.xlsx
+++ b/doc/Mapping.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\trest\Source\Repos\HomeAssistant\homeassistant-solax-http\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E088CE0-4C95-4496-815C-21148A166168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D5A5F95-BBA6-4BB7-ADEE-558A38E7E30C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E30620CE-52E2-4698-983C-BDD3AD23A8BB}"/>
+    <workbookView xWindow="34695" yWindow="-10050" windowWidth="25200" windowHeight="15720" xr2:uid="{E30620CE-52E2-4698-983C-BDD3AD23A8BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="154">
   <si>
     <t>[</t>
   </si>
@@ -493,6 +493,12 @@
   </si>
   <si>
     <t>EcoMode(1,2,3)</t>
+  </si>
+  <si>
+    <t>Green+</t>
+  </si>
+  <si>
+    <t>8A</t>
   </si>
 </sst>
 </file>
@@ -889,22 +895,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E382A0D-967B-40F4-B1C8-B14BB77D210D}">
-  <dimension ref="A1:AI102"/>
+  <dimension ref="A1:AN102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="A81" sqref="A81"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="AC2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="AD13" sqref="AD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="18.33203125" customWidth="1"/>
     <col min="3" max="3" width="21.21875" customWidth="1"/>
-    <col min="26" max="30" width="13.109375" customWidth="1"/>
-    <col min="31" max="31" width="13.109375" style="3" customWidth="1"/>
-    <col min="34" max="34" width="17" customWidth="1"/>
+    <col min="25" max="35" width="13.109375" customWidth="1"/>
+    <col min="36" max="36" width="13.109375" style="3" customWidth="1"/>
+    <col min="39" max="39" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -938,26 +947,32 @@
       <c r="U1" t="s">
         <v>149</v>
       </c>
+      <c r="V1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>71</v>
+      </c>
       <c r="Z1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AG1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AL1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1021,6 +1036,12 @@
       <c r="U2">
         <v>2</v>
       </c>
+      <c r="V2">
+        <v>2</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
       <c r="Y2">
         <v>0</v>
       </c>
@@ -1039,14 +1060,14 @@
       <c r="AD2">
         <v>0</v>
       </c>
-      <c r="AG2">
-        <v>0</v>
-      </c>
-      <c r="AH2" t="s">
+      <c r="AL2">
+        <v>0</v>
+      </c>
+      <c r="AM2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1110,6 +1131,12 @@
       <c r="U3" s="1">
         <v>0</v>
       </c>
+      <c r="V3">
+        <v>3</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
       <c r="Y3">
         <v>0</v>
       </c>
@@ -1117,29 +1144,29 @@
         <v>0</v>
       </c>
       <c r="AA3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC3">
+        <v>3</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AJ3"/>
+      <c r="AL3">
+        <v>1</v>
+      </c>
+      <c r="AM3" t="s">
         <v>2</v>
       </c>
-      <c r="AD3">
-        <v>3</v>
-      </c>
-      <c r="AE3"/>
-      <c r="AG3">
-        <v>1</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>2</v>
-      </c>
-      <c r="AI3">
+      <c r="AN3">
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1203,6 +1230,12 @@
       <c r="U4">
         <v>6</v>
       </c>
+      <c r="V4">
+        <v>6</v>
+      </c>
+      <c r="X4">
+        <v>70</v>
+      </c>
       <c r="Y4">
         <v>70</v>
       </c>
@@ -1221,17 +1254,17 @@
       <c r="AD4">
         <v>70</v>
       </c>
-      <c r="AE4" s="5" t="s">
+      <c r="AJ4" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="AG4">
+      <c r="AL4">
         <v>2</v>
       </c>
-      <c r="AH4" s="6" t="s">
+      <c r="AM4" s="6" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1295,6 +1328,12 @@
       <c r="U5">
         <v>3</v>
       </c>
+      <c r="V5">
+        <v>3</v>
+      </c>
+      <c r="X5">
+        <v>16</v>
+      </c>
       <c r="Y5">
         <v>16</v>
       </c>
@@ -1311,22 +1350,22 @@
         <v>16</v>
       </c>
       <c r="AD5">
-        <v>16</v>
-      </c>
-      <c r="AE5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ5" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="AG5">
+      <c r="AL5">
         <v>3</v>
       </c>
-      <c r="AH5" t="s">
+      <c r="AM5" t="s">
         <v>133</v>
       </c>
-      <c r="AI5">
+      <c r="AN5">
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1390,6 +1429,12 @@
       <c r="U6">
         <v>0</v>
       </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
       <c r="Y6">
         <v>0</v>
       </c>
@@ -1408,14 +1453,14 @@
       <c r="AD6">
         <v>0</v>
       </c>
-      <c r="AG6">
+      <c r="AL6">
         <v>4</v>
       </c>
-      <c r="AH6" t="s">
+      <c r="AM6" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1479,6 +1524,12 @@
       <c r="U7">
         <v>265</v>
       </c>
+      <c r="V7">
+        <v>265</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
       <c r="Y7">
         <v>0</v>
       </c>
@@ -1497,17 +1548,17 @@
       <c r="AD7">
         <v>0</v>
       </c>
-      <c r="AG7">
+      <c r="AL7">
         <v>5</v>
       </c>
-      <c r="AH7" s="6" t="s">
+      <c r="AM7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="AI7">
+      <c r="AN7">
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1571,6 +1622,12 @@
       <c r="U8">
         <v>160</v>
       </c>
+      <c r="V8">
+        <v>160</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
       <c r="Y8">
         <v>0</v>
       </c>
@@ -1589,11 +1646,11 @@
       <c r="AD8">
         <v>0</v>
       </c>
-      <c r="AG8">
+      <c r="AL8">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1651,6 +1708,12 @@
       <c r="U9">
         <v>18</v>
       </c>
+      <c r="V9">
+        <v>18</v>
+      </c>
+      <c r="X9">
+        <v>1</v>
+      </c>
       <c r="Y9">
         <v>1</v>
       </c>
@@ -1669,14 +1732,14 @@
       <c r="AD9">
         <v>1</v>
       </c>
-      <c r="AG9">
+      <c r="AL9">
         <v>7</v>
       </c>
-      <c r="AH9" s="6" t="s">
+      <c r="AM9" s="6" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1734,6 +1797,12 @@
       <c r="U10">
         <v>80</v>
       </c>
+      <c r="V10">
+        <v>80</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
       <c r="Y10">
         <v>0</v>
       </c>
@@ -1752,11 +1821,11 @@
       <c r="AD10">
         <v>0</v>
       </c>
-      <c r="AG10">
+      <c r="AL10">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1814,6 +1883,12 @@
       <c r="U11">
         <v>30</v>
       </c>
+      <c r="V11">
+        <v>30</v>
+      </c>
+      <c r="X11">
+        <v>1</v>
+      </c>
       <c r="Y11">
         <v>1</v>
       </c>
@@ -1832,11 +1907,11 @@
       <c r="AD11">
         <v>1</v>
       </c>
-      <c r="AG11">
+      <c r="AL11">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1896,6 +1971,12 @@
       <c r="U12">
         <v>12000</v>
       </c>
+      <c r="V12">
+        <v>4000</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
       <c r="Y12">
         <v>0</v>
       </c>
@@ -1914,14 +1995,14 @@
       <c r="AD12">
         <v>0</v>
       </c>
-      <c r="AG12" s="1">
+      <c r="AL12" s="1">
         <v>10</v>
       </c>
-      <c r="AH12" s="6" t="s">
+      <c r="AM12" s="6" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1985,6 +2066,12 @@
       <c r="U13">
         <v>0</v>
       </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>10</v>
+      </c>
       <c r="Y13">
         <v>10</v>
       </c>
@@ -2001,19 +2088,19 @@
         <v>10</v>
       </c>
       <c r="AD13">
-        <v>10</v>
-      </c>
-      <c r="AG13">
+        <v>6</v>
+      </c>
+      <c r="AL13">
         <v>11</v>
       </c>
-      <c r="AH13" t="s">
+      <c r="AM13" t="s">
         <v>132</v>
       </c>
-      <c r="AI13">
+      <c r="AN13">
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -2077,6 +2164,12 @@
       <c r="U14">
         <v>0</v>
       </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>6</v>
+      </c>
       <c r="Y14">
         <v>6</v>
       </c>
@@ -2093,19 +2186,19 @@
         <v>6</v>
       </c>
       <c r="AD14">
-        <v>6</v>
-      </c>
-      <c r="AG14">
+        <v>3</v>
+      </c>
+      <c r="AL14">
         <v>12</v>
       </c>
-      <c r="AH14" t="s">
+      <c r="AM14" t="s">
         <v>131</v>
       </c>
-      <c r="AI14">
+      <c r="AN14">
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -2169,6 +2262,12 @@
       <c r="U15">
         <v>0</v>
       </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>265</v>
+      </c>
       <c r="Y15">
         <v>265</v>
       </c>
@@ -2187,20 +2286,20 @@
       <c r="AD15">
         <v>265</v>
       </c>
-      <c r="AE15" s="3" t="s">
+      <c r="AJ15" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="AG15">
+      <c r="AL15">
         <v>13</v>
       </c>
-      <c r="AH15" t="s">
+      <c r="AM15" t="s">
         <v>86</v>
       </c>
-      <c r="AI15">
+      <c r="AN15">
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -2264,6 +2363,12 @@
       <c r="U16">
         <v>0</v>
       </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>160</v>
+      </c>
       <c r="Y16">
         <v>160</v>
       </c>
@@ -2282,20 +2387,20 @@
       <c r="AD16">
         <v>160</v>
       </c>
-      <c r="AE16" s="3" t="s">
+      <c r="AJ16" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AG16">
+      <c r="AL16">
         <v>14</v>
       </c>
-      <c r="AH16" t="s">
+      <c r="AM16" t="s">
         <v>87</v>
       </c>
-      <c r="AI16">
+      <c r="AN16">
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -2359,6 +2464,12 @@
       <c r="U17">
         <v>0</v>
       </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
       <c r="Y17">
         <v>0</v>
       </c>
@@ -2377,17 +2488,17 @@
       <c r="AD17">
         <v>0</v>
       </c>
-      <c r="AG17">
+      <c r="AL17">
         <v>15</v>
       </c>
-      <c r="AH17" t="s">
+      <c r="AM17" t="s">
         <v>139</v>
       </c>
-      <c r="AI17">
+      <c r="AN17">
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -2445,6 +2556,12 @@
       <c r="U18">
         <v>0</v>
       </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
       <c r="Y18">
         <v>0</v>
       </c>
@@ -2463,17 +2580,17 @@
       <c r="AD18">
         <v>0</v>
       </c>
-      <c r="AG18">
+      <c r="AL18">
         <v>16</v>
       </c>
-      <c r="AH18" t="s">
+      <c r="AM18" t="s">
         <v>135</v>
       </c>
-      <c r="AI18">
+      <c r="AN18">
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -2537,6 +2654,12 @@
       <c r="U19">
         <v>50</v>
       </c>
+      <c r="V19">
+        <v>50</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
       <c r="Y19">
         <v>0</v>
       </c>
@@ -2555,17 +2678,17 @@
       <c r="AD19">
         <v>0</v>
       </c>
-      <c r="AG19">
+      <c r="AL19">
         <v>17</v>
       </c>
-      <c r="AH19" t="s">
+      <c r="AM19" t="s">
         <v>136</v>
       </c>
-      <c r="AI19">
+      <c r="AN19">
         <v>68</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -2629,6 +2752,12 @@
       <c r="U20">
         <v>32</v>
       </c>
+      <c r="V20">
+        <v>32</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
       <c r="Y20">
         <v>0</v>
       </c>
@@ -2647,17 +2776,17 @@
       <c r="AD20">
         <v>0</v>
       </c>
-      <c r="AG20">
+      <c r="AL20">
         <v>18</v>
       </c>
-      <c r="AH20" t="s">
+      <c r="AM20" t="s">
         <v>137</v>
       </c>
-      <c r="AI20">
+      <c r="AN20">
         <v>69</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -2721,6 +2850,12 @@
       <c r="U21">
         <v>116</v>
       </c>
+      <c r="V21">
+        <v>116</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
       <c r="Y21">
         <v>0</v>
       </c>
@@ -2739,17 +2874,17 @@
       <c r="AD21">
         <v>0</v>
       </c>
-      <c r="AG21">
+      <c r="AL21">
         <v>19</v>
       </c>
-      <c r="AH21" t="s">
+      <c r="AM21" t="s">
         <v>138</v>
       </c>
-      <c r="AI21">
+      <c r="AN21">
         <v>70</v>
       </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -2807,6 +2942,12 @@
       <c r="U22">
         <v>101</v>
       </c>
+      <c r="V22">
+        <v>101</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
       <c r="Y22">
         <v>0</v>
       </c>
@@ -2825,11 +2966,11 @@
       <c r="AD22">
         <v>0</v>
       </c>
-      <c r="AG22">
+      <c r="AL22">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
@@ -2890,6 +3031,12 @@
       <c r="U23">
         <v>60</v>
       </c>
+      <c r="V23">
+        <v>120</v>
+      </c>
+      <c r="X23">
+        <v>44</v>
+      </c>
       <c r="Y23">
         <v>44</v>
       </c>
@@ -2908,14 +3055,14 @@
       <c r="AD23">
         <v>44</v>
       </c>
-      <c r="AE23" s="3" t="s">
+      <c r="AJ23" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AG23">
+      <c r="AL23">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
@@ -2979,6 +3126,12 @@
       <c r="U24">
         <v>0</v>
       </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>25</v>
+      </c>
       <c r="Y24">
         <v>25</v>
       </c>
@@ -2997,14 +3150,14 @@
       <c r="AD24">
         <v>25</v>
       </c>
-      <c r="AG24">
+      <c r="AL24">
         <v>22</v>
       </c>
-      <c r="AH24" s="6" t="s">
+      <c r="AM24" s="6" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
@@ -3062,6 +3215,12 @@
       <c r="U25">
         <v>0</v>
       </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
+      </c>
       <c r="Y25">
         <v>0</v>
       </c>
@@ -3080,14 +3239,14 @@
       <c r="AD25">
         <v>0</v>
       </c>
-      <c r="AG25">
+      <c r="AL25">
         <v>23</v>
       </c>
-      <c r="AH25" s="6" t="s">
+      <c r="AM25" s="6" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
@@ -3151,6 +3310,12 @@
       <c r="U26">
         <v>0</v>
       </c>
+      <c r="V26">
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <v>0</v>
+      </c>
       <c r="Y26">
         <v>0</v>
       </c>
@@ -3169,11 +3334,11 @@
       <c r="AD26">
         <v>0</v>
       </c>
-      <c r="AG26">
+      <c r="AL26">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
@@ -3231,6 +3396,12 @@
       <c r="U27">
         <v>0</v>
       </c>
+      <c r="V27">
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <v>12593</v>
+      </c>
       <c r="Y27">
         <v>12593</v>
       </c>
@@ -3249,14 +3420,14 @@
       <c r="AD27">
         <v>12593</v>
       </c>
-      <c r="AE27" s="3" t="s">
+      <c r="AJ27" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="AG27">
+      <c r="AL27">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
@@ -3314,6 +3485,12 @@
       <c r="U28">
         <v>0</v>
       </c>
+      <c r="V28">
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <v>12593</v>
+      </c>
       <c r="Y28">
         <v>12593</v>
       </c>
@@ -3332,14 +3509,14 @@
       <c r="AD28">
         <v>12593</v>
       </c>
-      <c r="AE28" s="3" t="s">
+      <c r="AJ28" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="AG28">
+      <c r="AL28">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
@@ -3397,6 +3574,12 @@
       <c r="U29">
         <v>0</v>
       </c>
+      <c r="V29">
+        <v>0</v>
+      </c>
+      <c r="X29">
+        <v>12593</v>
+      </c>
       <c r="Y29">
         <v>12593</v>
       </c>
@@ -3415,14 +3598,14 @@
       <c r="AD29">
         <v>12593</v>
       </c>
-      <c r="AE29" s="3" t="s">
+      <c r="AJ29" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="AG29">
+      <c r="AL29">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28</v>
       </c>
@@ -3486,6 +3669,12 @@
       <c r="U30">
         <v>0</v>
       </c>
+      <c r="V30">
+        <v>0</v>
+      </c>
+      <c r="X30">
+        <v>0</v>
+      </c>
       <c r="Y30">
         <v>0</v>
       </c>
@@ -3504,11 +3693,11 @@
       <c r="AD30">
         <v>0</v>
       </c>
-      <c r="AG30">
+      <c r="AL30">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>29</v>
       </c>
@@ -3572,6 +3761,12 @@
       <c r="U31">
         <v>0</v>
       </c>
+      <c r="V31">
+        <v>0</v>
+      </c>
+      <c r="X31">
+        <v>0</v>
+      </c>
       <c r="Y31">
         <v>0</v>
       </c>
@@ -3590,11 +3785,11 @@
       <c r="AD31">
         <v>0</v>
       </c>
-      <c r="AG31">
+      <c r="AL31">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>30</v>
       </c>
@@ -3658,6 +3853,12 @@
       <c r="U32">
         <v>0</v>
       </c>
+      <c r="V32">
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <v>0</v>
+      </c>
       <c r="Y32">
         <v>0</v>
       </c>
@@ -3676,11 +3877,11 @@
       <c r="AD32">
         <v>0</v>
       </c>
-      <c r="AG32">
+      <c r="AL32">
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>31</v>
       </c>
@@ -3744,6 +3945,12 @@
       <c r="U33">
         <v>0</v>
       </c>
+      <c r="V33">
+        <v>0</v>
+      </c>
+      <c r="X33">
+        <v>0</v>
+      </c>
       <c r="Y33">
         <v>0</v>
       </c>
@@ -3760,13 +3967,13 @@
         <v>0</v>
       </c>
       <c r="AD33">
-        <v>0</v>
-      </c>
-      <c r="AG33">
+        <v>11</v>
+      </c>
+      <c r="AL33">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>32</v>
       </c>
@@ -3830,6 +4037,12 @@
       <c r="U34">
         <v>0</v>
       </c>
+      <c r="V34">
+        <v>0</v>
+      </c>
+      <c r="X34">
+        <v>0</v>
+      </c>
       <c r="Y34">
         <v>0</v>
       </c>
@@ -3848,11 +4061,11 @@
       <c r="AD34">
         <v>0</v>
       </c>
-      <c r="AG34">
+      <c r="AL34">
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>33</v>
       </c>
@@ -3910,6 +4123,12 @@
       <c r="U35">
         <v>0</v>
       </c>
+      <c r="V35">
+        <v>0</v>
+      </c>
+      <c r="X35">
+        <v>0</v>
+      </c>
       <c r="Y35">
         <v>0</v>
       </c>
@@ -3928,11 +4147,11 @@
       <c r="AD35">
         <v>0</v>
       </c>
-      <c r="AG35">
+      <c r="AL35">
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>34</v>
       </c>
@@ -3990,6 +4209,12 @@
       <c r="U36">
         <v>0</v>
       </c>
+      <c r="V36">
+        <v>0</v>
+      </c>
+      <c r="X36">
+        <v>0</v>
+      </c>
       <c r="Y36">
         <v>0</v>
       </c>
@@ -4008,11 +4233,11 @@
       <c r="AD36">
         <v>0</v>
       </c>
-      <c r="AG36">
+      <c r="AL36">
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>35</v>
       </c>
@@ -4070,6 +4295,12 @@
       <c r="U37">
         <v>0</v>
       </c>
+      <c r="V37">
+        <v>0</v>
+      </c>
+      <c r="X37">
+        <v>0</v>
+      </c>
       <c r="Y37">
         <v>0</v>
       </c>
@@ -4088,11 +4319,11 @@
       <c r="AD37">
         <v>0</v>
       </c>
-      <c r="AG37">
+      <c r="AL37">
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>36</v>
       </c>
@@ -4150,6 +4381,12 @@
       <c r="U38">
         <v>0</v>
       </c>
+      <c r="V38">
+        <v>0</v>
+      </c>
+      <c r="X38">
+        <v>0</v>
+      </c>
       <c r="Y38">
         <v>0</v>
       </c>
@@ -4168,11 +4405,11 @@
       <c r="AD38">
         <v>0</v>
       </c>
-      <c r="AG38">
+      <c r="AL38">
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>37</v>
       </c>
@@ -4230,6 +4467,12 @@
       <c r="U39">
         <v>0</v>
       </c>
+      <c r="V39">
+        <v>0</v>
+      </c>
+      <c r="X39">
+        <v>0</v>
+      </c>
       <c r="Y39">
         <v>0</v>
       </c>
@@ -4248,11 +4491,11 @@
       <c r="AD39">
         <v>0</v>
       </c>
-      <c r="AG39">
+      <c r="AL39">
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>38</v>
       </c>
@@ -4310,6 +4553,12 @@
       <c r="U40">
         <v>0</v>
       </c>
+      <c r="V40">
+        <v>0</v>
+      </c>
+      <c r="X40">
+        <v>0</v>
+      </c>
       <c r="Y40">
         <v>0</v>
       </c>
@@ -4328,11 +4577,11 @@
       <c r="AD40">
         <v>0</v>
       </c>
-      <c r="AG40">
+      <c r="AL40">
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>39</v>
       </c>
@@ -4390,6 +4639,12 @@
       <c r="U41">
         <v>0</v>
       </c>
+      <c r="V41">
+        <v>0</v>
+      </c>
+      <c r="X41">
+        <v>0</v>
+      </c>
       <c r="Y41">
         <v>0</v>
       </c>
@@ -4408,11 +4663,11 @@
       <c r="AD41">
         <v>0</v>
       </c>
-      <c r="AG41">
+      <c r="AL41">
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>40</v>
       </c>
@@ -4470,6 +4725,12 @@
       <c r="U42">
         <v>0</v>
       </c>
+      <c r="V42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>0</v>
+      </c>
       <c r="Y42">
         <v>0</v>
       </c>
@@ -4488,11 +4749,11 @@
       <c r="AD42">
         <v>0</v>
       </c>
-      <c r="AG42">
+      <c r="AL42">
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>41</v>
       </c>
@@ -4550,6 +4811,12 @@
       <c r="U43">
         <v>0</v>
       </c>
+      <c r="V43">
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <v>0</v>
+      </c>
       <c r="Y43">
         <v>0</v>
       </c>
@@ -4568,11 +4835,11 @@
       <c r="AD43">
         <v>0</v>
       </c>
-      <c r="AG43">
+      <c r="AL43">
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>42</v>
       </c>
@@ -4630,6 +4897,12 @@
       <c r="U44">
         <v>0</v>
       </c>
+      <c r="V44">
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>0</v>
+      </c>
       <c r="Y44">
         <v>0</v>
       </c>
@@ -4648,11 +4921,11 @@
       <c r="AD44">
         <v>0</v>
       </c>
-      <c r="AG44">
+      <c r="AL44">
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>43</v>
       </c>
@@ -4710,6 +4983,12 @@
       <c r="U45">
         <v>0</v>
       </c>
+      <c r="V45">
+        <v>311</v>
+      </c>
+      <c r="X45">
+        <v>0</v>
+      </c>
       <c r="Y45">
         <v>0</v>
       </c>
@@ -4728,11 +5007,11 @@
       <c r="AD45">
         <v>0</v>
       </c>
-      <c r="AG45">
+      <c r="AL45">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>44</v>
       </c>
@@ -4790,6 +5069,12 @@
       <c r="U46">
         <v>0</v>
       </c>
+      <c r="V46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>0</v>
+      </c>
       <c r="Y46">
         <v>0</v>
       </c>
@@ -4808,14 +5093,14 @@
       <c r="AD46">
         <v>0</v>
       </c>
-      <c r="AG46">
+      <c r="AL46">
         <v>44</v>
       </c>
-      <c r="AH46" t="s">
+      <c r="AM46" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="47" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>45</v>
       </c>
@@ -4873,6 +5158,12 @@
       <c r="U47">
         <v>0</v>
       </c>
+      <c r="V47">
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <v>600</v>
+      </c>
       <c r="Y47">
         <v>600</v>
       </c>
@@ -4891,14 +5182,14 @@
       <c r="AD47">
         <v>600</v>
       </c>
-      <c r="AG47">
+      <c r="AL47">
         <v>45</v>
       </c>
-      <c r="AH47" t="s">
+      <c r="AM47" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="48" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>46</v>
       </c>
@@ -4956,6 +5247,12 @@
       <c r="U48">
         <v>0</v>
       </c>
+      <c r="V48">
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <v>0</v>
+      </c>
       <c r="Y48">
         <v>0</v>
       </c>
@@ -4974,11 +5271,11 @@
       <c r="AD48">
         <v>0</v>
       </c>
-      <c r="AG48">
+      <c r="AL48">
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>47</v>
       </c>
@@ -5036,6 +5333,12 @@
       <c r="U49">
         <v>0</v>
       </c>
+      <c r="V49">
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <v>0</v>
+      </c>
       <c r="Y49">
         <v>0</v>
       </c>
@@ -5054,11 +5357,11 @@
       <c r="AD49">
         <v>0</v>
       </c>
-      <c r="AG49">
+      <c r="AL49">
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>48</v>
       </c>
@@ -5116,6 +5419,12 @@
       <c r="U50">
         <v>0</v>
       </c>
+      <c r="V50">
+        <v>0</v>
+      </c>
+      <c r="X50">
+        <v>0</v>
+      </c>
       <c r="Y50">
         <v>0</v>
       </c>
@@ -5134,11 +5443,11 @@
       <c r="AD50">
         <v>0</v>
       </c>
-      <c r="AG50">
+      <c r="AL50">
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>49</v>
       </c>
@@ -5196,6 +5505,12 @@
       <c r="U51">
         <v>0</v>
       </c>
+      <c r="V51">
+        <v>0</v>
+      </c>
+      <c r="X51">
+        <v>0</v>
+      </c>
       <c r="Y51">
         <v>0</v>
       </c>
@@ -5214,11 +5529,11 @@
       <c r="AD51">
         <v>0</v>
       </c>
-      <c r="AG51">
+      <c r="AL51">
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>50</v>
       </c>
@@ -5276,6 +5591,12 @@
       <c r="U52">
         <v>0</v>
       </c>
+      <c r="V52">
+        <v>0</v>
+      </c>
+      <c r="X52">
+        <v>0</v>
+      </c>
       <c r="Y52">
         <v>0</v>
       </c>
@@ -5294,11 +5615,11 @@
       <c r="AD52">
         <v>0</v>
       </c>
-      <c r="AG52">
+      <c r="AL52">
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>51</v>
       </c>
@@ -5356,6 +5677,12 @@
       <c r="U53">
         <v>0</v>
       </c>
+      <c r="V53">
+        <v>0</v>
+      </c>
+      <c r="X53">
+        <v>0</v>
+      </c>
       <c r="Y53">
         <v>0</v>
       </c>
@@ -5374,11 +5701,11 @@
       <c r="AD53">
         <v>0</v>
       </c>
-      <c r="AG53">
+      <c r="AL53">
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>52</v>
       </c>
@@ -5436,6 +5763,12 @@
       <c r="U54">
         <v>0</v>
       </c>
+      <c r="V54">
+        <v>0</v>
+      </c>
+      <c r="X54">
+        <v>0</v>
+      </c>
       <c r="Y54">
         <v>0</v>
       </c>
@@ -5454,11 +5787,11 @@
       <c r="AD54">
         <v>0</v>
       </c>
-      <c r="AG54">
+      <c r="AL54">
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>53</v>
       </c>
@@ -5516,6 +5849,12 @@
       <c r="U55">
         <v>0</v>
       </c>
+      <c r="V55">
+        <v>0</v>
+      </c>
+      <c r="X55">
+        <v>0</v>
+      </c>
       <c r="Y55">
         <v>0</v>
       </c>
@@ -5534,11 +5873,11 @@
       <c r="AD55">
         <v>0</v>
       </c>
-      <c r="AG55">
+      <c r="AL55">
         <v>53</v>
       </c>
     </row>
-    <row r="56" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>54</v>
       </c>
@@ -5596,6 +5935,12 @@
       <c r="U56">
         <v>0</v>
       </c>
+      <c r="V56">
+        <v>0</v>
+      </c>
+      <c r="X56">
+        <v>0</v>
+      </c>
       <c r="Y56">
         <v>0</v>
       </c>
@@ -5614,11 +5959,11 @@
       <c r="AD56">
         <v>0</v>
       </c>
-      <c r="AG56">
+      <c r="AL56">
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>55</v>
       </c>
@@ -5676,6 +6021,12 @@
       <c r="U57">
         <v>0</v>
       </c>
+      <c r="V57">
+        <v>0</v>
+      </c>
+      <c r="X57">
+        <v>0</v>
+      </c>
       <c r="Y57">
         <v>0</v>
       </c>
@@ -5694,11 +6045,11 @@
       <c r="AD57">
         <v>0</v>
       </c>
-      <c r="AG57">
+      <c r="AL57">
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>56</v>
       </c>
@@ -5756,6 +6107,12 @@
       <c r="U58">
         <v>0</v>
       </c>
+      <c r="V58">
+        <v>0</v>
+      </c>
+      <c r="X58">
+        <v>0</v>
+      </c>
       <c r="Y58">
         <v>0</v>
       </c>
@@ -5774,11 +6131,11 @@
       <c r="AD58">
         <v>0</v>
       </c>
-      <c r="AG58">
+      <c r="AL58">
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>57</v>
       </c>
@@ -5836,6 +6193,12 @@
       <c r="U59">
         <v>0</v>
       </c>
+      <c r="V59">
+        <v>0</v>
+      </c>
+      <c r="X59">
+        <v>0</v>
+      </c>
       <c r="Y59">
         <v>0</v>
       </c>
@@ -5854,11 +6217,11 @@
       <c r="AD59">
         <v>0</v>
       </c>
-      <c r="AG59">
+      <c r="AL59">
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>58</v>
       </c>
@@ -5916,6 +6279,12 @@
       <c r="U60">
         <v>0</v>
       </c>
+      <c r="V60">
+        <v>0</v>
+      </c>
+      <c r="X60">
+        <v>0</v>
+      </c>
       <c r="Y60">
         <v>0</v>
       </c>
@@ -5934,11 +6303,11 @@
       <c r="AD60">
         <v>0</v>
       </c>
-      <c r="AG60">
+      <c r="AL60">
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>59</v>
       </c>
@@ -5996,6 +6365,12 @@
       <c r="U61">
         <v>0</v>
       </c>
+      <c r="V61">
+        <v>0</v>
+      </c>
+      <c r="X61">
+        <v>0</v>
+      </c>
       <c r="Y61">
         <v>0</v>
       </c>
@@ -6014,11 +6389,11 @@
       <c r="AD61">
         <v>0</v>
       </c>
-      <c r="AG61">
+      <c r="AL61">
         <v>59</v>
       </c>
     </row>
-    <row r="62" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>60</v>
       </c>
@@ -6076,6 +6451,12 @@
       <c r="U62">
         <v>0</v>
       </c>
+      <c r="V62">
+        <v>0</v>
+      </c>
+      <c r="X62">
+        <v>0</v>
+      </c>
       <c r="Y62">
         <v>0</v>
       </c>
@@ -6094,11 +6475,11 @@
       <c r="AD62">
         <v>0</v>
       </c>
-      <c r="AG62">
+      <c r="AL62">
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>61</v>
       </c>
@@ -6156,6 +6537,12 @@
       <c r="U63">
         <v>0</v>
       </c>
+      <c r="V63">
+        <v>0</v>
+      </c>
+      <c r="X63">
+        <v>0</v>
+      </c>
       <c r="Y63">
         <v>0</v>
       </c>
@@ -6174,11 +6561,11 @@
       <c r="AD63">
         <v>0</v>
       </c>
-      <c r="AG63">
+      <c r="AL63">
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>62</v>
       </c>
@@ -6236,6 +6623,12 @@
       <c r="U64">
         <v>0</v>
       </c>
+      <c r="V64">
+        <v>0</v>
+      </c>
+      <c r="X64">
+        <v>0</v>
+      </c>
       <c r="Y64">
         <v>0</v>
       </c>
@@ -6254,11 +6647,11 @@
       <c r="AD64">
         <v>0</v>
       </c>
-      <c r="AG64">
+      <c r="AL64">
         <v>62</v>
       </c>
     </row>
-    <row r="65" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>63</v>
       </c>
@@ -6316,6 +6709,12 @@
       <c r="U65">
         <v>0</v>
       </c>
+      <c r="V65">
+        <v>0</v>
+      </c>
+      <c r="X65">
+        <v>0</v>
+      </c>
       <c r="Y65">
         <v>0</v>
       </c>
@@ -6334,11 +6733,11 @@
       <c r="AD65">
         <v>0</v>
       </c>
-      <c r="AG65">
+      <c r="AL65">
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>64</v>
       </c>
@@ -6396,6 +6795,12 @@
       <c r="U66">
         <v>0</v>
       </c>
+      <c r="V66">
+        <v>0</v>
+      </c>
+      <c r="X66">
+        <v>0</v>
+      </c>
       <c r="Y66">
         <v>0</v>
       </c>
@@ -6414,11 +6819,11 @@
       <c r="AD66">
         <v>0</v>
       </c>
-      <c r="AG66">
+      <c r="AL66">
         <v>64</v>
       </c>
     </row>
-    <row r="67" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>65</v>
       </c>
@@ -6482,6 +6887,12 @@
       <c r="U67">
         <v>0</v>
       </c>
+      <c r="V67">
+        <v>0</v>
+      </c>
+      <c r="X67">
+        <v>0</v>
+      </c>
       <c r="Y67">
         <v>0</v>
       </c>
@@ -6500,11 +6911,11 @@
       <c r="AD67">
         <v>0</v>
       </c>
-      <c r="AG67">
+      <c r="AL67">
         <v>65</v>
       </c>
     </row>
-    <row r="68" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>66</v>
       </c>
@@ -6568,6 +6979,12 @@
       <c r="U68">
         <v>4600</v>
       </c>
+      <c r="V68">
+        <v>4600</v>
+      </c>
+      <c r="X68">
+        <v>0</v>
+      </c>
       <c r="Y68">
         <v>0</v>
       </c>
@@ -6586,11 +7003,11 @@
       <c r="AD68">
         <v>0</v>
       </c>
-      <c r="AG68">
+      <c r="AL68">
         <v>66</v>
       </c>
     </row>
-    <row r="69" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>67</v>
       </c>
@@ -6654,6 +7071,12 @@
       <c r="U69">
         <v>1</v>
       </c>
+      <c r="V69">
+        <v>1</v>
+      </c>
+      <c r="X69">
+        <v>0</v>
+      </c>
       <c r="Y69">
         <v>0</v>
       </c>
@@ -6672,11 +7095,11 @@
       <c r="AD69">
         <v>0</v>
       </c>
-      <c r="AG69">
+      <c r="AL69">
         <v>67</v>
       </c>
     </row>
-    <row r="70" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>68</v>
       </c>
@@ -6740,6 +7163,12 @@
       <c r="U70">
         <v>70</v>
       </c>
+      <c r="V70">
+        <v>70</v>
+      </c>
+      <c r="X70">
+        <v>0</v>
+      </c>
       <c r="Y70">
         <v>0</v>
       </c>
@@ -6758,11 +7187,11 @@
       <c r="AD70">
         <v>0</v>
       </c>
-      <c r="AG70">
+      <c r="AL70">
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>69</v>
       </c>
@@ -6799,6 +7228,12 @@
       <c r="U71">
         <v>0</v>
       </c>
+      <c r="V71">
+        <v>0</v>
+      </c>
+      <c r="X71">
+        <v>0</v>
+      </c>
       <c r="Y71">
         <v>0</v>
       </c>
@@ -6817,11 +7252,11 @@
       <c r="AD71">
         <v>0</v>
       </c>
-      <c r="AG71">
+      <c r="AL71">
         <v>69</v>
       </c>
     </row>
-    <row r="72" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>70</v>
       </c>
@@ -6858,6 +7293,12 @@
       <c r="U72">
         <v>0</v>
       </c>
+      <c r="V72">
+        <v>0</v>
+      </c>
+      <c r="X72">
+        <v>0</v>
+      </c>
       <c r="Y72">
         <v>0</v>
       </c>
@@ -6876,14 +7317,14 @@
       <c r="AD72">
         <v>0</v>
       </c>
-      <c r="AG72">
+      <c r="AL72">
         <v>70</v>
       </c>
-      <c r="AH72" t="s">
+      <c r="AM72" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="73" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>71</v>
       </c>
@@ -6920,6 +7361,12 @@
       <c r="U73">
         <v>0</v>
       </c>
+      <c r="V73">
+        <v>0</v>
+      </c>
+      <c r="X73">
+        <v>4600</v>
+      </c>
       <c r="Y73">
         <v>4600</v>
       </c>
@@ -6938,17 +7385,17 @@
       <c r="AD73">
         <v>4600</v>
       </c>
-      <c r="AE73" s="3" t="s">
+      <c r="AJ73" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AG73">
+      <c r="AL73">
         <v>71</v>
       </c>
-      <c r="AH73" t="s">
+      <c r="AM73" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="74" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>72</v>
       </c>
@@ -6985,6 +7432,12 @@
       <c r="U74">
         <v>0</v>
       </c>
+      <c r="V74">
+        <v>0</v>
+      </c>
+      <c r="X74">
+        <v>0</v>
+      </c>
       <c r="Y74">
         <v>0</v>
       </c>
@@ -7003,14 +7456,14 @@
       <c r="AD74">
         <v>0</v>
       </c>
-      <c r="AG74">
+      <c r="AL74">
         <v>72</v>
       </c>
-      <c r="AH74" t="s">
+      <c r="AM74" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="75" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>73</v>
       </c>
@@ -7047,6 +7500,12 @@
       <c r="U75">
         <v>0</v>
       </c>
+      <c r="V75">
+        <v>0</v>
+      </c>
+      <c r="X75">
+        <v>0</v>
+      </c>
       <c r="Y75">
         <v>0</v>
       </c>
@@ -7065,14 +7524,14 @@
       <c r="AD75">
         <v>0</v>
       </c>
-      <c r="AG75">
+      <c r="AL75">
         <v>73</v>
       </c>
-      <c r="AH75" s="6" t="s">
+      <c r="AM75" s="6" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="76" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>74</v>
       </c>
@@ -7112,6 +7571,12 @@
       <c r="U76">
         <v>0</v>
       </c>
+      <c r="V76">
+        <v>0</v>
+      </c>
+      <c r="X76">
+        <v>0</v>
+      </c>
       <c r="Y76">
         <v>0</v>
       </c>
@@ -7130,11 +7595,11 @@
       <c r="AD76">
         <v>0</v>
       </c>
-      <c r="AG76">
+      <c r="AL76">
         <v>74</v>
       </c>
     </row>
-    <row r="77" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>75</v>
       </c>
@@ -7177,6 +7642,12 @@
       <c r="U77">
         <v>0</v>
       </c>
+      <c r="V77">
+        <v>0</v>
+      </c>
+      <c r="X77">
+        <v>0</v>
+      </c>
       <c r="Y77">
         <v>0</v>
       </c>
@@ -7195,11 +7666,11 @@
       <c r="AD77">
         <v>0</v>
       </c>
-      <c r="AG77">
+      <c r="AL77">
         <v>75</v>
       </c>
     </row>
-    <row r="78" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>76</v>
       </c>
@@ -7242,6 +7713,12 @@
       <c r="U78">
         <v>16</v>
       </c>
+      <c r="V78">
+        <v>16</v>
+      </c>
+      <c r="X78">
+        <v>0</v>
+      </c>
       <c r="Y78">
         <v>0</v>
       </c>
@@ -7260,14 +7737,14 @@
       <c r="AD78">
         <v>0</v>
       </c>
-      <c r="AG78">
+      <c r="AL78">
         <v>76</v>
       </c>
-      <c r="AH78" t="s">
+      <c r="AM78" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="79" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>77</v>
       </c>
@@ -7304,6 +7781,12 @@
       <c r="U79">
         <v>1</v>
       </c>
+      <c r="V79">
+        <v>1</v>
+      </c>
+      <c r="X79">
+        <v>1</v>
+      </c>
       <c r="Y79">
         <v>1</v>
       </c>
@@ -7322,14 +7805,14 @@
       <c r="AD79">
         <v>1</v>
       </c>
-      <c r="AG79">
+      <c r="AL79">
         <v>77</v>
       </c>
-      <c r="AH79" t="s">
+      <c r="AM79" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="80" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>78</v>
       </c>
@@ -7363,6 +7846,12 @@
       <c r="U80">
         <v>0</v>
       </c>
+      <c r="V80">
+        <v>0</v>
+      </c>
+      <c r="X80">
+        <v>257</v>
+      </c>
       <c r="Y80">
         <v>257</v>
       </c>
@@ -7381,14 +7870,14 @@
       <c r="AD80">
         <v>257</v>
       </c>
-      <c r="AG80">
+      <c r="AL80">
         <v>78</v>
       </c>
-      <c r="AH80" t="s">
+      <c r="AM80" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="81" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>79</v>
       </c>
@@ -7422,6 +7911,12 @@
       <c r="U81">
         <v>0</v>
       </c>
+      <c r="V81">
+        <v>0</v>
+      </c>
+      <c r="X81">
+        <v>2</v>
+      </c>
       <c r="Y81">
         <v>2</v>
       </c>
@@ -7429,28 +7924,28 @@
         <v>2</v>
       </c>
       <c r="AA81">
+        <v>1</v>
+      </c>
+      <c r="AB81">
+        <v>1</v>
+      </c>
+      <c r="AC81">
+        <v>1</v>
+      </c>
+      <c r="AD81">
         <v>2</v>
       </c>
-      <c r="AB81">
-        <v>1</v>
-      </c>
-      <c r="AC81">
-        <v>1</v>
-      </c>
-      <c r="AD81">
-        <v>1</v>
-      </c>
-      <c r="AG81">
+      <c r="AL81">
         <v>79</v>
       </c>
-      <c r="AH81" t="s">
+      <c r="AM81" t="s">
         <v>134</v>
       </c>
-      <c r="AI81">
+      <c r="AN81">
         <v>130</v>
       </c>
     </row>
-    <row r="82" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>80</v>
       </c>
@@ -7484,6 +7979,12 @@
       <c r="U82">
         <v>0</v>
       </c>
+      <c r="V82">
+        <v>0</v>
+      </c>
+      <c r="X82">
+        <v>0</v>
+      </c>
       <c r="Y82">
         <v>0</v>
       </c>
@@ -7502,11 +8003,11 @@
       <c r="AD82">
         <v>0</v>
       </c>
-      <c r="AG82">
+      <c r="AL82">
         <v>80</v>
       </c>
     </row>
-    <row r="83" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>81</v>
       </c>
@@ -7540,6 +8041,12 @@
       <c r="U83">
         <v>0</v>
       </c>
+      <c r="V83">
+        <v>0</v>
+      </c>
+      <c r="X83">
+        <v>0</v>
+      </c>
       <c r="Y83">
         <v>0</v>
       </c>
@@ -7550,28 +8057,28 @@
         <v>0</v>
       </c>
       <c r="AB83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD83">
+        <v>3</v>
+      </c>
+      <c r="AJ83" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="AE83" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AG83">
+      <c r="AL83">
         <v>81</v>
       </c>
-      <c r="AH83" t="s">
+      <c r="AM83" t="s">
         <v>151</v>
       </c>
-      <c r="AI83">
+      <c r="AN83">
         <v>132</v>
       </c>
     </row>
-    <row r="84" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>82</v>
       </c>
@@ -7605,6 +8112,12 @@
       <c r="U84">
         <v>0</v>
       </c>
+      <c r="V84">
+        <v>0</v>
+      </c>
+      <c r="X84">
+        <v>0</v>
+      </c>
       <c r="Y84">
         <v>0</v>
       </c>
@@ -7623,11 +8136,11 @@
       <c r="AD84">
         <v>0</v>
       </c>
-      <c r="AG84">
+      <c r="AL84">
         <v>82</v>
       </c>
     </row>
-    <row r="85" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>83</v>
       </c>
@@ -7661,6 +8174,12 @@
       <c r="U85">
         <v>0</v>
       </c>
+      <c r="V85">
+        <v>0</v>
+      </c>
+      <c r="X85">
+        <v>0</v>
+      </c>
       <c r="Y85">
         <v>0</v>
       </c>
@@ -7679,11 +8198,11 @@
       <c r="AD85">
         <v>0</v>
       </c>
-      <c r="AG85">
+      <c r="AL85">
         <v>83</v>
       </c>
     </row>
-    <row r="86" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>84</v>
       </c>
@@ -7717,6 +8236,12 @@
       <c r="U86">
         <v>0</v>
       </c>
+      <c r="V86">
+        <v>0</v>
+      </c>
+      <c r="X86">
+        <v>220</v>
+      </c>
       <c r="Y86">
         <v>220</v>
       </c>
@@ -7735,11 +8260,11 @@
       <c r="AD86">
         <v>220</v>
       </c>
-      <c r="AG86">
+      <c r="AL86">
         <v>84</v>
       </c>
     </row>
-    <row r="87" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>85</v>
       </c>
@@ -7773,6 +8298,12 @@
       <c r="U87">
         <v>0</v>
       </c>
+      <c r="V87">
+        <v>0</v>
+      </c>
+      <c r="X87">
+        <v>0</v>
+      </c>
       <c r="Y87">
         <v>0</v>
       </c>
@@ -7791,14 +8322,14 @@
       <c r="AD87">
         <v>0</v>
       </c>
-      <c r="AG87">
+      <c r="AL87">
         <v>85</v>
       </c>
-      <c r="AH87" s="6" t="s">
+      <c r="AM87" s="6" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="88" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>86</v>
       </c>
@@ -7832,8 +8363,14 @@
       <c r="U88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="V88">
+        <v>0</v>
+      </c>
+      <c r="AD88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>87</v>
       </c>
@@ -7867,8 +8404,14 @@
       <c r="U89">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="V89">
+        <v>0</v>
+      </c>
+      <c r="AD89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>88</v>
       </c>
@@ -7902,8 +8445,14 @@
       <c r="U90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="V90">
+        <v>0</v>
+      </c>
+      <c r="AD90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>89</v>
       </c>
@@ -7937,8 +8486,14 @@
       <c r="U91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="V91">
+        <v>0</v>
+      </c>
+      <c r="AD91" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="92" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>90</v>
       </c>
@@ -7972,8 +8527,11 @@
       <c r="U92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="V92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>91</v>
       </c>
@@ -8007,8 +8565,11 @@
       <c r="U93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="V93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>92</v>
       </c>
@@ -8042,8 +8603,11 @@
       <c r="U94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="V94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>93</v>
       </c>
@@ -8077,8 +8641,11 @@
       <c r="U95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="V95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>94</v>
       </c>
@@ -8112,8 +8679,11 @@
       <c r="U96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="V96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>95</v>
       </c>
@@ -8147,8 +8717,11 @@
       <c r="U97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="V97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>96</v>
       </c>
@@ -8188,8 +8761,11 @@
       <c r="U98">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="V98">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>97</v>
       </c>
@@ -8223,8 +8799,11 @@
       <c r="U99">
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="V99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>98</v>
       </c>
@@ -8258,8 +8837,11 @@
       <c r="U100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="V100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>99</v>
       </c>
@@ -8293,12 +8875,12 @@
       <c r="U101">
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="V102" t="s">
-        <v>146</v>
-      </c>
-      <c r="X102" t="s">
+      <c r="V101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W102" t="s">
         <v>146</v>
       </c>
     </row>
@@ -8310,35 +8892,41 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA8C0C25-584C-4DB3-91C9-D576A78C1B11}">
-  <dimension ref="A1:AA107"/>
+  <dimension ref="A1:Z107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J1048576"/>
+      <selection activeCell="K28" sqref="K28:L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="28.6640625" customWidth="1"/>
-    <col min="22" max="24" width="10.77734375" customWidth="1"/>
-    <col min="26" max="26" width="15.88671875" style="2" customWidth="1"/>
+    <col min="21" max="23" width="10.77734375" customWidth="1"/>
+    <col min="25" max="25" width="15.88671875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C1" s="7" t="s">
         <v>48</v>
       </c>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
       <c r="F1" s="4"/>
-      <c r="T1" s="7" t="s">
+      <c r="K1" t="s">
+        <v>149</v>
+      </c>
+      <c r="L1" t="s">
+        <v>152</v>
+      </c>
+      <c r="S1" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="U1" s="7"/>
-      <c r="V1" t="s">
+      <c r="T1" s="7"/>
+      <c r="U1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -8366,26 +8954,35 @@
       <c r="I2">
         <v>2</v>
       </c>
-      <c r="T2">
+      <c r="J2">
+        <v>2</v>
+      </c>
+      <c r="K2" s="1">
+        <v>1</v>
+      </c>
+      <c r="L2" s="1">
+        <v>2</v>
+      </c>
+      <c r="S2">
         <v>3</v>
       </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
       <c r="V2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W2">
-        <v>2</v>
-      </c>
-      <c r="X2">
         <v>13</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="Y2" t="s">
         <v>70</v>
       </c>
-      <c r="AA2" s="6" t="s">
+      <c r="Z2" s="6" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -8413,7 +9010,19 @@
       <c r="I3">
         <v>3</v>
       </c>
-      <c r="T3">
+      <c r="J3">
+        <v>3</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1">
+        <v>3</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="U3">
         <v>0</v>
       </c>
       <c r="V3">
@@ -8422,14 +9031,11 @@
       <c r="W3">
         <v>0</v>
       </c>
-      <c r="X3">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="6" t="s">
+      <c r="Z3" s="6" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -8457,26 +9063,35 @@
       <c r="I4">
         <v>23864</v>
       </c>
-      <c r="T4">
+      <c r="J4">
+        <v>23699</v>
+      </c>
+      <c r="K4">
+        <v>23943</v>
+      </c>
+      <c r="L4">
+        <v>23904</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="U4">
         <v>0</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W4">
-        <v>1</v>
-      </c>
-      <c r="X4">
-        <v>0</v>
-      </c>
-      <c r="Z4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="s">
         <v>2</v>
       </c>
-      <c r="AA4" s="6" t="s">
+      <c r="Z4" s="6" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -8504,26 +9119,35 @@
       <c r="I5">
         <v>23896</v>
       </c>
-      <c r="T5">
+      <c r="J5">
+        <v>23700</v>
+      </c>
+      <c r="K5">
+        <v>23929</v>
+      </c>
+      <c r="L5">
+        <v>23962</v>
+      </c>
+      <c r="S5">
         <v>22669</v>
       </c>
+      <c r="U5">
+        <v>23382</v>
+      </c>
       <c r="V5">
-        <v>23382</v>
+        <v>22704</v>
       </c>
       <c r="W5">
-        <v>22704</v>
-      </c>
-      <c r="X5">
         <v>22546</v>
+      </c>
+      <c r="Y5" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="Z5" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AA5" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -8551,26 +9175,35 @@
       <c r="I6">
         <v>23865</v>
       </c>
-      <c r="T6">
+      <c r="J6">
+        <v>23745</v>
+      </c>
+      <c r="K6">
+        <v>23962</v>
+      </c>
+      <c r="L6">
+        <v>23935</v>
+      </c>
+      <c r="S6">
         <v>22239</v>
       </c>
+      <c r="U6">
+        <v>23225</v>
+      </c>
       <c r="V6">
-        <v>23225</v>
+        <v>22408</v>
       </c>
       <c r="W6">
-        <v>22408</v>
-      </c>
-      <c r="X6">
         <v>22332</v>
+      </c>
+      <c r="Y6" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="Z6" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="AA6" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -8598,26 +9231,35 @@
       <c r="I7">
         <v>0</v>
       </c>
-      <c r="T7">
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>546</v>
+      </c>
+      <c r="S7">
         <v>23054</v>
       </c>
+      <c r="U7">
+        <v>23300</v>
+      </c>
       <c r="V7">
-        <v>23300</v>
+        <v>22843</v>
       </c>
       <c r="W7">
-        <v>22843</v>
-      </c>
-      <c r="X7">
         <v>22795</v>
+      </c>
+      <c r="Y7" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="Z7" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="AA7" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -8645,26 +9287,35 @@
       <c r="I8">
         <v>0</v>
       </c>
-      <c r="T8">
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="U8">
         <v>0</v>
       </c>
       <c r="V8">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="W8">
-        <v>72</v>
-      </c>
-      <c r="X8">
         <v>69</v>
+      </c>
+      <c r="Y8" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="Z8" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="AA8" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -8692,7 +9343,19 @@
       <c r="I9">
         <v>0</v>
       </c>
-      <c r="T9">
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="U9">
         <v>0</v>
       </c>
       <c r="V9">
@@ -8701,17 +9364,14 @@
       <c r="W9">
         <v>0</v>
       </c>
-      <c r="X9">
-        <v>0</v>
+      <c r="Y9" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="Z9" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="AA9" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -8739,7 +9399,19 @@
       <c r="I10">
         <v>0</v>
       </c>
-      <c r="T10">
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>1277</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="U10">
         <v>0</v>
       </c>
       <c r="V10">
@@ -8748,17 +9420,14 @@
       <c r="W10">
         <v>0</v>
       </c>
-      <c r="X10">
-        <v>0</v>
+      <c r="Y10" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="Z10" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="AA10" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -8786,7 +9455,19 @@
       <c r="I11">
         <v>0</v>
       </c>
-      <c r="T11">
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="U11">
         <v>0</v>
       </c>
       <c r="V11">
@@ -8795,17 +9476,14 @@
       <c r="W11">
         <v>0</v>
       </c>
-      <c r="X11">
-        <v>0</v>
+      <c r="Y11" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="Z11" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="AA11" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -8833,7 +9511,19 @@
       <c r="I12">
         <v>0</v>
       </c>
-      <c r="T12">
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="U12">
         <v>0</v>
       </c>
       <c r="V12">
@@ -8842,17 +9532,14 @@
       <c r="W12">
         <v>0</v>
       </c>
-      <c r="X12">
-        <v>0</v>
+      <c r="Y12" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="Z12" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="AA12" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -8880,7 +9567,19 @@
       <c r="I13">
         <v>0</v>
       </c>
-      <c r="T13">
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>1278</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="U13">
         <v>0</v>
       </c>
       <c r="V13">
@@ -8889,17 +9588,14 @@
       <c r="W13">
         <v>0</v>
       </c>
-      <c r="X13">
-        <v>0</v>
+      <c r="Y13" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="Z13" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="AA13" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -8927,7 +9623,19 @@
       <c r="I14">
         <v>2</v>
       </c>
-      <c r="T14">
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="U14">
         <v>0</v>
       </c>
       <c r="V14">
@@ -8936,17 +9644,14 @@
       <c r="W14">
         <v>0</v>
       </c>
-      <c r="X14">
-        <v>0</v>
+      <c r="Y14" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="Z14" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA14" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -8971,23 +9676,32 @@
       <c r="I15">
         <v>0</v>
       </c>
-      <c r="T15">
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="U15">
         <v>0</v>
       </c>
       <c r="V15">
         <v>0</v>
       </c>
       <c r="W15">
-        <v>0</v>
-      </c>
-      <c r="X15">
         <v>2</v>
       </c>
-      <c r="AA15" s="2" t="s">
+      <c r="Z15" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -9015,7 +9729,19 @@
       <c r="I16">
         <v>21844</v>
       </c>
-      <c r="T16">
+      <c r="J16">
+        <v>23744</v>
+      </c>
+      <c r="K16">
+        <v>23744</v>
+      </c>
+      <c r="L16">
+        <v>23744</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="U16">
         <v>0</v>
       </c>
       <c r="V16">
@@ -9024,14 +9750,11 @@
       <c r="W16">
         <v>0</v>
       </c>
-      <c r="X16">
-        <v>0</v>
-      </c>
-      <c r="AA16" s="6" t="s">
+      <c r="Z16" s="6" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -9059,26 +9782,35 @@
       <c r="I17">
         <v>0</v>
       </c>
-      <c r="T17">
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="S17">
         <v>108</v>
       </c>
+      <c r="U17">
+        <v>4</v>
+      </c>
       <c r="V17">
-        <v>4</v>
+        <v>1069</v>
       </c>
       <c r="W17">
-        <v>1069</v>
-      </c>
-      <c r="X17">
         <v>1071</v>
+      </c>
+      <c r="Y17" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="Z17" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AA17" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -9106,7 +9838,19 @@
       <c r="I18">
         <v>65497</v>
       </c>
-      <c r="T18">
+      <c r="J18">
+        <v>65498</v>
+      </c>
+      <c r="K18">
+        <v>36</v>
+      </c>
+      <c r="L18">
+        <v>36</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="U18">
         <v>0</v>
       </c>
       <c r="V18">
@@ -9115,17 +9859,14 @@
       <c r="W18">
         <v>0</v>
       </c>
-      <c r="X18">
-        <v>0</v>
+      <c r="Y18" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="Z18" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="AA18" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -9153,23 +9894,32 @@
       <c r="I19">
         <v>32</v>
       </c>
-      <c r="T19">
+      <c r="J19">
+        <v>65508</v>
+      </c>
+      <c r="K19">
+        <v>29</v>
+      </c>
+      <c r="L19">
+        <v>65508</v>
+      </c>
+      <c r="S19">
         <v>19</v>
       </c>
+      <c r="U19">
+        <v>11</v>
+      </c>
       <c r="V19">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="W19">
         <v>19</v>
       </c>
-      <c r="X19">
-        <v>19</v>
-      </c>
-      <c r="AA19" s="6" t="s">
+      <c r="Z19" s="6" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -9197,23 +9947,32 @@
       <c r="I20">
         <v>34</v>
       </c>
-      <c r="T20">
+      <c r="J20">
+        <v>65503</v>
+      </c>
+      <c r="K20">
+        <v>65502</v>
+      </c>
+      <c r="L20">
+        <v>32</v>
+      </c>
+      <c r="S20">
         <v>19</v>
       </c>
+      <c r="U20">
+        <v>65527</v>
+      </c>
       <c r="V20">
-        <v>65527</v>
+        <v>19</v>
       </c>
       <c r="W20">
         <v>19</v>
       </c>
-      <c r="X20">
-        <v>19</v>
-      </c>
-      <c r="AA20" s="6" t="s">
+      <c r="Z20" s="6" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -9241,23 +10000,32 @@
       <c r="I21">
         <v>16</v>
       </c>
-      <c r="T21">
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>65492</v>
+      </c>
+      <c r="S21">
         <v>65518</v>
       </c>
+      <c r="U21">
+        <v>65528</v>
+      </c>
       <c r="V21">
-        <v>65528</v>
+        <v>65518</v>
       </c>
       <c r="W21">
         <v>65518</v>
       </c>
-      <c r="X21">
-        <v>65518</v>
-      </c>
-      <c r="AA21" s="6" t="s">
+      <c r="Z21" s="6" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -9285,23 +10053,32 @@
       <c r="I22">
         <v>15</v>
       </c>
-      <c r="T22">
-        <v>1</v>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>65535</v>
+      </c>
+      <c r="L22">
+        <v>12</v>
+      </c>
+      <c r="S22">
+        <v>1</v>
+      </c>
+      <c r="U22">
+        <v>65534</v>
       </c>
       <c r="V22">
-        <v>65534</v>
+        <v>78</v>
       </c>
       <c r="W22">
-        <v>78</v>
-      </c>
-      <c r="X22">
         <v>65464</v>
       </c>
-      <c r="AA22" s="6" t="s">
+      <c r="Z22" s="6" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
@@ -9329,23 +10106,32 @@
       <c r="I23">
         <v>65532</v>
       </c>
-      <c r="T23">
+      <c r="J23">
+        <v>4</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>18</v>
+      </c>
+      <c r="S23">
         <v>63817</v>
       </c>
+      <c r="U23">
+        <v>65535</v>
+      </c>
       <c r="V23">
-        <v>65535</v>
+        <v>30</v>
       </c>
       <c r="W23">
-        <v>30</v>
-      </c>
-      <c r="X23">
         <v>98</v>
       </c>
-      <c r="AA23" s="6" t="s">
+      <c r="Z23" s="6" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
@@ -9373,23 +10159,32 @@
       <c r="I24">
         <v>20</v>
       </c>
-      <c r="T24">
+      <c r="J24">
+        <v>3</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>65443</v>
+      </c>
+      <c r="S24">
         <v>6</v>
       </c>
+      <c r="U24">
+        <v>65535</v>
+      </c>
       <c r="V24">
-        <v>65535</v>
+        <v>7</v>
       </c>
       <c r="W24">
-        <v>7</v>
-      </c>
-      <c r="X24">
         <v>16</v>
       </c>
-      <c r="AA24" s="6" t="s">
+      <c r="Z24" s="6" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
@@ -9417,23 +10212,32 @@
       <c r="I25">
         <v>0</v>
       </c>
-      <c r="T25">
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>63289</v>
       </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
       <c r="V25">
-        <v>0</v>
+        <v>417</v>
       </c>
       <c r="W25">
-        <v>417</v>
-      </c>
-      <c r="X25">
         <v>471</v>
       </c>
-      <c r="AA25" s="6" t="s">
+      <c r="Z25" s="6" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
@@ -9461,26 +10265,35 @@
       <c r="I26">
         <v>17</v>
       </c>
-      <c r="T26">
+      <c r="J26">
+        <v>21</v>
+      </c>
+      <c r="K26">
+        <v>21</v>
+      </c>
+      <c r="L26">
+        <v>21</v>
+      </c>
+      <c r="S26">
         <v>13</v>
       </c>
+      <c r="U26">
+        <v>15</v>
+      </c>
       <c r="V26">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="W26">
-        <v>13</v>
-      </c>
-      <c r="X26">
         <v>14</v>
+      </c>
+      <c r="Y26" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="Z26" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="AA26" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
@@ -9505,26 +10318,35 @@
       <c r="I27">
         <v>0</v>
       </c>
-      <c r="T27">
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="S27">
         <v>20</v>
       </c>
+      <c r="U27">
+        <v>21</v>
+      </c>
       <c r="V27">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W27">
         <v>20</v>
       </c>
-      <c r="X27">
-        <v>20</v>
+      <c r="Y27" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="Z27" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="AA27" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
@@ -9552,7 +10374,19 @@
       <c r="I28">
         <v>1</v>
       </c>
-      <c r="T28">
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28" s="1">
+        <v>1</v>
+      </c>
+      <c r="L28" s="1">
+        <v>2</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="U28">
         <v>0</v>
       </c>
       <c r="V28">
@@ -9561,14 +10395,11 @@
       <c r="W28">
         <v>0</v>
       </c>
-      <c r="X28">
-        <v>0</v>
-      </c>
-      <c r="AA28" s="6" t="s">
+      <c r="Z28" s="6" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
@@ -9593,23 +10424,32 @@
       <c r="I29">
         <v>15</v>
       </c>
-      <c r="T29">
-        <v>1</v>
+      <c r="J29">
+        <v>15</v>
+      </c>
+      <c r="K29">
+        <v>15</v>
+      </c>
+      <c r="L29">
+        <v>15</v>
+      </c>
+      <c r="S29">
+        <v>1</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
       </c>
       <c r="V29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W29">
         <v>2</v>
       </c>
-      <c r="X29">
-        <v>2</v>
-      </c>
-      <c r="AA29" s="6" t="s">
+      <c r="Z29" s="6" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28</v>
       </c>
@@ -9634,7 +10474,19 @@
       <c r="I30">
         <v>0</v>
       </c>
-      <c r="T30">
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="U30">
         <v>0</v>
       </c>
       <c r="V30">
@@ -9643,14 +10495,11 @@
       <c r="W30">
         <v>0</v>
       </c>
-      <c r="X30">
-        <v>0</v>
-      </c>
-      <c r="AA30" s="6" t="s">
+      <c r="Z30" s="6" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>29</v>
       </c>
@@ -9675,7 +10524,19 @@
       <c r="I31">
         <v>0</v>
       </c>
-      <c r="T31">
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="U31">
         <v>0</v>
       </c>
       <c r="V31">
@@ -9684,14 +10545,11 @@
       <c r="W31">
         <v>0</v>
       </c>
-      <c r="X31">
-        <v>0</v>
-      </c>
-      <c r="AA31" s="6" t="s">
+      <c r="Z31" s="6" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>30</v>
       </c>
@@ -9716,7 +10574,19 @@
       <c r="I32">
         <v>0</v>
       </c>
-      <c r="T32">
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <v>0</v>
+      </c>
+      <c r="U32">
         <v>0</v>
       </c>
       <c r="V32">
@@ -9725,14 +10595,11 @@
       <c r="W32">
         <v>0</v>
       </c>
-      <c r="X32">
-        <v>0</v>
-      </c>
-      <c r="AA32" s="6" t="s">
+      <c r="Z32" s="6" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>31</v>
       </c>
@@ -9757,7 +10624,19 @@
       <c r="I33">
         <v>0</v>
       </c>
-      <c r="T33">
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <v>0</v>
+      </c>
+      <c r="U33">
         <v>0</v>
       </c>
       <c r="V33">
@@ -9766,14 +10645,11 @@
       <c r="W33">
         <v>0</v>
       </c>
-      <c r="X33">
-        <v>0</v>
-      </c>
-      <c r="AA33" s="6" t="s">
+      <c r="Z33" s="6" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>32</v>
       </c>
@@ -9798,7 +10674,19 @@
       <c r="I34">
         <v>0</v>
       </c>
-      <c r="T34">
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <v>0</v>
+      </c>
+      <c r="U34">
         <v>0</v>
       </c>
       <c r="V34">
@@ -9807,14 +10695,11 @@
       <c r="W34">
         <v>0</v>
       </c>
-      <c r="X34">
-        <v>0</v>
-      </c>
-      <c r="AA34" s="6" t="s">
+      <c r="Z34" s="6" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>33</v>
       </c>
@@ -9842,26 +10727,35 @@
       <c r="I35">
         <v>4988</v>
       </c>
-      <c r="T35">
+      <c r="J35">
+        <v>4988</v>
+      </c>
+      <c r="K35">
+        <v>4992</v>
+      </c>
+      <c r="L35">
+        <v>4994</v>
+      </c>
+      <c r="S35">
         <v>4982</v>
       </c>
+      <c r="U35">
+        <v>4984</v>
+      </c>
       <c r="V35">
-        <v>4984</v>
+        <v>4988</v>
       </c>
       <c r="W35">
-        <v>4988</v>
-      </c>
-      <c r="X35">
         <v>4986</v>
+      </c>
+      <c r="Y35" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="Z35" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AA35" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>34</v>
       </c>
@@ -9889,26 +10783,35 @@
       <c r="I36">
         <v>4982</v>
       </c>
-      <c r="T36">
+      <c r="J36">
+        <v>4984</v>
+      </c>
+      <c r="K36">
+        <v>4988</v>
+      </c>
+      <c r="L36">
+        <v>4988</v>
+      </c>
+      <c r="S36">
         <v>4982</v>
       </c>
+      <c r="U36">
+        <v>4988</v>
+      </c>
       <c r="V36">
-        <v>4988</v>
+        <v>4984</v>
       </c>
       <c r="W36">
         <v>4984</v>
       </c>
-      <c r="X36">
-        <v>4984</v>
+      <c r="Y36" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="Z36" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="AA36" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>35</v>
       </c>
@@ -9936,26 +10839,35 @@
       <c r="I37">
         <v>4994</v>
       </c>
-      <c r="T37">
+      <c r="J37">
+        <v>4996</v>
+      </c>
+      <c r="K37">
+        <v>4998</v>
+      </c>
+      <c r="L37">
+        <v>5000</v>
+      </c>
+      <c r="S37">
         <v>4982</v>
       </c>
+      <c r="U37">
+        <v>4984</v>
+      </c>
       <c r="V37">
-        <v>4984</v>
+        <v>4986</v>
       </c>
       <c r="W37">
         <v>4986</v>
       </c>
-      <c r="X37">
-        <v>4986</v>
+      <c r="Y37" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="Z37" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="AA37" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>36</v>
       </c>
@@ -9983,26 +10895,35 @@
       <c r="I38">
         <v>6960</v>
       </c>
-      <c r="T38">
+      <c r="J38">
+        <v>799</v>
+      </c>
+      <c r="K38">
+        <v>6938</v>
+      </c>
+      <c r="L38">
+        <v>7211</v>
+      </c>
+      <c r="S38">
         <v>265</v>
       </c>
+      <c r="U38">
+        <v>13074</v>
+      </c>
       <c r="V38">
-        <v>13074</v>
+        <v>13366</v>
       </c>
       <c r="W38">
-        <v>13366</v>
-      </c>
-      <c r="X38">
         <v>14385</v>
+      </c>
+      <c r="Y38" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="Z38" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AA38" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>37</v>
       </c>
@@ -10030,26 +10951,35 @@
       <c r="I39">
         <v>3596</v>
       </c>
-      <c r="T39">
+      <c r="J39">
+        <v>4874</v>
+      </c>
+      <c r="K39">
+        <v>4874</v>
+      </c>
+      <c r="L39">
+        <v>4874</v>
+      </c>
+      <c r="S39">
         <v>2061</v>
       </c>
+      <c r="U39">
+        <v>1810</v>
+      </c>
       <c r="V39">
-        <v>1810</v>
+        <v>6414</v>
       </c>
       <c r="W39">
         <v>6414</v>
       </c>
-      <c r="X39">
-        <v>6414</v>
+      <c r="Y39" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="Z39" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AA39" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>38</v>
       </c>
@@ -10077,26 +11007,35 @@
       <c r="I40">
         <v>6403</v>
       </c>
-      <c r="T40">
+      <c r="J40">
+        <v>6404</v>
+      </c>
+      <c r="K40">
+        <v>6404</v>
+      </c>
+      <c r="L40">
+        <v>6404</v>
+      </c>
+      <c r="S40">
         <v>6156</v>
       </c>
+      <c r="U40">
+        <v>6155</v>
+      </c>
       <c r="V40">
-        <v>6155</v>
+        <v>6156</v>
       </c>
       <c r="W40">
         <v>6156</v>
       </c>
-      <c r="X40">
-        <v>6156</v>
+      <c r="Y40" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="Z40" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AA40" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>39</v>
       </c>
@@ -10122,23 +11061,32 @@
       <c r="I41">
         <v>5</v>
       </c>
-      <c r="T41">
+      <c r="J41">
+        <v>6</v>
+      </c>
+      <c r="K41">
+        <v>6</v>
+      </c>
+      <c r="L41">
+        <v>6</v>
+      </c>
+      <c r="S41">
         <v>7</v>
       </c>
+      <c r="U41">
+        <v>4</v>
+      </c>
       <c r="V41">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="W41">
         <v>3</v>
       </c>
-      <c r="X41">
-        <v>3</v>
-      </c>
-      <c r="AA41" s="6" t="s">
+      <c r="Z41" s="6" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>40</v>
       </c>
@@ -10163,7 +11111,19 @@
       <c r="I42">
         <v>0</v>
       </c>
-      <c r="T42">
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="U42">
         <v>0</v>
       </c>
       <c r="V42">
@@ -10172,11 +11132,8 @@
       <c r="W42">
         <v>0</v>
       </c>
-      <c r="X42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>41</v>
       </c>
@@ -10201,7 +11158,19 @@
       <c r="I43">
         <v>0</v>
       </c>
-      <c r="T43">
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="U43">
         <v>0</v>
       </c>
       <c r="V43">
@@ -10210,11 +11179,8 @@
       <c r="W43">
         <v>0</v>
       </c>
-      <c r="X43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>42</v>
       </c>
@@ -10239,7 +11205,19 @@
       <c r="I44">
         <v>0</v>
       </c>
-      <c r="T44">
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="U44">
         <v>0</v>
       </c>
       <c r="V44">
@@ -10248,11 +11226,8 @@
       <c r="W44">
         <v>0</v>
       </c>
-      <c r="X44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>43</v>
       </c>
@@ -10277,7 +11252,19 @@
       <c r="I45">
         <v>0</v>
       </c>
-      <c r="T45">
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="U45">
         <v>0</v>
       </c>
       <c r="V45">
@@ -10286,11 +11273,8 @@
       <c r="W45">
         <v>0</v>
       </c>
-      <c r="X45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>44</v>
       </c>
@@ -10315,7 +11299,19 @@
       <c r="I46">
         <v>0</v>
       </c>
-      <c r="T46">
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="U46">
         <v>0</v>
       </c>
       <c r="V46">
@@ -10324,11 +11320,8 @@
       <c r="W46">
         <v>0</v>
       </c>
-      <c r="X46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>45</v>
       </c>
@@ -10353,7 +11346,19 @@
       <c r="I47">
         <v>0</v>
       </c>
-      <c r="T47">
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="U47">
         <v>0</v>
       </c>
       <c r="V47">
@@ -10362,11 +11367,8 @@
       <c r="W47">
         <v>0</v>
       </c>
-      <c r="X47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>46</v>
       </c>
@@ -10391,7 +11393,19 @@
       <c r="I48">
         <v>0</v>
       </c>
-      <c r="T48">
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="U48">
         <v>0</v>
       </c>
       <c r="V48">
@@ -10400,11 +11414,8 @@
       <c r="W48">
         <v>0</v>
       </c>
-      <c r="X48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>47</v>
       </c>
@@ -10429,7 +11440,19 @@
       <c r="I49">
         <v>0</v>
       </c>
-      <c r="T49">
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="U49">
         <v>0</v>
       </c>
       <c r="V49">
@@ -10438,11 +11461,8 @@
       <c r="W49">
         <v>0</v>
       </c>
-      <c r="X49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>48</v>
       </c>
@@ -10470,7 +11490,19 @@
       <c r="I50">
         <v>1</v>
       </c>
-      <c r="T50">
+      <c r="J50">
+        <v>1</v>
+      </c>
+      <c r="K50">
+        <v>1</v>
+      </c>
+      <c r="L50">
+        <v>1</v>
+      </c>
+      <c r="S50">
+        <v>1</v>
+      </c>
+      <c r="U50">
         <v>1</v>
       </c>
       <c r="V50">
@@ -10479,14 +11511,11 @@
       <c r="W50">
         <v>1</v>
       </c>
-      <c r="X50">
-        <v>1</v>
-      </c>
-      <c r="AA50" s="6" t="s">
+      <c r="Z50" s="6" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>49</v>
       </c>
@@ -10511,23 +11540,32 @@
       <c r="I51">
         <v>100</v>
       </c>
-      <c r="T51">
+      <c r="J51">
+        <v>100</v>
+      </c>
+      <c r="K51">
+        <v>100</v>
+      </c>
+      <c r="L51">
+        <v>100</v>
+      </c>
+      <c r="S51">
         <v>30</v>
       </c>
+      <c r="U51">
+        <v>0</v>
+      </c>
       <c r="V51">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W51">
-        <v>3</v>
-      </c>
-      <c r="X51">
         <v>233</v>
       </c>
-      <c r="AA51" s="2" t="s">
+      <c r="Z51" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>50</v>
       </c>
@@ -10552,7 +11590,19 @@
       <c r="I52">
         <v>0</v>
       </c>
-      <c r="T52">
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="U52">
         <v>0</v>
       </c>
       <c r="V52">
@@ -10561,14 +11611,11 @@
       <c r="W52">
         <v>0</v>
       </c>
-      <c r="X52">
-        <v>0</v>
-      </c>
-      <c r="AA52" s="2" t="s">
+      <c r="Z52" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>51</v>
       </c>
@@ -10593,23 +11640,32 @@
       <c r="I53">
         <v>0</v>
       </c>
-      <c r="T53">
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="S53">
         <v>3869</v>
       </c>
+      <c r="U53">
+        <v>1338</v>
+      </c>
       <c r="V53">
-        <v>1338</v>
+        <v>13363</v>
       </c>
       <c r="W53">
         <v>13363</v>
       </c>
-      <c r="X53">
-        <v>13363</v>
-      </c>
-      <c r="AA53" s="6" t="s">
+      <c r="Z53" s="6" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>52</v>
       </c>
@@ -10634,23 +11690,32 @@
       <c r="I54">
         <v>0</v>
       </c>
-      <c r="T54">
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="S54">
         <v>2059</v>
       </c>
+      <c r="U54">
+        <v>1301</v>
+      </c>
       <c r="V54">
-        <v>1301</v>
+        <v>6414</v>
       </c>
       <c r="W54">
         <v>6414</v>
       </c>
-      <c r="X54">
-        <v>6414</v>
-      </c>
-      <c r="AA54" s="6" t="s">
+      <c r="Z54" s="6" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>53</v>
       </c>
@@ -10675,23 +11740,32 @@
       <c r="I55">
         <v>0</v>
       </c>
-      <c r="T55">
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="S55">
         <v>6156</v>
       </c>
+      <c r="U55">
+        <v>6153</v>
+      </c>
       <c r="V55">
-        <v>6153</v>
+        <v>6156</v>
       </c>
       <c r="W55">
         <v>6156</v>
       </c>
-      <c r="X55">
-        <v>6156</v>
-      </c>
-      <c r="AA55" s="6" t="s">
+      <c r="Z55" s="6" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>54</v>
       </c>
@@ -10716,7 +11790,19 @@
       <c r="I56">
         <v>0</v>
       </c>
-      <c r="T56">
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="S56">
+        <v>48</v>
+      </c>
+      <c r="U56">
         <v>48</v>
       </c>
       <c r="V56">
@@ -10725,14 +11811,11 @@
       <c r="W56">
         <v>48</v>
       </c>
-      <c r="X56">
-        <v>48</v>
-      </c>
-      <c r="AA56" s="6" t="s">
+      <c r="Z56" s="6" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>55</v>
       </c>
@@ -10757,23 +11840,32 @@
       <c r="I57">
         <v>0</v>
       </c>
-      <c r="T57">
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="S57">
         <v>906</v>
       </c>
+      <c r="U57">
+        <v>1195</v>
+      </c>
       <c r="V57">
-        <v>1195</v>
+        <v>565</v>
       </c>
       <c r="W57">
-        <v>565</v>
-      </c>
-      <c r="X57">
         <v>596</v>
       </c>
-      <c r="AA57" s="6" t="s">
+      <c r="Z57" s="6" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>56</v>
       </c>
@@ -10798,23 +11890,32 @@
       <c r="I58">
         <v>0</v>
       </c>
-      <c r="T58">
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="S58">
         <v>1000</v>
       </c>
+      <c r="U58">
+        <v>1000</v>
+      </c>
       <c r="V58">
+        <v>166</v>
+      </c>
+      <c r="W58">
         <v>1000</v>
       </c>
-      <c r="W58">
-        <v>166</v>
-      </c>
-      <c r="X58">
-        <v>1000</v>
-      </c>
-      <c r="AA58" s="6" t="s">
+      <c r="Z58" s="6" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>57</v>
       </c>
@@ -10839,23 +11940,32 @@
       <c r="I59">
         <v>0</v>
       </c>
-      <c r="T59">
-        <v>0</v>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="U59">
+        <v>60</v>
       </c>
       <c r="V59">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="W59">
         <v>0</v>
       </c>
-      <c r="X59">
-        <v>0</v>
-      </c>
-      <c r="AA59" s="6" t="s">
+      <c r="Z59" s="6" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>58</v>
       </c>
@@ -10880,23 +11990,32 @@
       <c r="I60">
         <v>0</v>
       </c>
-      <c r="T60">
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="S60">
         <v>44</v>
       </c>
+      <c r="U60">
+        <v>49</v>
+      </c>
       <c r="V60">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="W60">
         <v>44</v>
       </c>
-      <c r="X60">
-        <v>44</v>
-      </c>
-      <c r="AA60" s="6" t="s">
+      <c r="Z60" s="6" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>59</v>
       </c>
@@ -10921,7 +12040,19 @@
       <c r="I61">
         <v>0</v>
       </c>
-      <c r="T61">
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="U61">
         <v>0</v>
       </c>
       <c r="V61">
@@ -10930,14 +12061,11 @@
       <c r="W61">
         <v>0</v>
       </c>
-      <c r="X61">
-        <v>0</v>
-      </c>
-      <c r="AA61" s="6" t="s">
+      <c r="Z61" s="6" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>60</v>
       </c>
@@ -10962,7 +12090,19 @@
       <c r="I62">
         <v>0</v>
       </c>
-      <c r="T62">
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="S62">
+        <v>0</v>
+      </c>
+      <c r="U62">
         <v>0</v>
       </c>
       <c r="V62">
@@ -10971,14 +12111,11 @@
       <c r="W62">
         <v>0</v>
       </c>
-      <c r="X62">
-        <v>0</v>
-      </c>
-      <c r="AA62" s="6" t="s">
+      <c r="Z62" s="6" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>61</v>
       </c>
@@ -11003,7 +12140,19 @@
       <c r="I63">
         <v>0</v>
       </c>
-      <c r="T63">
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="S63">
+        <v>1</v>
+      </c>
+      <c r="U63">
         <v>1</v>
       </c>
       <c r="V63">
@@ -11012,14 +12161,11 @@
       <c r="W63">
         <v>1</v>
       </c>
-      <c r="X63">
-        <v>1</v>
-      </c>
-      <c r="AA63" s="6" t="s">
+      <c r="Z63" s="6" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>62</v>
       </c>
@@ -11044,7 +12190,19 @@
       <c r="I64">
         <v>0</v>
       </c>
-      <c r="T64">
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="U64">
         <v>0</v>
       </c>
       <c r="V64">
@@ -11053,14 +12211,11 @@
       <c r="W64">
         <v>0</v>
       </c>
-      <c r="X64">
-        <v>0</v>
-      </c>
-      <c r="AA64" s="6" t="s">
+      <c r="Z64" s="6" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="65" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>63</v>
       </c>
@@ -11085,7 +12240,19 @@
       <c r="I65">
         <v>0</v>
       </c>
-      <c r="T65">
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="S65">
+        <v>100</v>
+      </c>
+      <c r="U65">
         <v>100</v>
       </c>
       <c r="V65">
@@ -11094,14 +12261,11 @@
       <c r="W65">
         <v>100</v>
       </c>
-      <c r="X65">
-        <v>100</v>
-      </c>
-      <c r="AA65" s="6" t="s">
+      <c r="Z65" s="6" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="66" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>64</v>
       </c>
@@ -11126,7 +12290,19 @@
       <c r="I66">
         <v>0</v>
       </c>
-      <c r="T66">
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="S66">
+        <v>0</v>
+      </c>
+      <c r="U66">
         <v>0</v>
       </c>
       <c r="V66">
@@ -11135,14 +12311,11 @@
       <c r="W66">
         <v>0</v>
       </c>
-      <c r="X66">
-        <v>0</v>
-      </c>
-      <c r="AA66" s="6" t="s">
+      <c r="Z66" s="6" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>65</v>
       </c>
@@ -11167,7 +12340,19 @@
       <c r="I67">
         <v>0</v>
       </c>
-      <c r="T67">
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="U67">
         <v>0</v>
       </c>
       <c r="V67">
@@ -11176,14 +12361,11 @@
       <c r="W67">
         <v>0</v>
       </c>
-      <c r="X67">
-        <v>0</v>
-      </c>
-      <c r="AA67" s="6" t="s">
+      <c r="Z67" s="6" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="68" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>66</v>
       </c>
@@ -11208,7 +12390,19 @@
       <c r="I68">
         <v>0</v>
       </c>
-      <c r="T68">
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="U68">
         <v>0</v>
       </c>
       <c r="V68">
@@ -11217,14 +12411,11 @@
       <c r="W68">
         <v>0</v>
       </c>
-      <c r="X68">
-        <v>0</v>
-      </c>
-      <c r="AA68" s="6" t="s">
+      <c r="Z68" s="6" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="69" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>67</v>
       </c>
@@ -11249,7 +12440,19 @@
       <c r="I69">
         <v>0</v>
       </c>
-      <c r="T69">
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="U69">
         <v>0</v>
       </c>
       <c r="V69">
@@ -11258,14 +12461,11 @@
       <c r="W69">
         <v>0</v>
       </c>
-      <c r="X69">
-        <v>0</v>
-      </c>
-      <c r="AA69" s="6" t="s">
+      <c r="Z69" s="6" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="70" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>68</v>
       </c>
@@ -11290,7 +12490,19 @@
       <c r="I70">
         <v>0</v>
       </c>
-      <c r="T70">
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="S70">
+        <v>0</v>
+      </c>
+      <c r="U70">
         <v>0</v>
       </c>
       <c r="V70">
@@ -11299,14 +12511,11 @@
       <c r="W70">
         <v>0</v>
       </c>
-      <c r="X70">
-        <v>0</v>
-      </c>
-      <c r="AA70" s="6" t="s">
+      <c r="Z70" s="6" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="71" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>69</v>
       </c>
@@ -11331,7 +12540,19 @@
       <c r="I71">
         <v>0</v>
       </c>
-      <c r="T71">
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="U71">
         <v>0</v>
       </c>
       <c r="V71">
@@ -11340,14 +12561,11 @@
       <c r="W71">
         <v>0</v>
       </c>
-      <c r="X71">
-        <v>0</v>
-      </c>
-      <c r="AA71" s="6" t="s">
+      <c r="Z71" s="6" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="72" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>70</v>
       </c>
@@ -11372,7 +12590,19 @@
       <c r="I72">
         <v>0</v>
       </c>
-      <c r="T72">
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="U72">
         <v>0</v>
       </c>
       <c r="V72">
@@ -11381,14 +12611,11 @@
       <c r="W72">
         <v>0</v>
       </c>
-      <c r="X72">
-        <v>0</v>
-      </c>
-      <c r="AA72" s="6" t="s">
+      <c r="Z72" s="6" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="73" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>71</v>
       </c>
@@ -11413,7 +12640,19 @@
       <c r="I73">
         <v>0</v>
       </c>
-      <c r="T73">
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="U73">
         <v>0</v>
       </c>
       <c r="V73">
@@ -11422,14 +12661,11 @@
       <c r="W73">
         <v>0</v>
       </c>
-      <c r="X73">
-        <v>0</v>
-      </c>
-      <c r="AA73" s="6" t="s">
+      <c r="Z73" s="6" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="74" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>72</v>
       </c>
@@ -11454,7 +12690,19 @@
       <c r="I74">
         <v>0</v>
       </c>
-      <c r="T74">
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="S74">
+        <v>0</v>
+      </c>
+      <c r="U74">
         <v>0</v>
       </c>
       <c r="V74">
@@ -11463,14 +12711,11 @@
       <c r="W74">
         <v>0</v>
       </c>
-      <c r="X74">
-        <v>0</v>
-      </c>
-      <c r="AA74" s="6" t="s">
+      <c r="Z74" s="6" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="75" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>73</v>
       </c>
@@ -11495,7 +12740,19 @@
       <c r="I75">
         <v>0</v>
       </c>
-      <c r="T75">
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="U75">
         <v>0</v>
       </c>
       <c r="V75">
@@ -11504,14 +12761,11 @@
       <c r="W75">
         <v>0</v>
       </c>
-      <c r="X75">
-        <v>0</v>
-      </c>
-      <c r="AA75" s="6" t="s">
+      <c r="Z75" s="6" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="76" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>74</v>
       </c>
@@ -11536,7 +12790,19 @@
       <c r="I76">
         <v>0</v>
       </c>
-      <c r="T76">
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="U76">
         <v>0</v>
       </c>
       <c r="V76">
@@ -11545,11 +12811,8 @@
       <c r="W76">
         <v>0</v>
       </c>
-      <c r="X76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="77" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>75</v>
       </c>
@@ -11574,7 +12837,19 @@
       <c r="I77">
         <v>0</v>
       </c>
-      <c r="T77">
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="U77">
         <v>0</v>
       </c>
       <c r="V77">
@@ -11583,11 +12858,8 @@
       <c r="W77">
         <v>0</v>
       </c>
-      <c r="X77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="78" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>76</v>
       </c>
@@ -11612,7 +12884,19 @@
       <c r="I78">
         <v>0</v>
       </c>
-      <c r="T78">
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="S78">
+        <v>0</v>
+      </c>
+      <c r="U78">
         <v>0</v>
       </c>
       <c r="V78">
@@ -11621,11 +12905,8 @@
       <c r="W78">
         <v>0</v>
       </c>
-      <c r="X78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="79" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>77</v>
       </c>
@@ -11650,7 +12931,19 @@
       <c r="I79">
         <v>0</v>
       </c>
-      <c r="T79">
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="U79">
         <v>0</v>
       </c>
       <c r="V79">
@@ -11659,11 +12952,8 @@
       <c r="W79">
         <v>0</v>
       </c>
-      <c r="X79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="80" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>78</v>
       </c>
@@ -11688,7 +12978,19 @@
       <c r="I80">
         <v>0</v>
       </c>
-      <c r="T80">
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="U80">
         <v>0</v>
       </c>
       <c r="V80">
@@ -11697,11 +12999,8 @@
       <c r="W80">
         <v>0</v>
       </c>
-      <c r="X80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="81" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>79</v>
       </c>
@@ -11726,7 +13025,19 @@
       <c r="I81">
         <v>0</v>
       </c>
-      <c r="T81">
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="U81">
         <v>0</v>
       </c>
       <c r="V81">
@@ -11735,11 +13046,8 @@
       <c r="W81">
         <v>0</v>
       </c>
-      <c r="X81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="82" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>80</v>
       </c>
@@ -11767,7 +13075,19 @@
       <c r="I82">
         <v>1168</v>
       </c>
-      <c r="T82">
+      <c r="J82">
+        <v>597</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>10</v>
+      </c>
+      <c r="S82">
+        <v>0</v>
+      </c>
+      <c r="U82">
         <v>0</v>
       </c>
       <c r="V82">
@@ -11776,11 +13096,8 @@
       <c r="W82">
         <v>0</v>
       </c>
-      <c r="X82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="83" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>81</v>
       </c>
@@ -11808,7 +13125,19 @@
       <c r="I83">
         <v>0</v>
       </c>
-      <c r="T83">
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>0</v>
+      </c>
+      <c r="L83">
+        <v>0</v>
+      </c>
+      <c r="S83">
+        <v>0</v>
+      </c>
+      <c r="U83">
         <v>0</v>
       </c>
       <c r="V83">
@@ -11817,11 +13146,8 @@
       <c r="W83">
         <v>0</v>
       </c>
-      <c r="X83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="84" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>82</v>
       </c>
@@ -11849,7 +13175,19 @@
       <c r="I84">
         <v>2057</v>
       </c>
-      <c r="T84">
+      <c r="J84">
+        <v>13599</v>
+      </c>
+      <c r="K84">
+        <v>13599</v>
+      </c>
+      <c r="L84">
+        <v>7198</v>
+      </c>
+      <c r="S84">
+        <v>0</v>
+      </c>
+      <c r="U84">
         <v>0</v>
       </c>
       <c r="V84">
@@ -11858,11 +13196,8 @@
       <c r="W84">
         <v>0</v>
       </c>
-      <c r="X84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="85" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>83</v>
       </c>
@@ -11890,7 +13225,19 @@
       <c r="I85">
         <v>3597</v>
       </c>
-      <c r="T85">
+      <c r="J85">
+        <v>4875</v>
+      </c>
+      <c r="K85">
+        <v>4875</v>
+      </c>
+      <c r="L85">
+        <v>4876</v>
+      </c>
+      <c r="S85">
+        <v>0</v>
+      </c>
+      <c r="U85">
         <v>0</v>
       </c>
       <c r="V85">
@@ -11899,11 +13246,8 @@
       <c r="W85">
         <v>0</v>
       </c>
-      <c r="X85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="86" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>84</v>
       </c>
@@ -11931,7 +13275,19 @@
       <c r="I86">
         <v>6403</v>
       </c>
-      <c r="T86">
+      <c r="J86">
+        <v>6404</v>
+      </c>
+      <c r="K86">
+        <v>6404</v>
+      </c>
+      <c r="L86">
+        <v>6404</v>
+      </c>
+      <c r="S86">
+        <v>0</v>
+      </c>
+      <c r="U86">
         <v>0</v>
       </c>
       <c r="V86">
@@ -11940,11 +13296,8 @@
       <c r="W86">
         <v>0</v>
       </c>
-      <c r="X86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="87" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>85</v>
       </c>
@@ -11972,7 +13325,19 @@
       <c r="I87">
         <v>0</v>
       </c>
-      <c r="T87">
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <v>0</v>
+      </c>
+      <c r="L87">
+        <v>0</v>
+      </c>
+      <c r="S87">
+        <v>0</v>
+      </c>
+      <c r="U87">
         <v>0</v>
       </c>
       <c r="V87">
@@ -11981,11 +13346,8 @@
       <c r="W87">
         <v>0</v>
       </c>
-      <c r="X87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="88" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>86</v>
       </c>
@@ -12010,7 +13372,19 @@
       <c r="I88">
         <v>1</v>
       </c>
-      <c r="T88">
+      <c r="J88">
+        <v>1</v>
+      </c>
+      <c r="K88">
+        <v>1</v>
+      </c>
+      <c r="L88">
+        <v>1</v>
+      </c>
+      <c r="S88">
+        <v>0</v>
+      </c>
+      <c r="U88">
         <v>0</v>
       </c>
       <c r="V88">
@@ -12019,11 +13393,8 @@
       <c r="W88">
         <v>0</v>
       </c>
-      <c r="X88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="89" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>87</v>
       </c>
@@ -12051,7 +13422,19 @@
       <c r="I89">
         <v>1</v>
       </c>
-      <c r="T89">
+      <c r="J89">
+        <v>1</v>
+      </c>
+      <c r="K89">
+        <v>1</v>
+      </c>
+      <c r="L89">
+        <v>1</v>
+      </c>
+      <c r="S89">
+        <v>0</v>
+      </c>
+      <c r="U89">
         <v>0</v>
       </c>
       <c r="V89">
@@ -12060,11 +13443,8 @@
       <c r="W89">
         <v>0</v>
       </c>
-      <c r="X89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="90" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>88</v>
       </c>
@@ -12092,7 +13472,19 @@
       <c r="I90">
         <v>1</v>
       </c>
-      <c r="T90">
+      <c r="J90">
+        <v>1</v>
+      </c>
+      <c r="K90">
+        <v>1</v>
+      </c>
+      <c r="L90">
+        <v>1</v>
+      </c>
+      <c r="S90">
+        <v>0</v>
+      </c>
+      <c r="U90">
         <v>0</v>
       </c>
       <c r="V90">
@@ -12101,11 +13493,8 @@
       <c r="W90">
         <v>0</v>
       </c>
-      <c r="X90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="91" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>89</v>
       </c>
@@ -12133,7 +13522,19 @@
       <c r="I91">
         <v>0</v>
       </c>
-      <c r="T91">
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="K91">
+        <v>0</v>
+      </c>
+      <c r="L91">
+        <v>0</v>
+      </c>
+      <c r="S91">
+        <v>0</v>
+      </c>
+      <c r="U91">
         <v>0</v>
       </c>
       <c r="V91">
@@ -12142,11 +13543,8 @@
       <c r="W91">
         <v>0</v>
       </c>
-      <c r="X91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="92" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>90</v>
       </c>
@@ -12174,7 +13572,19 @@
       <c r="I92">
         <v>0</v>
       </c>
-      <c r="T92">
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <v>0</v>
+      </c>
+      <c r="L92">
+        <v>0</v>
+      </c>
+      <c r="S92">
+        <v>0</v>
+      </c>
+      <c r="U92">
         <v>0</v>
       </c>
       <c r="V92">
@@ -12183,11 +13593,8 @@
       <c r="W92">
         <v>0</v>
       </c>
-      <c r="X92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="93" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>91</v>
       </c>
@@ -12215,7 +13622,19 @@
       <c r="I93">
         <v>120</v>
       </c>
-      <c r="T93">
+      <c r="J93">
+        <v>120</v>
+      </c>
+      <c r="K93">
+        <v>120</v>
+      </c>
+      <c r="L93">
+        <v>120</v>
+      </c>
+      <c r="S93">
+        <v>0</v>
+      </c>
+      <c r="U93">
         <v>0</v>
       </c>
       <c r="V93">
@@ -12224,11 +13643,8 @@
       <c r="W93">
         <v>0</v>
       </c>
-      <c r="X93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="94" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>92</v>
       </c>
@@ -12256,7 +13672,19 @@
       <c r="I94">
         <v>904</v>
       </c>
-      <c r="T94">
+      <c r="J94">
+        <v>904</v>
+      </c>
+      <c r="K94">
+        <v>904</v>
+      </c>
+      <c r="L94">
+        <v>600</v>
+      </c>
+      <c r="S94">
+        <v>0</v>
+      </c>
+      <c r="U94">
         <v>0</v>
       </c>
       <c r="V94">
@@ -12265,11 +13693,8 @@
       <c r="W94">
         <v>0</v>
       </c>
-      <c r="X94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="95" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>93</v>
       </c>
@@ -12297,7 +13722,19 @@
       <c r="I95">
         <v>1000</v>
       </c>
-      <c r="T95">
+      <c r="J95">
+        <v>1000</v>
+      </c>
+      <c r="K95">
+        <v>1000</v>
+      </c>
+      <c r="L95">
+        <v>100</v>
+      </c>
+      <c r="S95">
+        <v>0</v>
+      </c>
+      <c r="U95">
         <v>0</v>
       </c>
       <c r="V95">
@@ -12306,11 +13743,8 @@
       <c r="W95">
         <v>0</v>
       </c>
-      <c r="X95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="96" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>94</v>
       </c>
@@ -12335,7 +13769,19 @@
       <c r="I96">
         <v>60</v>
       </c>
-      <c r="T96">
+      <c r="J96">
+        <v>120</v>
+      </c>
+      <c r="K96">
+        <v>120</v>
+      </c>
+      <c r="L96">
+        <v>120</v>
+      </c>
+      <c r="S96">
+        <v>0</v>
+      </c>
+      <c r="U96">
         <v>0</v>
       </c>
       <c r="V96">
@@ -12344,11 +13790,8 @@
       <c r="W96">
         <v>0</v>
       </c>
-      <c r="X96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="97" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>95</v>
       </c>
@@ -12376,7 +13819,19 @@
       <c r="I97">
         <v>50</v>
       </c>
-      <c r="T97">
+      <c r="J97">
+        <v>50</v>
+      </c>
+      <c r="K97">
+        <v>50</v>
+      </c>
+      <c r="L97">
+        <v>50</v>
+      </c>
+      <c r="S97">
+        <v>0</v>
+      </c>
+      <c r="U97">
         <v>0</v>
       </c>
       <c r="V97">
@@ -12385,11 +13840,8 @@
       <c r="W97">
         <v>0</v>
       </c>
-      <c r="X97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="98" spans="1:23" x14ac:dyDescent="0.3">
       <c r="F98">
         <v>0</v>
       </c>
@@ -12402,7 +13854,19 @@
       <c r="I98">
         <v>0</v>
       </c>
-      <c r="T98">
+      <c r="J98">
+        <v>0</v>
+      </c>
+      <c r="K98">
+        <v>0</v>
+      </c>
+      <c r="L98">
+        <v>0</v>
+      </c>
+      <c r="S98">
+        <v>0</v>
+      </c>
+      <c r="U98">
         <v>0</v>
       </c>
       <c r="V98">
@@ -12411,11 +13875,8 @@
       <c r="W98">
         <v>0</v>
       </c>
-      <c r="X98">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="99" spans="1:23" x14ac:dyDescent="0.3">
       <c r="F99">
         <v>0</v>
       </c>
@@ -12428,7 +13889,19 @@
       <c r="I99">
         <v>0</v>
       </c>
-      <c r="T99">
+      <c r="J99">
+        <v>0</v>
+      </c>
+      <c r="K99">
+        <v>0</v>
+      </c>
+      <c r="L99">
+        <v>0</v>
+      </c>
+      <c r="S99">
+        <v>0</v>
+      </c>
+      <c r="U99">
         <v>0</v>
       </c>
       <c r="V99">
@@ -12437,11 +13910,8 @@
       <c r="W99">
         <v>0</v>
       </c>
-      <c r="X99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="100" spans="1:23" x14ac:dyDescent="0.3">
       <c r="F100">
         <v>1</v>
       </c>
@@ -12454,7 +13924,19 @@
       <c r="I100">
         <v>1</v>
       </c>
-      <c r="T100">
+      <c r="J100">
+        <v>1</v>
+      </c>
+      <c r="K100">
+        <v>1</v>
+      </c>
+      <c r="L100">
+        <v>1</v>
+      </c>
+      <c r="S100">
+        <v>1</v>
+      </c>
+      <c r="U100">
         <v>1</v>
       </c>
       <c r="V100">
@@ -12463,11 +13945,8 @@
       <c r="W100">
         <v>1</v>
       </c>
-      <c r="X100">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="101" spans="1:23" x14ac:dyDescent="0.3">
       <c r="F101">
         <v>1</v>
       </c>
@@ -12480,20 +13959,29 @@
       <c r="I101">
         <v>1</v>
       </c>
-      <c r="T101">
+      <c r="J101">
+        <v>1</v>
+      </c>
+      <c r="K101">
+        <v>1</v>
+      </c>
+      <c r="L101">
+        <v>1</v>
+      </c>
+      <c r="S101">
         <v>12</v>
       </c>
+      <c r="U101">
+        <v>13</v>
+      </c>
       <c r="V101">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="W101">
         <v>12</v>
       </c>
-      <c r="X101">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="102" spans="1:24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="102" spans="1:23" x14ac:dyDescent="0.3">
       <c r="F102">
         <v>0</v>
       </c>
@@ -12506,10 +13994,19 @@
       <c r="I102">
         <v>0</v>
       </c>
-      <c r="K102" t="s">
-        <v>146</v>
-      </c>
-      <c r="T102">
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+      <c r="S102">
+        <v>50</v>
+      </c>
+      <c r="U102">
         <v>50</v>
       </c>
       <c r="V102">
@@ -12518,26 +14015,26 @@
       <c r="W102">
         <v>50</v>
       </c>
-      <c r="X102">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="103" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="T103">
+    </row>
+    <row r="103" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="S103">
         <v>6</v>
       </c>
+      <c r="U103">
+        <v>5</v>
+      </c>
       <c r="V103">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="W103">
         <v>34</v>
       </c>
-      <c r="X103">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="104" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="T104">
+    </row>
+    <row r="104" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="S104">
+        <v>0</v>
+      </c>
+      <c r="U104">
         <v>0</v>
       </c>
       <c r="V104">
@@ -12546,26 +14043,26 @@
       <c r="W104">
         <v>0</v>
       </c>
-      <c r="X104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="T105">
+    </row>
+    <row r="105" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="S105">
         <v>6</v>
       </c>
+      <c r="U105">
+        <v>5</v>
+      </c>
       <c r="V105">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="W105">
         <v>24</v>
       </c>
-      <c r="X105">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="106" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="T106">
+    </row>
+    <row r="106" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="S106">
+        <v>0</v>
+      </c>
+      <c r="U106">
         <v>0</v>
       </c>
       <c r="V106">
@@ -12574,28 +14071,25 @@
       <c r="W106">
         <v>0</v>
       </c>
-      <c r="X106">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="T107">
+    </row>
+    <row r="107" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="S107">
+        <v>0</v>
+      </c>
+      <c r="U107">
         <v>0</v>
       </c>
       <c r="V107">
         <v>0</v>
       </c>
       <c r="W107">
-        <v>0</v>
-      </c>
-      <c r="X107">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="C1:E1"/>
-    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="S1:T1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/doc/Mapping.xlsx
+++ b/doc/Mapping.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\trest\Source\Repos\HomeAssistant\homeassistant-solax-http\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\HomeAssistant\homeassistant-solax-http\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D5A5F95-BBA6-4BB7-ADEE-558A38E7E30C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0B78B18-9ABA-43DD-B69D-F2146C98B4D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34695" yWindow="-10050" windowWidth="25200" windowHeight="15720" xr2:uid="{E30620CE-52E2-4698-983C-BDD3AD23A8BB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{E30620CE-52E2-4698-983C-BDD3AD23A8BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -585,7 +585,22 @@
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -895,25 +910,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E382A0D-967B-40F4-B1C8-B14BB77D210D}">
-  <dimension ref="A1:AN102"/>
+  <dimension ref="A1:AO102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="AC2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AD13" sqref="AD13"/>
+      <selection pane="bottomRight" activeCell="W32" sqref="W32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="18.33203125" customWidth="1"/>
     <col min="3" max="3" width="21.21875" customWidth="1"/>
-    <col min="25" max="35" width="13.109375" customWidth="1"/>
-    <col min="36" max="36" width="13.109375" style="3" customWidth="1"/>
-    <col min="39" max="39" width="17" customWidth="1"/>
+    <col min="26" max="36" width="13.109375" customWidth="1"/>
+    <col min="37" max="37" width="13.109375" style="3" customWidth="1"/>
+    <col min="40" max="40" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -950,29 +965,29 @@
       <c r="V1" t="s">
         <v>75</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>71</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>72</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>73</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>74</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>75</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>153</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1039,8 +1054,8 @@
       <c r="V2">
         <v>2</v>
       </c>
-      <c r="X2">
-        <v>0</v>
+      <c r="W2">
+        <v>2</v>
       </c>
       <c r="Y2">
         <v>0</v>
@@ -1060,14 +1075,17 @@
       <c r="AD2">
         <v>0</v>
       </c>
-      <c r="AL2">
-        <v>0</v>
-      </c>
-      <c r="AM2" t="s">
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1134,8 +1152,8 @@
       <c r="V3">
         <v>3</v>
       </c>
-      <c r="X3">
-        <v>0</v>
+      <c r="W3">
+        <v>3</v>
       </c>
       <c r="Y3">
         <v>0</v>
@@ -1144,29 +1162,32 @@
         <v>0</v>
       </c>
       <c r="AA3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB3">
+        <v>1</v>
+      </c>
+      <c r="AC3">
         <v>2</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>3</v>
       </c>
-      <c r="AD3">
-        <v>0</v>
-      </c>
-      <c r="AJ3"/>
-      <c r="AL3">
-        <v>1</v>
-      </c>
-      <c r="AM3" t="s">
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AK3"/>
+      <c r="AM3">
+        <v>1</v>
+      </c>
+      <c r="AN3" t="s">
         <v>2</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1233,8 +1254,8 @@
       <c r="V4">
         <v>6</v>
       </c>
-      <c r="X4">
-        <v>70</v>
+      <c r="W4">
+        <v>6</v>
       </c>
       <c r="Y4">
         <v>70</v>
@@ -1254,17 +1275,20 @@
       <c r="AD4">
         <v>70</v>
       </c>
-      <c r="AJ4" s="5" t="s">
+      <c r="AE4">
+        <v>70</v>
+      </c>
+      <c r="AK4" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>2</v>
       </c>
-      <c r="AM4" s="6" t="s">
+      <c r="AN4" s="6" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1331,8 +1355,8 @@
       <c r="V5">
         <v>3</v>
       </c>
-      <c r="X5">
-        <v>16</v>
+      <c r="W5">
+        <v>3</v>
       </c>
       <c r="Y5">
         <v>16</v>
@@ -1350,22 +1374,25 @@
         <v>16</v>
       </c>
       <c r="AD5">
+        <v>16</v>
+      </c>
+      <c r="AE5">
         <v>8</v>
       </c>
-      <c r="AJ5" s="3" t="s">
+      <c r="AK5" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <v>3</v>
       </c>
-      <c r="AM5" t="s">
+      <c r="AN5" t="s">
         <v>133</v>
       </c>
-      <c r="AN5">
+      <c r="AO5">
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1432,8 +1459,8 @@
       <c r="V6">
         <v>0</v>
       </c>
-      <c r="X6">
-        <v>0</v>
+      <c r="W6">
+        <v>1</v>
       </c>
       <c r="Y6">
         <v>0</v>
@@ -1453,14 +1480,17 @@
       <c r="AD6">
         <v>0</v>
       </c>
-      <c r="AL6">
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
         <v>4</v>
       </c>
-      <c r="AM6" t="s">
+      <c r="AN6" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1527,8 +1557,8 @@
       <c r="V7">
         <v>265</v>
       </c>
-      <c r="X7">
-        <v>0</v>
+      <c r="W7">
+        <v>265</v>
       </c>
       <c r="Y7">
         <v>0</v>
@@ -1548,17 +1578,20 @@
       <c r="AD7">
         <v>0</v>
       </c>
-      <c r="AL7">
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AM7">
         <v>5</v>
       </c>
-      <c r="AM7" s="6" t="s">
+      <c r="AN7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="AN7">
+      <c r="AO7">
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1625,8 +1658,8 @@
       <c r="V8">
         <v>160</v>
       </c>
-      <c r="X8">
-        <v>0</v>
+      <c r="W8">
+        <v>160</v>
       </c>
       <c r="Y8">
         <v>0</v>
@@ -1646,11 +1679,14 @@
       <c r="AD8">
         <v>0</v>
       </c>
-      <c r="AL8">
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AM8">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1711,8 +1747,8 @@
       <c r="V9">
         <v>18</v>
       </c>
-      <c r="X9">
-        <v>1</v>
+      <c r="W9">
+        <v>18</v>
       </c>
       <c r="Y9">
         <v>1</v>
@@ -1732,14 +1768,17 @@
       <c r="AD9">
         <v>1</v>
       </c>
-      <c r="AL9">
+      <c r="AE9">
+        <v>1</v>
+      </c>
+      <c r="AM9">
         <v>7</v>
       </c>
-      <c r="AM9" s="6" t="s">
+      <c r="AN9" s="6" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1800,8 +1839,8 @@
       <c r="V10">
         <v>80</v>
       </c>
-      <c r="X10">
-        <v>0</v>
+      <c r="W10">
+        <v>80</v>
       </c>
       <c r="Y10">
         <v>0</v>
@@ -1821,11 +1860,14 @@
       <c r="AD10">
         <v>0</v>
       </c>
-      <c r="AL10">
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AM10">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1886,8 +1928,8 @@
       <c r="V11">
         <v>30</v>
       </c>
-      <c r="X11">
-        <v>1</v>
+      <c r="W11">
+        <v>30</v>
       </c>
       <c r="Y11">
         <v>1</v>
@@ -1907,11 +1949,14 @@
       <c r="AD11">
         <v>1</v>
       </c>
-      <c r="AL11">
+      <c r="AE11">
+        <v>1</v>
+      </c>
+      <c r="AM11">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1974,8 +2019,8 @@
       <c r="V12">
         <v>4000</v>
       </c>
-      <c r="X12">
-        <v>0</v>
+      <c r="W12">
+        <v>12000</v>
       </c>
       <c r="Y12">
         <v>0</v>
@@ -1995,14 +2040,17 @@
       <c r="AD12">
         <v>0</v>
       </c>
-      <c r="AL12" s="1">
+      <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AM12" s="1">
         <v>10</v>
       </c>
-      <c r="AM12" s="6" t="s">
+      <c r="AN12" s="6" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -2069,8 +2117,8 @@
       <c r="V13">
         <v>0</v>
       </c>
-      <c r="X13">
-        <v>10</v>
+      <c r="W13">
+        <v>0</v>
       </c>
       <c r="Y13">
         <v>10</v>
@@ -2088,19 +2136,22 @@
         <v>10</v>
       </c>
       <c r="AD13">
+        <v>10</v>
+      </c>
+      <c r="AE13">
         <v>6</v>
       </c>
-      <c r="AL13">
+      <c r="AM13">
         <v>11</v>
       </c>
-      <c r="AM13" t="s">
+      <c r="AN13" t="s">
         <v>132</v>
       </c>
-      <c r="AN13">
+      <c r="AO13">
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -2167,8 +2218,8 @@
       <c r="V14">
         <v>0</v>
       </c>
-      <c r="X14">
-        <v>6</v>
+      <c r="W14">
+        <v>0</v>
       </c>
       <c r="Y14">
         <v>6</v>
@@ -2186,19 +2237,22 @@
         <v>6</v>
       </c>
       <c r="AD14">
+        <v>6</v>
+      </c>
+      <c r="AE14">
         <v>3</v>
       </c>
-      <c r="AL14">
+      <c r="AM14">
         <v>12</v>
       </c>
-      <c r="AM14" t="s">
+      <c r="AN14" t="s">
         <v>131</v>
       </c>
-      <c r="AN14">
+      <c r="AO14">
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -2265,8 +2319,8 @@
       <c r="V15">
         <v>0</v>
       </c>
-      <c r="X15">
-        <v>265</v>
+      <c r="W15">
+        <v>0</v>
       </c>
       <c r="Y15">
         <v>265</v>
@@ -2286,20 +2340,23 @@
       <c r="AD15">
         <v>265</v>
       </c>
-      <c r="AJ15" s="3" t="s">
+      <c r="AE15">
+        <v>265</v>
+      </c>
+      <c r="AK15" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="AL15">
+      <c r="AM15">
         <v>13</v>
       </c>
-      <c r="AM15" t="s">
+      <c r="AN15" t="s">
         <v>86</v>
       </c>
-      <c r="AN15">
+      <c r="AO15">
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -2366,8 +2423,8 @@
       <c r="V16">
         <v>0</v>
       </c>
-      <c r="X16">
-        <v>160</v>
+      <c r="W16">
+        <v>0</v>
       </c>
       <c r="Y16">
         <v>160</v>
@@ -2387,20 +2444,23 @@
       <c r="AD16">
         <v>160</v>
       </c>
-      <c r="AJ16" s="3" t="s">
+      <c r="AE16">
+        <v>160</v>
+      </c>
+      <c r="AK16" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AL16">
+      <c r="AM16">
         <v>14</v>
       </c>
-      <c r="AM16" t="s">
+      <c r="AN16" t="s">
         <v>87</v>
       </c>
-      <c r="AN16">
+      <c r="AO16">
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -2467,7 +2527,7 @@
       <c r="V17">
         <v>0</v>
       </c>
-      <c r="X17">
+      <c r="W17">
         <v>0</v>
       </c>
       <c r="Y17">
@@ -2488,17 +2548,20 @@
       <c r="AD17">
         <v>0</v>
       </c>
-      <c r="AL17">
+      <c r="AE17">
+        <v>0</v>
+      </c>
+      <c r="AM17">
         <v>15</v>
       </c>
-      <c r="AM17" t="s">
+      <c r="AN17" t="s">
         <v>139</v>
       </c>
-      <c r="AN17">
+      <c r="AO17">
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -2559,7 +2622,7 @@
       <c r="V18">
         <v>0</v>
       </c>
-      <c r="X18">
+      <c r="W18">
         <v>0</v>
       </c>
       <c r="Y18">
@@ -2580,17 +2643,20 @@
       <c r="AD18">
         <v>0</v>
       </c>
-      <c r="AL18">
+      <c r="AE18">
+        <v>0</v>
+      </c>
+      <c r="AM18">
         <v>16</v>
       </c>
-      <c r="AM18" t="s">
+      <c r="AN18" t="s">
         <v>135</v>
       </c>
-      <c r="AN18">
+      <c r="AO18">
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -2657,8 +2723,8 @@
       <c r="V19">
         <v>50</v>
       </c>
-      <c r="X19">
-        <v>0</v>
+      <c r="W19">
+        <v>50</v>
       </c>
       <c r="Y19">
         <v>0</v>
@@ -2678,17 +2744,20 @@
       <c r="AD19">
         <v>0</v>
       </c>
-      <c r="AL19">
+      <c r="AE19">
+        <v>0</v>
+      </c>
+      <c r="AM19">
         <v>17</v>
       </c>
-      <c r="AM19" t="s">
+      <c r="AN19" t="s">
         <v>136</v>
       </c>
-      <c r="AN19">
+      <c r="AO19">
         <v>68</v>
       </c>
     </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -2755,8 +2824,8 @@
       <c r="V20">
         <v>32</v>
       </c>
-      <c r="X20">
-        <v>0</v>
+      <c r="W20">
+        <v>32</v>
       </c>
       <c r="Y20">
         <v>0</v>
@@ -2776,17 +2845,20 @@
       <c r="AD20">
         <v>0</v>
       </c>
-      <c r="AL20">
+      <c r="AE20">
+        <v>0</v>
+      </c>
+      <c r="AM20">
         <v>18</v>
       </c>
-      <c r="AM20" t="s">
+      <c r="AN20" t="s">
         <v>137</v>
       </c>
-      <c r="AN20">
+      <c r="AO20">
         <v>69</v>
       </c>
     </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -2853,8 +2925,8 @@
       <c r="V21">
         <v>116</v>
       </c>
-      <c r="X21">
-        <v>0</v>
+      <c r="W21">
+        <v>116</v>
       </c>
       <c r="Y21">
         <v>0</v>
@@ -2874,17 +2946,20 @@
       <c r="AD21">
         <v>0</v>
       </c>
-      <c r="AL21">
+      <c r="AE21">
+        <v>0</v>
+      </c>
+      <c r="AM21">
         <v>19</v>
       </c>
-      <c r="AM21" t="s">
+      <c r="AN21" t="s">
         <v>138</v>
       </c>
-      <c r="AN21">
+      <c r="AO21">
         <v>70</v>
       </c>
     </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -2945,8 +3020,8 @@
       <c r="V22">
         <v>101</v>
       </c>
-      <c r="X22">
-        <v>0</v>
+      <c r="W22">
+        <v>101</v>
       </c>
       <c r="Y22">
         <v>0</v>
@@ -2966,11 +3041,14 @@
       <c r="AD22">
         <v>0</v>
       </c>
-      <c r="AL22">
+      <c r="AE22">
+        <v>0</v>
+      </c>
+      <c r="AM22">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
@@ -3034,8 +3112,8 @@
       <c r="V23">
         <v>120</v>
       </c>
-      <c r="X23">
-        <v>44</v>
+      <c r="W23">
+        <v>60</v>
       </c>
       <c r="Y23">
         <v>44</v>
@@ -3055,14 +3133,17 @@
       <c r="AD23">
         <v>44</v>
       </c>
-      <c r="AJ23" s="3" t="s">
+      <c r="AE23">
+        <v>44</v>
+      </c>
+      <c r="AK23" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AL23">
+      <c r="AM23">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
@@ -3129,8 +3210,8 @@
       <c r="V24">
         <v>0</v>
       </c>
-      <c r="X24">
-        <v>25</v>
+      <c r="W24">
+        <v>0</v>
       </c>
       <c r="Y24">
         <v>25</v>
@@ -3150,14 +3231,17 @@
       <c r="AD24">
         <v>25</v>
       </c>
-      <c r="AL24">
+      <c r="AE24">
+        <v>25</v>
+      </c>
+      <c r="AM24">
         <v>22</v>
       </c>
-      <c r="AM24" s="6" t="s">
+      <c r="AN24" s="6" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
@@ -3218,7 +3302,7 @@
       <c r="V25">
         <v>0</v>
       </c>
-      <c r="X25">
+      <c r="W25">
         <v>0</v>
       </c>
       <c r="Y25">
@@ -3239,14 +3323,17 @@
       <c r="AD25">
         <v>0</v>
       </c>
-      <c r="AL25">
+      <c r="AE25">
+        <v>0</v>
+      </c>
+      <c r="AM25">
         <v>23</v>
       </c>
-      <c r="AM25" s="6" t="s">
+      <c r="AN25" s="6" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
@@ -3313,7 +3400,7 @@
       <c r="V26">
         <v>0</v>
       </c>
-      <c r="X26">
+      <c r="W26">
         <v>0</v>
       </c>
       <c r="Y26">
@@ -3334,11 +3421,14 @@
       <c r="AD26">
         <v>0</v>
       </c>
-      <c r="AL26">
+      <c r="AE26">
+        <v>0</v>
+      </c>
+      <c r="AM26">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
@@ -3399,8 +3489,8 @@
       <c r="V27">
         <v>0</v>
       </c>
-      <c r="X27">
-        <v>12593</v>
+      <c r="W27">
+        <v>0</v>
       </c>
       <c r="Y27">
         <v>12593</v>
@@ -3420,14 +3510,17 @@
       <c r="AD27">
         <v>12593</v>
       </c>
-      <c r="AJ27" s="3" t="s">
+      <c r="AE27">
+        <v>12593</v>
+      </c>
+      <c r="AK27" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="AL27">
+      <c r="AM27">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
@@ -3488,8 +3581,8 @@
       <c r="V28">
         <v>0</v>
       </c>
-      <c r="X28">
-        <v>12593</v>
+      <c r="W28">
+        <v>0</v>
       </c>
       <c r="Y28">
         <v>12593</v>
@@ -3509,14 +3602,17 @@
       <c r="AD28">
         <v>12593</v>
       </c>
-      <c r="AJ28" s="3" t="s">
+      <c r="AE28">
+        <v>12593</v>
+      </c>
+      <c r="AK28" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="AL28">
+      <c r="AM28">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
@@ -3577,8 +3673,8 @@
       <c r="V29">
         <v>0</v>
       </c>
-      <c r="X29">
-        <v>12593</v>
+      <c r="W29">
+        <v>0</v>
       </c>
       <c r="Y29">
         <v>12593</v>
@@ -3598,14 +3694,17 @@
       <c r="AD29">
         <v>12593</v>
       </c>
-      <c r="AJ29" s="3" t="s">
+      <c r="AE29">
+        <v>12593</v>
+      </c>
+      <c r="AK29" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="AL29">
+      <c r="AM29">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28</v>
       </c>
@@ -3672,7 +3771,7 @@
       <c r="V30">
         <v>0</v>
       </c>
-      <c r="X30">
+      <c r="W30">
         <v>0</v>
       </c>
       <c r="Y30">
@@ -3693,11 +3792,14 @@
       <c r="AD30">
         <v>0</v>
       </c>
-      <c r="AL30">
+      <c r="AE30">
+        <v>0</v>
+      </c>
+      <c r="AM30">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>29</v>
       </c>
@@ -3764,7 +3866,7 @@
       <c r="V31">
         <v>0</v>
       </c>
-      <c r="X31">
+      <c r="W31">
         <v>0</v>
       </c>
       <c r="Y31">
@@ -3785,11 +3887,14 @@
       <c r="AD31">
         <v>0</v>
       </c>
-      <c r="AL31">
+      <c r="AE31">
+        <v>0</v>
+      </c>
+      <c r="AM31">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>30</v>
       </c>
@@ -3856,8 +3961,8 @@
       <c r="V32">
         <v>0</v>
       </c>
-      <c r="X32">
-        <v>0</v>
+      <c r="W32">
+        <v>12593</v>
       </c>
       <c r="Y32">
         <v>0</v>
@@ -3877,11 +3982,14 @@
       <c r="AD32">
         <v>0</v>
       </c>
-      <c r="AL32">
+      <c r="AE32">
+        <v>0</v>
+      </c>
+      <c r="AM32">
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>31</v>
       </c>
@@ -3948,8 +4056,8 @@
       <c r="V33">
         <v>0</v>
       </c>
-      <c r="X33">
-        <v>0</v>
+      <c r="W33">
+        <v>12593</v>
       </c>
       <c r="Y33">
         <v>0</v>
@@ -3967,13 +4075,16 @@
         <v>0</v>
       </c>
       <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33">
         <v>11</v>
       </c>
-      <c r="AL33">
+      <c r="AM33">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>32</v>
       </c>
@@ -4040,8 +4151,8 @@
       <c r="V34">
         <v>0</v>
       </c>
-      <c r="X34">
-        <v>0</v>
+      <c r="W34">
+        <v>12593</v>
       </c>
       <c r="Y34">
         <v>0</v>
@@ -4061,11 +4172,14 @@
       <c r="AD34">
         <v>0</v>
       </c>
-      <c r="AL34">
+      <c r="AE34">
+        <v>0</v>
+      </c>
+      <c r="AM34">
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>33</v>
       </c>
@@ -4126,7 +4240,7 @@
       <c r="V35">
         <v>0</v>
       </c>
-      <c r="X35">
+      <c r="W35">
         <v>0</v>
       </c>
       <c r="Y35">
@@ -4147,11 +4261,14 @@
       <c r="AD35">
         <v>0</v>
       </c>
-      <c r="AL35">
+      <c r="AE35">
+        <v>0</v>
+      </c>
+      <c r="AM35">
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>34</v>
       </c>
@@ -4212,7 +4329,7 @@
       <c r="V36">
         <v>0</v>
       </c>
-      <c r="X36">
+      <c r="W36">
         <v>0</v>
       </c>
       <c r="Y36">
@@ -4233,11 +4350,14 @@
       <c r="AD36">
         <v>0</v>
       </c>
-      <c r="AL36">
+      <c r="AE36">
+        <v>0</v>
+      </c>
+      <c r="AM36">
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>35</v>
       </c>
@@ -4298,7 +4418,7 @@
       <c r="V37">
         <v>0</v>
       </c>
-      <c r="X37">
+      <c r="W37">
         <v>0</v>
       </c>
       <c r="Y37">
@@ -4319,11 +4439,14 @@
       <c r="AD37">
         <v>0</v>
       </c>
-      <c r="AL37">
+      <c r="AE37">
+        <v>0</v>
+      </c>
+      <c r="AM37">
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>36</v>
       </c>
@@ -4384,7 +4507,7 @@
       <c r="V38">
         <v>0</v>
       </c>
-      <c r="X38">
+      <c r="W38">
         <v>0</v>
       </c>
       <c r="Y38">
@@ -4405,11 +4528,14 @@
       <c r="AD38">
         <v>0</v>
       </c>
-      <c r="AL38">
+      <c r="AE38">
+        <v>0</v>
+      </c>
+      <c r="AM38">
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>37</v>
       </c>
@@ -4470,7 +4596,7 @@
       <c r="V39">
         <v>0</v>
       </c>
-      <c r="X39">
+      <c r="W39">
         <v>0</v>
       </c>
       <c r="Y39">
@@ -4491,11 +4617,14 @@
       <c r="AD39">
         <v>0</v>
       </c>
-      <c r="AL39">
+      <c r="AE39">
+        <v>0</v>
+      </c>
+      <c r="AM39">
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>38</v>
       </c>
@@ -4556,7 +4685,7 @@
       <c r="V40">
         <v>0</v>
       </c>
-      <c r="X40">
+      <c r="W40">
         <v>0</v>
       </c>
       <c r="Y40">
@@ -4577,11 +4706,14 @@
       <c r="AD40">
         <v>0</v>
       </c>
-      <c r="AL40">
+      <c r="AE40">
+        <v>0</v>
+      </c>
+      <c r="AM40">
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>39</v>
       </c>
@@ -4642,7 +4774,7 @@
       <c r="V41">
         <v>0</v>
       </c>
-      <c r="X41">
+      <c r="W41">
         <v>0</v>
       </c>
       <c r="Y41">
@@ -4663,11 +4795,14 @@
       <c r="AD41">
         <v>0</v>
       </c>
-      <c r="AL41">
+      <c r="AE41">
+        <v>0</v>
+      </c>
+      <c r="AM41">
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>40</v>
       </c>
@@ -4728,7 +4863,7 @@
       <c r="V42">
         <v>0</v>
       </c>
-      <c r="X42">
+      <c r="W42">
         <v>0</v>
       </c>
       <c r="Y42">
@@ -4749,11 +4884,14 @@
       <c r="AD42">
         <v>0</v>
       </c>
-      <c r="AL42">
+      <c r="AE42">
+        <v>0</v>
+      </c>
+      <c r="AM42">
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>41</v>
       </c>
@@ -4814,7 +4952,7 @@
       <c r="V43">
         <v>0</v>
       </c>
-      <c r="X43">
+      <c r="W43">
         <v>0</v>
       </c>
       <c r="Y43">
@@ -4835,11 +4973,14 @@
       <c r="AD43">
         <v>0</v>
       </c>
-      <c r="AL43">
+      <c r="AE43">
+        <v>0</v>
+      </c>
+      <c r="AM43">
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>42</v>
       </c>
@@ -4900,7 +5041,7 @@
       <c r="V44">
         <v>0</v>
       </c>
-      <c r="X44">
+      <c r="W44">
         <v>0</v>
       </c>
       <c r="Y44">
@@ -4921,11 +5062,14 @@
       <c r="AD44">
         <v>0</v>
       </c>
-      <c r="AL44">
+      <c r="AE44">
+        <v>0</v>
+      </c>
+      <c r="AM44">
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>43</v>
       </c>
@@ -4986,8 +5130,8 @@
       <c r="V45">
         <v>311</v>
       </c>
-      <c r="X45">
-        <v>0</v>
+      <c r="W45">
+        <v>311</v>
       </c>
       <c r="Y45">
         <v>0</v>
@@ -5007,11 +5151,14 @@
       <c r="AD45">
         <v>0</v>
       </c>
-      <c r="AL45">
+      <c r="AE45">
+        <v>0</v>
+      </c>
+      <c r="AM45">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>44</v>
       </c>
@@ -5072,7 +5219,7 @@
       <c r="V46">
         <v>0</v>
       </c>
-      <c r="X46">
+      <c r="W46">
         <v>0</v>
       </c>
       <c r="Y46">
@@ -5093,14 +5240,17 @@
       <c r="AD46">
         <v>0</v>
       </c>
-      <c r="AL46">
+      <c r="AE46">
+        <v>0</v>
+      </c>
+      <c r="AM46">
         <v>44</v>
       </c>
-      <c r="AM46" t="s">
+      <c r="AN46" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="47" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>45</v>
       </c>
@@ -5161,8 +5311,8 @@
       <c r="V47">
         <v>0</v>
       </c>
-      <c r="X47">
-        <v>600</v>
+      <c r="W47">
+        <v>0</v>
       </c>
       <c r="Y47">
         <v>600</v>
@@ -5182,14 +5332,17 @@
       <c r="AD47">
         <v>600</v>
       </c>
-      <c r="AL47">
+      <c r="AE47">
+        <v>600</v>
+      </c>
+      <c r="AM47">
         <v>45</v>
       </c>
-      <c r="AM47" t="s">
+      <c r="AN47" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="48" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>46</v>
       </c>
@@ -5250,7 +5403,7 @@
       <c r="V48">
         <v>0</v>
       </c>
-      <c r="X48">
+      <c r="W48">
         <v>0</v>
       </c>
       <c r="Y48">
@@ -5271,11 +5424,14 @@
       <c r="AD48">
         <v>0</v>
       </c>
-      <c r="AL48">
+      <c r="AE48">
+        <v>0</v>
+      </c>
+      <c r="AM48">
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>47</v>
       </c>
@@ -5336,7 +5492,7 @@
       <c r="V49">
         <v>0</v>
       </c>
-      <c r="X49">
+      <c r="W49">
         <v>0</v>
       </c>
       <c r="Y49">
@@ -5357,11 +5513,14 @@
       <c r="AD49">
         <v>0</v>
       </c>
-      <c r="AL49">
+      <c r="AE49">
+        <v>0</v>
+      </c>
+      <c r="AM49">
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>48</v>
       </c>
@@ -5422,7 +5581,7 @@
       <c r="V50">
         <v>0</v>
       </c>
-      <c r="X50">
+      <c r="W50">
         <v>0</v>
       </c>
       <c r="Y50">
@@ -5443,11 +5602,14 @@
       <c r="AD50">
         <v>0</v>
       </c>
-      <c r="AL50">
+      <c r="AE50">
+        <v>0</v>
+      </c>
+      <c r="AM50">
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>49</v>
       </c>
@@ -5508,7 +5670,7 @@
       <c r="V51">
         <v>0</v>
       </c>
-      <c r="X51">
+      <c r="W51">
         <v>0</v>
       </c>
       <c r="Y51">
@@ -5529,11 +5691,14 @@
       <c r="AD51">
         <v>0</v>
       </c>
-      <c r="AL51">
+      <c r="AE51">
+        <v>0</v>
+      </c>
+      <c r="AM51">
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>50</v>
       </c>
@@ -5594,7 +5759,7 @@
       <c r="V52">
         <v>0</v>
       </c>
-      <c r="X52">
+      <c r="W52">
         <v>0</v>
       </c>
       <c r="Y52">
@@ -5615,11 +5780,14 @@
       <c r="AD52">
         <v>0</v>
       </c>
-      <c r="AL52">
+      <c r="AE52">
+        <v>0</v>
+      </c>
+      <c r="AM52">
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>51</v>
       </c>
@@ -5680,7 +5848,7 @@
       <c r="V53">
         <v>0</v>
       </c>
-      <c r="X53">
+      <c r="W53">
         <v>0</v>
       </c>
       <c r="Y53">
@@ -5701,11 +5869,14 @@
       <c r="AD53">
         <v>0</v>
       </c>
-      <c r="AL53">
+      <c r="AE53">
+        <v>0</v>
+      </c>
+      <c r="AM53">
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>52</v>
       </c>
@@ -5766,7 +5937,7 @@
       <c r="V54">
         <v>0</v>
       </c>
-      <c r="X54">
+      <c r="W54">
         <v>0</v>
       </c>
       <c r="Y54">
@@ -5787,11 +5958,14 @@
       <c r="AD54">
         <v>0</v>
       </c>
-      <c r="AL54">
+      <c r="AE54">
+        <v>0</v>
+      </c>
+      <c r="AM54">
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>53</v>
       </c>
@@ -5852,7 +6026,7 @@
       <c r="V55">
         <v>0</v>
       </c>
-      <c r="X55">
+      <c r="W55">
         <v>0</v>
       </c>
       <c r="Y55">
@@ -5873,11 +6047,14 @@
       <c r="AD55">
         <v>0</v>
       </c>
-      <c r="AL55">
+      <c r="AE55">
+        <v>0</v>
+      </c>
+      <c r="AM55">
         <v>53</v>
       </c>
     </row>
-    <row r="56" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>54</v>
       </c>
@@ -5938,7 +6115,7 @@
       <c r="V56">
         <v>0</v>
       </c>
-      <c r="X56">
+      <c r="W56">
         <v>0</v>
       </c>
       <c r="Y56">
@@ -5959,11 +6136,14 @@
       <c r="AD56">
         <v>0</v>
       </c>
-      <c r="AL56">
+      <c r="AE56">
+        <v>0</v>
+      </c>
+      <c r="AM56">
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>55</v>
       </c>
@@ -6024,7 +6204,7 @@
       <c r="V57">
         <v>0</v>
       </c>
-      <c r="X57">
+      <c r="W57">
         <v>0</v>
       </c>
       <c r="Y57">
@@ -6045,11 +6225,14 @@
       <c r="AD57">
         <v>0</v>
       </c>
-      <c r="AL57">
+      <c r="AE57">
+        <v>0</v>
+      </c>
+      <c r="AM57">
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>56</v>
       </c>
@@ -6110,7 +6293,7 @@
       <c r="V58">
         <v>0</v>
       </c>
-      <c r="X58">
+      <c r="W58">
         <v>0</v>
       </c>
       <c r="Y58">
@@ -6131,11 +6314,14 @@
       <c r="AD58">
         <v>0</v>
       </c>
-      <c r="AL58">
+      <c r="AE58">
+        <v>0</v>
+      </c>
+      <c r="AM58">
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>57</v>
       </c>
@@ -6196,7 +6382,7 @@
       <c r="V59">
         <v>0</v>
       </c>
-      <c r="X59">
+      <c r="W59">
         <v>0</v>
       </c>
       <c r="Y59">
@@ -6217,11 +6403,14 @@
       <c r="AD59">
         <v>0</v>
       </c>
-      <c r="AL59">
+      <c r="AE59">
+        <v>0</v>
+      </c>
+      <c r="AM59">
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>58</v>
       </c>
@@ -6282,7 +6471,7 @@
       <c r="V60">
         <v>0</v>
       </c>
-      <c r="X60">
+      <c r="W60">
         <v>0</v>
       </c>
       <c r="Y60">
@@ -6303,11 +6492,14 @@
       <c r="AD60">
         <v>0</v>
       </c>
-      <c r="AL60">
+      <c r="AE60">
+        <v>0</v>
+      </c>
+      <c r="AM60">
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>59</v>
       </c>
@@ -6368,7 +6560,7 @@
       <c r="V61">
         <v>0</v>
       </c>
-      <c r="X61">
+      <c r="W61">
         <v>0</v>
       </c>
       <c r="Y61">
@@ -6389,11 +6581,14 @@
       <c r="AD61">
         <v>0</v>
       </c>
-      <c r="AL61">
+      <c r="AE61">
+        <v>0</v>
+      </c>
+      <c r="AM61">
         <v>59</v>
       </c>
     </row>
-    <row r="62" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>60</v>
       </c>
@@ -6454,7 +6649,7 @@
       <c r="V62">
         <v>0</v>
       </c>
-      <c r="X62">
+      <c r="W62">
         <v>0</v>
       </c>
       <c r="Y62">
@@ -6475,11 +6670,14 @@
       <c r="AD62">
         <v>0</v>
       </c>
-      <c r="AL62">
+      <c r="AE62">
+        <v>0</v>
+      </c>
+      <c r="AM62">
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>61</v>
       </c>
@@ -6540,7 +6738,7 @@
       <c r="V63">
         <v>0</v>
       </c>
-      <c r="X63">
+      <c r="W63">
         <v>0</v>
       </c>
       <c r="Y63">
@@ -6561,11 +6759,14 @@
       <c r="AD63">
         <v>0</v>
       </c>
-      <c r="AL63">
+      <c r="AE63">
+        <v>0</v>
+      </c>
+      <c r="AM63">
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>62</v>
       </c>
@@ -6626,7 +6827,7 @@
       <c r="V64">
         <v>0</v>
       </c>
-      <c r="X64">
+      <c r="W64">
         <v>0</v>
       </c>
       <c r="Y64">
@@ -6647,11 +6848,14 @@
       <c r="AD64">
         <v>0</v>
       </c>
-      <c r="AL64">
+      <c r="AE64">
+        <v>0</v>
+      </c>
+      <c r="AM64">
         <v>62</v>
       </c>
     </row>
-    <row r="65" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>63</v>
       </c>
@@ -6712,7 +6916,7 @@
       <c r="V65">
         <v>0</v>
       </c>
-      <c r="X65">
+      <c r="W65">
         <v>0</v>
       </c>
       <c r="Y65">
@@ -6733,11 +6937,14 @@
       <c r="AD65">
         <v>0</v>
       </c>
-      <c r="AL65">
+      <c r="AE65">
+        <v>0</v>
+      </c>
+      <c r="AM65">
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>64</v>
       </c>
@@ -6798,7 +7005,7 @@
       <c r="V66">
         <v>0</v>
       </c>
-      <c r="X66">
+      <c r="W66">
         <v>0</v>
       </c>
       <c r="Y66">
@@ -6819,11 +7026,14 @@
       <c r="AD66">
         <v>0</v>
       </c>
-      <c r="AL66">
+      <c r="AE66">
+        <v>0</v>
+      </c>
+      <c r="AM66">
         <v>64</v>
       </c>
     </row>
-    <row r="67" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>65</v>
       </c>
@@ -6890,7 +7100,7 @@
       <c r="V67">
         <v>0</v>
       </c>
-      <c r="X67">
+      <c r="W67">
         <v>0</v>
       </c>
       <c r="Y67">
@@ -6911,11 +7121,14 @@
       <c r="AD67">
         <v>0</v>
       </c>
-      <c r="AL67">
+      <c r="AE67">
+        <v>0</v>
+      </c>
+      <c r="AM67">
         <v>65</v>
       </c>
     </row>
-    <row r="68" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>66</v>
       </c>
@@ -6982,8 +7195,8 @@
       <c r="V68">
         <v>4600</v>
       </c>
-      <c r="X68">
-        <v>0</v>
+      <c r="W68">
+        <v>4600</v>
       </c>
       <c r="Y68">
         <v>0</v>
@@ -7003,11 +7216,14 @@
       <c r="AD68">
         <v>0</v>
       </c>
-      <c r="AL68">
+      <c r="AE68">
+        <v>0</v>
+      </c>
+      <c r="AM68">
         <v>66</v>
       </c>
     </row>
-    <row r="69" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>67</v>
       </c>
@@ -7074,8 +7290,8 @@
       <c r="V69">
         <v>1</v>
       </c>
-      <c r="X69">
-        <v>0</v>
+      <c r="W69">
+        <v>1</v>
       </c>
       <c r="Y69">
         <v>0</v>
@@ -7095,11 +7311,14 @@
       <c r="AD69">
         <v>0</v>
       </c>
-      <c r="AL69">
+      <c r="AE69">
+        <v>0</v>
+      </c>
+      <c r="AM69">
         <v>67</v>
       </c>
     </row>
-    <row r="70" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>68</v>
       </c>
@@ -7166,8 +7385,8 @@
       <c r="V70">
         <v>70</v>
       </c>
-      <c r="X70">
-        <v>0</v>
+      <c r="W70">
+        <v>70</v>
       </c>
       <c r="Y70">
         <v>0</v>
@@ -7187,11 +7406,14 @@
       <c r="AD70">
         <v>0</v>
       </c>
-      <c r="AL70">
+      <c r="AE70">
+        <v>0</v>
+      </c>
+      <c r="AM70">
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>69</v>
       </c>
@@ -7231,7 +7453,7 @@
       <c r="V71">
         <v>0</v>
       </c>
-      <c r="X71">
+      <c r="W71">
         <v>0</v>
       </c>
       <c r="Y71">
@@ -7252,11 +7474,14 @@
       <c r="AD71">
         <v>0</v>
       </c>
-      <c r="AL71">
+      <c r="AE71">
+        <v>0</v>
+      </c>
+      <c r="AM71">
         <v>69</v>
       </c>
     </row>
-    <row r="72" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>70</v>
       </c>
@@ -7296,7 +7521,7 @@
       <c r="V72">
         <v>0</v>
       </c>
-      <c r="X72">
+      <c r="W72">
         <v>0</v>
       </c>
       <c r="Y72">
@@ -7317,14 +7542,17 @@
       <c r="AD72">
         <v>0</v>
       </c>
-      <c r="AL72">
+      <c r="AE72">
+        <v>0</v>
+      </c>
+      <c r="AM72">
         <v>70</v>
       </c>
-      <c r="AM72" t="s">
+      <c r="AN72" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="73" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>71</v>
       </c>
@@ -7364,8 +7592,8 @@
       <c r="V73">
         <v>0</v>
       </c>
-      <c r="X73">
-        <v>4600</v>
+      <c r="W73">
+        <v>0</v>
       </c>
       <c r="Y73">
         <v>4600</v>
@@ -7385,17 +7613,20 @@
       <c r="AD73">
         <v>4600</v>
       </c>
-      <c r="AJ73" s="3" t="s">
+      <c r="AE73">
+        <v>4600</v>
+      </c>
+      <c r="AK73" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AL73">
+      <c r="AM73">
         <v>71</v>
       </c>
-      <c r="AM73" t="s">
+      <c r="AN73" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="74" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>72</v>
       </c>
@@ -7435,7 +7666,7 @@
       <c r="V74">
         <v>0</v>
       </c>
-      <c r="X74">
+      <c r="W74">
         <v>0</v>
       </c>
       <c r="Y74">
@@ -7456,14 +7687,17 @@
       <c r="AD74">
         <v>0</v>
       </c>
-      <c r="AL74">
+      <c r="AE74">
+        <v>0</v>
+      </c>
+      <c r="AM74">
         <v>72</v>
       </c>
-      <c r="AM74" t="s">
+      <c r="AN74" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="75" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>73</v>
       </c>
@@ -7503,7 +7737,7 @@
       <c r="V75">
         <v>0</v>
       </c>
-      <c r="X75">
+      <c r="W75">
         <v>0</v>
       </c>
       <c r="Y75">
@@ -7524,14 +7758,17 @@
       <c r="AD75">
         <v>0</v>
       </c>
-      <c r="AL75">
+      <c r="AE75">
+        <v>0</v>
+      </c>
+      <c r="AM75">
         <v>73</v>
       </c>
-      <c r="AM75" s="6" t="s">
+      <c r="AN75" s="6" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="76" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>74</v>
       </c>
@@ -7574,7 +7811,7 @@
       <c r="V76">
         <v>0</v>
       </c>
-      <c r="X76">
+      <c r="W76">
         <v>0</v>
       </c>
       <c r="Y76">
@@ -7595,11 +7832,14 @@
       <c r="AD76">
         <v>0</v>
       </c>
-      <c r="AL76">
+      <c r="AE76">
+        <v>0</v>
+      </c>
+      <c r="AM76">
         <v>74</v>
       </c>
     </row>
-    <row r="77" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>75</v>
       </c>
@@ -7645,7 +7885,7 @@
       <c r="V77">
         <v>0</v>
       </c>
-      <c r="X77">
+      <c r="W77">
         <v>0</v>
       </c>
       <c r="Y77">
@@ -7666,11 +7906,14 @@
       <c r="AD77">
         <v>0</v>
       </c>
-      <c r="AL77">
+      <c r="AE77">
+        <v>0</v>
+      </c>
+      <c r="AM77">
         <v>75</v>
       </c>
     </row>
-    <row r="78" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>76</v>
       </c>
@@ -7716,8 +7959,8 @@
       <c r="V78">
         <v>16</v>
       </c>
-      <c r="X78">
-        <v>0</v>
+      <c r="W78">
+        <v>16</v>
       </c>
       <c r="Y78">
         <v>0</v>
@@ -7737,14 +7980,17 @@
       <c r="AD78">
         <v>0</v>
       </c>
-      <c r="AL78">
+      <c r="AE78">
+        <v>0</v>
+      </c>
+      <c r="AM78">
         <v>76</v>
       </c>
-      <c r="AM78" t="s">
+      <c r="AN78" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="79" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>77</v>
       </c>
@@ -7784,7 +8030,7 @@
       <c r="V79">
         <v>1</v>
       </c>
-      <c r="X79">
+      <c r="W79">
         <v>1</v>
       </c>
       <c r="Y79">
@@ -7805,14 +8051,17 @@
       <c r="AD79">
         <v>1</v>
       </c>
-      <c r="AL79">
+      <c r="AE79">
+        <v>1</v>
+      </c>
+      <c r="AM79">
         <v>77</v>
       </c>
-      <c r="AM79" t="s">
+      <c r="AN79" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="80" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>78</v>
       </c>
@@ -7849,8 +8098,8 @@
       <c r="V80">
         <v>0</v>
       </c>
-      <c r="X80">
-        <v>257</v>
+      <c r="W80">
+        <v>0</v>
       </c>
       <c r="Y80">
         <v>257</v>
@@ -7870,14 +8119,17 @@
       <c r="AD80">
         <v>257</v>
       </c>
-      <c r="AL80">
+      <c r="AE80">
+        <v>257</v>
+      </c>
+      <c r="AM80">
         <v>78</v>
       </c>
-      <c r="AM80" t="s">
+      <c r="AN80" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="81" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>79</v>
       </c>
@@ -7914,8 +8166,8 @@
       <c r="V81">
         <v>0</v>
       </c>
-      <c r="X81">
-        <v>2</v>
+      <c r="W81">
+        <v>0</v>
       </c>
       <c r="Y81">
         <v>2</v>
@@ -7924,7 +8176,7 @@
         <v>2</v>
       </c>
       <c r="AA81">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB81">
         <v>1</v>
@@ -7933,19 +8185,22 @@
         <v>1</v>
       </c>
       <c r="AD81">
+        <v>1</v>
+      </c>
+      <c r="AE81">
         <v>2</v>
       </c>
-      <c r="AL81">
+      <c r="AM81">
         <v>79</v>
       </c>
-      <c r="AM81" t="s">
+      <c r="AN81" t="s">
         <v>134</v>
       </c>
-      <c r="AN81">
+      <c r="AO81">
         <v>130</v>
       </c>
     </row>
-    <row r="82" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>80</v>
       </c>
@@ -7982,7 +8237,7 @@
       <c r="V82">
         <v>0</v>
       </c>
-      <c r="X82">
+      <c r="W82">
         <v>0</v>
       </c>
       <c r="Y82">
@@ -8003,11 +8258,14 @@
       <c r="AD82">
         <v>0</v>
       </c>
-      <c r="AL82">
+      <c r="AE82">
+        <v>0</v>
+      </c>
+      <c r="AM82">
         <v>80</v>
       </c>
     </row>
-    <row r="83" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>81</v>
       </c>
@@ -8044,7 +8302,7 @@
       <c r="V83">
         <v>0</v>
       </c>
-      <c r="X83">
+      <c r="W83">
         <v>0</v>
       </c>
       <c r="Y83">
@@ -8057,28 +8315,31 @@
         <v>0</v>
       </c>
       <c r="AB83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC83">
+        <v>1</v>
+      </c>
+      <c r="AD83">
         <v>2</v>
       </c>
-      <c r="AD83">
+      <c r="AE83">
         <v>3</v>
       </c>
-      <c r="AJ83" s="1" t="s">
+      <c r="AK83" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="AL83">
+      <c r="AM83">
         <v>81</v>
       </c>
-      <c r="AM83" t="s">
+      <c r="AN83" t="s">
         <v>151</v>
       </c>
-      <c r="AN83">
+      <c r="AO83">
         <v>132</v>
       </c>
     </row>
-    <row r="84" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>82</v>
       </c>
@@ -8115,7 +8376,7 @@
       <c r="V84">
         <v>0</v>
       </c>
-      <c r="X84">
+      <c r="W84">
         <v>0</v>
       </c>
       <c r="Y84">
@@ -8136,11 +8397,14 @@
       <c r="AD84">
         <v>0</v>
       </c>
-      <c r="AL84">
+      <c r="AE84">
+        <v>0</v>
+      </c>
+      <c r="AM84">
         <v>82</v>
       </c>
     </row>
-    <row r="85" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>83</v>
       </c>
@@ -8177,7 +8441,7 @@
       <c r="V85">
         <v>0</v>
       </c>
-      <c r="X85">
+      <c r="W85">
         <v>0</v>
       </c>
       <c r="Y85">
@@ -8198,11 +8462,14 @@
       <c r="AD85">
         <v>0</v>
       </c>
-      <c r="AL85">
+      <c r="AE85">
+        <v>0</v>
+      </c>
+      <c r="AM85">
         <v>83</v>
       </c>
     </row>
-    <row r="86" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>84</v>
       </c>
@@ -8239,8 +8506,8 @@
       <c r="V86">
         <v>0</v>
       </c>
-      <c r="X86">
-        <v>220</v>
+      <c r="W86">
+        <v>0</v>
       </c>
       <c r="Y86">
         <v>220</v>
@@ -8260,11 +8527,14 @@
       <c r="AD86">
         <v>220</v>
       </c>
-      <c r="AL86">
+      <c r="AE86">
+        <v>220</v>
+      </c>
+      <c r="AM86">
         <v>84</v>
       </c>
     </row>
-    <row r="87" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>85</v>
       </c>
@@ -8301,7 +8571,7 @@
       <c r="V87">
         <v>0</v>
       </c>
-      <c r="X87">
+      <c r="W87">
         <v>0</v>
       </c>
       <c r="Y87">
@@ -8322,14 +8592,17 @@
       <c r="AD87">
         <v>0</v>
       </c>
-      <c r="AL87">
+      <c r="AE87">
+        <v>0</v>
+      </c>
+      <c r="AM87">
         <v>85</v>
       </c>
-      <c r="AM87" s="6" t="s">
+      <c r="AN87" s="6" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="88" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>86</v>
       </c>
@@ -8366,11 +8639,14 @@
       <c r="V88">
         <v>0</v>
       </c>
-      <c r="AD88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="W88">
+        <v>0</v>
+      </c>
+      <c r="AE88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>87</v>
       </c>
@@ -8407,11 +8683,14 @@
       <c r="V89">
         <v>0</v>
       </c>
-      <c r="AD89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="W89">
+        <v>0</v>
+      </c>
+      <c r="AE89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>88</v>
       </c>
@@ -8448,11 +8727,14 @@
       <c r="V90">
         <v>0</v>
       </c>
-      <c r="AD90">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="W90">
+        <v>0</v>
+      </c>
+      <c r="AE90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>89</v>
       </c>
@@ -8489,11 +8771,14 @@
       <c r="V91">
         <v>0</v>
       </c>
-      <c r="AD91" t="s">
+      <c r="W91">
+        <v>0</v>
+      </c>
+      <c r="AE91" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="92" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>90</v>
       </c>
@@ -8530,8 +8815,11 @@
       <c r="V92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="W92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>91</v>
       </c>
@@ -8568,8 +8856,11 @@
       <c r="V93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="W93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>92</v>
       </c>
@@ -8606,8 +8897,11 @@
       <c r="V94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="W94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>93</v>
       </c>
@@ -8644,8 +8938,11 @@
       <c r="V95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="W95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>94</v>
       </c>
@@ -8682,8 +8979,11 @@
       <c r="V96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>95</v>
       </c>
@@ -8720,8 +9020,11 @@
       <c r="V97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>96</v>
       </c>
@@ -8764,8 +9067,11 @@
       <c r="V98">
         <v>2</v>
       </c>
-    </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W98">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>97</v>
       </c>
@@ -8802,8 +9108,11 @@
       <c r="V99">
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>98</v>
       </c>
@@ -8840,8 +9149,11 @@
       <c r="V100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>99</v>
       </c>
@@ -8878,9 +9190,12 @@
       <c r="V101">
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="W102" t="s">
+      <c r="W101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X102" t="s">
         <v>146</v>
       </c>
     </row>
@@ -8892,20 +9207,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA8C0C25-584C-4DB3-91C9-D576A78C1B11}">
-  <dimension ref="A1:Z107"/>
+  <dimension ref="A1:X107"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K28" sqref="K28:L28"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="N35" sqref="N35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="28.6640625" customWidth="1"/>
-    <col min="21" max="23" width="10.77734375" customWidth="1"/>
-    <col min="25" max="25" width="15.88671875" style="2" customWidth="1"/>
+    <col min="19" max="21" width="10.77734375" customWidth="1"/>
+    <col min="23" max="23" width="15.88671875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="C1" s="7" t="s">
         <v>48</v>
       </c>
@@ -8918,15 +9233,21 @@
       <c r="L1" t="s">
         <v>152</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="M1">
+        <v>210</v>
+      </c>
+      <c r="N1">
+        <v>161</v>
+      </c>
+      <c r="Q1" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="T1" s="7"/>
-      <c r="U1" t="s">
+      <c r="R1" s="7"/>
+      <c r="S1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -8963,26 +9284,32 @@
       <c r="L2" s="1">
         <v>2</v>
       </c>
+      <c r="M2">
+        <v>2</v>
+      </c>
+      <c r="N2">
+        <v>2</v>
+      </c>
+      <c r="Q2">
+        <v>3</v>
+      </c>
       <c r="S2">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>2</v>
       </c>
       <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <v>2</v>
-      </c>
-      <c r="W2">
         <v>13</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="W2" t="s">
         <v>70</v>
       </c>
-      <c r="Z2" s="6" t="s">
+      <c r="X2" s="6" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -9019,23 +9346,29 @@
       <c r="L3" s="1">
         <v>3</v>
       </c>
+      <c r="M3">
+        <v>3</v>
+      </c>
+      <c r="N3">
+        <v>3</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
       <c r="S3">
         <v>0</v>
       </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
       <c r="U3">
         <v>0</v>
       </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-      <c r="W3">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="6" t="s">
+      <c r="X3" s="6" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -9072,26 +9405,32 @@
       <c r="L4">
         <v>23904</v>
       </c>
+      <c r="M4">
+        <v>22967</v>
+      </c>
+      <c r="N4">
+        <v>23036</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
       <c r="S4">
         <v>0</v>
       </c>
+      <c r="T4">
+        <v>1</v>
+      </c>
       <c r="U4">
         <v>0</v>
       </c>
-      <c r="V4">
-        <v>1</v>
-      </c>
-      <c r="W4">
-        <v>0</v>
-      </c>
-      <c r="Y4" t="s">
+      <c r="W4" t="s">
         <v>2</v>
       </c>
-      <c r="Z4" s="6" t="s">
+      <c r="X4" s="6" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -9128,26 +9467,32 @@
       <c r="L5">
         <v>23962</v>
       </c>
+      <c r="M5">
+        <v>23222</v>
+      </c>
+      <c r="N5">
+        <v>23247</v>
+      </c>
+      <c r="Q5">
+        <v>22669</v>
+      </c>
       <c r="S5">
-        <v>22669</v>
+        <v>23382</v>
+      </c>
+      <c r="T5">
+        <v>22704</v>
       </c>
       <c r="U5">
-        <v>23382</v>
-      </c>
-      <c r="V5">
-        <v>22704</v>
-      </c>
-      <c r="W5">
         <v>22546</v>
       </c>
-      <c r="Y5" s="2" t="s">
+      <c r="W5" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="Z5" s="2" t="s">
+      <c r="X5" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -9184,26 +9529,32 @@
       <c r="L6">
         <v>23935</v>
       </c>
+      <c r="M6">
+        <v>23165</v>
+      </c>
+      <c r="N6">
+        <v>23188</v>
+      </c>
+      <c r="Q6">
+        <v>22239</v>
+      </c>
       <c r="S6">
-        <v>22239</v>
+        <v>23225</v>
+      </c>
+      <c r="T6">
+        <v>22408</v>
       </c>
       <c r="U6">
-        <v>23225</v>
-      </c>
-      <c r="V6">
-        <v>22408</v>
-      </c>
-      <c r="W6">
         <v>22332</v>
       </c>
-      <c r="Y6" s="2" t="s">
+      <c r="W6" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="Z6" s="2" t="s">
+      <c r="X6" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -9240,26 +9591,32 @@
       <c r="L7">
         <v>546</v>
       </c>
+      <c r="M7">
+        <v>544</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>23054</v>
+      </c>
       <c r="S7">
-        <v>23054</v>
+        <v>23300</v>
+      </c>
+      <c r="T7">
+        <v>22843</v>
       </c>
       <c r="U7">
-        <v>23300</v>
-      </c>
-      <c r="V7">
-        <v>22843</v>
-      </c>
-      <c r="W7">
         <v>22795</v>
       </c>
-      <c r="Y7" s="2" t="s">
+      <c r="W7" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="Z7" s="2" t="s">
+      <c r="X7" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -9296,26 +9653,32 @@
       <c r="L8">
         <v>0</v>
       </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
       <c r="S8">
         <v>0</v>
       </c>
+      <c r="T8">
+        <v>72</v>
+      </c>
       <c r="U8">
-        <v>0</v>
-      </c>
-      <c r="V8">
-        <v>72</v>
-      </c>
-      <c r="W8">
         <v>69</v>
       </c>
-      <c r="Y8" s="2" t="s">
+      <c r="W8" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="Z8" s="2" t="s">
+      <c r="X8" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -9352,26 +9715,32 @@
       <c r="L9">
         <v>0</v>
       </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
       <c r="S9">
         <v>0</v>
       </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
       <c r="U9">
         <v>0</v>
       </c>
-      <c r="V9">
-        <v>0</v>
-      </c>
-      <c r="W9">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="2" t="s">
+      <c r="W9" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="Z9" s="2" t="s">
+      <c r="X9" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -9408,26 +9777,32 @@
       <c r="L10">
         <v>1277</v>
       </c>
+      <c r="M10">
+        <v>1225</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
       <c r="S10">
         <v>0</v>
       </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
       <c r="U10">
         <v>0</v>
       </c>
-      <c r="V10">
-        <v>0</v>
-      </c>
-      <c r="W10">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="2" t="s">
+      <c r="W10" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="Z10" s="2" t="s">
+      <c r="X10" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -9464,26 +9839,32 @@
       <c r="L11">
         <v>0</v>
       </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
       <c r="S11">
         <v>0</v>
       </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
       <c r="U11">
         <v>0</v>
       </c>
-      <c r="V11">
-        <v>0</v>
-      </c>
-      <c r="W11">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="2" t="s">
+      <c r="W11" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="Z11" s="2" t="s">
+      <c r="X11" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -9520,26 +9901,32 @@
       <c r="L12">
         <v>0</v>
       </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
       <c r="S12">
         <v>0</v>
       </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
       <c r="U12">
         <v>0</v>
       </c>
-      <c r="V12">
-        <v>0</v>
-      </c>
-      <c r="W12">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="2" t="s">
+      <c r="W12" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="Z12" s="2" t="s">
+      <c r="X12" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -9576,26 +9963,32 @@
       <c r="L13">
         <v>1278</v>
       </c>
+      <c r="M13">
+        <v>1225</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
       <c r="S13">
         <v>0</v>
       </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
       <c r="U13">
         <v>0</v>
       </c>
-      <c r="V13">
-        <v>0</v>
-      </c>
-      <c r="W13">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="2" t="s">
+      <c r="W13" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="Z13" s="2" t="s">
+      <c r="X13" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -9632,26 +10025,32 @@
       <c r="L14">
         <v>0</v>
       </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
       <c r="S14">
         <v>0</v>
       </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
       <c r="U14">
         <v>0</v>
       </c>
-      <c r="V14">
-        <v>0</v>
-      </c>
-      <c r="W14">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="2" t="s">
+      <c r="W14" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="Z14" s="2" t="s">
+      <c r="X14" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -9685,23 +10084,29 @@
       <c r="L15">
         <v>0</v>
       </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
       <c r="S15">
         <v>0</v>
       </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
       <c r="U15">
-        <v>0</v>
-      </c>
-      <c r="V15">
-        <v>0</v>
-      </c>
-      <c r="W15">
         <v>2</v>
       </c>
-      <c r="Z15" s="2" t="s">
+      <c r="X15" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -9738,23 +10143,29 @@
       <c r="L16">
         <v>23744</v>
       </c>
+      <c r="M16">
+        <v>34498</v>
+      </c>
+      <c r="N16">
+        <v>34498</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
       <c r="S16">
         <v>0</v>
       </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
       <c r="U16">
         <v>0</v>
       </c>
-      <c r="V16">
-        <v>0</v>
-      </c>
-      <c r="W16">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="6" t="s">
+      <c r="X16" s="6" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -9791,26 +10202,32 @@
       <c r="L17">
         <v>0</v>
       </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>108</v>
+      </c>
       <c r="S17">
-        <v>108</v>
+        <v>4</v>
+      </c>
+      <c r="T17">
+        <v>1069</v>
       </c>
       <c r="U17">
-        <v>4</v>
-      </c>
-      <c r="V17">
-        <v>1069</v>
-      </c>
-      <c r="W17">
         <v>1071</v>
       </c>
-      <c r="Y17" s="2" t="s">
+      <c r="W17" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="Z17" s="2" t="s">
+      <c r="X17" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -9847,26 +10264,32 @@
       <c r="L18">
         <v>36</v>
       </c>
+      <c r="M18">
+        <v>65493</v>
+      </c>
+      <c r="N18">
+        <v>65491</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
       <c r="S18">
         <v>0</v>
       </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
       <c r="U18">
         <v>0</v>
       </c>
-      <c r="V18">
-        <v>0</v>
-      </c>
-      <c r="W18">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="2" t="s">
+      <c r="W18" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="Z18" s="2" t="s">
+      <c r="X18" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -9903,23 +10326,29 @@
       <c r="L19">
         <v>65508</v>
       </c>
+      <c r="M19">
+        <v>38</v>
+      </c>
+      <c r="N19">
+        <v>65495</v>
+      </c>
+      <c r="Q19">
+        <v>19</v>
+      </c>
       <c r="S19">
+        <v>11</v>
+      </c>
+      <c r="T19">
         <v>19</v>
       </c>
       <c r="U19">
-        <v>11</v>
-      </c>
-      <c r="V19">
         <v>19</v>
       </c>
-      <c r="W19">
-        <v>19</v>
-      </c>
-      <c r="Z19" s="6" t="s">
+      <c r="X19" s="6" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -9956,23 +10385,29 @@
       <c r="L20">
         <v>32</v>
       </c>
+      <c r="M20">
+        <v>41</v>
+      </c>
+      <c r="N20">
+        <v>42</v>
+      </c>
+      <c r="Q20">
+        <v>19</v>
+      </c>
       <c r="S20">
+        <v>65527</v>
+      </c>
+      <c r="T20">
         <v>19</v>
       </c>
       <c r="U20">
-        <v>65527</v>
-      </c>
-      <c r="V20">
         <v>19</v>
       </c>
-      <c r="W20">
-        <v>19</v>
-      </c>
-      <c r="Z20" s="6" t="s">
+      <c r="X20" s="6" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -10009,23 +10444,29 @@
       <c r="L21">
         <v>65492</v>
       </c>
+      <c r="M21">
+        <v>64600</v>
+      </c>
+      <c r="N21">
+        <v>2</v>
+      </c>
+      <c r="Q21">
+        <v>65518</v>
+      </c>
       <c r="S21">
+        <v>65528</v>
+      </c>
+      <c r="T21">
         <v>65518</v>
       </c>
       <c r="U21">
-        <v>65528</v>
-      </c>
-      <c r="V21">
         <v>65518</v>
       </c>
-      <c r="W21">
-        <v>65518</v>
-      </c>
-      <c r="Z21" s="6" t="s">
+      <c r="X21" s="6" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -10062,23 +10503,29 @@
       <c r="L22">
         <v>12</v>
       </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <v>65533</v>
+      </c>
+      <c r="Q22">
+        <v>1</v>
+      </c>
       <c r="S22">
-        <v>1</v>
+        <v>65534</v>
+      </c>
+      <c r="T22">
+        <v>78</v>
       </c>
       <c r="U22">
-        <v>65534</v>
-      </c>
-      <c r="V22">
-        <v>78</v>
-      </c>
-      <c r="W22">
         <v>65464</v>
       </c>
-      <c r="Z22" s="6" t="s">
+      <c r="X22" s="6" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
@@ -10115,23 +10562,29 @@
       <c r="L23">
         <v>18</v>
       </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>63817</v>
+      </c>
       <c r="S23">
-        <v>63817</v>
+        <v>65535</v>
+      </c>
+      <c r="T23">
+        <v>30</v>
       </c>
       <c r="U23">
-        <v>65535</v>
-      </c>
-      <c r="V23">
-        <v>30</v>
-      </c>
-      <c r="W23">
         <v>98</v>
       </c>
-      <c r="Z23" s="6" t="s">
+      <c r="X23" s="6" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
@@ -10168,23 +10621,29 @@
       <c r="L24">
         <v>65443</v>
       </c>
+      <c r="M24">
+        <v>64466</v>
+      </c>
+      <c r="N24">
+        <v>144</v>
+      </c>
+      <c r="Q24">
+        <v>6</v>
+      </c>
       <c r="S24">
-        <v>6</v>
+        <v>65535</v>
+      </c>
+      <c r="T24">
+        <v>7</v>
       </c>
       <c r="U24">
-        <v>65535</v>
-      </c>
-      <c r="V24">
-        <v>7</v>
-      </c>
-      <c r="W24">
         <v>16</v>
       </c>
-      <c r="Z24" s="6" t="s">
+      <c r="X24" s="6" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
@@ -10221,23 +10680,29 @@
       <c r="L25">
         <v>0</v>
       </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>63289</v>
+      </c>
       <c r="S25">
-        <v>63289</v>
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>417</v>
       </c>
       <c r="U25">
-        <v>0</v>
-      </c>
-      <c r="V25">
-        <v>417</v>
-      </c>
-      <c r="W25">
         <v>471</v>
       </c>
-      <c r="Z25" s="6" t="s">
+      <c r="X25" s="6" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
@@ -10274,26 +10739,32 @@
       <c r="L26">
         <v>21</v>
       </c>
+      <c r="M26">
+        <v>11</v>
+      </c>
+      <c r="N26">
+        <v>11</v>
+      </c>
+      <c r="Q26">
+        <v>13</v>
+      </c>
       <c r="S26">
+        <v>15</v>
+      </c>
+      <c r="T26">
         <v>13</v>
       </c>
       <c r="U26">
-        <v>15</v>
-      </c>
-      <c r="V26">
-        <v>13</v>
-      </c>
-      <c r="W26">
         <v>14</v>
       </c>
-      <c r="Y26" s="2" t="s">
+      <c r="W26" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="Z26" s="2" t="s">
+      <c r="X26" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
@@ -10327,26 +10798,32 @@
       <c r="L27">
         <v>0</v>
       </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>20</v>
+      </c>
       <c r="S27">
+        <v>21</v>
+      </c>
+      <c r="T27">
         <v>20</v>
       </c>
       <c r="U27">
-        <v>21</v>
-      </c>
-      <c r="V27">
         <v>20</v>
       </c>
-      <c r="W27">
-        <v>20</v>
-      </c>
-      <c r="Y27" s="2" t="s">
+      <c r="W27" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="Z27" s="2" t="s">
+      <c r="X27" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
@@ -10383,23 +10860,29 @@
       <c r="L28" s="1">
         <v>2</v>
       </c>
+      <c r="M28">
+        <v>2</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
       <c r="S28">
         <v>0</v>
       </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
       <c r="U28">
         <v>0</v>
       </c>
-      <c r="V28">
-        <v>0</v>
-      </c>
-      <c r="W28">
-        <v>0</v>
-      </c>
-      <c r="Z28" s="6" t="s">
+      <c r="X28" s="6" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
@@ -10433,23 +10916,29 @@
       <c r="L29">
         <v>15</v>
       </c>
+      <c r="M29">
+        <v>15</v>
+      </c>
+      <c r="N29">
+        <v>15</v>
+      </c>
+      <c r="Q29">
+        <v>1</v>
+      </c>
       <c r="S29">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <v>2</v>
       </c>
       <c r="U29">
-        <v>0</v>
-      </c>
-      <c r="V29">
         <v>2</v>
       </c>
-      <c r="W29">
-        <v>2</v>
-      </c>
-      <c r="Z29" s="6" t="s">
+      <c r="X29" s="6" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28</v>
       </c>
@@ -10483,23 +10972,29 @@
       <c r="L30">
         <v>0</v>
       </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
       <c r="S30">
         <v>0</v>
       </c>
+      <c r="T30">
+        <v>0</v>
+      </c>
       <c r="U30">
         <v>0</v>
       </c>
-      <c r="V30">
-        <v>0</v>
-      </c>
-      <c r="W30">
-        <v>0</v>
-      </c>
-      <c r="Z30" s="6" t="s">
+      <c r="X30" s="6" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>29</v>
       </c>
@@ -10533,23 +11028,29 @@
       <c r="L31">
         <v>0</v>
       </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
       <c r="S31">
         <v>0</v>
       </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
       <c r="U31">
         <v>0</v>
       </c>
-      <c r="V31">
-        <v>0</v>
-      </c>
-      <c r="W31">
-        <v>0</v>
-      </c>
-      <c r="Z31" s="6" t="s">
+      <c r="X31" s="6" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>30</v>
       </c>
@@ -10583,23 +11084,29 @@
       <c r="L32">
         <v>0</v>
       </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
       <c r="S32">
         <v>0</v>
       </c>
+      <c r="T32">
+        <v>0</v>
+      </c>
       <c r="U32">
         <v>0</v>
       </c>
-      <c r="V32">
-        <v>0</v>
-      </c>
-      <c r="W32">
-        <v>0</v>
-      </c>
-      <c r="Z32" s="6" t="s">
+      <c r="X32" s="6" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>31</v>
       </c>
@@ -10633,23 +11140,29 @@
       <c r="L33">
         <v>0</v>
       </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
       <c r="S33">
         <v>0</v>
       </c>
+      <c r="T33">
+        <v>0</v>
+      </c>
       <c r="U33">
         <v>0</v>
       </c>
-      <c r="V33">
-        <v>0</v>
-      </c>
-      <c r="W33">
-        <v>0</v>
-      </c>
-      <c r="Z33" s="6" t="s">
+      <c r="X33" s="6" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>32</v>
       </c>
@@ -10683,23 +11196,29 @@
       <c r="L34">
         <v>0</v>
       </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
       <c r="S34">
         <v>0</v>
       </c>
+      <c r="T34">
+        <v>0</v>
+      </c>
       <c r="U34">
         <v>0</v>
       </c>
-      <c r="V34">
-        <v>0</v>
-      </c>
-      <c r="W34">
-        <v>0</v>
-      </c>
-      <c r="Z34" s="6" t="s">
+      <c r="X34" s="6" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>33</v>
       </c>
@@ -10736,26 +11255,32 @@
       <c r="L35">
         <v>4994</v>
       </c>
+      <c r="M35">
+        <v>4992</v>
+      </c>
+      <c r="N35">
+        <v>4992</v>
+      </c>
+      <c r="Q35">
+        <v>4982</v>
+      </c>
       <c r="S35">
-        <v>4982</v>
+        <v>4984</v>
+      </c>
+      <c r="T35">
+        <v>4988</v>
       </c>
       <c r="U35">
-        <v>4984</v>
-      </c>
-      <c r="V35">
-        <v>4988</v>
-      </c>
-      <c r="W35">
         <v>4986</v>
       </c>
-      <c r="Y35" s="2" t="s">
+      <c r="W35" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="Z35" s="2" t="s">
+      <c r="X35" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>34</v>
       </c>
@@ -10792,26 +11317,32 @@
       <c r="L36">
         <v>4988</v>
       </c>
+      <c r="M36">
+        <v>4984</v>
+      </c>
+      <c r="N36">
+        <v>4984</v>
+      </c>
+      <c r="Q36">
+        <v>4982</v>
+      </c>
       <c r="S36">
-        <v>4982</v>
+        <v>4988</v>
+      </c>
+      <c r="T36">
+        <v>4984</v>
       </c>
       <c r="U36">
-        <v>4988</v>
-      </c>
-      <c r="V36">
         <v>4984</v>
       </c>
-      <c r="W36">
-        <v>4984</v>
-      </c>
-      <c r="Y36" s="2" t="s">
+      <c r="W36" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="Z36" s="2" t="s">
+      <c r="X36" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>35</v>
       </c>
@@ -10848,26 +11379,32 @@
       <c r="L37">
         <v>5000</v>
       </c>
+      <c r="M37">
+        <v>4998</v>
+      </c>
+      <c r="N37">
+        <v>4996</v>
+      </c>
+      <c r="Q37">
+        <v>4982</v>
+      </c>
       <c r="S37">
-        <v>4982</v>
+        <v>4984</v>
+      </c>
+      <c r="T37">
+        <v>4986</v>
       </c>
       <c r="U37">
-        <v>4984</v>
-      </c>
-      <c r="V37">
         <v>4986</v>
       </c>
-      <c r="W37">
-        <v>4986</v>
-      </c>
-      <c r="Y37" s="2" t="s">
+      <c r="W37" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="Z37" s="2" t="s">
+      <c r="X37" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>36</v>
       </c>
@@ -10904,26 +11441,32 @@
       <c r="L38">
         <v>7211</v>
       </c>
+      <c r="M38">
+        <v>3328</v>
+      </c>
+      <c r="N38">
+        <v>2598</v>
+      </c>
+      <c r="Q38">
+        <v>265</v>
+      </c>
       <c r="S38">
-        <v>265</v>
+        <v>13074</v>
+      </c>
+      <c r="T38">
+        <v>13366</v>
       </c>
       <c r="U38">
-        <v>13074</v>
-      </c>
-      <c r="V38">
-        <v>13366</v>
-      </c>
-      <c r="W38">
         <v>14385</v>
       </c>
-      <c r="Y38" s="2" t="s">
+      <c r="W38" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="Z38" s="2" t="s">
+      <c r="X38" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>37</v>
       </c>
@@ -10960,26 +11503,32 @@
       <c r="L39">
         <v>4874</v>
       </c>
+      <c r="M39">
+        <v>3595</v>
+      </c>
+      <c r="N39">
+        <v>3595</v>
+      </c>
+      <c r="Q39">
+        <v>2061</v>
+      </c>
       <c r="S39">
-        <v>2061</v>
+        <v>1810</v>
+      </c>
+      <c r="T39">
+        <v>6414</v>
       </c>
       <c r="U39">
-        <v>1810</v>
-      </c>
-      <c r="V39">
         <v>6414</v>
       </c>
-      <c r="W39">
-        <v>6414</v>
-      </c>
-      <c r="Y39" s="2" t="s">
+      <c r="W39" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="Z39" s="2" t="s">
+      <c r="X39" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>38</v>
       </c>
@@ -11016,26 +11565,32 @@
       <c r="L40">
         <v>6404</v>
       </c>
+      <c r="M40">
+        <v>6412</v>
+      </c>
+      <c r="N40">
+        <v>6412</v>
+      </c>
+      <c r="Q40">
+        <v>6156</v>
+      </c>
       <c r="S40">
+        <v>6155</v>
+      </c>
+      <c r="T40">
         <v>6156</v>
       </c>
       <c r="U40">
-        <v>6155</v>
-      </c>
-      <c r="V40">
         <v>6156</v>
       </c>
-      <c r="W40">
-        <v>6156</v>
-      </c>
-      <c r="Y40" s="2" t="s">
+      <c r="W40" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="Z40" s="2" t="s">
+      <c r="X40" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>39</v>
       </c>
@@ -11070,23 +11625,29 @@
       <c r="L41">
         <v>6</v>
       </c>
+      <c r="M41">
+        <v>7</v>
+      </c>
+      <c r="N41">
+        <v>7</v>
+      </c>
+      <c r="Q41">
+        <v>7</v>
+      </c>
       <c r="S41">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="T41">
+        <v>3</v>
       </c>
       <c r="U41">
-        <v>4</v>
-      </c>
-      <c r="V41">
         <v>3</v>
       </c>
-      <c r="W41">
-        <v>3</v>
-      </c>
-      <c r="Z41" s="6" t="s">
+      <c r="X41" s="6" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>40</v>
       </c>
@@ -11120,20 +11681,26 @@
       <c r="L42">
         <v>0</v>
       </c>
+      <c r="M42">
+        <v>26554</v>
+      </c>
+      <c r="N42">
+        <v>26554</v>
+      </c>
+      <c r="Q42">
+        <v>0</v>
+      </c>
       <c r="S42">
         <v>0</v>
       </c>
+      <c r="T42">
+        <v>0</v>
+      </c>
       <c r="U42">
         <v>0</v>
       </c>
-      <c r="V42">
-        <v>0</v>
-      </c>
-      <c r="W42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>41</v>
       </c>
@@ -11167,20 +11734,26 @@
       <c r="L43">
         <v>0</v>
       </c>
+      <c r="M43">
+        <v>6796</v>
+      </c>
+      <c r="N43">
+        <v>6796</v>
+      </c>
+      <c r="Q43">
+        <v>0</v>
+      </c>
       <c r="S43">
         <v>0</v>
       </c>
+      <c r="T43">
+        <v>0</v>
+      </c>
       <c r="U43">
         <v>0</v>
       </c>
-      <c r="V43">
-        <v>0</v>
-      </c>
-      <c r="W43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>42</v>
       </c>
@@ -11214,20 +11787,26 @@
       <c r="L44">
         <v>0</v>
       </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>0</v>
+      </c>
       <c r="S44">
         <v>0</v>
       </c>
+      <c r="T44">
+        <v>0</v>
+      </c>
       <c r="U44">
         <v>0</v>
       </c>
-      <c r="V44">
-        <v>0</v>
-      </c>
-      <c r="W44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>43</v>
       </c>
@@ -11261,20 +11840,26 @@
       <c r="L45">
         <v>0</v>
       </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>0</v>
+      </c>
       <c r="S45">
         <v>0</v>
       </c>
+      <c r="T45">
+        <v>0</v>
+      </c>
       <c r="U45">
         <v>0</v>
       </c>
-      <c r="V45">
-        <v>0</v>
-      </c>
-      <c r="W45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>44</v>
       </c>
@@ -11308,20 +11893,26 @@
       <c r="L46">
         <v>0</v>
       </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>0</v>
+      </c>
       <c r="S46">
         <v>0</v>
       </c>
+      <c r="T46">
+        <v>0</v>
+      </c>
       <c r="U46">
         <v>0</v>
       </c>
-      <c r="V46">
-        <v>0</v>
-      </c>
-      <c r="W46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>45</v>
       </c>
@@ -11355,20 +11946,26 @@
       <c r="L47">
         <v>0</v>
       </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>0</v>
+      </c>
       <c r="S47">
         <v>0</v>
       </c>
+      <c r="T47">
+        <v>0</v>
+      </c>
       <c r="U47">
         <v>0</v>
       </c>
-      <c r="V47">
-        <v>0</v>
-      </c>
-      <c r="W47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>46</v>
       </c>
@@ -11402,20 +11999,26 @@
       <c r="L48">
         <v>0</v>
       </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>0</v>
+      </c>
       <c r="S48">
         <v>0</v>
       </c>
+      <c r="T48">
+        <v>0</v>
+      </c>
       <c r="U48">
         <v>0</v>
       </c>
-      <c r="V48">
-        <v>0</v>
-      </c>
-      <c r="W48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>47</v>
       </c>
@@ -11449,20 +12052,26 @@
       <c r="L49">
         <v>0</v>
       </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>0</v>
+      </c>
       <c r="S49">
         <v>0</v>
       </c>
+      <c r="T49">
+        <v>0</v>
+      </c>
       <c r="U49">
         <v>0</v>
       </c>
-      <c r="V49">
-        <v>0</v>
-      </c>
-      <c r="W49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>48</v>
       </c>
@@ -11499,23 +12108,29 @@
       <c r="L50">
         <v>1</v>
       </c>
+      <c r="M50">
+        <v>1</v>
+      </c>
+      <c r="N50">
+        <v>1</v>
+      </c>
+      <c r="Q50">
+        <v>1</v>
+      </c>
       <c r="S50">
         <v>1</v>
       </c>
+      <c r="T50">
+        <v>1</v>
+      </c>
       <c r="U50">
         <v>1</v>
       </c>
-      <c r="V50">
-        <v>1</v>
-      </c>
-      <c r="W50">
-        <v>1</v>
-      </c>
-      <c r="Z50" s="6" t="s">
+      <c r="X50" s="6" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>49</v>
       </c>
@@ -11549,23 +12164,29 @@
       <c r="L51">
         <v>100</v>
       </c>
+      <c r="M51">
+        <v>100</v>
+      </c>
+      <c r="N51">
+        <v>100</v>
+      </c>
+      <c r="Q51">
+        <v>30</v>
+      </c>
       <c r="S51">
-        <v>30</v>
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>3</v>
       </c>
       <c r="U51">
-        <v>0</v>
-      </c>
-      <c r="V51">
-        <v>3</v>
-      </c>
-      <c r="W51">
         <v>233</v>
       </c>
-      <c r="Z51" s="2" t="s">
+      <c r="X51" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>50</v>
       </c>
@@ -11599,23 +12220,29 @@
       <c r="L52">
         <v>0</v>
       </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <v>0</v>
+      </c>
       <c r="S52">
         <v>0</v>
       </c>
+      <c r="T52">
+        <v>0</v>
+      </c>
       <c r="U52">
         <v>0</v>
       </c>
-      <c r="V52">
-        <v>0</v>
-      </c>
-      <c r="W52">
-        <v>0</v>
-      </c>
-      <c r="Z52" s="2" t="s">
+      <c r="X52" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>51</v>
       </c>
@@ -11649,23 +12276,29 @@
       <c r="L53">
         <v>0</v>
       </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <v>3869</v>
+      </c>
       <c r="S53">
-        <v>3869</v>
+        <v>1338</v>
+      </c>
+      <c r="T53">
+        <v>13363</v>
       </c>
       <c r="U53">
-        <v>1338</v>
-      </c>
-      <c r="V53">
         <v>13363</v>
       </c>
-      <c r="W53">
-        <v>13363</v>
-      </c>
-      <c r="Z53" s="6" t="s">
+      <c r="X53" s="6" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>52</v>
       </c>
@@ -11699,23 +12332,29 @@
       <c r="L54">
         <v>0</v>
       </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <v>2059</v>
+      </c>
       <c r="S54">
-        <v>2059</v>
+        <v>1301</v>
+      </c>
+      <c r="T54">
+        <v>6414</v>
       </c>
       <c r="U54">
-        <v>1301</v>
-      </c>
-      <c r="V54">
         <v>6414</v>
       </c>
-      <c r="W54">
-        <v>6414</v>
-      </c>
-      <c r="Z54" s="6" t="s">
+      <c r="X54" s="6" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>53</v>
       </c>
@@ -11749,23 +12388,29 @@
       <c r="L55">
         <v>0</v>
       </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <v>6156</v>
+      </c>
       <c r="S55">
+        <v>6153</v>
+      </c>
+      <c r="T55">
         <v>6156</v>
       </c>
       <c r="U55">
-        <v>6153</v>
-      </c>
-      <c r="V55">
         <v>6156</v>
       </c>
-      <c r="W55">
-        <v>6156</v>
-      </c>
-      <c r="Z55" s="6" t="s">
+      <c r="X55" s="6" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>54</v>
       </c>
@@ -11799,23 +12444,29 @@
       <c r="L56">
         <v>0</v>
       </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <v>48</v>
+      </c>
       <c r="S56">
         <v>48</v>
       </c>
+      <c r="T56">
+        <v>48</v>
+      </c>
       <c r="U56">
         <v>48</v>
       </c>
-      <c r="V56">
-        <v>48</v>
-      </c>
-      <c r="W56">
-        <v>48</v>
-      </c>
-      <c r="Z56" s="6" t="s">
+      <c r="X56" s="6" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>55</v>
       </c>
@@ -11849,23 +12500,29 @@
       <c r="L57">
         <v>0</v>
       </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <v>906</v>
+      </c>
       <c r="S57">
-        <v>906</v>
+        <v>1195</v>
+      </c>
+      <c r="T57">
+        <v>565</v>
       </c>
       <c r="U57">
-        <v>1195</v>
-      </c>
-      <c r="V57">
-        <v>565</v>
-      </c>
-      <c r="W57">
         <v>596</v>
       </c>
-      <c r="Z57" s="6" t="s">
+      <c r="X57" s="6" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>56</v>
       </c>
@@ -11899,23 +12556,29 @@
       <c r="L58">
         <v>0</v>
       </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <v>1000</v>
+      </c>
       <c r="S58">
         <v>1000</v>
       </c>
+      <c r="T58">
+        <v>166</v>
+      </c>
       <c r="U58">
         <v>1000</v>
       </c>
-      <c r="V58">
-        <v>166</v>
-      </c>
-      <c r="W58">
-        <v>1000</v>
-      </c>
-      <c r="Z58" s="6" t="s">
+      <c r="X58" s="6" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>57</v>
       </c>
@@ -11949,23 +12612,29 @@
       <c r="L59">
         <v>0</v>
       </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>0</v>
+      </c>
+      <c r="Q59">
+        <v>0</v>
+      </c>
       <c r="S59">
+        <v>60</v>
+      </c>
+      <c r="T59">
         <v>0</v>
       </c>
       <c r="U59">
-        <v>60</v>
-      </c>
-      <c r="V59">
-        <v>0</v>
-      </c>
-      <c r="W59">
-        <v>0</v>
-      </c>
-      <c r="Z59" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="X59" s="6" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>58</v>
       </c>
@@ -11999,23 +12668,29 @@
       <c r="L60">
         <v>0</v>
       </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <v>44</v>
+      </c>
       <c r="S60">
+        <v>49</v>
+      </c>
+      <c r="T60">
         <v>44</v>
       </c>
       <c r="U60">
-        <v>49</v>
-      </c>
-      <c r="V60">
         <v>44</v>
       </c>
-      <c r="W60">
-        <v>44</v>
-      </c>
-      <c r="Z60" s="6" t="s">
+      <c r="X60" s="6" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>59</v>
       </c>
@@ -12049,23 +12724,29 @@
       <c r="L61">
         <v>0</v>
       </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>0</v>
+      </c>
+      <c r="Q61">
+        <v>0</v>
+      </c>
       <c r="S61">
         <v>0</v>
       </c>
+      <c r="T61">
+        <v>0</v>
+      </c>
       <c r="U61">
         <v>0</v>
       </c>
-      <c r="V61">
-        <v>0</v>
-      </c>
-      <c r="W61">
-        <v>0</v>
-      </c>
-      <c r="Z61" s="6" t="s">
+      <c r="X61" s="6" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>60</v>
       </c>
@@ -12099,23 +12780,29 @@
       <c r="L62">
         <v>0</v>
       </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <v>0</v>
+      </c>
       <c r="S62">
         <v>0</v>
       </c>
+      <c r="T62">
+        <v>0</v>
+      </c>
       <c r="U62">
         <v>0</v>
       </c>
-      <c r="V62">
-        <v>0</v>
-      </c>
-      <c r="W62">
-        <v>0</v>
-      </c>
-      <c r="Z62" s="6" t="s">
+      <c r="X62" s="6" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>61</v>
       </c>
@@ -12149,23 +12836,29 @@
       <c r="L63">
         <v>0</v>
       </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>0</v>
+      </c>
+      <c r="Q63">
+        <v>1</v>
+      </c>
       <c r="S63">
         <v>1</v>
       </c>
+      <c r="T63">
+        <v>1</v>
+      </c>
       <c r="U63">
         <v>1</v>
       </c>
-      <c r="V63">
-        <v>1</v>
-      </c>
-      <c r="W63">
-        <v>1</v>
-      </c>
-      <c r="Z63" s="6" t="s">
+      <c r="X63" s="6" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>62</v>
       </c>
@@ -12199,23 +12892,29 @@
       <c r="L64">
         <v>0</v>
       </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>0</v>
+      </c>
+      <c r="Q64">
+        <v>0</v>
+      </c>
       <c r="S64">
         <v>0</v>
       </c>
+      <c r="T64">
+        <v>0</v>
+      </c>
       <c r="U64">
         <v>0</v>
       </c>
-      <c r="V64">
-        <v>0</v>
-      </c>
-      <c r="W64">
-        <v>0</v>
-      </c>
-      <c r="Z64" s="6" t="s">
+      <c r="X64" s="6" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>63</v>
       </c>
@@ -12249,23 +12948,29 @@
       <c r="L65">
         <v>0</v>
       </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>0</v>
+      </c>
+      <c r="Q65">
+        <v>100</v>
+      </c>
       <c r="S65">
         <v>100</v>
       </c>
+      <c r="T65">
+        <v>100</v>
+      </c>
       <c r="U65">
         <v>100</v>
       </c>
-      <c r="V65">
-        <v>100</v>
-      </c>
-      <c r="W65">
-        <v>100</v>
-      </c>
-      <c r="Z65" s="6" t="s">
+      <c r="X65" s="6" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>64</v>
       </c>
@@ -12299,23 +13004,29 @@
       <c r="L66">
         <v>0</v>
       </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>0</v>
+      </c>
+      <c r="Q66">
+        <v>0</v>
+      </c>
       <c r="S66">
         <v>0</v>
       </c>
+      <c r="T66">
+        <v>0</v>
+      </c>
       <c r="U66">
         <v>0</v>
       </c>
-      <c r="V66">
-        <v>0</v>
-      </c>
-      <c r="W66">
-        <v>0</v>
-      </c>
-      <c r="Z66" s="6" t="s">
+      <c r="X66" s="6" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>65</v>
       </c>
@@ -12349,23 +13060,29 @@
       <c r="L67">
         <v>0</v>
       </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>0</v>
+      </c>
+      <c r="Q67">
+        <v>0</v>
+      </c>
       <c r="S67">
         <v>0</v>
       </c>
+      <c r="T67">
+        <v>0</v>
+      </c>
       <c r="U67">
         <v>0</v>
       </c>
-      <c r="V67">
-        <v>0</v>
-      </c>
-      <c r="W67">
-        <v>0</v>
-      </c>
-      <c r="Z67" s="6" t="s">
+      <c r="X67" s="6" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>66</v>
       </c>
@@ -12399,23 +13116,29 @@
       <c r="L68">
         <v>0</v>
       </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>0</v>
+      </c>
+      <c r="Q68">
+        <v>0</v>
+      </c>
       <c r="S68">
         <v>0</v>
       </c>
+      <c r="T68">
+        <v>0</v>
+      </c>
       <c r="U68">
         <v>0</v>
       </c>
-      <c r="V68">
-        <v>0</v>
-      </c>
-      <c r="W68">
-        <v>0</v>
-      </c>
-      <c r="Z68" s="6" t="s">
+      <c r="X68" s="6" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>67</v>
       </c>
@@ -12449,23 +13172,29 @@
       <c r="L69">
         <v>0</v>
       </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>0</v>
+      </c>
+      <c r="Q69">
+        <v>0</v>
+      </c>
       <c r="S69">
         <v>0</v>
       </c>
+      <c r="T69">
+        <v>0</v>
+      </c>
       <c r="U69">
         <v>0</v>
       </c>
-      <c r="V69">
-        <v>0</v>
-      </c>
-      <c r="W69">
-        <v>0</v>
-      </c>
-      <c r="Z69" s="6" t="s">
+      <c r="X69" s="6" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>68</v>
       </c>
@@ -12499,23 +13228,29 @@
       <c r="L70">
         <v>0</v>
       </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>0</v>
+      </c>
+      <c r="Q70">
+        <v>0</v>
+      </c>
       <c r="S70">
         <v>0</v>
       </c>
+      <c r="T70">
+        <v>0</v>
+      </c>
       <c r="U70">
         <v>0</v>
       </c>
-      <c r="V70">
-        <v>0</v>
-      </c>
-      <c r="W70">
-        <v>0</v>
-      </c>
-      <c r="Z70" s="6" t="s">
+      <c r="X70" s="6" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>69</v>
       </c>
@@ -12549,23 +13284,29 @@
       <c r="L71">
         <v>0</v>
       </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>0</v>
+      </c>
+      <c r="Q71">
+        <v>0</v>
+      </c>
       <c r="S71">
         <v>0</v>
       </c>
+      <c r="T71">
+        <v>0</v>
+      </c>
       <c r="U71">
         <v>0</v>
       </c>
-      <c r="V71">
-        <v>0</v>
-      </c>
-      <c r="W71">
-        <v>0</v>
-      </c>
-      <c r="Z71" s="6" t="s">
+      <c r="X71" s="6" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>70</v>
       </c>
@@ -12599,23 +13340,29 @@
       <c r="L72">
         <v>0</v>
       </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>0</v>
+      </c>
+      <c r="Q72">
+        <v>0</v>
+      </c>
       <c r="S72">
         <v>0</v>
       </c>
+      <c r="T72">
+        <v>0</v>
+      </c>
       <c r="U72">
         <v>0</v>
       </c>
-      <c r="V72">
-        <v>0</v>
-      </c>
-      <c r="W72">
-        <v>0</v>
-      </c>
-      <c r="Z72" s="6" t="s">
+      <c r="X72" s="6" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>71</v>
       </c>
@@ -12649,23 +13396,29 @@
       <c r="L73">
         <v>0</v>
       </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>0</v>
+      </c>
+      <c r="Q73">
+        <v>0</v>
+      </c>
       <c r="S73">
         <v>0</v>
       </c>
+      <c r="T73">
+        <v>0</v>
+      </c>
       <c r="U73">
         <v>0</v>
       </c>
-      <c r="V73">
-        <v>0</v>
-      </c>
-      <c r="W73">
-        <v>0</v>
-      </c>
-      <c r="Z73" s="6" t="s">
+      <c r="X73" s="6" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>72</v>
       </c>
@@ -12699,23 +13452,29 @@
       <c r="L74">
         <v>0</v>
       </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>0</v>
+      </c>
+      <c r="Q74">
+        <v>0</v>
+      </c>
       <c r="S74">
         <v>0</v>
       </c>
+      <c r="T74">
+        <v>0</v>
+      </c>
       <c r="U74">
         <v>0</v>
       </c>
-      <c r="V74">
-        <v>0</v>
-      </c>
-      <c r="W74">
-        <v>0</v>
-      </c>
-      <c r="Z74" s="6" t="s">
+      <c r="X74" s="6" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>73</v>
       </c>
@@ -12749,23 +13508,29 @@
       <c r="L75">
         <v>0</v>
       </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>0</v>
+      </c>
+      <c r="Q75">
+        <v>0</v>
+      </c>
       <c r="S75">
         <v>0</v>
       </c>
+      <c r="T75">
+        <v>0</v>
+      </c>
       <c r="U75">
         <v>0</v>
       </c>
-      <c r="V75">
-        <v>0</v>
-      </c>
-      <c r="W75">
-        <v>0</v>
-      </c>
-      <c r="Z75" s="6" t="s">
+      <c r="X75" s="6" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>74</v>
       </c>
@@ -12799,20 +13564,26 @@
       <c r="L76">
         <v>0</v>
       </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>0</v>
+      </c>
+      <c r="Q76">
+        <v>0</v>
+      </c>
       <c r="S76">
         <v>0</v>
       </c>
+      <c r="T76">
+        <v>0</v>
+      </c>
       <c r="U76">
         <v>0</v>
       </c>
-      <c r="V76">
-        <v>0</v>
-      </c>
-      <c r="W76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="77" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>75</v>
       </c>
@@ -12846,20 +13617,26 @@
       <c r="L77">
         <v>0</v>
       </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>0</v>
+      </c>
+      <c r="Q77">
+        <v>0</v>
+      </c>
       <c r="S77">
         <v>0</v>
       </c>
+      <c r="T77">
+        <v>0</v>
+      </c>
       <c r="U77">
         <v>0</v>
       </c>
-      <c r="V77">
-        <v>0</v>
-      </c>
-      <c r="W77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="78" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>76</v>
       </c>
@@ -12893,20 +13670,26 @@
       <c r="L78">
         <v>0</v>
       </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>0</v>
+      </c>
+      <c r="Q78">
+        <v>0</v>
+      </c>
       <c r="S78">
         <v>0</v>
       </c>
+      <c r="T78">
+        <v>0</v>
+      </c>
       <c r="U78">
         <v>0</v>
       </c>
-      <c r="V78">
-        <v>0</v>
-      </c>
-      <c r="W78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="79" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>77</v>
       </c>
@@ -12940,20 +13723,26 @@
       <c r="L79">
         <v>0</v>
       </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>0</v>
+      </c>
+      <c r="Q79">
+        <v>0</v>
+      </c>
       <c r="S79">
         <v>0</v>
       </c>
+      <c r="T79">
+        <v>0</v>
+      </c>
       <c r="U79">
         <v>0</v>
       </c>
-      <c r="V79">
-        <v>0</v>
-      </c>
-      <c r="W79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="80" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>78</v>
       </c>
@@ -12987,20 +13776,26 @@
       <c r="L80">
         <v>0</v>
       </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>0</v>
+      </c>
+      <c r="Q80">
+        <v>0</v>
+      </c>
       <c r="S80">
         <v>0</v>
       </c>
+      <c r="T80">
+        <v>0</v>
+      </c>
       <c r="U80">
         <v>0</v>
       </c>
-      <c r="V80">
-        <v>0</v>
-      </c>
-      <c r="W80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="81" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>79</v>
       </c>
@@ -13034,20 +13829,26 @@
       <c r="L81">
         <v>0</v>
       </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>0</v>
+      </c>
+      <c r="Q81">
+        <v>0</v>
+      </c>
       <c r="S81">
         <v>0</v>
       </c>
+      <c r="T81">
+        <v>0</v>
+      </c>
       <c r="U81">
         <v>0</v>
       </c>
-      <c r="V81">
-        <v>0</v>
-      </c>
-      <c r="W81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="82" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>80</v>
       </c>
@@ -13084,20 +13885,26 @@
       <c r="L82">
         <v>10</v>
       </c>
+      <c r="M82">
+        <v>27</v>
+      </c>
+      <c r="N82">
+        <v>1626</v>
+      </c>
+      <c r="Q82">
+        <v>0</v>
+      </c>
       <c r="S82">
         <v>0</v>
       </c>
+      <c r="T82">
+        <v>0</v>
+      </c>
       <c r="U82">
         <v>0</v>
       </c>
-      <c r="V82">
-        <v>0</v>
-      </c>
-      <c r="W82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="83" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>81</v>
       </c>
@@ -13134,20 +13941,26 @@
       <c r="L83">
         <v>0</v>
       </c>
+      <c r="M83">
+        <v>0</v>
+      </c>
+      <c r="N83">
+        <v>0</v>
+      </c>
+      <c r="Q83">
+        <v>0</v>
+      </c>
       <c r="S83">
         <v>0</v>
       </c>
+      <c r="T83">
+        <v>0</v>
+      </c>
       <c r="U83">
         <v>0</v>
       </c>
-      <c r="V83">
-        <v>0</v>
-      </c>
-      <c r="W83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="84" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>82</v>
       </c>
@@ -13184,20 +13997,26 @@
       <c r="L84">
         <v>7198</v>
       </c>
+      <c r="M84">
+        <v>3101</v>
+      </c>
+      <c r="N84">
+        <v>11036</v>
+      </c>
+      <c r="Q84">
+        <v>0</v>
+      </c>
       <c r="S84">
         <v>0</v>
       </c>
+      <c r="T84">
+        <v>0</v>
+      </c>
       <c r="U84">
         <v>0</v>
       </c>
-      <c r="V84">
-        <v>0</v>
-      </c>
-      <c r="W84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="85" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>83</v>
       </c>
@@ -13234,20 +14053,26 @@
       <c r="L85">
         <v>4876</v>
       </c>
+      <c r="M85">
+        <v>3596</v>
+      </c>
+      <c r="N85">
+        <v>3595</v>
+      </c>
+      <c r="Q85">
+        <v>0</v>
+      </c>
       <c r="S85">
         <v>0</v>
       </c>
+      <c r="T85">
+        <v>0</v>
+      </c>
       <c r="U85">
         <v>0</v>
       </c>
-      <c r="V85">
-        <v>0</v>
-      </c>
-      <c r="W85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="86" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>84</v>
       </c>
@@ -13284,20 +14109,26 @@
       <c r="L86">
         <v>6404</v>
       </c>
+      <c r="M86">
+        <v>6412</v>
+      </c>
+      <c r="N86">
+        <v>6412</v>
+      </c>
+      <c r="Q86">
+        <v>0</v>
+      </c>
       <c r="S86">
         <v>0</v>
       </c>
+      <c r="T86">
+        <v>0</v>
+      </c>
       <c r="U86">
         <v>0</v>
       </c>
-      <c r="V86">
-        <v>0</v>
-      </c>
-      <c r="W86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="87" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>85</v>
       </c>
@@ -13334,20 +14165,26 @@
       <c r="L87">
         <v>0</v>
       </c>
+      <c r="M87">
+        <v>0</v>
+      </c>
+      <c r="N87">
+        <v>0</v>
+      </c>
+      <c r="Q87">
+        <v>0</v>
+      </c>
       <c r="S87">
         <v>0</v>
       </c>
+      <c r="T87">
+        <v>0</v>
+      </c>
       <c r="U87">
         <v>0</v>
       </c>
-      <c r="V87">
-        <v>0</v>
-      </c>
-      <c r="W87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="88" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>86</v>
       </c>
@@ -13381,20 +14218,26 @@
       <c r="L88">
         <v>1</v>
       </c>
+      <c r="M88">
+        <v>1</v>
+      </c>
+      <c r="N88">
+        <v>1</v>
+      </c>
+      <c r="Q88">
+        <v>0</v>
+      </c>
       <c r="S88">
         <v>0</v>
       </c>
+      <c r="T88">
+        <v>0</v>
+      </c>
       <c r="U88">
         <v>0</v>
       </c>
-      <c r="V88">
-        <v>0</v>
-      </c>
-      <c r="W88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="89" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>87</v>
       </c>
@@ -13431,20 +14274,26 @@
       <c r="L89">
         <v>1</v>
       </c>
+      <c r="M89">
+        <v>1</v>
+      </c>
+      <c r="N89">
+        <v>1</v>
+      </c>
+      <c r="Q89">
+        <v>0</v>
+      </c>
       <c r="S89">
         <v>0</v>
       </c>
+      <c r="T89">
+        <v>0</v>
+      </c>
       <c r="U89">
         <v>0</v>
       </c>
-      <c r="V89">
-        <v>0</v>
-      </c>
-      <c r="W89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="90" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>88</v>
       </c>
@@ -13481,20 +14330,26 @@
       <c r="L90">
         <v>1</v>
       </c>
+      <c r="M90">
+        <v>1</v>
+      </c>
+      <c r="N90">
+        <v>1</v>
+      </c>
+      <c r="Q90">
+        <v>0</v>
+      </c>
       <c r="S90">
         <v>0</v>
       </c>
+      <c r="T90">
+        <v>0</v>
+      </c>
       <c r="U90">
         <v>0</v>
       </c>
-      <c r="V90">
-        <v>0</v>
-      </c>
-      <c r="W90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="91" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>89</v>
       </c>
@@ -13531,20 +14386,26 @@
       <c r="L91">
         <v>0</v>
       </c>
+      <c r="M91">
+        <v>0</v>
+      </c>
+      <c r="N91">
+        <v>0</v>
+      </c>
+      <c r="Q91">
+        <v>0</v>
+      </c>
       <c r="S91">
         <v>0</v>
       </c>
+      <c r="T91">
+        <v>0</v>
+      </c>
       <c r="U91">
         <v>0</v>
       </c>
-      <c r="V91">
-        <v>0</v>
-      </c>
-      <c r="W91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="92" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>90</v>
       </c>
@@ -13581,20 +14442,26 @@
       <c r="L92">
         <v>0</v>
       </c>
+      <c r="M92">
+        <v>0</v>
+      </c>
+      <c r="N92">
+        <v>0</v>
+      </c>
+      <c r="Q92">
+        <v>0</v>
+      </c>
       <c r="S92">
         <v>0</v>
       </c>
+      <c r="T92">
+        <v>0</v>
+      </c>
       <c r="U92">
         <v>0</v>
       </c>
-      <c r="V92">
-        <v>0</v>
-      </c>
-      <c r="W92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="93" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>91</v>
       </c>
@@ -13631,20 +14498,26 @@
       <c r="L93">
         <v>120</v>
       </c>
+      <c r="M93">
+        <v>120</v>
+      </c>
+      <c r="N93">
+        <v>120</v>
+      </c>
+      <c r="Q93">
+        <v>0</v>
+      </c>
       <c r="S93">
         <v>0</v>
       </c>
+      <c r="T93">
+        <v>0</v>
+      </c>
       <c r="U93">
         <v>0</v>
       </c>
-      <c r="V93">
-        <v>0</v>
-      </c>
-      <c r="W93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="94" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>92</v>
       </c>
@@ -13681,20 +14554,26 @@
       <c r="L94">
         <v>600</v>
       </c>
+      <c r="M94">
+        <v>603</v>
+      </c>
+      <c r="N94">
+        <v>905</v>
+      </c>
+      <c r="Q94">
+        <v>0</v>
+      </c>
       <c r="S94">
         <v>0</v>
       </c>
+      <c r="T94">
+        <v>0</v>
+      </c>
       <c r="U94">
         <v>0</v>
       </c>
-      <c r="V94">
-        <v>0</v>
-      </c>
-      <c r="W94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="95" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>93</v>
       </c>
@@ -13731,20 +14610,26 @@
       <c r="L95">
         <v>100</v>
       </c>
+      <c r="M95">
+        <v>100</v>
+      </c>
+      <c r="N95">
+        <v>1000</v>
+      </c>
+      <c r="Q95">
+        <v>0</v>
+      </c>
       <c r="S95">
         <v>0</v>
       </c>
+      <c r="T95">
+        <v>0</v>
+      </c>
       <c r="U95">
         <v>0</v>
       </c>
-      <c r="V95">
-        <v>0</v>
-      </c>
-      <c r="W95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="96" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>94</v>
       </c>
@@ -13778,20 +14663,26 @@
       <c r="L96">
         <v>120</v>
       </c>
+      <c r="M96">
+        <v>60</v>
+      </c>
+      <c r="N96">
+        <v>60</v>
+      </c>
+      <c r="Q96">
+        <v>0</v>
+      </c>
       <c r="S96">
         <v>0</v>
       </c>
+      <c r="T96">
+        <v>0</v>
+      </c>
       <c r="U96">
         <v>0</v>
       </c>
-      <c r="V96">
-        <v>0</v>
-      </c>
-      <c r="W96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="97" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>95</v>
       </c>
@@ -13828,20 +14719,26 @@
       <c r="L97">
         <v>50</v>
       </c>
+      <c r="M97">
+        <v>50</v>
+      </c>
+      <c r="N97">
+        <v>50</v>
+      </c>
+      <c r="Q97">
+        <v>0</v>
+      </c>
       <c r="S97">
         <v>0</v>
       </c>
+      <c r="T97">
+        <v>0</v>
+      </c>
       <c r="U97">
         <v>0</v>
       </c>
-      <c r="V97">
-        <v>0</v>
-      </c>
-      <c r="W97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="98" spans="1:21" x14ac:dyDescent="0.3">
       <c r="F98">
         <v>0</v>
       </c>
@@ -13863,20 +14760,26 @@
       <c r="L98">
         <v>0</v>
       </c>
+      <c r="M98">
+        <v>0</v>
+      </c>
+      <c r="N98">
+        <v>0</v>
+      </c>
+      <c r="Q98">
+        <v>0</v>
+      </c>
       <c r="S98">
         <v>0</v>
       </c>
+      <c r="T98">
+        <v>0</v>
+      </c>
       <c r="U98">
         <v>0</v>
       </c>
-      <c r="V98">
-        <v>0</v>
-      </c>
-      <c r="W98">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="99" spans="1:21" x14ac:dyDescent="0.3">
       <c r="F99">
         <v>0</v>
       </c>
@@ -13898,20 +14801,26 @@
       <c r="L99">
         <v>0</v>
       </c>
+      <c r="M99">
+        <v>0</v>
+      </c>
+      <c r="N99">
+        <v>0</v>
+      </c>
+      <c r="Q99">
+        <v>0</v>
+      </c>
       <c r="S99">
         <v>0</v>
       </c>
+      <c r="T99">
+        <v>0</v>
+      </c>
       <c r="U99">
         <v>0</v>
       </c>
-      <c r="V99">
-        <v>0</v>
-      </c>
-      <c r="W99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="100" spans="1:21" x14ac:dyDescent="0.3">
       <c r="F100">
         <v>1</v>
       </c>
@@ -13933,20 +14842,26 @@
       <c r="L100">
         <v>1</v>
       </c>
+      <c r="M100">
+        <v>1</v>
+      </c>
+      <c r="N100">
+        <v>1</v>
+      </c>
+      <c r="Q100">
+        <v>1</v>
+      </c>
       <c r="S100">
         <v>1</v>
       </c>
+      <c r="T100">
+        <v>1</v>
+      </c>
       <c r="U100">
         <v>1</v>
       </c>
-      <c r="V100">
-        <v>1</v>
-      </c>
-      <c r="W100">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="101" spans="1:21" x14ac:dyDescent="0.3">
       <c r="F101">
         <v>1</v>
       </c>
@@ -13968,20 +14883,26 @@
       <c r="L101">
         <v>1</v>
       </c>
+      <c r="M101">
+        <v>1</v>
+      </c>
+      <c r="N101">
+        <v>1</v>
+      </c>
+      <c r="Q101">
+        <v>12</v>
+      </c>
       <c r="S101">
+        <v>13</v>
+      </c>
+      <c r="T101">
         <v>12</v>
       </c>
       <c r="U101">
-        <v>13</v>
-      </c>
-      <c r="V101">
         <v>12</v>
       </c>
-      <c r="W101">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="102" spans="1:21" x14ac:dyDescent="0.3">
       <c r="F102">
         <v>0</v>
       </c>
@@ -14002,95 +14923,106 @@
       </c>
       <c r="L102">
         <v>0</v>
+      </c>
+      <c r="M102">
+        <v>0</v>
+      </c>
+      <c r="N102">
+        <v>0</v>
+      </c>
+      <c r="Q102">
+        <v>50</v>
       </c>
       <c r="S102">
         <v>50</v>
       </c>
+      <c r="T102">
+        <v>50</v>
+      </c>
       <c r="U102">
         <v>50</v>
       </c>
-      <c r="V102">
-        <v>50</v>
-      </c>
-      <c r="W102">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="103" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="Q103">
+        <v>6</v>
+      </c>
       <c r="S103">
+        <v>5</v>
+      </c>
+      <c r="T103">
+        <v>34</v>
+      </c>
+      <c r="U103">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="104" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="Q104">
+        <v>0</v>
+      </c>
+      <c r="S104">
+        <v>0</v>
+      </c>
+      <c r="T104">
+        <v>0</v>
+      </c>
+      <c r="U104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="Q105">
         <v>6</v>
       </c>
-      <c r="U103">
+      <c r="S105">
         <v>5</v>
       </c>
-      <c r="V103">
-        <v>34</v>
-      </c>
-      <c r="W103">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="S104">
-        <v>0</v>
-      </c>
-      <c r="U104">
-        <v>0</v>
-      </c>
-      <c r="V104">
-        <v>0</v>
-      </c>
-      <c r="W104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="S105">
-        <v>6</v>
+      <c r="T105">
+        <v>24</v>
       </c>
       <c r="U105">
-        <v>5</v>
-      </c>
-      <c r="V105">
         <v>24</v>
       </c>
-      <c r="W105">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="106" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="Q106">
+        <v>0</v>
+      </c>
       <c r="S106">
         <v>0</v>
       </c>
+      <c r="T106">
+        <v>0</v>
+      </c>
       <c r="U106">
         <v>0</v>
       </c>
-      <c r="V106">
-        <v>0</v>
-      </c>
-      <c r="W106">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="107" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="Q107">
+        <v>0</v>
+      </c>
       <c r="S107">
         <v>0</v>
       </c>
+      <c r="T107">
+        <v>0</v>
+      </c>
       <c r="U107">
-        <v>0</v>
-      </c>
-      <c r="V107">
-        <v>0</v>
-      </c>
-      <c r="W107">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="C1:E1"/>
-    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="Q1:R1"/>
   </mergeCells>
+  <conditionalFormatting sqref="N1:N1048576">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$N1&lt;&gt;$M1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
